--- a/tmp_client/doc/TMP_example/diamond_regression.xlsx
+++ b/tmp_client/doc/TMP_example/diamond_regression.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <workbookProtection workbookPassword="DD9F" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -516,10 +516,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Python ***.py–till-map</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>override</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -1201,6 +1197,10 @@
   <si>
     <t>repository = http://lshlabd0001/platform/trunk/bqs_scripts/regression_suite</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>python ***.py–till-map</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2308,15 +2308,45 @@
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2326,37 +2356,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4657,34 +4657,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B0A2C055-7382-4EDF-8A48-AA06BC37076E}" diskRevisions="1" revisionId="3" version="4">
-  <header guid="{B0A2C055-7382-4EDF-8A48-AA06BC37076E}" dateTime="2017-06-08T10:06:25" maxSheetId="5" userName="Jason Wang" r:id="rId4">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>case!$A$2:$Y$2</formula>
-    <oldFormula>case!$A$2:$Y$2</oldFormula>
-  </rdn>
-  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4976,8 +4948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4997,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -5005,7 +4977,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -5013,7 +4985,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -5031,7 +5003,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -5039,7 +5011,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -5057,7 +5029,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5079,7 +5051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5180,7 +5152,7 @@
         <v>5</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>7</v>
@@ -5224,37 +5196,37 @@
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="I3" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="J3" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="M3" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="N3" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q3" s="23" t="s">
         <v>178</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
@@ -5262,31 +5234,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="E4" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="23" t="s">
+      <c r="H4" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I4" s="23" t="s">
+      <c r="J4" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="M4" s="23" t="s">
         <v>184</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
@@ -5294,31 +5266,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M5" s="23" t="s">
         <v>186</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
@@ -5326,28 +5298,28 @@
         <v>4</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="H6" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="H6" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I6" s="23" t="s">
+      <c r="J6" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
@@ -5355,28 +5327,28 @@
         <v>5</v>
       </c>
       <c r="C7" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="E7" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>191</v>
-      </c>
       <c r="H7" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I7" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
@@ -5384,28 +5356,28 @@
         <v>6</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D8" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>191</v>
-      </c>
       <c r="H8" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I8" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
@@ -5413,28 +5385,28 @@
         <v>7</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>191</v>
-      </c>
       <c r="H9" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I9" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
@@ -5442,31 +5414,31 @@
         <v>8</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M10" s="23" t="s">
         <v>194</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.15">
@@ -5474,28 +5446,28 @@
         <v>9</v>
       </c>
       <c r="C11" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" s="23" t="s">
         <v>196</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
@@ -5503,28 +5475,28 @@
         <v>10</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D12" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>191</v>
-      </c>
       <c r="H12" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I12" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
@@ -5532,28 +5504,28 @@
         <v>11</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>191</v>
-      </c>
       <c r="H13" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I13" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J13" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
@@ -5561,28 +5533,28 @@
         <v>12</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D14" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>191</v>
-      </c>
       <c r="H14" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I14" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
@@ -5590,31 +5562,31 @@
         <v>13</v>
       </c>
       <c r="C15" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="E15" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G15" s="23" t="s">
+      <c r="H15" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M15" s="23" t="s">
         <v>203</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
@@ -5622,31 +5594,31 @@
         <v>14</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D16" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>203</v>
-      </c>
       <c r="H16" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I16" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J16" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="J16" s="23" t="s">
-        <v>184</v>
-      </c>
       <c r="M16" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
@@ -5654,31 +5626,31 @@
         <v>15</v>
       </c>
       <c r="C17" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
@@ -5686,28 +5658,28 @@
         <v>16</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D18" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>203</v>
-      </c>
       <c r="H18" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I18" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
@@ -5715,31 +5687,31 @@
         <v>17</v>
       </c>
       <c r="C19" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" s="23" t="s">
         <v>209</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M19" s="23" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
@@ -5747,28 +5719,28 @@
         <v>18</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D20" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>203</v>
-      </c>
       <c r="H20" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I20" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
@@ -5776,31 +5748,31 @@
         <v>19</v>
       </c>
       <c r="C21" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="E21" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G21" s="23" t="s">
+      <c r="H21" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" s="23" t="s">
         <v>214</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M21" s="23" t="s">
-        <v>215</v>
       </c>
       <c r="O21" s="23" t="s">
         <v>9</v>
@@ -5811,34 +5783,34 @@
         <v>20</v>
       </c>
       <c r="C22" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M22" s="23" t="s">
+      <c r="N22" s="23" t="s">
         <v>217</v>
-      </c>
-      <c r="N22" s="23" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
@@ -5846,34 +5818,34 @@
         <v>21</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>214</v>
-      </c>
       <c r="H23" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I23" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="J23" s="23" t="s">
-        <v>184</v>
-      </c>
       <c r="M23" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="N23" s="23" t="s">
         <v>217</v>
-      </c>
-      <c r="N23" s="23" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
@@ -5881,34 +5853,34 @@
         <v>22</v>
       </c>
       <c r="C24" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M24" s="23" t="s">
+      <c r="N24" s="23" t="s">
         <v>221</v>
-      </c>
-      <c r="N24" s="23" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
@@ -5916,34 +5888,34 @@
         <v>23</v>
       </c>
       <c r="C25" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M25" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M25" s="23" t="s">
+      <c r="N25" s="23" t="s">
         <v>224</v>
-      </c>
-      <c r="N25" s="23" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
@@ -5951,31 +5923,31 @@
         <v>24</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D26" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="23" t="s">
+      <c r="H26" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M26" s="23" t="s">
         <v>214</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M26" s="23" t="s">
-        <v>215</v>
       </c>
       <c r="O26" s="23" t="s">
         <v>9</v>
@@ -5986,34 +5958,34 @@
         <v>25</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D27" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="E27" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>214</v>
-      </c>
       <c r="H27" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I27" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J27" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="J27" s="23" t="s">
-        <v>184</v>
-      </c>
       <c r="M27" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="N27" s="23" t="s">
         <v>217</v>
-      </c>
-      <c r="N27" s="23" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
@@ -6021,34 +5993,34 @@
         <v>26</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D28" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>214</v>
-      </c>
       <c r="H28" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I28" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J28" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="J28" s="23" t="s">
-        <v>184</v>
-      </c>
       <c r="M28" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="N28" s="23" t="s">
         <v>221</v>
-      </c>
-      <c r="N28" s="23" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
@@ -6056,34 +6028,34 @@
         <v>27</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D29" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>214</v>
-      </c>
       <c r="H29" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I29" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J29" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="J29" s="23" t="s">
-        <v>184</v>
-      </c>
       <c r="M29" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="N29" s="23" t="s">
         <v>224</v>
-      </c>
-      <c r="N29" s="23" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
@@ -6091,31 +6063,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D30" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G30" s="23" t="s">
+      <c r="H30" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M30" s="23" t="s">
         <v>214</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>215</v>
       </c>
       <c r="O30" s="23" t="s">
         <v>9</v>
@@ -6126,34 +6098,34 @@
         <v>29</v>
       </c>
       <c r="C31" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M31" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M31" s="23" t="s">
-        <v>232</v>
-      </c>
       <c r="N31" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -6161,34 +6133,34 @@
         <v>30</v>
       </c>
       <c r="C32" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M32" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>234</v>
-      </c>
       <c r="N32" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
@@ -6196,31 +6168,31 @@
         <v>31</v>
       </c>
       <c r="C33" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="E33" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G33" s="23" t="s">
+      <c r="H33" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M33" s="23" t="s">
         <v>237</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M33" s="23" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
@@ -6228,31 +6200,31 @@
         <v>32</v>
       </c>
       <c r="C34" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M34" s="23" t="s">
         <v>239</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I34" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J34" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M34" s="23" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
@@ -6260,31 +6232,31 @@
         <v>33</v>
       </c>
       <c r="C35" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M35" s="23" t="s">
         <v>241</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J35" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M35" s="23" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
@@ -6292,31 +6264,31 @@
         <v>34</v>
       </c>
       <c r="C36" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M36" s="23" t="s">
         <v>243</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I36" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J36" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M36" s="23" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
@@ -6324,31 +6296,31 @@
         <v>35</v>
       </c>
       <c r="C37" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M37" s="23" t="s">
         <v>245</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J37" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M37" s="23" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
@@ -6356,31 +6328,31 @@
         <v>36</v>
       </c>
       <c r="C38" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M38" s="23" t="s">
         <v>247</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J38" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M38" s="23" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
@@ -6388,31 +6360,31 @@
         <v>37</v>
       </c>
       <c r="C39" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M39" s="23" t="s">
         <v>249</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J39" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M39" s="23" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
@@ -6420,31 +6392,31 @@
         <v>38</v>
       </c>
       <c r="C40" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J40" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M40" s="23" t="s">
         <v>251</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J40" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M40" s="23" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
@@ -6452,31 +6424,31 @@
         <v>39</v>
       </c>
       <c r="C41" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="E41" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="E41" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G41" s="23" t="s">
+      <c r="H41" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M41" s="23" t="s">
         <v>255</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I41" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J41" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M41" s="23" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
@@ -6484,31 +6456,31 @@
         <v>40</v>
       </c>
       <c r="C42" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J42" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M42" s="23" t="s">
         <v>257</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="H42" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I42" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J42" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M42" s="23" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
@@ -6516,31 +6488,31 @@
         <v>41</v>
       </c>
       <c r="C43" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M43" s="23" t="s">
         <v>259</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="H43" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I43" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J43" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="M43" s="23" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
@@ -6548,28 +6520,28 @@
         <v>42</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D44" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="E44" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>255</v>
-      </c>
       <c r="H44" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I44" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="J44" s="23" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
@@ -6577,31 +6549,31 @@
         <v>43</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I45" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J45" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="J45" s="23" t="s">
-        <v>184</v>
-      </c>
       <c r="M45" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
@@ -6612,31 +6584,31 @@
         <v>59</v>
       </c>
       <c r="C46" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I46" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="D46" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I46" s="23" t="s">
+      <c r="J46" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="J46" s="23" t="s">
+      <c r="M46" s="23" t="s">
         <v>265</v>
-      </c>
-      <c r="M46" s="23" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6701,7 +6673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A166" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179:E179"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6721,7 +6695,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="2">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -6729,7 +6703,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="3">
-        <v>42692</v>
+        <v>42937</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6756,17 +6730,17 @@
       <c r="E103" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F103" s="59" t="s">
+      <c r="F103" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G103" s="60"/>
-      <c r="H103" s="60"/>
-      <c r="I103" s="60"/>
-      <c r="J103" s="60"/>
-      <c r="K103" s="60"/>
-      <c r="L103" s="60"/>
-      <c r="M103" s="60"/>
-      <c r="N103" s="61"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="52"/>
+      <c r="I103" s="52"/>
+      <c r="J103" s="52"/>
+      <c r="K103" s="52"/>
+      <c r="L103" s="52"/>
+      <c r="M103" s="52"/>
+      <c r="N103" s="53"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A104" s="6" t="s">
@@ -6832,7 +6806,7 @@
         <v>57</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
@@ -6975,10 +6949,10 @@
         <v>69</v>
       </c>
       <c r="J111" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K111" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="10"/>
@@ -7049,17 +7023,17 @@
         <v>78</v>
       </c>
       <c r="B114" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C114" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="D114" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
@@ -7462,7 +7436,7 @@
       <c r="A133" s="18">
         <v>1</v>
       </c>
-      <c r="B133" s="62" t="s">
+      <c r="B133" s="54" t="s">
         <v>107</v>
       </c>
       <c r="C133" s="19" t="s">
@@ -7475,7 +7449,7 @@
         <v>109</v>
       </c>
       <c r="F133" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G133" s="19" t="s">
         <v>110</v>
@@ -7488,7 +7462,7 @@
       <c r="A134" s="18">
         <v>2</v>
       </c>
-      <c r="B134" s="63"/>
+      <c r="B134" s="55"/>
       <c r="C134" s="19" t="s">
         <v>112</v>
       </c>
@@ -7510,7 +7484,7 @@
       <c r="A135" s="18">
         <v>3</v>
       </c>
-      <c r="B135" s="63"/>
+      <c r="B135" s="55"/>
       <c r="C135" s="19" t="s">
         <v>11</v>
       </c>
@@ -7528,7 +7502,7 @@
       <c r="A136" s="18">
         <v>4</v>
       </c>
-      <c r="B136" s="63"/>
+      <c r="B136" s="55"/>
       <c r="C136" s="19" t="s">
         <v>116</v>
       </c>
@@ -7548,9 +7522,9 @@
       <c r="A137" s="18">
         <v>5</v>
       </c>
-      <c r="B137" s="63"/>
+      <c r="B137" s="55"/>
       <c r="C137" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D137" s="19" t="s">
         <v>109</v>
@@ -7563,36 +7537,36 @@
         <v>110</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A138" s="18">
         <v>6</v>
       </c>
-      <c r="B138" s="63"/>
+      <c r="B138" s="55"/>
       <c r="C138" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D138" s="25" t="s">
         <v>114</v>
       </c>
       <c r="E138" s="25"/>
       <c r="F138" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G138" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="G138" s="25" t="s">
-        <v>276</v>
-      </c>
       <c r="H138" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139" s="18">
         <v>7</v>
       </c>
-      <c r="B139" s="64"/>
+      <c r="B139" s="56"/>
       <c r="C139" s="19" t="s">
         <v>117</v>
       </c>
@@ -7616,7 +7590,7 @@
       <c r="A140" s="18">
         <v>8</v>
       </c>
-      <c r="B140" s="50" t="s">
+      <c r="B140" s="49" t="s">
         <v>121</v>
       </c>
       <c r="C140" s="19" t="s">
@@ -7640,7 +7614,7 @@
       <c r="A141" s="18">
         <v>9</v>
       </c>
-      <c r="B141" s="50"/>
+      <c r="B141" s="49"/>
       <c r="C141" s="19" t="s">
         <v>124</v>
       </c>
@@ -7662,7 +7636,7 @@
       <c r="A142" s="18">
         <v>10</v>
       </c>
-      <c r="B142" s="65" t="s">
+      <c r="B142" s="57" t="s">
         <v>126</v>
       </c>
       <c r="C142" s="19" t="s">
@@ -7675,7 +7649,7 @@
         <v>109</v>
       </c>
       <c r="F142" s="19" t="s">
-        <v>128</v>
+        <v>327</v>
       </c>
       <c r="G142" s="19" t="s">
         <v>110</v>
@@ -7686,9 +7660,9 @@
       <c r="A143" s="18">
         <v>11</v>
       </c>
-      <c r="B143" s="55"/>
+      <c r="B143" s="58"/>
       <c r="C143" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D143" s="19" t="s">
         <v>114</v>
@@ -7698,7 +7672,7 @@
       </c>
       <c r="F143" s="19"/>
       <c r="G143" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H143" s="11"/>
     </row>
@@ -7706,11 +7680,11 @@
       <c r="A144" s="18">
         <v>12</v>
       </c>
-      <c r="B144" s="50" t="s">
+      <c r="B144" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C144" s="19" t="s">
         <v>131</v>
-      </c>
-      <c r="C144" s="19" t="s">
-        <v>132</v>
       </c>
       <c r="D144" s="19" t="s">
         <v>109</v>
@@ -7719,10 +7693,10 @@
         <v>109</v>
       </c>
       <c r="F144" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G144" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="G144" s="19" t="s">
-        <v>134</v>
       </c>
       <c r="H144" s="11"/>
     </row>
@@ -7730,9 +7704,9 @@
       <c r="A145" s="18">
         <v>13</v>
       </c>
-      <c r="B145" s="50"/>
+      <c r="B145" s="49"/>
       <c r="C145" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D145" s="19" t="s">
         <v>109</v>
@@ -7742,7 +7716,7 @@
       </c>
       <c r="F145" s="19"/>
       <c r="G145" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H145" s="11"/>
     </row>
@@ -7750,9 +7724,9 @@
       <c r="A146" s="18">
         <v>14</v>
       </c>
-      <c r="B146" s="50"/>
+      <c r="B146" s="49"/>
       <c r="C146" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D146" s="19" t="s">
         <v>109</v>
@@ -7762,7 +7736,7 @@
       </c>
       <c r="F146" s="19"/>
       <c r="G146" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H146" s="11"/>
     </row>
@@ -7770,9 +7744,9 @@
       <c r="A147" s="18">
         <v>15</v>
       </c>
-      <c r="B147" s="50"/>
+      <c r="B147" s="49"/>
       <c r="C147" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D147" s="19" t="s">
         <v>109</v>
@@ -7782,7 +7756,7 @@
       </c>
       <c r="F147" s="19"/>
       <c r="G147" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H147" s="11"/>
     </row>
@@ -7790,9 +7764,9 @@
       <c r="A148" s="18">
         <v>16</v>
       </c>
-      <c r="B148" s="50"/>
+      <c r="B148" s="49"/>
       <c r="C148" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D148" s="19" t="s">
         <v>109</v>
@@ -7802,7 +7776,7 @@
       </c>
       <c r="F148" s="19"/>
       <c r="G148" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H148" s="11"/>
     </row>
@@ -7810,9 +7784,9 @@
       <c r="A149" s="18">
         <v>17</v>
       </c>
-      <c r="B149" s="50"/>
+      <c r="B149" s="49"/>
       <c r="C149" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D149" s="19" t="s">
         <v>109</v>
@@ -7822,7 +7796,7 @@
       </c>
       <c r="F149" s="19"/>
       <c r="G149" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H149" s="11"/>
     </row>
@@ -7830,9 +7804,9 @@
       <c r="A150" s="18">
         <v>18</v>
       </c>
-      <c r="B150" s="50"/>
+      <c r="B150" s="49"/>
       <c r="C150" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D150" s="19" t="s">
         <v>109</v>
@@ -7842,7 +7816,7 @@
       </c>
       <c r="F150" s="19"/>
       <c r="G150" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H150" s="11"/>
     </row>
@@ -7850,9 +7824,9 @@
       <c r="A151" s="18">
         <v>19</v>
       </c>
-      <c r="B151" s="50"/>
+      <c r="B151" s="49"/>
       <c r="C151" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D151" s="19" t="s">
         <v>109</v>
@@ -7862,7 +7836,7 @@
       </c>
       <c r="F151" s="19"/>
       <c r="G151" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H151" s="11"/>
     </row>
@@ -7870,9 +7844,9 @@
       <c r="A152" s="18">
         <v>20</v>
       </c>
-      <c r="B152" s="50"/>
+      <c r="B152" s="49"/>
       <c r="C152" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D152" s="19" t="s">
         <v>109</v>
@@ -7884,7 +7858,7 @@
         <v>2.7</v>
       </c>
       <c r="G152" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H152" s="11"/>
     </row>
@@ -7892,9 +7866,9 @@
       <c r="A153" s="18">
         <v>21</v>
       </c>
-      <c r="B153" s="50"/>
+      <c r="B153" s="49"/>
       <c r="C153" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D153" s="19" t="s">
         <v>109</v>
@@ -7904,7 +7878,7 @@
       </c>
       <c r="F153" s="19"/>
       <c r="G153" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H153" s="11"/>
     </row>
@@ -7912,11 +7886,11 @@
       <c r="A154" s="18">
         <v>22</v>
       </c>
-      <c r="B154" s="50" t="s">
+      <c r="B154" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C154" s="19" t="s">
         <v>144</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>145</v>
       </c>
       <c r="D154" s="19" t="s">
         <v>109</v>
@@ -7925,10 +7899,10 @@
         <v>109</v>
       </c>
       <c r="F154" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G154" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="G154" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="H154" s="11"/>
     </row>
@@ -7936,9 +7910,9 @@
       <c r="A155" s="18">
         <v>23</v>
       </c>
-      <c r="B155" s="50"/>
+      <c r="B155" s="49"/>
       <c r="C155" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D155" s="19" t="s">
         <v>109</v>
@@ -7947,10 +7921,10 @@
         <v>109</v>
       </c>
       <c r="F155" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G155" s="19" t="s">
         <v>149</v>
-      </c>
-      <c r="G155" s="19" t="s">
-        <v>150</v>
       </c>
       <c r="H155" s="11"/>
     </row>
@@ -7958,9 +7932,9 @@
       <c r="A156" s="18">
         <v>24</v>
       </c>
-      <c r="B156" s="50"/>
+      <c r="B156" s="49"/>
       <c r="C156" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D156" s="19" t="s">
         <v>114</v>
@@ -7969,10 +7943,10 @@
         <v>114</v>
       </c>
       <c r="F156" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G156" s="19" t="s">
         <v>152</v>
-      </c>
-      <c r="G156" s="19" t="s">
-        <v>153</v>
       </c>
       <c r="H156" s="11"/>
     </row>
@@ -7980,9 +7954,9 @@
       <c r="A157" s="18">
         <v>25</v>
       </c>
-      <c r="B157" s="50"/>
+      <c r="B157" s="49"/>
       <c r="C157" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D157" s="19" t="s">
         <v>109</v>
@@ -7998,9 +7972,9 @@
       <c r="A158" s="18">
         <v>26</v>
       </c>
-      <c r="B158" s="50"/>
+      <c r="B158" s="49"/>
       <c r="C158" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D158" s="19" t="s">
         <v>109</v>
@@ -8016,9 +7990,9 @@
       <c r="A159" s="18">
         <v>27</v>
       </c>
-      <c r="B159" s="50"/>
+      <c r="B159" s="49"/>
       <c r="C159" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D159" s="19" t="s">
         <v>109</v>
@@ -8034,11 +8008,11 @@
       <c r="A160" s="18">
         <v>28</v>
       </c>
-      <c r="B160" s="50" t="s">
+      <c r="B160" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C160" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="C160" s="19" t="s">
-        <v>158</v>
       </c>
       <c r="D160" s="19" t="s">
         <v>109</v>
@@ -8047,20 +8021,20 @@
         <v>109</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G160" s="19"/>
       <c r="H160" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A161" s="18">
         <v>29</v>
       </c>
-      <c r="B161" s="50"/>
+      <c r="B161" s="49"/>
       <c r="C161" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D161" s="19" t="s">
         <v>109</v>
@@ -8069,18 +8043,18 @@
         <v>109</v>
       </c>
       <c r="F161" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G161" s="19"/>
       <c r="H161" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A162" s="18">
         <v>30</v>
       </c>
-      <c r="B162" s="50"/>
+      <c r="B162" s="49"/>
       <c r="C162" s="19"/>
       <c r="D162" s="19"/>
       <c r="E162" s="19"/>
@@ -8092,7 +8066,7 @@
       <c r="A163" s="21">
         <v>31</v>
       </c>
-      <c r="B163" s="51"/>
+      <c r="B163" s="50"/>
       <c r="C163" s="22"/>
       <c r="D163" s="22"/>
       <c r="E163" s="22"/>
@@ -8102,208 +8076,208 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A176" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="B176" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="B176" s="31" t="s">
+      <c r="C176" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="D176" s="59"/>
+      <c r="E176" s="59"/>
+      <c r="F176" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="G176" s="33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A177" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="C176" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="D176" s="56"/>
-      <c r="E176" s="56"/>
-      <c r="F176" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="G176" s="33" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A177" s="52" t="s">
+      <c r="B177" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="C177" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="D177" s="60"/>
+      <c r="E177" s="60"/>
+      <c r="F177" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="G177" s="34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A178" s="63"/>
+      <c r="B178" s="49"/>
+      <c r="C178" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="D178" s="61"/>
+      <c r="E178" s="61"/>
+      <c r="F178" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="G178" s="35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A179" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="B179" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="C179" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="D179" s="49"/>
+      <c r="E179" s="49"/>
+      <c r="F179" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="G179" s="35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A180" s="63"/>
+      <c r="B180" s="49"/>
+      <c r="C180" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="D180" s="49"/>
+      <c r="E180" s="49"/>
+      <c r="F180" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="G180" s="35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A181" s="63"/>
+      <c r="B181" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="B177" s="55" t="s">
+      <c r="C181" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="D181" s="49"/>
+      <c r="E181" s="49"/>
+      <c r="F181" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="G181" s="35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A182" s="63"/>
+      <c r="B182" s="49"/>
+      <c r="C182" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="D182" s="49"/>
+      <c r="E182" s="49"/>
+      <c r="F182" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="G182" s="35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A183" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="B183" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="C183" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="D183" s="49"/>
+      <c r="E183" s="49"/>
+      <c r="F183" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="G183" s="35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A184" s="63"/>
+      <c r="B184" s="49"/>
+      <c r="C184" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="D184" s="49"/>
+      <c r="E184" s="49"/>
+      <c r="F184" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="C177" s="57" t="s">
-        <v>317</v>
-      </c>
-      <c r="D177" s="57"/>
-      <c r="E177" s="57"/>
-      <c r="F177" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="G177" s="34" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A178" s="53"/>
-      <c r="B178" s="50"/>
-      <c r="C178" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="D178" s="58"/>
-      <c r="E178" s="58"/>
-      <c r="F178" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="G178" s="35" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A179" s="53" t="s">
+      <c r="G184" s="35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A185" s="63"/>
+      <c r="B185" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="B179" s="50" t="s">
-        <v>306</v>
-      </c>
-      <c r="C179" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="D179" s="50"/>
-      <c r="E179" s="50"/>
-      <c r="F179" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="G179" s="35" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A180" s="53"/>
-      <c r="B180" s="50"/>
-      <c r="C180" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="D180" s="50"/>
-      <c r="E180" s="50"/>
-      <c r="F180" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="G180" s="35" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A181" s="53"/>
-      <c r="B181" s="50" t="s">
+      <c r="C185" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="D185" s="49"/>
+      <c r="E185" s="49"/>
+      <c r="F185" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="C181" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="D181" s="50"/>
-      <c r="E181" s="50"/>
-      <c r="F181" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="G181" s="35" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A182" s="53"/>
-      <c r="B182" s="50"/>
-      <c r="C182" s="50" t="s">
-        <v>305</v>
-      </c>
-      <c r="D182" s="50"/>
-      <c r="E182" s="50"/>
-      <c r="F182" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="G182" s="35" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A183" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="B183" s="50" t="s">
-        <v>307</v>
-      </c>
-      <c r="C183" s="50" t="s">
+      <c r="G185" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="D183" s="50"/>
-      <c r="E183" s="50"/>
-      <c r="F183" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="G183" s="35" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A184" s="53"/>
-      <c r="B184" s="50"/>
-      <c r="C184" s="50" t="s">
-        <v>311</v>
-      </c>
-      <c r="D184" s="50"/>
-      <c r="E184" s="50"/>
-      <c r="F184" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="G184" s="35" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A185" s="53"/>
-      <c r="B185" s="50" t="s">
+    </row>
+    <row r="186" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="64"/>
+      <c r="B186" s="50"/>
+      <c r="C186" s="50" t="s">
         <v>314</v>
       </c>
-      <c r="C185" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="D185" s="50"/>
-      <c r="E185" s="50"/>
-      <c r="F185" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="G185" s="35" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="54"/>
-      <c r="B186" s="51"/>
-      <c r="C186" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="D186" s="51"/>
-      <c r="E186" s="51"/>
+      <c r="D186" s="50"/>
+      <c r="E186" s="50"/>
       <c r="F186" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G186" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C187" s="29"/>
       <c r="D187" s="29"/>
@@ -8322,26 +8296,26 @@
     </row>
     <row r="193" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B194" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C194" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D194" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E194" s="40"/>
       <c r="F194" s="41"/>
       <c r="G194" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
@@ -8352,13 +8326,13 @@
         <v>1.04</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="D195" s="49" t="s">
-        <v>325</v>
-      </c>
-      <c r="E195" s="49"/>
-      <c r="F195" s="49"/>
+        <v>319</v>
+      </c>
+      <c r="D195" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="E195" s="65"/>
+      <c r="F195" s="65"/>
       <c r="G195" s="43"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.15">
@@ -8369,80 +8343,72 @@
         <v>1.05</v>
       </c>
       <c r="C196" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="D196" s="50" t="s">
-        <v>326</v>
-      </c>
-      <c r="E196" s="50"/>
-      <c r="F196" s="50"/>
+        <v>319</v>
+      </c>
+      <c r="D196" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="E196" s="49"/>
+      <c r="F196" s="49"/>
       <c r="G196" s="35"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" s="18"/>
       <c r="B197" s="26"/>
       <c r="C197" s="26"/>
-      <c r="D197" s="50"/>
-      <c r="E197" s="50"/>
-      <c r="F197" s="50"/>
+      <c r="D197" s="49"/>
+      <c r="E197" s="49"/>
+      <c r="F197" s="49"/>
       <c r="G197" s="35"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198" s="18"/>
       <c r="B198" s="26"/>
       <c r="C198" s="26"/>
-      <c r="D198" s="50"/>
-      <c r="E198" s="50"/>
-      <c r="F198" s="50"/>
+      <c r="D198" s="49"/>
+      <c r="E198" s="49"/>
+      <c r="F198" s="49"/>
       <c r="G198" s="35"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199" s="18"/>
       <c r="B199" s="26"/>
       <c r="C199" s="26"/>
-      <c r="D199" s="50"/>
-      <c r="E199" s="50"/>
-      <c r="F199" s="50"/>
+      <c r="D199" s="49"/>
+      <c r="E199" s="49"/>
+      <c r="F199" s="49"/>
       <c r="G199" s="35"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200" s="18"/>
       <c r="B200" s="26"/>
       <c r="C200" s="26"/>
-      <c r="D200" s="50"/>
-      <c r="E200" s="50"/>
-      <c r="F200" s="50"/>
+      <c r="D200" s="49"/>
+      <c r="E200" s="49"/>
+      <c r="F200" s="49"/>
       <c r="G200" s="35"/>
     </row>
     <row r="201" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A201" s="21"/>
       <c r="B201" s="27"/>
       <c r="C201" s="27"/>
-      <c r="D201" s="51"/>
-      <c r="E201" s="51"/>
-      <c r="F201" s="51"/>
+      <c r="D201" s="50"/>
+      <c r="E201" s="50"/>
+      <c r="F201" s="50"/>
       <c r="G201" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection password="DD9F" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="33">
-    <mergeCell ref="B160:B163"/>
-    <mergeCell ref="F103:N103"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B144:B153"/>
-    <mergeCell ref="B154:B159"/>
-    <mergeCell ref="C185:E185"/>
-    <mergeCell ref="C176:E176"/>
-    <mergeCell ref="C177:E177"/>
-    <mergeCell ref="C178:E178"/>
-    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="D196:F196"/>
+    <mergeCell ref="D197:F197"/>
+    <mergeCell ref="D198:F198"/>
+    <mergeCell ref="D199:F199"/>
     <mergeCell ref="D200:F200"/>
     <mergeCell ref="D201:F201"/>
     <mergeCell ref="A177:A178"/>
@@ -8459,11 +8425,18 @@
     <mergeCell ref="C182:E182"/>
     <mergeCell ref="C183:E183"/>
     <mergeCell ref="C184:E184"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="D196:F196"/>
-    <mergeCell ref="D197:F197"/>
-    <mergeCell ref="D198:F198"/>
-    <mergeCell ref="D199:F199"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="C176:E176"/>
+    <mergeCell ref="C177:E177"/>
+    <mergeCell ref="C178:E178"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="F103:N103"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B144:B153"/>
+    <mergeCell ref="B154:B159"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8483,7 +8456,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/tmp_client/doc/TMP_example/diamond_regression.xlsx
+++ b/tmp_client/doc/TMP_example/diamond_regression.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <workbookProtection workbookPassword="DD9F" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12255"/>
+    <workbookView xWindow="-15" yWindow="6300" windowWidth="28830" windowHeight="6240"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -15,19 +15,21 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AB$2</definedName>
-    <definedName name="Z_C7597151_23A5_4A7A_94E5_ADFECFD7DE05_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AB$2</definedName>
+    <definedName name="Z_16B2C8B3_13FA_43FB_96C1_3763C72619A6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AB$2</definedName>
+    <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AB$2</definedName>
     <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AB$2</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
     <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="815" activeSheetId="1"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{C7597151-23A5-4A7A-94E5-ADFECFD7DE05}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="344">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -193,69 +195,12 @@
     <t>Case demo and script regression case</t>
   </si>
   <si>
-    <t>cmd = python DEV/tools/runSquish/run_diamond.py;override=local</t>
-  </si>
-  <si>
     <t>squish</t>
   </si>
   <si>
-    <t>design_entry/source_file</t>
-  </si>
-  <si>
-    <t>design_entry</t>
-  </si>
-  <si>
-    <t>Different entry test</t>
-  </si>
-  <si>
-    <t>cmd = --synthesis=lse</t>
-  </si>
-  <si>
-    <t>design_entry/dry_run</t>
-  </si>
-  <si>
-    <t>cmd = --dry-run</t>
-  </si>
-  <si>
-    <t>design_entry/inc_path</t>
-  </si>
-  <si>
-    <t>cmd_flow/run_all</t>
-  </si>
-  <si>
-    <t>cmd_flow</t>
-  </si>
-  <si>
-    <t>Command entry test</t>
-  </si>
-  <si>
-    <t>cmd_flow/run_synthesis</t>
-  </si>
-  <si>
-    <t>cmd_flow/run_translate</t>
-  </si>
-  <si>
-    <t>cmd_flow/run_map</t>
-  </si>
-  <si>
     <t>cmd = --run-map</t>
   </si>
   <si>
-    <t>cmd_flow/run_par</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>cmd_flow/run_par_trce</t>
-  </si>
-  <si>
-    <t>cmd_flow/run_till_map</t>
-  </si>
-  <si>
-    <t>cmd_flow/run_till_par</t>
-  </si>
-  <si>
     <t>general_flow/run_export_bitstream</t>
   </si>
   <si>
@@ -271,198 +216,22 @@
     <t>general_flow/run_map</t>
   </si>
   <si>
-    <t>general_flow/run_ncl</t>
-  </si>
-  <si>
-    <t>cmd = --run-par --run-ncl</t>
-  </si>
-  <si>
     <t>general_flow/run_par</t>
   </si>
   <si>
     <t>general_flow/run_synthesis</t>
   </si>
   <si>
-    <t>cmd = --synthesis-only</t>
-  </si>
-  <si>
-    <t>general_flow/run_par_multiseed</t>
-  </si>
-  <si>
     <t>simulation_flow/do_ahdl</t>
   </si>
   <si>
     <t>simulation_flow</t>
-  </si>
-  <si>
-    <t>Different simulation test</t>
-  </si>
-  <si>
-    <t>cmd = --sim-all</t>
-  </si>
-  <si>
-    <t>simulation_flow/do_modelsim</t>
-  </si>
-  <si>
-    <t>cmd = --sim-all --sim-modelsim</t>
-  </si>
-  <si>
-    <t>modelsim=10.1</t>
-  </si>
-  <si>
-    <t>simulation_flow/do_modelsim2</t>
-  </si>
-  <si>
-    <t>simulation_flow/do_questasim</t>
-  </si>
-  <si>
-    <t>cmd = --sim-all --sim-questasim</t>
-  </si>
-  <si>
-    <t>questasim=10.2</t>
-  </si>
-  <si>
-    <t>simulation_flow/do_riviera</t>
-  </si>
-  <si>
-    <t>cmd = --sim-all --sim-riviera</t>
-  </si>
-  <si>
-    <t>riviera=2015.10</t>
-  </si>
-  <si>
-    <t>simulation_flow/tb_ahdl</t>
-  </si>
-  <si>
-    <t>simulation_flow/tb_modelsim</t>
-  </si>
-  <si>
-    <t>simulation_flow/tb_questasim</t>
-  </si>
-  <si>
-    <t>simulation_flow/tb_riviera</t>
-  </si>
-  <si>
-    <t>simulation_flow/check_sdf</t>
-  </si>
-  <si>
-    <t>simulation_flow/rtl_change</t>
-  </si>
-  <si>
-    <t>cmd = --sim-all --sim-modelsim --run-scuba=vhdl --check-conf=sim</t>
-  </si>
-  <si>
-    <t>simulation_flow/sim_all</t>
-  </si>
-  <si>
-    <t>cmd = --sim-all --sim-questasim --check-conf=sim</t>
-  </si>
-  <si>
-    <t>sweeping_flow/01_sweep</t>
-  </si>
-  <si>
-    <t>sweeping_flow</t>
-  </si>
-  <si>
-    <t>Sweeping flow test</t>
-  </si>
-  <si>
-    <t>cmd = --fmax-sweep=50 60 10  --strategy=timing</t>
-  </si>
-  <si>
-    <t>sweeping_flow/02_sweep_empty</t>
-  </si>
-  <si>
-    <t>cmd = --fmax-sweep=50 60 10 --strategy=timing --empty-lpf</t>
-  </si>
-  <si>
-    <t>sweeping_flow/03_seed_ori</t>
-  </si>
-  <si>
-    <t>cmd = --seed-sweep=2 4 1</t>
-  </si>
-  <si>
-    <t>sweeping_flow/04_seed_empty</t>
-  </si>
-  <si>
-    <t>cmd = --seed-sweep=2 4 1 --empty-lpf</t>
-  </si>
-  <si>
-    <t>sweeping_flow/05_sweep_seed_empty</t>
-  </si>
-  <si>
-    <t>cmd = --fmax-sweep=50 60 10   --seed-sweep=2 4 1  --fmax-seed   --empty-lpf</t>
-  </si>
-  <si>
-    <t>sweeping_flow/06_sweep_seed_mrp</t>
-  </si>
-  <si>
-    <t>cmd = --fmax-sweep=50 60 10   --seed-sweep=2 4 1  --fmax-seed</t>
-  </si>
-  <si>
-    <t>sweeping_flow/07_sweep_ori</t>
-  </si>
-  <si>
-    <t>cmd = --fmax-sweep=50 60 10   --use-ori-clks</t>
-  </si>
-  <si>
-    <t>sweeping_flow/08_sweep_seed_ori</t>
-  </si>
-  <si>
-    <t>cmd = --fmax-sweep=50 60 10  --seed-sweep=2 4 1  --fmax-seed   --use-ori-clks</t>
-  </si>
-  <si>
-    <t>other_flow/pmi</t>
-  </si>
-  <si>
-    <t>other_flow</t>
-  </si>
-  <si>
-    <t>Misc flow test</t>
-  </si>
-  <si>
-    <t>cmd = --sim-all --devkit=LFE3-150EA-6FN1156C</t>
-  </si>
-  <si>
-    <t>other_flow/qas</t>
-  </si>
-  <si>
-    <t>cmd = --qas --run-map-trce --devkit=LFE5UM-85F-6BG756C</t>
-  </si>
-  <si>
-    <t>other_flow/scuba</t>
-  </si>
-  <si>
-    <t>cmd = --scuba-type=verilog --devkit=LFE3-150EA-6FN1156C --sim-all</t>
-  </si>
-  <si>
-    <t>other_flow/pre_process</t>
-  </si>
-  <si>
-    <t>other_flow/post_process</t>
-  </si>
-  <si>
-    <t>other_flow/dsp</t>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <t>cmd = --run-map --dsp --seed-sweep=1 1 1 --synthesis=synplify --use-sdc</t>
   </si>
   <si>
     <t>END</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>other_flow</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>squish=5.1.0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>priority</t>
   </si>
   <si>
@@ -509,6 +278,15 @@
     <t>Manually type support, Repository detail description</t>
   </si>
   <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>0, any integer large than 30</t>
+  </si>
+  <si>
+    <t>http://linux12v/Platform/trunk/bqs_scripts/regression_suite</t>
+  </si>
+  <si>
     <t>Table 1</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -573,18 +351,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>String</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Test Cases</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -610,6 +376,10 @@
   </si>
   <si>
     <t>Priority</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -657,14 +427,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>see table2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Sorting</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -697,14 +459,53 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>DSP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>EBR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>RTL</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>unknown</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestBench</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknown</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>Flow</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>String</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>Table 2</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -714,6 +515,10 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Section</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -793,16 +598,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>timeout</t>
-  </si>
-  <si>
     <t>3600(Default)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>0, any integer large than 30</t>
-  </si>
-  <si>
     <t>unit seconds, 0 means 10 hours</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -939,18 +738,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>min_space</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_cpu</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_mem</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Machine</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -1019,9 +806,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>http://linux12v/Platform/trunk/bqs_scripts/regression_suite</t>
-  </si>
-  <si>
     <t>Linux</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1042,10 +826,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Not stable(do not use it)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Linux Machine</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1071,10 +851,6 @@
   </si>
   <si>
     <t>*: Do make sure there is no "\" in your path, replace it with "/".</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table 4</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1118,130 +894,377 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>History:</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comments</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp repository support and demo, macro variable support, result_keep add</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason Wang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBR, DSP and TestBench column added</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestBench</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functionality</t>
+  </si>
+  <si>
+    <t>Functionality</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functionality</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usability</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reliability</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manually</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Stability </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not stable(do not use it)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test case FURPS category support and priority support</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Minor</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trivial</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocker</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Major</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>use \; for ';' itself</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason Wang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table 4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$work_path</t>
+  </si>
+  <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>$case_path</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>$work_path</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>represent the TMP client work path on different machine. Typical usage:
+    <t>represent the TMP client work space path on different machine. Typical usage:
 "cmd = python $work_path/DEV/bin/run_diamond.py --run-par", just make things explicitly, Actually this is same as "cmd = python DEV/bin/run_diamond.py --run-par"</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>History:</t>
+    <t>represent the real case/design path after TMP client copy this case to work space, this is used for customized script support. Typical usage:"cmd = python $case_path/run.py". Here run.py is a script located in the case/design. Currently we support: Python, Perl, Shell, Java, Ruby, Windows batch file...</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Time</t>
+    <t>$case_path support and inser available in case sheet.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Comments</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ftp repository support and demo, macro variable support, result_keep add</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestBench</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestBench</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>DSP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>unknown</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>unknown</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jason Wang</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBR, DSP and TestBench column added</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Functionality</t>
-  </si>
-  <si>
-    <t>Usability</t>
-  </si>
-  <si>
-    <t>Reliability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stability </t>
-  </si>
-  <si>
-    <t>Manually</t>
-  </si>
-  <si>
-    <t>Blocker</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Minor</t>
-  </si>
-  <si>
-    <t>Trivial</t>
-  </si>
-  <si>
-    <t>Test case FURPS category support and priority support</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>misc_diamond_regression</t>
   </si>
   <si>
+    <t xml:space="preserve">cmd = python DEV/bin/run_diamond.py </t>
+  </si>
+  <si>
+    <t>cmd = python DEV/tools/runSquish/run_diamond.py;override=local</t>
+  </si>
+  <si>
+    <t>squish=5.1.0</t>
+  </si>
+  <si>
+    <t>design_entry/source_file</t>
+  </si>
+  <si>
+    <t>design_entry</t>
+  </si>
+  <si>
+    <t>Different entry test</t>
+  </si>
+  <si>
+    <t>cmd = --synthesis=lse</t>
+  </si>
+  <si>
+    <t>design_entry/dry_run</t>
+  </si>
+  <si>
+    <t>cmd = --dry-run</t>
+  </si>
+  <si>
+    <t>design_entry/inc_path</t>
+  </si>
+  <si>
+    <t>cmd_flow/run_all</t>
+  </si>
+  <si>
+    <t>cmd_flow</t>
+  </si>
+  <si>
+    <t>Command entry test</t>
+  </si>
+  <si>
+    <t>cmd_flow/run_synthesis</t>
+  </si>
+  <si>
+    <t>cmd_flow/run_translate</t>
+  </si>
+  <si>
+    <t>cmd_flow/run_map</t>
+  </si>
+  <si>
+    <t>cmd_flow/run_par</t>
+  </si>
+  <si>
+    <t>cmd_flow/run_par_trce</t>
+  </si>
+  <si>
+    <t>cmd_flow/run_till_map</t>
+  </si>
+  <si>
+    <t>cmd_flow/run_till_par</t>
+  </si>
+  <si>
+    <t>general_flow/run_ncl</t>
+  </si>
+  <si>
+    <t>cmd = --run-par --run-ncl</t>
+  </si>
+  <si>
+    <t>cmd = --synthesis-only</t>
+  </si>
+  <si>
+    <t>general_flow/run_par_multiseed</t>
+  </si>
+  <si>
+    <t>Different simulation test</t>
+  </si>
+  <si>
+    <t>cmd = --sim-all</t>
+  </si>
+  <si>
+    <t>simulation_flow/do_modelsim</t>
+  </si>
+  <si>
+    <t>cmd = --sim-all --sim-modelsim</t>
+  </si>
+  <si>
+    <t>modelsim=10.1</t>
+  </si>
+  <si>
+    <t>simulation_flow/do_modelsim2</t>
+  </si>
+  <si>
+    <t>simulation_flow/do_questasim</t>
+  </si>
+  <si>
+    <t>cmd = --sim-all --sim-questasim</t>
+  </si>
+  <si>
+    <t>questasim=10.2</t>
+  </si>
+  <si>
+    <t>simulation_flow/do_riviera</t>
+  </si>
+  <si>
+    <t>cmd = --sim-all --sim-riviera</t>
+  </si>
+  <si>
+    <t>riviera=2015.10</t>
+  </si>
+  <si>
+    <t>simulation_flow/tb_ahdl</t>
+  </si>
+  <si>
+    <t>simulation_flow/tb_modelsim</t>
+  </si>
+  <si>
+    <t>simulation_flow/tb_questasim</t>
+  </si>
+  <si>
+    <t>simulation_flow/tb_riviera</t>
+  </si>
+  <si>
+    <t>simulation_flow/check_sdf</t>
+  </si>
+  <si>
+    <t>simulation_flow/rtl_change</t>
+  </si>
+  <si>
+    <t>cmd = --sim-all --sim-modelsim --run-scuba=vhdl --check-conf=sim</t>
+  </si>
+  <si>
+    <t>simulation_flow/sim_all</t>
+  </si>
+  <si>
+    <t>cmd = --sim-all --sim-questasim --check-conf=sim</t>
+  </si>
+  <si>
+    <t>sweeping_flow/01_sweep</t>
+  </si>
+  <si>
+    <t>sweeping_flow</t>
+  </si>
+  <si>
+    <t>Sweeping flow test</t>
+  </si>
+  <si>
+    <t>cmd = --fmax-sweep=50 60 10  --strategy=timing</t>
+  </si>
+  <si>
+    <t>sweeping_flow/02_sweep_empty</t>
+  </si>
+  <si>
+    <t>cmd = --fmax-sweep=50 60 10 --strategy=timing --empty-lpf</t>
+  </si>
+  <si>
+    <t>sweeping_flow/03_seed_ori</t>
+  </si>
+  <si>
+    <t>cmd = --seed-sweep=2 4 1</t>
+  </si>
+  <si>
+    <t>sweeping_flow/04_seed_empty</t>
+  </si>
+  <si>
+    <t>cmd = --seed-sweep=2 4 1 --empty-lpf</t>
+  </si>
+  <si>
+    <t>sweeping_flow/05_sweep_seed_empty</t>
+  </si>
+  <si>
+    <t>cmd = --fmax-sweep=50 60 10   --seed-sweep=2 4 1  --fmax-seed   --empty-lpf</t>
+  </si>
+  <si>
+    <t>sweeping_flow/06_sweep_seed_mrp</t>
+  </si>
+  <si>
+    <t>cmd = --fmax-sweep=50 60 10   --seed-sweep=2 4 1  --fmax-seed</t>
+  </si>
+  <si>
+    <t>sweeping_flow/07_sweep_ori</t>
+  </si>
+  <si>
+    <t>cmd = --fmax-sweep=50 60 10   --use-ori-clks</t>
+  </si>
+  <si>
+    <t>sweeping_flow/08_sweep_seed_ori</t>
+  </si>
+  <si>
+    <t>cmd = --fmax-sweep=50 60 10  --seed-sweep=2 4 1  --fmax-seed   --use-ori-clks</t>
+  </si>
+  <si>
+    <t>other_flow/pmi</t>
+  </si>
+  <si>
+    <t>other_flow</t>
+  </si>
+  <si>
+    <t>Misc flow test</t>
+  </si>
+  <si>
+    <t>cmd = --sim-all --devkit=LFE3-150EA-6FN1156C</t>
+  </si>
+  <si>
+    <t>other_flow/qas</t>
+  </si>
+  <si>
+    <t>cmd = --qas --run-map-trce --devkit=LFE5UM-85F-6BG756C</t>
+  </si>
+  <si>
+    <t>other_flow/scuba</t>
+  </si>
+  <si>
+    <t>cmd = --scuba-type=verilog --devkit=LFE3-150EA-6FN1156C --sim-all</t>
+  </si>
+  <si>
+    <t>other_flow/pre_process</t>
+  </si>
+  <si>
+    <t>other_flow/post_process</t>
+  </si>
+  <si>
+    <t>other_flow/dsp</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>cmd = --run-map --dsp --seed-sweep=1 1 1 --synthesis=synplify --use-sdc</t>
+  </si>
+  <si>
     <t>repository = $xlsx_dest</t>
   </si>
   <si>
     <t>suite_path = ./</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmd = python DEV/bin/run_diamond.py </t>
   </si>
   <si>
     <t>diamond=3.10p_102</t>
@@ -1251,7 +1274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1419,27 +1442,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2166,7 +2178,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -2294,9 +2306,13 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2397,6 +2413,21 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="18" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="41" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="41" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2412,26 +2443,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="41" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="41" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="43" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="41" applyBorder="1">
       <alignment vertical="center"/>
@@ -2467,15 +2480,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
@@ -2487,13 +2494,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2522,7 +2529,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
@@ -2562,6 +2569,10 @@
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="41"/>
+    <cellStyle name="Normal 3" xfId="45"/>
+    <cellStyle name="Normal 4" xfId="46"/>
+    <cellStyle name="Normal 5" xfId="47"/>
+    <cellStyle name="Normal 6" xfId="44"/>
     <cellStyle name="Note 2" xfId="42"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -2603,8 +2614,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9524" y="705263"/>
-          <a:ext cx="15428844" cy="17466780"/>
+          <a:off x="9524" y="695324"/>
+          <a:ext cx="15430501" cy="17218302"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4616,7 +4627,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>520826</xdr:colOff>
+      <xdr:colOff>520827</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -4709,13 +4720,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4725,7 +4736,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1495425" y="29156025"/>
+          <a:off x="1495425" y="30670500"/>
           <a:ext cx="6848475" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4922,8 +4933,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{17C60581-3DA5-4F1C-8EFF-C52F53F1AE00}" diskRevisions="1" revisionId="9" version="3">
-  <header guid="{49831E58-16B6-4F4C-AD95-D51E29EDEE7E}" dateTime="2017-10-18T14:17:26" maxSheetId="5" userName="Jason Wang" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D2008CFE-6955-40FA-BD39-2686C87794DA}" diskRevisions="1" revisionId="432" version="7">
+  <header guid="{BF93E17F-B97A-41F2-B1C1-9DA59996B0B9}" dateTime="2017-11-30T14:36:12" maxSheetId="5" userName="Jason Wang" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -4931,7 +4942,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{3E2A0605-9656-4FF6-A7CE-E4133A3DDB97}" dateTime="2017-10-18T17:48:18" maxSheetId="5" userName="Jason Wang" r:id="rId2" minRId="1" maxRId="7">
+  <header guid="{B1AEBCD8-DF28-4B39-A0B3-4DF3513E7E07}" dateTime="2017-11-30T14:37:23" maxSheetId="5" userName="Jason Wang" r:id="rId2" minRId="1" maxRId="6">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -4939,7 +4950,39 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{17C60581-3DA5-4F1C-8EFF-C52F53F1AE00}" dateTime="2017-10-18T17:51:56" maxSheetId="5" userName="Jason Wang" r:id="rId3">
+  <header guid="{3EEF2621-6B36-4CB7-88CD-37B04552C505}" dateTime="2017-11-30T14:38:26" maxSheetId="5" userName="Jason Wang" r:id="rId3" minRId="7" maxRId="424">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9CAC2330-2A3F-4D1A-9C4E-C10E26F77B8F}" dateTime="2017-11-30T14:38:36" maxSheetId="5" userName="Jason Wang" r:id="rId4">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6C4FC2E7-A973-4E81-B81C-23B64177B80B}" dateTime="2017-11-30T14:38:47" maxSheetId="5" userName="Jason Wang" r:id="rId5">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{95453F28-D477-456A-B549-EC69CFC015CA}" dateTime="2017-11-30T14:45:59" maxSheetId="5" userName="Jason Wang" r:id="rId6" minRId="428" maxRId="431">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D2008CFE-6955-40FA-BD39-2686C87794DA}" dateTime="2017-11-30T14:46:44" maxSheetId="5" userName="Jason Wang" r:id="rId7">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -4959,87 +5002,3090 @@
   <rcc rId="1" sId="1">
     <oc r="B2" t="inlineStr">
       <is>
+        <t>6</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2" sId="1">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <t>misc_radiant_regression</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>misc_diamond_regression</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3" sId="1">
+    <oc r="B4" t="inlineStr">
+      <is>
+        <t>repository = http://lshlabd0011/platform/trunk/bqs_scripts/regression_suite</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>repository = http://lshlabd0011/platform/trunk/bqs_scripts/regression_suite</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="1">
+    <oc r="B5" t="inlineStr">
+      <is>
+        <t>suite_path = radiant_suite</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>suite_path = diamond_suite</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="5" sId="1">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t xml:space="preserve">cmd = python DEV/bin/run_diamondng.py </t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t xml:space="preserve">cmd = python DEV/bin/run_diamond.py </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="6" sId="1">
+    <oc r="B8" t="inlineStr">
+      <is>
+        <t>radiant=1.0.1159</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>diamond=3.9.0.48</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="7" sId="2">
+    <oc r="J3" t="inlineStr">
+      <is>
+        <t>Major</t>
+      </is>
+    </oc>
+    <nc r="J3" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="8" sId="2">
+    <oc r="M3" t="inlineStr">
+      <is>
+        <t>cmd = python DEV/tools/runSquish/run_radiant.py;override=local</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="M3" t="inlineStr">
+      <is>
+        <t>cmd = python DEV/tools/runSquish/run_diamond.py;override=local</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="9" sId="2">
+    <oc r="N3" t="inlineStr">
+      <is>
+        <t>squish=6.1.0</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="N3" t="inlineStr">
+      <is>
+        <t>squish=5.1.0</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="10" sId="2" numFmtId="30">
+    <oc r="A4" t="inlineStr">
+      <is>
+        <t>2</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A4">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="11" sId="2">
+    <oc r="C4" t="inlineStr">
+      <is>
+        <t>general_flow/run_export_bitstream</t>
+      </is>
+    </oc>
+    <nc r="C4" t="inlineStr">
+      <is>
+        <t>design_entry/source_file</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="12" sId="2">
+    <oc r="D4" t="inlineStr">
+      <is>
+        <t>general_flow</t>
+      </is>
+    </oc>
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>design_entry</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="13" sId="2">
+    <oc r="E4" t="inlineStr">
+      <is>
+        <t>general_flow/run_export_bitstream</t>
+      </is>
+    </oc>
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>design_entry/source_file</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="14" sId="2">
+    <oc r="G4" t="inlineStr">
+      <is>
+        <t>General flow test</t>
+      </is>
+    </oc>
+    <nc r="G4" t="inlineStr">
+      <is>
+        <t>Different entry test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="15" sId="2">
+    <oc r="M4" t="inlineStr">
+      <is>
+        <t>cmd = --run-export-bitstream</t>
+      </is>
+    </oc>
+    <nc r="M4" t="inlineStr">
+      <is>
+        <t>cmd = --synthesis=lse</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="16" sId="2" numFmtId="30">
+    <oc r="A5" t="inlineStr">
+      <is>
         <t>3</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </oc>
-    <nc r="B2" t="inlineStr">
-      <is>
-        <t>3</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="2" sId="1">
-    <oc r="B3" t="inlineStr">
-      <is>
-        <t>misc_diamond_regression</t>
+    <nc r="A5">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcc rId="17" sId="2">
+    <oc r="C5" t="inlineStr">
+      <is>
+        <t>general_flow/run_map</t>
+      </is>
+    </oc>
+    <nc r="C5" t="inlineStr">
+      <is>
+        <t>design_entry/dry_run</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="18" sId="2">
+    <oc r="D5" t="inlineStr">
+      <is>
+        <t>general_flow</t>
+      </is>
+    </oc>
+    <nc r="D5" t="inlineStr">
+      <is>
+        <t>design_entry</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="19" sId="2">
+    <oc r="E5" t="inlineStr">
+      <is>
+        <t>general_flow/run_map</t>
+      </is>
+    </oc>
+    <nc r="E5" t="inlineStr">
+      <is>
+        <t>design_entry/dry_run</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="20" sId="2">
+    <oc r="G5" t="inlineStr">
+      <is>
+        <t>General flow test</t>
+      </is>
+    </oc>
+    <nc r="G5" t="inlineStr">
+      <is>
+        <t>Different entry test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="21" sId="2">
+    <oc r="M5" t="inlineStr">
+      <is>
+        <t>cmd = --run-map</t>
+      </is>
+    </oc>
+    <nc r="M5" t="inlineStr">
+      <is>
+        <t>cmd = --dry-run</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="22" sId="2" numFmtId="30">
+    <oc r="A6" t="inlineStr">
+      <is>
+        <t>4</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </oc>
-    <nc r="B3" t="inlineStr">
-      <is>
-        <t>misc_diamond_regression</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="3" sId="1">
-    <oc r="B4" t="inlineStr">
-      <is>
-        <t>repository = http://lshlabd0011/platform/trunk/bqs_scripts/regression_suite</t>
+    <nc r="A6">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="23" sId="2">
+    <oc r="C6" t="inlineStr">
+      <is>
+        <t>general_flow/run_par</t>
+      </is>
+    </oc>
+    <nc r="C6" t="inlineStr">
+      <is>
+        <t>design_entry/inc_path</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="24" sId="2">
+    <oc r="D6" t="inlineStr">
+      <is>
+        <t>general_flow</t>
+      </is>
+    </oc>
+    <nc r="D6" t="inlineStr">
+      <is>
+        <t>design_entry</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="25" sId="2">
+    <oc r="E6" t="inlineStr">
+      <is>
+        <t>general_flow/run_par</t>
+      </is>
+    </oc>
+    <nc r="E6" t="inlineStr">
+      <is>
+        <t>design_entry/inc_path</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="26" sId="2">
+    <oc r="G6" t="inlineStr">
+      <is>
+        <t>General flow test</t>
+      </is>
+    </oc>
+    <nc r="G6" t="inlineStr">
+      <is>
+        <t>Different entry test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="27" sId="2" numFmtId="30">
+    <oc r="A7" t="inlineStr">
+      <is>
+        <t>5</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </oc>
-    <nc r="B4" t="inlineStr">
-      <is>
-        <t>repository = $xlsx_dest</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4" sId="1">
-    <oc r="B5" t="inlineStr">
-      <is>
-        <t>suite_path = diamond_suite</t>
+    <nc r="A7">
+      <v>5</v>
+    </nc>
+  </rcc>
+  <rcc rId="28" sId="2">
+    <oc r="C7" t="inlineStr">
+      <is>
+        <t>general_flow/run_synthesis</t>
       </is>
     </oc>
-    <nc r="B5" t="inlineStr">
-      <is>
-        <t>suite_path = ./</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="5" sId="1">
-    <oc r="B7" t="inlineStr">
-      <is>
-        <t xml:space="preserve">cmd = python DEV/bin/run_diamond.py </t>
+    <nc r="C7" t="inlineStr">
+      <is>
+        <t>cmd_flow/run_all</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="29" sId="2">
+    <oc r="D7" t="inlineStr">
+      <is>
+        <t>general_flow</t>
+      </is>
+    </oc>
+    <nc r="D7" t="inlineStr">
+      <is>
+        <t>cmd_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="30" sId="2">
+    <oc r="E7" t="inlineStr">
+      <is>
+        <t>general_flow/run_synthesis</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </oc>
-    <nc r="B7" t="inlineStr">
-      <is>
-        <t xml:space="preserve">cmd = python DEV/bin/run_diamond.py </t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="6" sId="1">
-    <oc r="B8" t="inlineStr">
-      <is>
-        <t>diamond=3.9.0.48</t>
+    <nc r="E7" t="inlineStr">
+      <is>
+        <t>cmd_flow/run_all</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="31" sId="2">
+    <oc r="G7" t="inlineStr">
+      <is>
+        <t>General flow test</t>
+      </is>
+    </oc>
+    <nc r="G7" t="inlineStr">
+      <is>
+        <t>Command entry test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="32" sId="2">
+    <oc r="M7" t="inlineStr">
+      <is>
+        <t>cmd = --run-synthesis</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </oc>
-    <nc r="B8" t="inlineStr">
-      <is>
-        <t>diamond=3.10p_102</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="7" sId="1">
-    <oc r="B9" t="inlineStr">
+    <nc r="M7"/>
+  </rcc>
+  <rcc rId="33" sId="2" numFmtId="30">
+    <oc r="A8" t="inlineStr">
+      <is>
+        <t>6</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A8">
+      <v>6</v>
+    </nc>
+  </rcc>
+  <rcc rId="34" sId="2">
+    <oc r="C8" t="inlineStr">
+      <is>
+        <t>simulation_flow/do_ahdl</t>
+      </is>
+    </oc>
+    <nc r="C8" t="inlineStr">
+      <is>
+        <t>cmd_flow/run_synthesis</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="35" sId="2">
+    <oc r="D8" t="inlineStr">
+      <is>
+        <t>simulation_flow</t>
+      </is>
+    </oc>
+    <nc r="D8" t="inlineStr">
+      <is>
+        <t>cmd_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="36" sId="2">
+    <oc r="E8" t="inlineStr">
+      <is>
+        <t>simulation_flow/ahdl</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E8" t="inlineStr">
+      <is>
+        <t>cmd_flow/run_synthesis</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="37" sId="2">
+    <oc r="G8" t="inlineStr">
+      <is>
+        <t>simulation test</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="G8" t="inlineStr">
+      <is>
+        <t>Command entry test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="38" sId="2">
+    <oc r="M8" t="inlineStr">
+      <is>
+        <t>cmd = --sim-rtl --sim-par-vlg</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="M8"/>
+  </rcc>
+  <rcc rId="39" sId="2">
+    <oc r="O8" t="inlineStr">
       <is>
         <t>os_type=windows</t>
       </is>
     </oc>
-    <nc r="B9"/>
+    <nc r="O8"/>
+  </rcc>
+  <rcc rId="40" sId="2" numFmtId="30">
+    <nc r="A9">
+      <v>7</v>
+    </nc>
+  </rcc>
+  <rcc rId="41" sId="2">
+    <nc r="C9" t="inlineStr">
+      <is>
+        <t>cmd_flow/run_translate</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="42" sId="2">
+    <nc r="D9" t="inlineStr">
+      <is>
+        <t>cmd_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="43" sId="2">
+    <nc r="E9" t="inlineStr">
+      <is>
+        <t>cmd_flow/run_translate</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="44" sId="2">
+    <nc r="F9" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="45" sId="2">
+    <nc r="G9" t="inlineStr">
+      <is>
+        <t>Command entry test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="46" sId="2">
+    <nc r="H9" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="47" sId="2">
+    <nc r="I9" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="48" sId="2">
+    <nc r="J9" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="49" sId="2" numFmtId="30">
+    <nc r="A10">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcc rId="50" sId="2">
+    <nc r="C10" t="inlineStr">
+      <is>
+        <t>cmd_flow/run_map</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="51" sId="2">
+    <nc r="D10" t="inlineStr">
+      <is>
+        <t>cmd_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="52" sId="2">
+    <nc r="E10" t="inlineStr">
+      <is>
+        <t>cmd_flow/run_map</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="53" sId="2">
+    <nc r="F10" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="54" sId="2">
+    <nc r="G10" t="inlineStr">
+      <is>
+        <t>Command entry test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="55" sId="2">
+    <nc r="H10" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="56" sId="2">
+    <nc r="I10" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="57" sId="2">
+    <nc r="J10" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="58" sId="2">
+    <nc r="M10" t="inlineStr">
+      <is>
+        <t>cmd = --run-map</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="59" sId="2" numFmtId="30">
+    <nc r="A11">
+      <v>9</v>
+    </nc>
+  </rcc>
+  <rcc rId="60" sId="2">
+    <nc r="C11" t="inlineStr">
+      <is>
+        <t>cmd_flow/run_par</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="61" sId="2">
+    <nc r="D11" t="inlineStr">
+      <is>
+        <t>cmd_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="62" sId="2">
+    <nc r="E11" t="inlineStr">
+      <is>
+        <t>cmd_flow/run_par</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="63" sId="2">
+    <nc r="F11" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="64" sId="2">
+    <nc r="G11" t="inlineStr">
+      <is>
+        <t>Command entry test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="65" sId="2">
+    <nc r="H11" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="66" sId="2">
+    <nc r="I11" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="67" sId="2">
+    <nc r="J11" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="68" sId="2" numFmtId="30">
+    <nc r="A12">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="69" sId="2">
+    <nc r="C12" t="inlineStr">
+      <is>
+        <t>cmd_flow/run_par_trce</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="70" sId="2">
+    <nc r="D12" t="inlineStr">
+      <is>
+        <t>cmd_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="71" sId="2">
+    <nc r="E12" t="inlineStr">
+      <is>
+        <t>cmd_flow/run_par_trce</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="72" sId="2">
+    <nc r="F12" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="73" sId="2">
+    <nc r="G12" t="inlineStr">
+      <is>
+        <t>Command entry test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="74" sId="2">
+    <nc r="H12" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="75" sId="2">
+    <nc r="I12" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="76" sId="2">
+    <nc r="J12" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="77" sId="2" numFmtId="30">
+    <nc r="A13">
+      <v>11</v>
+    </nc>
+  </rcc>
+  <rcc rId="78" sId="2">
+    <nc r="C13" t="inlineStr">
+      <is>
+        <t>cmd_flow/run_till_map</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="79" sId="2">
+    <nc r="D13" t="inlineStr">
+      <is>
+        <t>cmd_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="80" sId="2">
+    <nc r="E13" t="inlineStr">
+      <is>
+        <t>cmd_flow/run_till_map</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="81" sId="2">
+    <nc r="F13" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="82" sId="2">
+    <nc r="G13" t="inlineStr">
+      <is>
+        <t>Command entry test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="83" sId="2">
+    <nc r="H13" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="84" sId="2">
+    <nc r="I13" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="85" sId="2">
+    <nc r="J13" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="86" sId="2" numFmtId="30">
+    <nc r="A14">
+      <v>12</v>
+    </nc>
+  </rcc>
+  <rcc rId="87" sId="2">
+    <nc r="C14" t="inlineStr">
+      <is>
+        <t>cmd_flow/run_till_par</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="88" sId="2">
+    <nc r="D14" t="inlineStr">
+      <is>
+        <t>cmd_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="89" sId="2">
+    <nc r="E14" t="inlineStr">
+      <is>
+        <t>cmd_flow/run_till_par</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="90" sId="2">
+    <nc r="F14" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="91" sId="2">
+    <nc r="G14" t="inlineStr">
+      <is>
+        <t>Command entry test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="92" sId="2">
+    <nc r="H14" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="93" sId="2">
+    <nc r="I14" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="94" sId="2">
+    <nc r="J14" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="95" sId="2" numFmtId="30">
+    <nc r="A15">
+      <v>13</v>
+    </nc>
+  </rcc>
+  <rcc rId="96" sId="2">
+    <nc r="C15" t="inlineStr">
+      <is>
+        <t>general_flow/run_export_bitstream</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="97" sId="2">
+    <nc r="D15" t="inlineStr">
+      <is>
+        <t>general_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="98" sId="2">
+    <nc r="E15" t="inlineStr">
+      <is>
+        <t>general_flow/run_export_bitstream</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="99" sId="2">
+    <nc r="F15" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="100" sId="2">
+    <nc r="G15" t="inlineStr">
+      <is>
+        <t>General flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="101" sId="2">
+    <nc r="H15" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="102" sId="2">
+    <nc r="I15" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="103" sId="2">
+    <nc r="J15" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="104" sId="2">
+    <nc r="M15" t="inlineStr">
+      <is>
+        <t>cmd = --run-export-bitstream</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="105" sId="2" numFmtId="30">
+    <nc r="A16">
+      <v>14</v>
+    </nc>
+  </rcc>
+  <rcc rId="106" sId="2">
+    <nc r="C16" t="inlineStr">
+      <is>
+        <t>general_flow/run_map</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="107" sId="2">
+    <nc r="D16" t="inlineStr">
+      <is>
+        <t>general_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="108" sId="2">
+    <nc r="E16" t="inlineStr">
+      <is>
+        <t>general_flow/run_map</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="109" sId="2">
+    <nc r="F16" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="110" sId="2">
+    <nc r="G16" t="inlineStr">
+      <is>
+        <t>General flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="111" sId="2">
+    <nc r="H16" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="112" sId="2">
+    <nc r="I16" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="113" sId="2">
+    <nc r="J16" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="114" sId="2">
+    <nc r="M16" t="inlineStr">
+      <is>
+        <t>cmd = --run-map</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="115" sId="2" numFmtId="30">
+    <nc r="A17">
+      <v>15</v>
+    </nc>
+  </rcc>
+  <rcc rId="116" sId="2">
+    <nc r="C17" t="inlineStr">
+      <is>
+        <t>general_flow/run_ncl</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="117" sId="2">
+    <nc r="D17" t="inlineStr">
+      <is>
+        <t>general_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="118" sId="2">
+    <nc r="E17" t="inlineStr">
+      <is>
+        <t>general_flow/run_ncl</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="119" sId="2">
+    <nc r="F17" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="120" sId="2">
+    <nc r="G17" t="inlineStr">
+      <is>
+        <t>General flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="121" sId="2">
+    <nc r="H17" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="122" sId="2">
+    <nc r="I17" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="123" sId="2">
+    <nc r="J17" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="124" sId="2">
+    <nc r="M17" t="inlineStr">
+      <is>
+        <t>cmd = --run-par --run-ncl</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="125" sId="2" numFmtId="30">
+    <nc r="A18">
+      <v>16</v>
+    </nc>
+  </rcc>
+  <rcc rId="126" sId="2">
+    <nc r="C18" t="inlineStr">
+      <is>
+        <t>general_flow/run_par</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="127" sId="2">
+    <nc r="D18" t="inlineStr">
+      <is>
+        <t>general_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="128" sId="2">
+    <nc r="E18" t="inlineStr">
+      <is>
+        <t>general_flow/run_par</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="129" sId="2">
+    <nc r="F18" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="130" sId="2">
+    <nc r="G18" t="inlineStr">
+      <is>
+        <t>General flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="131" sId="2">
+    <nc r="H18" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="132" sId="2">
+    <nc r="I18" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="133" sId="2">
+    <nc r="J18" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="134" sId="2" numFmtId="30">
+    <nc r="A19">
+      <v>17</v>
+    </nc>
+  </rcc>
+  <rcc rId="135" sId="2">
+    <nc r="C19" t="inlineStr">
+      <is>
+        <t>general_flow/run_synthesis</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="136" sId="2">
+    <nc r="D19" t="inlineStr">
+      <is>
+        <t>general_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="137" sId="2">
+    <nc r="E19" t="inlineStr">
+      <is>
+        <t>general_flow/run_synthesis</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="138" sId="2">
+    <nc r="F19" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="139" sId="2">
+    <nc r="G19" t="inlineStr">
+      <is>
+        <t>General flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="140" sId="2">
+    <nc r="H19" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="141" sId="2">
+    <nc r="I19" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="142" sId="2">
+    <nc r="J19" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="143" sId="2">
+    <nc r="M19" t="inlineStr">
+      <is>
+        <t>cmd = --synthesis-only</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="144" sId="2" numFmtId="30">
+    <nc r="A20">
+      <v>18</v>
+    </nc>
+  </rcc>
+  <rcc rId="145" sId="2">
+    <nc r="C20" t="inlineStr">
+      <is>
+        <t>general_flow/run_par_multiseed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="146" sId="2">
+    <nc r="D20" t="inlineStr">
+      <is>
+        <t>general_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="147" sId="2">
+    <nc r="E20" t="inlineStr">
+      <is>
+        <t>general_flow/run_par_multiseed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="148" sId="2">
+    <nc r="F20" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="149" sId="2">
+    <nc r="G20" t="inlineStr">
+      <is>
+        <t>General flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="150" sId="2">
+    <nc r="H20" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="151" sId="2">
+    <nc r="I20" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="152" sId="2">
+    <nc r="J20" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="153" sId="2" numFmtId="30">
+    <nc r="A21">
+      <v>19</v>
+    </nc>
+  </rcc>
+  <rcc rId="154" sId="2">
+    <nc r="C21" t="inlineStr">
+      <is>
+        <t>simulation_flow/do_ahdl</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="155" sId="2">
+    <nc r="D21" t="inlineStr">
+      <is>
+        <t>simulation_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="156" sId="2">
+    <nc r="E21" t="inlineStr">
+      <is>
+        <t>simulation_flow/do_ahdl</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="157" sId="2">
+    <nc r="F21" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="158" sId="2">
+    <nc r="G21" t="inlineStr">
+      <is>
+        <t>Different simulation test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="159" sId="2">
+    <nc r="H21" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="160" sId="2">
+    <nc r="I21" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="161" sId="2">
+    <nc r="J21" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="162" sId="2">
+    <nc r="M21" t="inlineStr">
+      <is>
+        <t>cmd = --sim-all</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="163" sId="2">
+    <nc r="O21" t="inlineStr">
+      <is>
+        <t>os_type=windows</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="164" sId="2" numFmtId="30">
+    <nc r="A22">
+      <v>20</v>
+    </nc>
+  </rcc>
+  <rcc rId="165" sId="2">
+    <nc r="C22" t="inlineStr">
+      <is>
+        <t>simulation_flow/do_modelsim</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="166" sId="2">
+    <nc r="D22" t="inlineStr">
+      <is>
+        <t>simulation_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="167" sId="2">
+    <nc r="E22" t="inlineStr">
+      <is>
+        <t>simulation_flow/do_modelsim</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="168" sId="2">
+    <nc r="F22" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="169" sId="2">
+    <nc r="G22" t="inlineStr">
+      <is>
+        <t>Different simulation test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="170" sId="2">
+    <nc r="H22" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="171" sId="2">
+    <nc r="I22" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="172" sId="2">
+    <nc r="J22" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="173" sId="2">
+    <nc r="M22" t="inlineStr">
+      <is>
+        <t>cmd = --sim-all --sim-modelsim</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="174" sId="2">
+    <nc r="N22" t="inlineStr">
+      <is>
+        <t>modelsim=10.1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="175" sId="2" numFmtId="30">
+    <nc r="A23">
+      <v>21</v>
+    </nc>
+  </rcc>
+  <rcc rId="176" sId="2">
+    <nc r="C23" t="inlineStr">
+      <is>
+        <t>simulation_flow/do_modelsim2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="177" sId="2">
+    <nc r="D23" t="inlineStr">
+      <is>
+        <t>simulation_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="178" sId="2">
+    <nc r="E23" t="inlineStr">
+      <is>
+        <t>simulation_flow/do_modelsim2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="179" sId="2">
+    <nc r="F23" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="180" sId="2">
+    <nc r="G23" t="inlineStr">
+      <is>
+        <t>Different simulation test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="181" sId="2">
+    <nc r="H23" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="182" sId="2">
+    <nc r="I23" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="183" sId="2">
+    <nc r="J23" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="184" sId="2">
+    <nc r="M23" t="inlineStr">
+      <is>
+        <t>cmd = --sim-all --sim-modelsim</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="185" sId="2">
+    <nc r="N23" t="inlineStr">
+      <is>
+        <t>modelsim=10.1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="186" sId="2" numFmtId="30">
+    <nc r="A24">
+      <v>22</v>
+    </nc>
+  </rcc>
+  <rcc rId="187" sId="2">
+    <nc r="C24" t="inlineStr">
+      <is>
+        <t>simulation_flow/do_questasim</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="188" sId="2">
+    <nc r="D24" t="inlineStr">
+      <is>
+        <t>simulation_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="189" sId="2">
+    <nc r="E24" t="inlineStr">
+      <is>
+        <t>simulation_flow/do_questasim</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="190" sId="2">
+    <nc r="F24" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="191" sId="2">
+    <nc r="G24" t="inlineStr">
+      <is>
+        <t>Different simulation test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="192" sId="2">
+    <nc r="H24" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="193" sId="2">
+    <nc r="I24" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="194" sId="2">
+    <nc r="J24" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="195" sId="2">
+    <nc r="M24" t="inlineStr">
+      <is>
+        <t>cmd = --sim-all --sim-questasim</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="196" sId="2">
+    <nc r="N24" t="inlineStr">
+      <is>
+        <t>questasim=10.2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="197" sId="2" numFmtId="30">
+    <nc r="A25">
+      <v>23</v>
+    </nc>
+  </rcc>
+  <rcc rId="198" sId="2">
+    <nc r="C25" t="inlineStr">
+      <is>
+        <t>simulation_flow/do_riviera</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="199" sId="2">
+    <nc r="D25" t="inlineStr">
+      <is>
+        <t>simulation_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="200" sId="2">
+    <nc r="E25" t="inlineStr">
+      <is>
+        <t>simulation_flow/do_riviera</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="201" sId="2">
+    <nc r="F25" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="202" sId="2">
+    <nc r="G25" t="inlineStr">
+      <is>
+        <t>Different simulation test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="203" sId="2">
+    <nc r="H25" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="204" sId="2">
+    <nc r="I25" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="205" sId="2">
+    <nc r="J25" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="206" sId="2">
+    <nc r="M25" t="inlineStr">
+      <is>
+        <t>cmd = --sim-all --sim-riviera</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="207" sId="2">
+    <nc r="N25" t="inlineStr">
+      <is>
+        <t>riviera=2015.10</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="208" sId="2" numFmtId="30">
+    <nc r="A26">
+      <v>24</v>
+    </nc>
+  </rcc>
+  <rcc rId="209" sId="2">
+    <nc r="C26" t="inlineStr">
+      <is>
+        <t>simulation_flow/tb_ahdl</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="210" sId="2">
+    <nc r="D26" t="inlineStr">
+      <is>
+        <t>simulation_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="211" sId="2">
+    <nc r="E26" t="inlineStr">
+      <is>
+        <t>simulation_flow/tb_ahdl</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="212" sId="2">
+    <nc r="F26" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="213" sId="2">
+    <nc r="G26" t="inlineStr">
+      <is>
+        <t>Different simulation test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="214" sId="2">
+    <nc r="H26" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="215" sId="2">
+    <nc r="I26" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="216" sId="2">
+    <nc r="J26" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="217" sId="2">
+    <nc r="M26" t="inlineStr">
+      <is>
+        <t>cmd = --sim-all</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="218" sId="2">
+    <nc r="O26" t="inlineStr">
+      <is>
+        <t>os_type=windows</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="219" sId="2" numFmtId="30">
+    <nc r="A27">
+      <v>25</v>
+    </nc>
+  </rcc>
+  <rcc rId="220" sId="2">
+    <nc r="C27" t="inlineStr">
+      <is>
+        <t>simulation_flow/tb_modelsim</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="221" sId="2">
+    <nc r="D27" t="inlineStr">
+      <is>
+        <t>simulation_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="222" sId="2">
+    <nc r="E27" t="inlineStr">
+      <is>
+        <t>simulation_flow/tb_modelsim</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="223" sId="2">
+    <nc r="F27" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="224" sId="2">
+    <nc r="G27" t="inlineStr">
+      <is>
+        <t>Different simulation test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="225" sId="2">
+    <nc r="H27" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="226" sId="2">
+    <nc r="I27" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="227" sId="2">
+    <nc r="J27" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="228" sId="2">
+    <nc r="M27" t="inlineStr">
+      <is>
+        <t>cmd = --sim-all --sim-modelsim</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="229" sId="2">
+    <nc r="N27" t="inlineStr">
+      <is>
+        <t>modelsim=10.1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="230" sId="2" numFmtId="30">
+    <nc r="A28">
+      <v>26</v>
+    </nc>
+  </rcc>
+  <rcc rId="231" sId="2">
+    <nc r="C28" t="inlineStr">
+      <is>
+        <t>simulation_flow/tb_questasim</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="232" sId="2">
+    <nc r="D28" t="inlineStr">
+      <is>
+        <t>simulation_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="233" sId="2">
+    <nc r="E28" t="inlineStr">
+      <is>
+        <t>simulation_flow/tb_questasim</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="234" sId="2">
+    <nc r="F28" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="235" sId="2">
+    <nc r="G28" t="inlineStr">
+      <is>
+        <t>Different simulation test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="236" sId="2">
+    <nc r="H28" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="237" sId="2">
+    <nc r="I28" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="238" sId="2">
+    <nc r="J28" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="239" sId="2">
+    <nc r="M28" t="inlineStr">
+      <is>
+        <t>cmd = --sim-all --sim-questasim</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="240" sId="2">
+    <nc r="N28" t="inlineStr">
+      <is>
+        <t>questasim=10.2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="241" sId="2" numFmtId="30">
+    <nc r="A29">
+      <v>27</v>
+    </nc>
+  </rcc>
+  <rcc rId="242" sId="2">
+    <nc r="C29" t="inlineStr">
+      <is>
+        <t>simulation_flow/tb_riviera</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="243" sId="2">
+    <nc r="D29" t="inlineStr">
+      <is>
+        <t>simulation_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="244" sId="2">
+    <nc r="E29" t="inlineStr">
+      <is>
+        <t>simulation_flow/tb_riviera</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="245" sId="2">
+    <nc r="F29" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="246" sId="2">
+    <nc r="G29" t="inlineStr">
+      <is>
+        <t>Different simulation test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="247" sId="2">
+    <nc r="H29" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="248" sId="2">
+    <nc r="I29" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="249" sId="2">
+    <nc r="J29" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="250" sId="2">
+    <nc r="M29" t="inlineStr">
+      <is>
+        <t>cmd = --sim-all --sim-riviera</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="251" sId="2">
+    <nc r="N29" t="inlineStr">
+      <is>
+        <t>riviera=2015.10</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="252" sId="2" numFmtId="30">
+    <nc r="A30">
+      <v>28</v>
+    </nc>
+  </rcc>
+  <rcc rId="253" sId="2">
+    <nc r="C30" t="inlineStr">
+      <is>
+        <t>simulation_flow/check_sdf</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="254" sId="2">
+    <nc r="D30" t="inlineStr">
+      <is>
+        <t>simulation_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="255" sId="2">
+    <nc r="E30" t="inlineStr">
+      <is>
+        <t>simulation_flow/check_sdf</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="256" sId="2">
+    <nc r="F30" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="257" sId="2">
+    <nc r="G30" t="inlineStr">
+      <is>
+        <t>Different simulation test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="258" sId="2">
+    <nc r="H30" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="259" sId="2">
+    <nc r="I30" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="260" sId="2">
+    <nc r="J30" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="261" sId="2">
+    <nc r="M30" t="inlineStr">
+      <is>
+        <t>cmd = --sim-all</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="262" sId="2">
+    <nc r="O30" t="inlineStr">
+      <is>
+        <t>os_type=windows</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="263" sId="2" numFmtId="30">
+    <nc r="A31">
+      <v>29</v>
+    </nc>
+  </rcc>
+  <rcc rId="264" sId="2">
+    <nc r="C31" t="inlineStr">
+      <is>
+        <t>simulation_flow/rtl_change</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="265" sId="2">
+    <nc r="D31" t="inlineStr">
+      <is>
+        <t>simulation_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="266" sId="2">
+    <nc r="E31" t="inlineStr">
+      <is>
+        <t>simulation_flow/rtl_change</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="267" sId="2">
+    <nc r="F31" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="268" sId="2">
+    <nc r="G31" t="inlineStr">
+      <is>
+        <t>Different simulation test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="269" sId="2">
+    <nc r="H31" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="270" sId="2">
+    <nc r="I31" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="271" sId="2">
+    <nc r="J31" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="272" sId="2">
+    <nc r="M31" t="inlineStr">
+      <is>
+        <t>cmd = --sim-all --sim-modelsim --run-scuba=vhdl --check-conf=sim</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="273" sId="2">
+    <nc r="N31" t="inlineStr">
+      <is>
+        <t>modelsim=10.1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="274" sId="2" numFmtId="30">
+    <nc r="A32">
+      <v>30</v>
+    </nc>
+  </rcc>
+  <rcc rId="275" sId="2">
+    <nc r="C32" t="inlineStr">
+      <is>
+        <t>simulation_flow/sim_all</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="276" sId="2">
+    <nc r="D32" t="inlineStr">
+      <is>
+        <t>simulation_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="277" sId="2">
+    <nc r="E32" t="inlineStr">
+      <is>
+        <t>simulation_flow/sim_all</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="278" sId="2">
+    <nc r="F32" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="279" sId="2">
+    <nc r="G32" t="inlineStr">
+      <is>
+        <t>Different simulation test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="280" sId="2">
+    <nc r="H32" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="281" sId="2">
+    <nc r="I32" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="282" sId="2">
+    <nc r="J32" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="283" sId="2">
+    <nc r="M32" t="inlineStr">
+      <is>
+        <t>cmd = --sim-all --sim-questasim --check-conf=sim</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="284" sId="2">
+    <nc r="N32" t="inlineStr">
+      <is>
+        <t>questasim=10.2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="285" sId="2" numFmtId="30">
+    <nc r="A33">
+      <v>31</v>
+    </nc>
+  </rcc>
+  <rcc rId="286" sId="2">
+    <nc r="C33" t="inlineStr">
+      <is>
+        <t>sweeping_flow/01_sweep</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="287" sId="2">
+    <nc r="D33" t="inlineStr">
+      <is>
+        <t>sweeping_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="288" sId="2">
+    <nc r="E33" t="inlineStr">
+      <is>
+        <t>sweeping_flow/01_sweep</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="289" sId="2">
+    <nc r="F33" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="290" sId="2">
+    <nc r="G33" t="inlineStr">
+      <is>
+        <t>Sweeping flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="291" sId="2">
+    <nc r="H33" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="292" sId="2">
+    <nc r="I33" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="293" sId="2">
+    <nc r="J33" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="294" sId="2">
+    <nc r="M33" t="inlineStr">
+      <is>
+        <t>cmd = --fmax-sweep=50 60 10  --strategy=timing</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="295" sId="2" numFmtId="30">
+    <nc r="A34">
+      <v>32</v>
+    </nc>
+  </rcc>
+  <rcc rId="296" sId="2">
+    <nc r="C34" t="inlineStr">
+      <is>
+        <t>sweeping_flow/02_sweep_empty</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="297" sId="2">
+    <nc r="D34" t="inlineStr">
+      <is>
+        <t>sweeping_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="298" sId="2">
+    <nc r="E34" t="inlineStr">
+      <is>
+        <t>sweeping_flow/02_sweep_empty</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="299" sId="2">
+    <nc r="F34" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="300" sId="2">
+    <nc r="G34" t="inlineStr">
+      <is>
+        <t>Sweeping flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="301" sId="2">
+    <nc r="H34" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="302" sId="2">
+    <nc r="I34" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="303" sId="2">
+    <nc r="J34" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="304" sId="2">
+    <nc r="M34" t="inlineStr">
+      <is>
+        <t>cmd = --fmax-sweep=50 60 10 --strategy=timing --empty-lpf</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="305" sId="2" numFmtId="30">
+    <nc r="A35">
+      <v>33</v>
+    </nc>
+  </rcc>
+  <rcc rId="306" sId="2">
+    <nc r="C35" t="inlineStr">
+      <is>
+        <t>sweeping_flow/03_seed_ori</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="307" sId="2">
+    <nc r="D35" t="inlineStr">
+      <is>
+        <t>sweeping_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="308" sId="2">
+    <nc r="E35" t="inlineStr">
+      <is>
+        <t>sweeping_flow/03_seed_ori</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="309" sId="2">
+    <nc r="F35" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="310" sId="2">
+    <nc r="G35" t="inlineStr">
+      <is>
+        <t>Sweeping flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="311" sId="2">
+    <nc r="H35" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="312" sId="2">
+    <nc r="I35" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="313" sId="2">
+    <nc r="J35" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="314" sId="2">
+    <nc r="M35" t="inlineStr">
+      <is>
+        <t>cmd = --seed-sweep=2 4 1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="315" sId="2" numFmtId="30">
+    <nc r="A36">
+      <v>34</v>
+    </nc>
+  </rcc>
+  <rcc rId="316" sId="2">
+    <nc r="C36" t="inlineStr">
+      <is>
+        <t>sweeping_flow/04_seed_empty</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="317" sId="2">
+    <nc r="D36" t="inlineStr">
+      <is>
+        <t>sweeping_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="318" sId="2">
+    <nc r="E36" t="inlineStr">
+      <is>
+        <t>sweeping_flow/04_seed_empty</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="319" sId="2">
+    <nc r="F36" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="320" sId="2">
+    <nc r="G36" t="inlineStr">
+      <is>
+        <t>Sweeping flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="321" sId="2">
+    <nc r="H36" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="322" sId="2">
+    <nc r="I36" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="323" sId="2">
+    <nc r="J36" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="324" sId="2">
+    <nc r="M36" t="inlineStr">
+      <is>
+        <t>cmd = --seed-sweep=2 4 1 --empty-lpf</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="325" sId="2" numFmtId="30">
+    <nc r="A37">
+      <v>35</v>
+    </nc>
+  </rcc>
+  <rcc rId="326" sId="2">
+    <nc r="C37" t="inlineStr">
+      <is>
+        <t>sweeping_flow/05_sweep_seed_empty</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="327" sId="2">
+    <nc r="D37" t="inlineStr">
+      <is>
+        <t>sweeping_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="328" sId="2">
+    <nc r="E37" t="inlineStr">
+      <is>
+        <t>sweeping_flow/05_sweep_seed_empty</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="329" sId="2">
+    <nc r="F37" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="330" sId="2">
+    <nc r="G37" t="inlineStr">
+      <is>
+        <t>Sweeping flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="331" sId="2">
+    <nc r="H37" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="332" sId="2">
+    <nc r="I37" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="333" sId="2">
+    <nc r="J37" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="334" sId="2">
+    <nc r="M37" t="inlineStr">
+      <is>
+        <t>cmd = --fmax-sweep=50 60 10   --seed-sweep=2 4 1  --fmax-seed   --empty-lpf</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="335" sId="2" numFmtId="30">
+    <nc r="A38">
+      <v>36</v>
+    </nc>
+  </rcc>
+  <rcc rId="336" sId="2">
+    <nc r="C38" t="inlineStr">
+      <is>
+        <t>sweeping_flow/06_sweep_seed_mrp</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="337" sId="2">
+    <nc r="D38" t="inlineStr">
+      <is>
+        <t>sweeping_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="338" sId="2">
+    <nc r="E38" t="inlineStr">
+      <is>
+        <t>sweeping_flow/06_sweep_seed_mrp</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="339" sId="2">
+    <nc r="F38" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="340" sId="2">
+    <nc r="G38" t="inlineStr">
+      <is>
+        <t>Sweeping flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="341" sId="2">
+    <nc r="H38" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="342" sId="2">
+    <nc r="I38" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="343" sId="2">
+    <nc r="J38" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="344" sId="2">
+    <nc r="M38" t="inlineStr">
+      <is>
+        <t>cmd = --fmax-sweep=50 60 10   --seed-sweep=2 4 1  --fmax-seed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="345" sId="2" numFmtId="30">
+    <nc r="A39">
+      <v>37</v>
+    </nc>
+  </rcc>
+  <rcc rId="346" sId="2">
+    <nc r="C39" t="inlineStr">
+      <is>
+        <t>sweeping_flow/07_sweep_ori</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="347" sId="2">
+    <nc r="D39" t="inlineStr">
+      <is>
+        <t>sweeping_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="348" sId="2">
+    <nc r="E39" t="inlineStr">
+      <is>
+        <t>sweeping_flow/07_sweep_ori</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="349" sId="2">
+    <nc r="F39" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="350" sId="2">
+    <nc r="G39" t="inlineStr">
+      <is>
+        <t>Sweeping flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="351" sId="2">
+    <nc r="H39" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="352" sId="2">
+    <nc r="I39" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="353" sId="2">
+    <nc r="J39" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="354" sId="2">
+    <nc r="M39" t="inlineStr">
+      <is>
+        <t>cmd = --fmax-sweep=50 60 10   --use-ori-clks</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="355" sId="2" numFmtId="30">
+    <nc r="A40">
+      <v>38</v>
+    </nc>
+  </rcc>
+  <rcc rId="356" sId="2">
+    <nc r="C40" t="inlineStr">
+      <is>
+        <t>sweeping_flow/08_sweep_seed_ori</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="357" sId="2">
+    <nc r="D40" t="inlineStr">
+      <is>
+        <t>sweeping_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="358" sId="2">
+    <nc r="E40" t="inlineStr">
+      <is>
+        <t>sweeping_flow/08_sweep_seed_ori</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="359" sId="2">
+    <nc r="F40" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="360" sId="2">
+    <nc r="G40" t="inlineStr">
+      <is>
+        <t>Sweeping flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="361" sId="2">
+    <nc r="H40" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="362" sId="2">
+    <nc r="I40" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="363" sId="2">
+    <nc r="J40" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="364" sId="2">
+    <nc r="M40" t="inlineStr">
+      <is>
+        <t>cmd = --fmax-sweep=50 60 10  --seed-sweep=2 4 1  --fmax-seed   --use-ori-clks</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="365" sId="2" numFmtId="30">
+    <nc r="A41">
+      <v>39</v>
+    </nc>
+  </rcc>
+  <rcc rId="366" sId="2">
+    <nc r="C41" t="inlineStr">
+      <is>
+        <t>other_flow/pmi</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="367" sId="2">
+    <nc r="D41" t="inlineStr">
+      <is>
+        <t>other_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="368" sId="2">
+    <nc r="E41" t="inlineStr">
+      <is>
+        <t>other_flow/pmi</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="369" sId="2">
+    <nc r="F41" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="370" sId="2">
+    <nc r="G41" t="inlineStr">
+      <is>
+        <t>Misc flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="371" sId="2">
+    <nc r="H41" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="372" sId="2">
+    <nc r="I41" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="373" sId="2">
+    <nc r="J41" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="374" sId="2">
+    <nc r="M41" t="inlineStr">
+      <is>
+        <t>cmd = --sim-all --devkit=LFE3-150EA-6FN1156C</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="375" sId="2" numFmtId="30">
+    <nc r="A42">
+      <v>40</v>
+    </nc>
+  </rcc>
+  <rcc rId="376" sId="2">
+    <nc r="C42" t="inlineStr">
+      <is>
+        <t>other_flow/qas</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="377" sId="2">
+    <nc r="D42" t="inlineStr">
+      <is>
+        <t>other_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="378" sId="2">
+    <nc r="E42" t="inlineStr">
+      <is>
+        <t>other_flow/qas</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="379" sId="2">
+    <nc r="F42" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="380" sId="2">
+    <nc r="G42" t="inlineStr">
+      <is>
+        <t>Misc flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="381" sId="2">
+    <nc r="H42" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="382" sId="2">
+    <nc r="I42" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="383" sId="2">
+    <nc r="J42" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="384" sId="2">
+    <nc r="M42" t="inlineStr">
+      <is>
+        <t>cmd = --qas --run-map-trce --devkit=LFE5UM-85F-6BG756C</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="385" sId="2" numFmtId="30">
+    <nc r="A43">
+      <v>41</v>
+    </nc>
+  </rcc>
+  <rcc rId="386" sId="2">
+    <nc r="C43" t="inlineStr">
+      <is>
+        <t>other_flow/scuba</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="387" sId="2">
+    <nc r="D43" t="inlineStr">
+      <is>
+        <t>other_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="388" sId="2">
+    <nc r="E43" t="inlineStr">
+      <is>
+        <t>other_flow/scuba</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="389" sId="2">
+    <nc r="F43" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="390" sId="2">
+    <nc r="G43" t="inlineStr">
+      <is>
+        <t>Misc flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="391" sId="2">
+    <nc r="H43" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="392" sId="2">
+    <nc r="I43" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="393" sId="2">
+    <nc r="J43" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="394" sId="2">
+    <nc r="M43" t="inlineStr">
+      <is>
+        <t>cmd = --scuba-type=verilog --devkit=LFE3-150EA-6FN1156C --sim-all</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="395" sId="2" numFmtId="30">
+    <nc r="A44">
+      <v>42</v>
+    </nc>
+  </rcc>
+  <rcc rId="396" sId="2">
+    <nc r="C44" t="inlineStr">
+      <is>
+        <t>other_flow/pre_process</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="397" sId="2">
+    <nc r="D44" t="inlineStr">
+      <is>
+        <t>other_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="398" sId="2">
+    <nc r="E44" t="inlineStr">
+      <is>
+        <t>other_flow/pre_process</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="399" sId="2">
+    <nc r="F44" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="400" sId="2">
+    <nc r="G44" t="inlineStr">
+      <is>
+        <t>Misc flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="401" sId="2">
+    <nc r="H44" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="402" sId="2">
+    <nc r="I44" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="403" sId="2">
+    <nc r="J44" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="404" sId="2" numFmtId="30">
+    <nc r="A45">
+      <v>43</v>
+    </nc>
+  </rcc>
+  <rcc rId="405" sId="2">
+    <nc r="C45" t="inlineStr">
+      <is>
+        <t>other_flow/post_process</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="406" sId="2">
+    <nc r="D45" t="inlineStr">
+      <is>
+        <t>other_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="407" sId="2">
+    <nc r="E45" t="inlineStr">
+      <is>
+        <t>other_flow/post_process</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="408" sId="2">
+    <nc r="F45" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="409" sId="2">
+    <nc r="G45" t="inlineStr">
+      <is>
+        <t>Misc flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="410" sId="2">
+    <nc r="H45" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="411" sId="2">
+    <nc r="I45" t="inlineStr">
+      <is>
+        <t>Functionality</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="412" sId="2">
+    <nc r="J45" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="413" sId="2">
+    <nc r="M45" t="inlineStr">
+      <is>
+        <t>cmd = --run-map</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="414" sId="2" numFmtId="30">
+    <nc r="A46">
+      <v>44</v>
+    </nc>
+  </rcc>
+  <rcc rId="415" sId="2">
+    <nc r="B46" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="416" sId="2">
+    <nc r="C46" t="inlineStr">
+      <is>
+        <t>other_flow/dsp</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="417" sId="2">
+    <nc r="D46" t="inlineStr">
+      <is>
+        <t>other_flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="418" sId="2">
+    <nc r="E46" t="inlineStr">
+      <is>
+        <t>other_flow/dsp</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="419" sId="2">
+    <nc r="F46" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="420" sId="2">
+    <nc r="G46" t="inlineStr">
+      <is>
+        <t>Misc flow test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="421" sId="2">
+    <nc r="H46" t="inlineStr">
+      <is>
+        <t>Case demo and script regression case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="422" sId="2">
+    <nc r="I46" t="inlineStr">
+      <is>
+        <t>Performance</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="423" sId="2">
+    <nc r="J46" t="inlineStr">
+      <is>
+        <t>Critical</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="424" sId="2">
+    <nc r="M46" t="inlineStr">
+      <is>
+        <t>cmd = --run-map --dsp --seed-sweep=1 1 1 --synthesis=synplify --use-sdc</t>
+      </is>
+    </nc>
   </rcc>
   <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
@@ -5050,7 +8096,78 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AB$2</formula>
+    <oldFormula>case!$A$2:$AB$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AB$2</formula>
+    <oldFormula>case!$A$2:$AB$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="428" sId="1">
+    <oc r="B4" t="inlineStr">
+      <is>
+        <t>repository = http://lshlabd0011/platform/trunk/bqs_scripts/regression_suite</t>
+      </is>
+    </oc>
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>repository = $xlsx_dest</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="429" sId="1">
+    <oc r="B5" t="inlineStr">
+      <is>
+        <t>suite_path = diamond_suite</t>
+      </is>
+    </oc>
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>suite_path = ./</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="430" sId="1">
+    <oc r="B8" t="inlineStr">
+      <is>
+        <t>diamond=3.9.0.48</t>
+      </is>
+    </oc>
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>diamond=3.10p_102</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="431" sId="1">
+    <oc r="B9" t="inlineStr">
+      <is>
+        <t>os_type=windows</t>
+      </is>
+    </oc>
+    <nc r="B9"/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
@@ -5354,11 +8471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="18" customWidth="1"/>
@@ -5375,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>334</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -5383,7 +8498,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>335</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -5391,12 +8506,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="18" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -5409,7 +8524,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>338</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -5417,7 +8532,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -5432,26 +8547,30 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="DD9F" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection password="DD9F" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C7597151-23A5-4A7A-94E5-ADFECFD7DE05}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="B35" sqref="B35"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5461,12 +8580,13 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="18"/>
@@ -5488,42 +8608,44 @@
     <col min="18" max="18" width="9.5" style="18" customWidth="1"/>
     <col min="19" max="19" width="11" style="18" customWidth="1"/>
     <col min="20" max="20" width="11.75" style="18" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="18"/>
+    <col min="21" max="26" width="9" style="18"/>
+    <col min="27" max="27" width="10.125" style="18" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="19" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="52" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
     </row>
     <row r="2" spans="1:28" s="19" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5596,16 +8718,16 @@
         <v>32</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>34</v>
@@ -5634,19 +8756,19 @@
         <v>47</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M3" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q3" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
@@ -5654,31 +8776,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>51</v>
+        <v>269</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>53</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
@@ -5686,31 +8808,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>51</v>
+        <v>269</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>55</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
@@ -5718,28 +8840,28 @@
         <v>4</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>56</v>
+        <v>274</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>51</v>
+        <v>269</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>56</v>
+        <v>274</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
@@ -5747,28 +8869,28 @@
         <v>5</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>57</v>
+        <v>275</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>57</v>
+        <v>275</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
@@ -5776,28 +8898,28 @@
         <v>6</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
@@ -5805,28 +8927,28 @@
         <v>7</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>61</v>
+        <v>279</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>61</v>
+        <v>279</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
@@ -5834,31 +8956,31 @@
         <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
@@ -5866,28 +8988,28 @@
         <v>9</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>64</v>
+        <v>281</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>64</v>
+        <v>281</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
@@ -5895,28 +9017,28 @@
         <v>10</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>66</v>
+        <v>282</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>66</v>
+        <v>282</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
@@ -5924,28 +9046,28 @@
         <v>11</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>67</v>
+        <v>283</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>67</v>
+        <v>283</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
@@ -5953,28 +9075,28 @@
         <v>12</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>68</v>
+        <v>284</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>68</v>
+        <v>284</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
@@ -5982,31 +9104,31 @@
         <v>13</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
@@ -6014,31 +9136,31 @@
         <v>14</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
@@ -6046,31 +9168,31 @@
         <v>15</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>75</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
@@ -6078,28 +9200,28 @@
         <v>16</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
@@ -6107,31 +9229,31 @@
         <v>17</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
@@ -6139,28 +9261,28 @@
         <v>18</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
@@ -6168,31 +9290,31 @@
         <v>19</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>83</v>
+        <v>290</v>
       </c>
       <c r="O21" s="18" t="s">
         <v>8</v>
@@ -6203,34 +9325,34 @@
         <v>20</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>84</v>
+        <v>291</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>84</v>
+        <v>291</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>85</v>
+        <v>292</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>86</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
@@ -6238,34 +9360,34 @@
         <v>21</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>87</v>
+        <v>294</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>87</v>
+        <v>294</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>85</v>
+        <v>292</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>86</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
@@ -6273,34 +9395,34 @@
         <v>22</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>88</v>
+        <v>295</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>88</v>
+        <v>295</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>89</v>
+        <v>296</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>90</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
@@ -6308,34 +9430,34 @@
         <v>23</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>92</v>
+        <v>299</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>93</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
@@ -6343,31 +9465,31 @@
         <v>24</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>83</v>
+        <v>290</v>
       </c>
       <c r="O26" s="18" t="s">
         <v>8</v>
@@ -6378,34 +9500,34 @@
         <v>25</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>95</v>
+        <v>302</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>95</v>
+        <v>302</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>85</v>
+        <v>292</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>86</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
@@ -6413,34 +9535,34 @@
         <v>26</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>96</v>
+        <v>303</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>96</v>
+        <v>303</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>89</v>
+        <v>296</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>90</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
@@ -6448,34 +9570,34 @@
         <v>27</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>97</v>
+        <v>304</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>97</v>
+        <v>304</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>92</v>
+        <v>299</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>93</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
@@ -6483,31 +9605,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>83</v>
+        <v>290</v>
       </c>
       <c r="O30" s="18" t="s">
         <v>8</v>
@@ -6518,34 +9640,34 @@
         <v>29</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>99</v>
+        <v>306</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>99</v>
+        <v>306</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>100</v>
+        <v>307</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>86</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -6553,34 +9675,34 @@
         <v>30</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>101</v>
+        <v>308</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>101</v>
+        <v>308</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>102</v>
+        <v>309</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>90</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
@@ -6588,31 +9710,31 @@
         <v>31</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>103</v>
+        <v>310</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>103</v>
+        <v>310</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>105</v>
+        <v>312</v>
       </c>
       <c r="H33" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>106</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
@@ -6620,31 +9742,31 @@
         <v>32</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>107</v>
+        <v>314</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>107</v>
+        <v>314</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>105</v>
+        <v>312</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M34" s="18" t="s">
-        <v>108</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
@@ -6652,31 +9774,31 @@
         <v>33</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>109</v>
+        <v>316</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>109</v>
+        <v>316</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>105</v>
+        <v>312</v>
       </c>
       <c r="H35" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>110</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
@@ -6684,31 +9806,31 @@
         <v>34</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>111</v>
+        <v>318</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>111</v>
+        <v>318</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>105</v>
+        <v>312</v>
       </c>
       <c r="H36" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>112</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
@@ -6716,31 +9838,31 @@
         <v>35</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>113</v>
+        <v>320</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>113</v>
+        <v>320</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>105</v>
+        <v>312</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>114</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
@@ -6748,31 +9870,31 @@
         <v>36</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>115</v>
+        <v>322</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>115</v>
+        <v>322</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>105</v>
+        <v>312</v>
       </c>
       <c r="H38" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>116</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
@@ -6780,31 +9902,31 @@
         <v>37</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>117</v>
+        <v>324</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>117</v>
+        <v>324</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>105</v>
+        <v>312</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>118</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
@@ -6812,31 +9934,31 @@
         <v>38</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>119</v>
+        <v>326</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>119</v>
+        <v>326</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>105</v>
+        <v>312</v>
       </c>
       <c r="H40" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>120</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
@@ -6844,31 +9966,31 @@
         <v>39</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>121</v>
+        <v>328</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>121</v>
+        <v>328</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>123</v>
+        <v>330</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>124</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
@@ -6876,31 +9998,31 @@
         <v>40</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>125</v>
+        <v>332</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>125</v>
+        <v>332</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>123</v>
+        <v>330</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>126</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
@@ -6908,31 +10030,31 @@
         <v>41</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>127</v>
+        <v>334</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>127</v>
+        <v>334</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>123</v>
+        <v>330</v>
       </c>
       <c r="H43" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>128</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
@@ -6940,28 +10062,28 @@
         <v>42</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>129</v>
+        <v>336</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>129</v>
+        <v>336</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>123</v>
+        <v>330</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
@@ -6969,31 +10091,31 @@
         <v>43</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>130</v>
+        <v>337</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>135</v>
+        <v>329</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>130</v>
+        <v>337</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>123</v>
+        <v>330</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
@@ -7004,49 +10126,56 @@
         <v>36</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>131</v>
+        <v>338</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>131</v>
+        <v>338</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>123</v>
+        <v>330</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>132</v>
+        <v>339</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>133</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="DD9F" sheet="1" objects="1" scenarios="1" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection password="DD9F" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:AB2"/>
   <customSheetViews>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A2:AB2"/>
     </customSheetView>
-    <customSheetView guid="{C7597151-23A5-4A7A-94E5-ADFECFD7DE05}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A2:Y2"/>
+    </customSheetView>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A2:Y2"/>
     </customSheetView>
   </customSheetViews>
@@ -7056,20 +10185,32 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:H1 K1:T1 C1:E1 A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1 U1:Y1">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>description!$F$136:$H$136</xm:f>
+            <xm:f>description!$F$129:$G$129</xm:f>
           </x14:formula1>
-          <xm:sqref>AA1:AA1048576</xm:sqref>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>description!$F$114:$H$114</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>description!$F$117:$K$117</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -7079,27 +10220,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>description!$F$118:$J$118</xm:f>
+            <xm:f>description!$F$136:$H$136</xm:f>
           </x14:formula1>
-          <xm:sqref>J1:J1048576</xm:sqref>
+          <xm:sqref>AA1:AA1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>description!$F$117:$K$117</xm:f>
+            <xm:f>description!$F$118:$J$118</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>description!$F$114:$H$114</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>description!$F$129:$G$129</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
+          <xm:sqref>J1:J1048576 A1:T1 J2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7109,11 +10238,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N215"/>
+  <dimension ref="A1:N213"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7125,7 +10252,9 @@
     <col min="6" max="6" width="32" style="2" customWidth="1"/>
     <col min="7" max="7" width="31.625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="13.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -7133,7 +10262,7 @@
         <v>35</v>
       </c>
       <c r="B1" s="2">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -7141,7 +10270,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3">
-        <v>43026</v>
+        <v>43069</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7149,52 +10278,52 @@
     <row r="107" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="108" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F109" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="G109" s="55"/>
-      <c r="H109" s="55"/>
-      <c r="I109" s="55"/>
-      <c r="J109" s="55"/>
-      <c r="K109" s="55"/>
-      <c r="L109" s="55"/>
-      <c r="M109" s="55"/>
-      <c r="N109" s="56"/>
+        <v>84</v>
+      </c>
+      <c r="F109" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="54"/>
+      <c r="L109" s="54"/>
+      <c r="M109" s="54"/>
+      <c r="N109" s="55"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A110" s="6" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
@@ -7209,19 +10338,19 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A111" s="9" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
@@ -7235,19 +10364,19 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A112" s="9" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
@@ -7261,13 +10390,13 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A113" s="9" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>36</v>
@@ -7285,16 +10414,16 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A114" s="9" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="E114" s="10">
         <v>1</v>
@@ -7317,16 +10446,16 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A115" s="9" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
@@ -7341,16 +10470,16 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A116" s="9" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
@@ -7368,34 +10497,34 @@
         <v>11</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>324</v>
+        <v>240</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>325</v>
+        <v>241</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>132</v>
+        <v>243</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>327</v>
+        <v>245</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>328</v>
+        <v>244</v>
       </c>
       <c r="L117" s="10"/>
       <c r="M117" s="10"/>
@@ -7403,34 +10532,34 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A118" s="9" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>65</v>
+        <v>253</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>330</v>
+        <v>252</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>331</v>
+        <v>249</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>332</v>
+        <v>250</v>
       </c>
       <c r="K118" s="10"/>
       <c r="L118" s="10"/>
@@ -7439,20 +10568,20 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A119" s="9" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="10" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
@@ -7465,20 +10594,20 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A120" s="9" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="10" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
@@ -7491,20 +10620,20 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A121" s="9" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="10" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
@@ -7517,20 +10646,20 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A122" s="9" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="10" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
@@ -7543,20 +10672,20 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A123" s="9" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="10" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
@@ -7569,20 +10698,20 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A124" s="9" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
@@ -7595,16 +10724,16 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A125" s="9" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
@@ -7619,16 +10748,16 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A126" s="9" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
@@ -7643,16 +10772,16 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A127" s="9" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
@@ -7667,16 +10796,16 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A128" s="9" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
@@ -7691,20 +10820,20 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A129" s="9" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="10" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
@@ -7720,13 +10849,13 @@
         <v>15</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="C130" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
@@ -7741,16 +10870,16 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A131" s="9" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
@@ -7765,16 +10894,16 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A132" s="9" t="s">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
@@ -7789,10 +10918,10 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A133" s="9" t="s">
-        <v>318</v>
+        <v>121</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>317</v>
+        <v>122</v>
       </c>
       <c r="C133" s="10" t="s">
         <v>37</v>
@@ -7813,10 +10942,10 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A134" s="9" t="s">
-        <v>319</v>
+        <v>123</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>317</v>
+        <v>122</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>37</v>
@@ -7837,28 +10966,28 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A135" s="9" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>315</v>
+        <v>91</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>320</v>
+        <v>125</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>320</v>
+        <v>125</v>
       </c>
       <c r="I135" s="10"/>
       <c r="J135" s="10"/>
@@ -7868,49 +10997,49 @@
       <c r="N135" s="11"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A136" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="B136" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="C136" s="47" t="s">
+      <c r="A136" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B136" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C136" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D136" s="47" t="s">
+      <c r="D136" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E136" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="F136" s="47" t="s">
+      <c r="E136" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F136" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="G136" s="47" t="s">
+      <c r="G136" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H136" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="I136" s="47"/>
-      <c r="J136" s="47"/>
-      <c r="K136" s="47"/>
-      <c r="L136" s="47"/>
-      <c r="M136" s="47"/>
-      <c r="N136" s="48"/>
+      <c r="H136" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="I136" s="46"/>
+      <c r="J136" s="46"/>
+      <c r="K136" s="46"/>
+      <c r="L136" s="46"/>
+      <c r="M136" s="46"/>
+      <c r="N136" s="47"/>
     </row>
     <row r="137" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
@@ -7925,1167 +11054,1136 @@
     </row>
     <row r="140" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A141" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B141" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C141" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D141" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E141" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="F141" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="G141" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="H141" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A142" s="41">
+        <v>1</v>
+      </c>
+      <c r="B142" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D142" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E142" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F142" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="G142" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A143" s="41">
+        <v>2</v>
+      </c>
+      <c r="B143" s="57"/>
+      <c r="C143" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D143" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E143" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F143" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="G143" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="H143" s="11"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A144" s="41">
+        <v>3</v>
+      </c>
+      <c r="B144" s="57"/>
+      <c r="C144" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="39"/>
+      <c r="E144" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F144" s="39"/>
+      <c r="G144" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H144" s="11"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A145" s="41">
+        <v>4</v>
+      </c>
+      <c r="B145" s="57"/>
+      <c r="C145" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E145" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F145" s="39"/>
+      <c r="G145" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H145" s="11"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A146" s="41">
+        <v>5</v>
+      </c>
+      <c r="B146" s="57"/>
+      <c r="C146" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D146" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E146" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F146" s="39"/>
+      <c r="G146" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A147" s="41">
+        <v>6</v>
+      </c>
+      <c r="B147" s="57"/>
+      <c r="C147" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D147" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E147" s="39"/>
+      <c r="F147" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G147" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A148" s="41">
+        <v>7</v>
+      </c>
+      <c r="B148" s="57"/>
+      <c r="C148" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D148" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="G148" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A149" s="41">
+        <v>8</v>
+      </c>
+      <c r="B149" s="58"/>
+      <c r="C149" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D149" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E149" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="G149" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="H149" s="11"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A150" s="41">
+        <v>9</v>
+      </c>
+      <c r="B150" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="C150" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D150" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E150" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F150" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="G150" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A151" s="41">
+        <v>10</v>
+      </c>
+      <c r="B151" s="52"/>
+      <c r="C151" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D151" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E151" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F151" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G151" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="H151" s="11"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A152" s="41">
+        <v>11</v>
+      </c>
+      <c r="B152" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C152" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D152" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E152" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F152" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G152" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="H152" s="11"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A153" s="41">
+        <v>12</v>
+      </c>
+      <c r="B153" s="58"/>
+      <c r="C153" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D153" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E153" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F153" s="39"/>
+      <c r="G153" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="H153" s="11"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A154" s="41">
+        <v>13</v>
+      </c>
+      <c r="B154" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C154" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D154" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E154" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F154" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="G154" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H154" s="11"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A155" s="41">
+        <v>14</v>
+      </c>
+      <c r="B155" s="52"/>
+      <c r="C155" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D155" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E155" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F155" s="39"/>
+      <c r="G155" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H155" s="11"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A156" s="41">
+        <v>15</v>
+      </c>
+      <c r="B156" s="52"/>
+      <c r="C156" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D156" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E156" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F156" s="39"/>
+      <c r="G156" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H156" s="11"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A157" s="41">
+        <v>16</v>
+      </c>
+      <c r="B157" s="52"/>
+      <c r="C157" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D157" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E157" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F157" s="39"/>
+      <c r="G157" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H157" s="11"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A158" s="41">
+        <v>17</v>
+      </c>
+      <c r="B158" s="52"/>
+      <c r="C158" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D158" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E158" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F158" s="39"/>
+      <c r="G158" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H158" s="11"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A159" s="41">
+        <v>18</v>
+      </c>
+      <c r="B159" s="52"/>
+      <c r="C159" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D159" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E159" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F159" s="39"/>
+      <c r="G159" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H159" s="11"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A160" s="41">
+        <v>19</v>
+      </c>
+      <c r="B160" s="52"/>
+      <c r="C160" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D160" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E160" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F160" s="39"/>
+      <c r="G160" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H160" s="11"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A161" s="41">
+        <v>20</v>
+      </c>
+      <c r="B161" s="52"/>
+      <c r="C161" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D161" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E161" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F161" s="39"/>
+      <c r="G161" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H161" s="11"/>
+    </row>
+    <row r="162" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A162" s="41">
+        <v>21</v>
+      </c>
+      <c r="B162" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C162" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D162" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E162" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F162" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="G162" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H162" s="11"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A163" s="41">
+        <v>22</v>
+      </c>
+      <c r="B163" s="52"/>
+      <c r="C163" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D163" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E163" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F163" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="G163" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="H163" s="11"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A164" s="41">
+        <v>23</v>
+      </c>
+      <c r="B164" s="52"/>
+      <c r="C164" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D164" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E164" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F164" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="G164" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="H164" s="11"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A165" s="41">
+        <v>24</v>
+      </c>
+      <c r="B165" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C165" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D165" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E165" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F165" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="G165" s="39"/>
+      <c r="H165" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A166" s="41">
+        <v>25</v>
+      </c>
+      <c r="B166" s="52"/>
+      <c r="C166" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D166" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E166" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F166" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="G166" s="39"/>
+      <c r="H166" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A167" s="41">
+        <v>26</v>
+      </c>
+      <c r="B167" s="52"/>
+      <c r="C167" s="39"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="39"/>
+      <c r="F167" s="39"/>
+      <c r="G167" s="39"/>
+      <c r="H167" s="11"/>
+    </row>
+    <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="42">
+        <v>27</v>
+      </c>
+      <c r="B168" s="59"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="40"/>
+      <c r="E168" s="40"/>
+      <c r="F168" s="40"/>
+      <c r="G168" s="40"/>
+      <c r="H168" s="14"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A169" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A181" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B181" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C181" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" s="60"/>
+      <c r="E181" s="60"/>
+      <c r="F181" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G181" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A182" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="B141" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="C141" s="38" t="s">
+      <c r="B182" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="D141" s="38" t="s">
+      <c r="C182" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="E141" s="38" t="s">
+      <c r="D182" s="61"/>
+      <c r="E182" s="61"/>
+      <c r="F182" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="F141" s="38" t="s">
+      <c r="G182" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="G141" s="38" t="s">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A183" s="52"/>
+      <c r="B183" s="52"/>
+      <c r="C183" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D183" s="62"/>
+      <c r="E183" s="62"/>
+      <c r="F183" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="H141" s="16" t="s">
+      <c r="G183" s="39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A184" s="52"/>
+      <c r="B184" s="52" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A142" s="36">
-        <v>1</v>
-      </c>
-      <c r="B142" s="57" t="s">
+      <c r="C184" s="63" t="s">
         <v>210</v>
-      </c>
-      <c r="C142" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="D142" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E142" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F142" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="G142" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A143" s="36">
-        <v>2</v>
-      </c>
-      <c r="B143" s="58"/>
-      <c r="C143" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="D143" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E143" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F143" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="G143" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H143" s="11"/>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A144" s="36">
-        <v>3</v>
-      </c>
-      <c r="B144" s="58"/>
-      <c r="C144" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D144" s="34"/>
-      <c r="E144" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F144" s="34"/>
-      <c r="G144" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H144" s="11"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A145" s="36">
-        <v>4</v>
-      </c>
-      <c r="B145" s="58"/>
-      <c r="C145" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D145" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E145" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F145" s="34"/>
-      <c r="G145" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H145" s="11"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A146" s="36">
-        <v>5</v>
-      </c>
-      <c r="B146" s="58"/>
-      <c r="C146" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="D146" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E146" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F146" s="34"/>
-      <c r="G146" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H146" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A147" s="36">
-        <v>6</v>
-      </c>
-      <c r="B147" s="58"/>
-      <c r="C147" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D147" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E147" s="34"/>
-      <c r="F147" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="G147" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="H147" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A148" s="36">
-        <v>7</v>
-      </c>
-      <c r="B148" s="58"/>
-      <c r="C148" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="D148" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E148" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F148" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="G148" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="H148" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A149" s="36">
-        <v>8</v>
-      </c>
-      <c r="B149" s="59"/>
-      <c r="C149" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="D149" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E149" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F149" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="G149" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="H149" s="11"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A150" s="36">
-        <v>9</v>
-      </c>
-      <c r="B150" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="C150" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="D150" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E150" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F150" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="G150" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H150" s="11"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A151" s="36">
-        <v>10</v>
-      </c>
-      <c r="B151" s="53"/>
-      <c r="C151" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="D151" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E151" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F151" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="G151" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H151" s="11"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A152" s="36">
-        <v>11</v>
-      </c>
-      <c r="B152" s="60" t="s">
-        <v>234</v>
-      </c>
-      <c r="C152" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="D152" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E152" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F152" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="G152" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H152" s="11"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A153" s="36">
-        <v>12</v>
-      </c>
-      <c r="B153" s="61"/>
-      <c r="C153" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="D153" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E153" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F153" s="34"/>
-      <c r="G153" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="H153" s="11"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A154" s="36">
-        <v>13</v>
-      </c>
-      <c r="B154" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="C154" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="D154" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E154" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F154" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="G154" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="H154" s="11"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A155" s="36">
-        <v>14</v>
-      </c>
-      <c r="B155" s="53"/>
-      <c r="C155" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="D155" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E155" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F155" s="34"/>
-      <c r="G155" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="H155" s="11"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A156" s="36">
-        <v>15</v>
-      </c>
-      <c r="B156" s="53"/>
-      <c r="C156" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="D156" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E156" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F156" s="34"/>
-      <c r="G156" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="H156" s="11"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A157" s="36">
-        <v>16</v>
-      </c>
-      <c r="B157" s="53"/>
-      <c r="C157" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="D157" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E157" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F157" s="34"/>
-      <c r="G157" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="H157" s="11"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A158" s="36">
-        <v>17</v>
-      </c>
-      <c r="B158" s="53"/>
-      <c r="C158" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="D158" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E158" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F158" s="34"/>
-      <c r="G158" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="H158" s="11"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A159" s="36">
-        <v>18</v>
-      </c>
-      <c r="B159" s="53"/>
-      <c r="C159" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="D159" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E159" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F159" s="34"/>
-      <c r="G159" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="H159" s="11"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A160" s="36">
-        <v>19</v>
-      </c>
-      <c r="B160" s="53"/>
-      <c r="C160" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="D160" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E160" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F160" s="34"/>
-      <c r="G160" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="H160" s="11"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A161" s="36">
-        <v>20</v>
-      </c>
-      <c r="B161" s="53"/>
-      <c r="C161" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="D161" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E161" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F161" s="34"/>
-      <c r="G161" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="H161" s="11"/>
-    </row>
-    <row r="162" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A162" s="36">
-        <v>21</v>
-      </c>
-      <c r="B162" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="C162" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="D162" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E162" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F162" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="G162" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="H162" s="11"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A163" s="36">
-        <v>22</v>
-      </c>
-      <c r="B163" s="53"/>
-      <c r="C163" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="D163" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E163" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F163" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="G163" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="H163" s="11"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A164" s="36">
-        <v>23</v>
-      </c>
-      <c r="B164" s="53"/>
-      <c r="C164" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="D164" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E164" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F164" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="G164" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="H164" s="11"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A165" s="36">
-        <v>24</v>
-      </c>
-      <c r="B165" s="53"/>
-      <c r="C165" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="D165" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="E165" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="F165" s="34"/>
-      <c r="G165" s="34"/>
-      <c r="H165" s="11"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A166" s="36">
-        <v>25</v>
-      </c>
-      <c r="B166" s="53"/>
-      <c r="C166" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="D166" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="E166" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="F166" s="34"/>
-      <c r="G166" s="34"/>
-      <c r="H166" s="11"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A167" s="36">
-        <v>26</v>
-      </c>
-      <c r="B167" s="53"/>
-      <c r="C167" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="D167" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="E167" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="F167" s="34"/>
-      <c r="G167" s="34"/>
-      <c r="H167" s="11"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A168" s="36">
-        <v>27</v>
-      </c>
-      <c r="B168" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="C168" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="D168" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E168" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F168" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="G168" s="34"/>
-      <c r="H168" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A169" s="36">
-        <v>28</v>
-      </c>
-      <c r="B169" s="53"/>
-      <c r="C169" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="D169" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E169" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F169" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="G169" s="34"/>
-      <c r="H169" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A170" s="36">
-        <v>29</v>
-      </c>
-      <c r="B170" s="53"/>
-      <c r="C170" s="34"/>
-      <c r="D170" s="34"/>
-      <c r="E170" s="34"/>
-      <c r="F170" s="34"/>
-      <c r="G170" s="34"/>
-      <c r="H170" s="11"/>
-    </row>
-    <row r="171" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="37">
-        <v>30</v>
-      </c>
-      <c r="B171" s="62"/>
-      <c r="C171" s="35"/>
-      <c r="D171" s="35"/>
-      <c r="E171" s="35"/>
-      <c r="F171" s="35"/>
-      <c r="G171" s="35"/>
-      <c r="H171" s="14"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A172" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A184" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B184" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="C184" s="63" t="s">
-        <v>140</v>
       </c>
       <c r="D184" s="63"/>
       <c r="E184" s="63"/>
-      <c r="F184" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="G184" s="27" t="s">
-        <v>274</v>
+      <c r="F184" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="G184" s="39" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A185" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="B185" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="C185" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="D185" s="64"/>
-      <c r="E185" s="64"/>
-      <c r="F185" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="G185" s="34" t="s">
-        <v>279</v>
+      <c r="A185" s="52"/>
+      <c r="B185" s="52"/>
+      <c r="C185" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="D185" s="63"/>
+      <c r="E185" s="63"/>
+      <c r="F185" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="G185" s="39" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A186" s="53"/>
-      <c r="B186" s="53"/>
-      <c r="C186" s="65" t="s">
-        <v>280</v>
-      </c>
-      <c r="D186" s="65"/>
-      <c r="E186" s="65"/>
-      <c r="F186" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="G186" s="34" t="s">
-        <v>279</v>
+      <c r="A186" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="B186" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="C186" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D186" s="52"/>
+      <c r="E186" s="52"/>
+      <c r="F186" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="G186" s="24" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A187" s="53"/>
-      <c r="B187" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="C187" s="66" t="s">
-        <v>283</v>
-      </c>
-      <c r="D187" s="66"/>
-      <c r="E187" s="66"/>
-      <c r="F187" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="G187" s="34" t="s">
-        <v>279</v>
+      <c r="A187" s="64"/>
+      <c r="B187" s="52"/>
+      <c r="C187" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D187" s="52"/>
+      <c r="E187" s="52"/>
+      <c r="F187" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="G187" s="24" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A188" s="53"/>
-      <c r="B188" s="53"/>
-      <c r="C188" s="66" t="s">
-        <v>283</v>
-      </c>
-      <c r="D188" s="66"/>
-      <c r="E188" s="66"/>
-      <c r="F188" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="G188" s="34" t="s">
-        <v>279</v>
+      <c r="A188" s="64"/>
+      <c r="B188" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="C188" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D188" s="52"/>
+      <c r="E188" s="52"/>
+      <c r="F188" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="G188" s="24" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A189" s="67" t="s">
-        <v>284</v>
-      </c>
-      <c r="B189" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="C189" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="D189" s="53"/>
-      <c r="E189" s="53"/>
-      <c r="F189" s="34" t="s">
-        <v>278</v>
+      <c r="A189" s="64"/>
+      <c r="B189" s="52"/>
+      <c r="C189" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D189" s="52"/>
+      <c r="E189" s="52"/>
+      <c r="F189" s="39" t="s">
+        <v>208</v>
       </c>
       <c r="G189" s="24" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A190" s="67"/>
-      <c r="B190" s="53"/>
-      <c r="C190" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="D190" s="53"/>
-      <c r="E190" s="53"/>
-      <c r="F190" s="34" t="s">
-        <v>281</v>
+      <c r="A190" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="B190" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="C190" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" s="52"/>
+      <c r="E190" s="52"/>
+      <c r="F190" s="39" t="s">
+        <v>206</v>
       </c>
       <c r="G190" s="24" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A191" s="67"/>
-      <c r="B191" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="C191" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="D191" s="53"/>
-      <c r="E191" s="53"/>
-      <c r="F191" s="34" t="s">
-        <v>278</v>
+      <c r="A191" s="64"/>
+      <c r="B191" s="52"/>
+      <c r="C191" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D191" s="52"/>
+      <c r="E191" s="52"/>
+      <c r="F191" s="39" t="s">
+        <v>208</v>
       </c>
       <c r="G191" s="24" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A192" s="67"/>
-      <c r="B192" s="53"/>
-      <c r="C192" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="D192" s="53"/>
-      <c r="E192" s="53"/>
-      <c r="F192" s="34" t="s">
-        <v>281</v>
+      <c r="A192" s="64"/>
+      <c r="B192" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="C192" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="D192" s="52"/>
+      <c r="E192" s="52"/>
+      <c r="F192" s="39" t="s">
+        <v>206</v>
       </c>
       <c r="G192" s="24" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A193" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="B193" s="53" t="s">
-        <v>289</v>
-      </c>
-      <c r="C193" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="D193" s="53"/>
-      <c r="E193" s="53"/>
-      <c r="F193" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="G193" s="24" t="s">
-        <v>279</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="65"/>
+      <c r="B193" s="59"/>
+      <c r="C193" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="D193" s="59"/>
+      <c r="E193" s="59"/>
+      <c r="F193" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="G193" s="25" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A194" s="67"/>
-      <c r="B194" s="53"/>
-      <c r="C194" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="D194" s="53"/>
-      <c r="E194" s="53"/>
-      <c r="F194" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="G194" s="24" t="s">
-        <v>279</v>
-      </c>
+      <c r="A194" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C194" s="20"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="20"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A195" s="67"/>
-      <c r="B195" s="53" t="s">
-        <v>290</v>
-      </c>
-      <c r="C195" s="53" t="s">
-        <v>291</v>
-      </c>
-      <c r="D195" s="53"/>
-      <c r="E195" s="53"/>
-      <c r="F195" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="G195" s="24" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="68"/>
-      <c r="B196" s="62"/>
-      <c r="C196" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="D196" s="62"/>
-      <c r="E196" s="62"/>
-      <c r="F196" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G196" s="25" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C195" s="20"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="20"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C196" s="20"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="20"/>
+    </row>
+    <row r="197" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="C197" s="20"/>
       <c r="D197" s="20"/>
       <c r="E197" s="20"/>
-      <c r="F197" s="20"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C198" s="20"/>
-      <c r="D198" s="20"/>
-      <c r="E198" s="20"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C199" s="20"/>
-      <c r="D199" s="20"/>
-      <c r="E199" s="20"/>
-    </row>
-    <row r="200" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C200" s="20"/>
-      <c r="D200" s="20"/>
-      <c r="E200" s="20"/>
-    </row>
-    <row r="201" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="B201" s="69" t="s">
-        <v>296</v>
+    </row>
+    <row r="198" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B198" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="C198" s="66"/>
+      <c r="D198" s="66"/>
+      <c r="E198" s="66"/>
+      <c r="F198" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G198" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B199" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="C199" s="58"/>
+      <c r="D199" s="58"/>
+      <c r="E199" s="58"/>
+      <c r="F199" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G199" s="37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B200" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="C200" s="69"/>
+      <c r="D200" s="69"/>
+      <c r="E200" s="70"/>
+      <c r="F200" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G200" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B201" s="68" t="s">
+        <v>260</v>
       </c>
       <c r="C201" s="69"/>
       <c r="D201" s="69"/>
-      <c r="E201" s="69"/>
-      <c r="F201" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="G201" s="23" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="42" t="s">
-        <v>299</v>
-      </c>
-      <c r="B202" s="70" t="s">
-        <v>300</v>
-      </c>
-      <c r="C202" s="61"/>
-      <c r="D202" s="61"/>
-      <c r="E202" s="61"/>
-      <c r="F202" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="G202" s="44" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="B203" s="71" t="s">
-        <v>303</v>
-      </c>
-      <c r="C203" s="72"/>
-      <c r="D203" s="72"/>
-      <c r="E203" s="73"/>
-      <c r="F203" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="G203" s="11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="B204" s="74" t="s">
-        <v>306</v>
-      </c>
-      <c r="C204" s="62"/>
-      <c r="D204" s="62"/>
-      <c r="E204" s="62"/>
-      <c r="F204" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="G204" s="14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C205" s="45"/>
-    </row>
-    <row r="207" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B208" s="26" t="s">
+      <c r="E201" s="70"/>
+      <c r="F201" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="G201" s="47" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B202" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="C202" s="59"/>
+      <c r="D202" s="59"/>
+      <c r="E202" s="59"/>
+      <c r="F202" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G202" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C203" s="38"/>
+    </row>
+    <row r="205" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B206" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C208" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D208" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="E208" s="29"/>
-      <c r="F208" s="30"/>
-      <c r="G208" s="27" t="s">
-        <v>309</v>
-      </c>
+      <c r="C206" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D206" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E206" s="29"/>
+      <c r="F206" s="30"/>
+      <c r="G206" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A207" s="31">
+        <v>42682</v>
+      </c>
+      <c r="B207" s="43">
+        <v>1.04</v>
+      </c>
+      <c r="C207" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D207" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="E207" s="72"/>
+      <c r="F207" s="72"/>
+      <c r="G207" s="32"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A208" s="33">
+        <v>42692</v>
+      </c>
+      <c r="B208" s="39">
+        <v>1.05</v>
+      </c>
+      <c r="C208" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D208" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E208" s="52"/>
+      <c r="F208" s="52"/>
+      <c r="G208" s="24"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A209" s="31">
-        <v>42682</v>
-      </c>
-      <c r="B209" s="38">
-        <v>1.04</v>
-      </c>
-      <c r="C209" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="D209" s="75" t="s">
-        <v>150</v>
-      </c>
-      <c r="E209" s="75"/>
-      <c r="F209" s="75"/>
-      <c r="G209" s="32"/>
+      <c r="A209" s="33">
+        <v>42955</v>
+      </c>
+      <c r="B209" s="39">
+        <v>1.06</v>
+      </c>
+      <c r="C209" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D209" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="E209" s="52"/>
+      <c r="F209" s="52"/>
+      <c r="G209" s="24"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A210" s="33">
-        <v>42692</v>
-      </c>
-      <c r="B210" s="34">
-        <v>1.05</v>
-      </c>
-      <c r="C210" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D210" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="E210" s="53"/>
-      <c r="F210" s="53"/>
+        <v>42991</v>
+      </c>
+      <c r="B210" s="39">
+        <v>1.07</v>
+      </c>
+      <c r="C210" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="D210" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="E210" s="52"/>
+      <c r="F210" s="52"/>
       <c r="G210" s="24"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A211" s="33">
-        <v>42955</v>
-      </c>
-      <c r="B211" s="34">
-        <v>1.06</v>
-      </c>
-      <c r="C211" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D211" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="E211" s="53"/>
-      <c r="F211" s="53"/>
+        <v>43026</v>
+      </c>
+      <c r="B211" s="39">
+        <v>1.08</v>
+      </c>
+      <c r="C211" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="D211" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="E211" s="52"/>
+      <c r="F211" s="52"/>
       <c r="G211" s="24"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A212" s="33">
-        <v>42991</v>
-      </c>
-      <c r="B212" s="34">
-        <v>1.07</v>
-      </c>
-      <c r="C212" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="D212" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="E212" s="53"/>
-      <c r="F212" s="53"/>
+        <v>43069</v>
+      </c>
+      <c r="B212" s="39">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C212" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D212" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="E212" s="52"/>
+      <c r="F212" s="52"/>
       <c r="G212" s="24"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A213" s="33">
-        <v>43026</v>
-      </c>
-      <c r="B213" s="34">
-        <v>1.08</v>
-      </c>
-      <c r="C213" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D213" s="53" t="s">
-        <v>333</v>
-      </c>
-      <c r="E213" s="53"/>
-      <c r="F213" s="53"/>
-      <c r="G213" s="24"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A214" s="36"/>
-      <c r="B214" s="34"/>
-      <c r="C214" s="34"/>
-      <c r="D214" s="53"/>
-      <c r="E214" s="53"/>
-      <c r="F214" s="53"/>
-      <c r="G214" s="24"/>
-    </row>
-    <row r="215" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="37"/>
-      <c r="B215" s="35"/>
-      <c r="C215" s="35"/>
-      <c r="D215" s="62"/>
-      <c r="E215" s="62"/>
-      <c r="F215" s="62"/>
-      <c r="G215" s="25"/>
+    <row r="213" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="42"/>
+      <c r="B213" s="40"/>
+      <c r="C213" s="40"/>
+      <c r="D213" s="59"/>
+      <c r="E213" s="59"/>
+      <c r="F213" s="59"/>
+      <c r="G213" s="25"/>
     </row>
   </sheetData>
   <sheetProtection password="DD9F" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
-      <selection activeCell="E114" sqref="E114"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C7597151-23A5-4A7A-94E5-ADFECFD7DE05}" scale="115">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
   </customSheetViews>
-  <mergeCells count="40">
+  <mergeCells count="41">
+    <mergeCell ref="D209:F209"/>
+    <mergeCell ref="D210:F210"/>
     <mergeCell ref="D211:F211"/>
     <mergeCell ref="D212:F212"/>
     <mergeCell ref="D213:F213"/>
-    <mergeCell ref="D214:F214"/>
-    <mergeCell ref="D215:F215"/>
-    <mergeCell ref="D210:F210"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D208:F208"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="C192:E192"/>
     <mergeCell ref="C193:E193"/>
-    <mergeCell ref="C194:E194"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:E195"/>
-    <mergeCell ref="C196:E196"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="B199:E199"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="B202:E202"/>
+    <mergeCell ref="D207:F207"/>
     <mergeCell ref="B201:E201"/>
-    <mergeCell ref="B202:E202"/>
-    <mergeCell ref="B203:E203"/>
-    <mergeCell ref="B204:E204"/>
-    <mergeCell ref="D209:F209"/>
-    <mergeCell ref="A189:A192"/>
-    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:E186"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:E188"/>
     <mergeCell ref="C189:E189"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="C192:E192"/>
-    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="C181:E181"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C182:E182"/>
+    <mergeCell ref="C183:E183"/>
+    <mergeCell ref="B184:B185"/>
     <mergeCell ref="C184:E184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B185:B186"/>
     <mergeCell ref="C185:E185"/>
-    <mergeCell ref="C186:E186"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="C188:E188"/>
-    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="B162:B164"/>
     <mergeCell ref="F109:N109"/>
     <mergeCell ref="B142:B149"/>
     <mergeCell ref="B150:B151"/>
@@ -9094,8 +12192,8 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9103,24 +12201,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C7597151-23A5-4A7A-94E5-ADFECFD7DE05}">
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>

--- a/tmp_client/doc/TMP_example/diamond_regression.xlsx
+++ b/tmp_client/doc/TMP_example/diamond_regression.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <workbookProtection workbookPassword="DD9F" lockStructure="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\tmp_client\doc\TMP_example\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="0lxzURpaM9+3foqReom8Kb9pmnEjm0Q9Y5LJN8zrba/xG2HtlACKVHvTqAAUiJOrCd/gzChZ9tQjlmDYuy21kg==" workbookSaltValue="1X7MJrsmjAw6MEQEviyBOQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6300" windowWidth="28830" windowHeight="6240"/>
+    <workbookView xWindow="-12" yWindow="6300" windowWidth="28836" windowHeight="6240"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -21,15 +26,15 @@
   </definedNames>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="815" activeSheetId="1"/>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1050" activeSheetId="3"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
     <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="335">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -281,9 +286,6 @@
     <t>timeout</t>
   </si>
   <si>
-    <t>0, any integer large than 30</t>
-  </si>
-  <si>
     <t>http://linux12v/Platform/trunk/bqs_scripts/regression_suite</t>
   </si>
   <si>
@@ -291,30 +293,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>general info</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Must Field</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upload</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default value for upload</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Available values</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -323,10 +301,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Integer</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>YES</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -339,39 +313,11 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>String</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Values in design_name</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Section</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Test Cases</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>design_name</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestLevel</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestScenarios</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -498,14 +444,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>NO</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Table 2</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -518,10 +456,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Section</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Option</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -543,10 +477,6 @@
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseInfo</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -602,10 +532,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>unit seconds, 0 means 10 hours</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>result_keep</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -618,10 +544,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Environment</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>foundry</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -654,10 +576,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Software</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>diamond</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -698,10 +616,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>System</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>os</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -735,10 +649,6 @@
   </si>
   <si>
     <t>32b,64b</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -937,10 +847,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Functionality</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Usability</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -988,15 +894,7 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Critical</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>use \; for ';' itself</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jason Wang</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1268,12 +1166,84 @@
   </si>
   <si>
     <t>diamond=3.10p_102</t>
+  </si>
+  <si>
+    <t>general info</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Must Field</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default value for upload</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values in design_name</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Cases</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestLevel</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestScenarios</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, any integer in 30 ~ 2147483638</t>
+  </si>
+  <si>
+    <t>in seconds, 0 means 2147483638 seconds, any wrong format or out of range value will have a default value 3600</t>
+  </si>
+  <si>
+    <t>CR column will be upload</t>
+  </si>
+  <si>
+    <t>update timeout data range and update the new definition</t>
+  </si>
+  <si>
+    <t>multiple case sheet support</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2312,7 +2282,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2428,9 +2398,21 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="41" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="41" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2443,33 +2425,64 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="27" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="28" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="29" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="41" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="41" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="27" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="28" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="29" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2485,47 +2498,28 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="16" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="19" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="40" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="24" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="21" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="22" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2614,8 +2608,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9524" y="695324"/>
-          <a:ext cx="15430501" cy="17218302"/>
+          <a:off x="9524" y="741044"/>
+          <a:ext cx="14401801" cy="18361302"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3585,7 +3579,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>case sheet:</a:t>
+            <a:t>case sheet(s):</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3599,7 +3593,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>        1. basic rules: Do not modify raw 1 and 2. if  you want upload  some more info which not list in title please contact TMP admin</a:t>
+            <a:t>        1. All sheets with name of 'case_' will be considered as case sheet, the sheet priority will be same as the sheet ordering in Excel Workbook</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3613,7 +3607,21 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>        2. detail rules:</a:t>
+            <a:t>        2. basic rules: Do not modify raw 1 and 2. if  you want to upload  some more info which didn't listed in title please contact your TMP admin</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        3. detail rules:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4653,8 +4661,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15401925" y="1733550"/>
-          <a:ext cx="6912101" cy="4029075"/>
+          <a:off x="14373225" y="1847850"/>
+          <a:ext cx="6226302" cy="4291965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4706,8 +4714,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15411450" y="6581775"/>
-          <a:ext cx="11058524" cy="7088005"/>
+          <a:off x="14382750" y="7016115"/>
+          <a:ext cx="9961244" cy="7556635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4736,8 +4744,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1495425" y="30670500"/>
-          <a:ext cx="6848475" cy="1333500"/>
+          <a:off x="1344930" y="32106870"/>
+          <a:ext cx="6250305" cy="1424940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4855,8 +4863,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9888631" y="9873503"/>
-          <a:ext cx="5765987" cy="1382806"/>
+          <a:off x="8896126" y="10525013"/>
+          <a:ext cx="5661212" cy="1474246"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4902,8 +4910,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9287996" y="3231777"/>
-          <a:ext cx="6084234" cy="424702"/>
+          <a:off x="8539331" y="3437517"/>
+          <a:ext cx="5804199" cy="458992"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4933,56 +4941,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D2008CFE-6955-40FA-BD39-2686C87794DA}" diskRevisions="1" revisionId="432" version="7">
-  <header guid="{BF93E17F-B97A-41F2-B1C1-9DA59996B0B9}" dateTime="2017-11-30T14:36:12" maxSheetId="5" userName="Jason Wang" r:id="rId1">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B1AEBCD8-DF28-4B39-A0B3-4DF3513E7E07}" dateTime="2017-11-30T14:37:23" maxSheetId="5" userName="Jason Wang" r:id="rId2" minRId="1" maxRId="6">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{3EEF2621-6B36-4CB7-88CD-37B04552C505}" dateTime="2017-11-30T14:38:26" maxSheetId="5" userName="Jason Wang" r:id="rId3" minRId="7" maxRId="424">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9CAC2330-2A3F-4D1A-9C4E-C10E26F77B8F}" dateTime="2017-11-30T14:38:36" maxSheetId="5" userName="Jason Wang" r:id="rId4">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6C4FC2E7-A973-4E81-B81C-23B64177B80B}" dateTime="2017-11-30T14:38:47" maxSheetId="5" userName="Jason Wang" r:id="rId5">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{95453F28-D477-456A-B549-EC69CFC015CA}" dateTime="2017-11-30T14:45:59" maxSheetId="5" userName="Jason Wang" r:id="rId6" minRId="428" maxRId="431">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D2008CFE-6955-40FA-BD39-2686C87794DA}" dateTime="2017-11-30T14:46:44" maxSheetId="5" userName="Jason Wang" r:id="rId7">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D058B806-AB91-4380-959B-8603C3287824}">
+  <header guid="{D058B806-AB91-4380-959B-8603C3287824}" dateTime="2019-03-18T12:33:34" maxSheetId="5" userName="Jason Wang" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -4995,3187 +4955,6 @@
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1" sId="1">
-    <oc r="B2" t="inlineStr">
-      <is>
-        <t>6</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B2" t="inlineStr">
-      <is>
-        <t>3</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="2" sId="1">
-    <oc r="B3" t="inlineStr">
-      <is>
-        <t>misc_radiant_regression</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B3" t="inlineStr">
-      <is>
-        <t>misc_diamond_regression</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="3" sId="1">
-    <oc r="B4" t="inlineStr">
-      <is>
-        <t>repository = http://lshlabd0011/platform/trunk/bqs_scripts/regression_suite</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B4" t="inlineStr">
-      <is>
-        <t>repository = http://lshlabd0011/platform/trunk/bqs_scripts/regression_suite</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4" sId="1">
-    <oc r="B5" t="inlineStr">
-      <is>
-        <t>suite_path = radiant_suite</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B5" t="inlineStr">
-      <is>
-        <t>suite_path = diamond_suite</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="5" sId="1">
-    <oc r="B7" t="inlineStr">
-      <is>
-        <t xml:space="preserve">cmd = python DEV/bin/run_diamondng.py </t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B7" t="inlineStr">
-      <is>
-        <t xml:space="preserve">cmd = python DEV/bin/run_diamond.py </t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="6" sId="1">
-    <oc r="B8" t="inlineStr">
-      <is>
-        <t>radiant=1.0.1159</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B8" t="inlineStr">
-      <is>
-        <t>diamond=3.9.0.48</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="7" sId="2">
-    <oc r="J3" t="inlineStr">
-      <is>
-        <t>Major</t>
-      </is>
-    </oc>
-    <nc r="J3" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="8" sId="2">
-    <oc r="M3" t="inlineStr">
-      <is>
-        <t>cmd = python DEV/tools/runSquish/run_radiant.py;override=local</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="M3" t="inlineStr">
-      <is>
-        <t>cmd = python DEV/tools/runSquish/run_diamond.py;override=local</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="9" sId="2">
-    <oc r="N3" t="inlineStr">
-      <is>
-        <t>squish=6.1.0</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="N3" t="inlineStr">
-      <is>
-        <t>squish=5.1.0</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="10" sId="2" numFmtId="30">
-    <oc r="A4" t="inlineStr">
-      <is>
-        <t>2</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="A4">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="11" sId="2">
-    <oc r="C4" t="inlineStr">
-      <is>
-        <t>general_flow/run_export_bitstream</t>
-      </is>
-    </oc>
-    <nc r="C4" t="inlineStr">
-      <is>
-        <t>design_entry/source_file</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="12" sId="2">
-    <oc r="D4" t="inlineStr">
-      <is>
-        <t>general_flow</t>
-      </is>
-    </oc>
-    <nc r="D4" t="inlineStr">
-      <is>
-        <t>design_entry</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="13" sId="2">
-    <oc r="E4" t="inlineStr">
-      <is>
-        <t>general_flow/run_export_bitstream</t>
-      </is>
-    </oc>
-    <nc r="E4" t="inlineStr">
-      <is>
-        <t>design_entry/source_file</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="14" sId="2">
-    <oc r="G4" t="inlineStr">
-      <is>
-        <t>General flow test</t>
-      </is>
-    </oc>
-    <nc r="G4" t="inlineStr">
-      <is>
-        <t>Different entry test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="15" sId="2">
-    <oc r="M4" t="inlineStr">
-      <is>
-        <t>cmd = --run-export-bitstream</t>
-      </is>
-    </oc>
-    <nc r="M4" t="inlineStr">
-      <is>
-        <t>cmd = --synthesis=lse</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="16" sId="2" numFmtId="30">
-    <oc r="A5" t="inlineStr">
-      <is>
-        <t>3</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="A5">
-      <v>3</v>
-    </nc>
-  </rcc>
-  <rcc rId="17" sId="2">
-    <oc r="C5" t="inlineStr">
-      <is>
-        <t>general_flow/run_map</t>
-      </is>
-    </oc>
-    <nc r="C5" t="inlineStr">
-      <is>
-        <t>design_entry/dry_run</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="18" sId="2">
-    <oc r="D5" t="inlineStr">
-      <is>
-        <t>general_flow</t>
-      </is>
-    </oc>
-    <nc r="D5" t="inlineStr">
-      <is>
-        <t>design_entry</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="19" sId="2">
-    <oc r="E5" t="inlineStr">
-      <is>
-        <t>general_flow/run_map</t>
-      </is>
-    </oc>
-    <nc r="E5" t="inlineStr">
-      <is>
-        <t>design_entry/dry_run</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="20" sId="2">
-    <oc r="G5" t="inlineStr">
-      <is>
-        <t>General flow test</t>
-      </is>
-    </oc>
-    <nc r="G5" t="inlineStr">
-      <is>
-        <t>Different entry test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="21" sId="2">
-    <oc r="M5" t="inlineStr">
-      <is>
-        <t>cmd = --run-map</t>
-      </is>
-    </oc>
-    <nc r="M5" t="inlineStr">
-      <is>
-        <t>cmd = --dry-run</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="22" sId="2" numFmtId="30">
-    <oc r="A6" t="inlineStr">
-      <is>
-        <t>4</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="A6">
-      <v>4</v>
-    </nc>
-  </rcc>
-  <rcc rId="23" sId="2">
-    <oc r="C6" t="inlineStr">
-      <is>
-        <t>general_flow/run_par</t>
-      </is>
-    </oc>
-    <nc r="C6" t="inlineStr">
-      <is>
-        <t>design_entry/inc_path</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="24" sId="2">
-    <oc r="D6" t="inlineStr">
-      <is>
-        <t>general_flow</t>
-      </is>
-    </oc>
-    <nc r="D6" t="inlineStr">
-      <is>
-        <t>design_entry</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="25" sId="2">
-    <oc r="E6" t="inlineStr">
-      <is>
-        <t>general_flow/run_par</t>
-      </is>
-    </oc>
-    <nc r="E6" t="inlineStr">
-      <is>
-        <t>design_entry/inc_path</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="26" sId="2">
-    <oc r="G6" t="inlineStr">
-      <is>
-        <t>General flow test</t>
-      </is>
-    </oc>
-    <nc r="G6" t="inlineStr">
-      <is>
-        <t>Different entry test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="27" sId="2" numFmtId="30">
-    <oc r="A7" t="inlineStr">
-      <is>
-        <t>5</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="A7">
-      <v>5</v>
-    </nc>
-  </rcc>
-  <rcc rId="28" sId="2">
-    <oc r="C7" t="inlineStr">
-      <is>
-        <t>general_flow/run_synthesis</t>
-      </is>
-    </oc>
-    <nc r="C7" t="inlineStr">
-      <is>
-        <t>cmd_flow/run_all</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="29" sId="2">
-    <oc r="D7" t="inlineStr">
-      <is>
-        <t>general_flow</t>
-      </is>
-    </oc>
-    <nc r="D7" t="inlineStr">
-      <is>
-        <t>cmd_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="30" sId="2">
-    <oc r="E7" t="inlineStr">
-      <is>
-        <t>general_flow/run_synthesis</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="E7" t="inlineStr">
-      <is>
-        <t>cmd_flow/run_all</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="31" sId="2">
-    <oc r="G7" t="inlineStr">
-      <is>
-        <t>General flow test</t>
-      </is>
-    </oc>
-    <nc r="G7" t="inlineStr">
-      <is>
-        <t>Command entry test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="32" sId="2">
-    <oc r="M7" t="inlineStr">
-      <is>
-        <t>cmd = --run-synthesis</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="M7"/>
-  </rcc>
-  <rcc rId="33" sId="2" numFmtId="30">
-    <oc r="A8" t="inlineStr">
-      <is>
-        <t>6</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="A8">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rcc rId="34" sId="2">
-    <oc r="C8" t="inlineStr">
-      <is>
-        <t>simulation_flow/do_ahdl</t>
-      </is>
-    </oc>
-    <nc r="C8" t="inlineStr">
-      <is>
-        <t>cmd_flow/run_synthesis</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="35" sId="2">
-    <oc r="D8" t="inlineStr">
-      <is>
-        <t>simulation_flow</t>
-      </is>
-    </oc>
-    <nc r="D8" t="inlineStr">
-      <is>
-        <t>cmd_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="36" sId="2">
-    <oc r="E8" t="inlineStr">
-      <is>
-        <t>simulation_flow/ahdl</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="E8" t="inlineStr">
-      <is>
-        <t>cmd_flow/run_synthesis</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="37" sId="2">
-    <oc r="G8" t="inlineStr">
-      <is>
-        <t>simulation test</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="G8" t="inlineStr">
-      <is>
-        <t>Command entry test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="38" sId="2">
-    <oc r="M8" t="inlineStr">
-      <is>
-        <t>cmd = --sim-rtl --sim-par-vlg</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="M8"/>
-  </rcc>
-  <rcc rId="39" sId="2">
-    <oc r="O8" t="inlineStr">
-      <is>
-        <t>os_type=windows</t>
-      </is>
-    </oc>
-    <nc r="O8"/>
-  </rcc>
-  <rcc rId="40" sId="2" numFmtId="30">
-    <nc r="A9">
-      <v>7</v>
-    </nc>
-  </rcc>
-  <rcc rId="41" sId="2">
-    <nc r="C9" t="inlineStr">
-      <is>
-        <t>cmd_flow/run_translate</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="42" sId="2">
-    <nc r="D9" t="inlineStr">
-      <is>
-        <t>cmd_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="43" sId="2">
-    <nc r="E9" t="inlineStr">
-      <is>
-        <t>cmd_flow/run_translate</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="44" sId="2">
-    <nc r="F9" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="45" sId="2">
-    <nc r="G9" t="inlineStr">
-      <is>
-        <t>Command entry test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="46" sId="2">
-    <nc r="H9" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="47" sId="2">
-    <nc r="I9" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="48" sId="2">
-    <nc r="J9" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="49" sId="2" numFmtId="30">
-    <nc r="A10">
-      <v>8</v>
-    </nc>
-  </rcc>
-  <rcc rId="50" sId="2">
-    <nc r="C10" t="inlineStr">
-      <is>
-        <t>cmd_flow/run_map</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="51" sId="2">
-    <nc r="D10" t="inlineStr">
-      <is>
-        <t>cmd_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="52" sId="2">
-    <nc r="E10" t="inlineStr">
-      <is>
-        <t>cmd_flow/run_map</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="53" sId="2">
-    <nc r="F10" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="54" sId="2">
-    <nc r="G10" t="inlineStr">
-      <is>
-        <t>Command entry test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="55" sId="2">
-    <nc r="H10" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="56" sId="2">
-    <nc r="I10" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="57" sId="2">
-    <nc r="J10" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="58" sId="2">
-    <nc r="M10" t="inlineStr">
-      <is>
-        <t>cmd = --run-map</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="59" sId="2" numFmtId="30">
-    <nc r="A11">
-      <v>9</v>
-    </nc>
-  </rcc>
-  <rcc rId="60" sId="2">
-    <nc r="C11" t="inlineStr">
-      <is>
-        <t>cmd_flow/run_par</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="61" sId="2">
-    <nc r="D11" t="inlineStr">
-      <is>
-        <t>cmd_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="62" sId="2">
-    <nc r="E11" t="inlineStr">
-      <is>
-        <t>cmd_flow/run_par</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="63" sId="2">
-    <nc r="F11" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="64" sId="2">
-    <nc r="G11" t="inlineStr">
-      <is>
-        <t>Command entry test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="65" sId="2">
-    <nc r="H11" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="66" sId="2">
-    <nc r="I11" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="67" sId="2">
-    <nc r="J11" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="68" sId="2" numFmtId="30">
-    <nc r="A12">
-      <v>10</v>
-    </nc>
-  </rcc>
-  <rcc rId="69" sId="2">
-    <nc r="C12" t="inlineStr">
-      <is>
-        <t>cmd_flow/run_par_trce</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="70" sId="2">
-    <nc r="D12" t="inlineStr">
-      <is>
-        <t>cmd_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="71" sId="2">
-    <nc r="E12" t="inlineStr">
-      <is>
-        <t>cmd_flow/run_par_trce</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="72" sId="2">
-    <nc r="F12" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="73" sId="2">
-    <nc r="G12" t="inlineStr">
-      <is>
-        <t>Command entry test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="74" sId="2">
-    <nc r="H12" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="75" sId="2">
-    <nc r="I12" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="76" sId="2">
-    <nc r="J12" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="77" sId="2" numFmtId="30">
-    <nc r="A13">
-      <v>11</v>
-    </nc>
-  </rcc>
-  <rcc rId="78" sId="2">
-    <nc r="C13" t="inlineStr">
-      <is>
-        <t>cmd_flow/run_till_map</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="79" sId="2">
-    <nc r="D13" t="inlineStr">
-      <is>
-        <t>cmd_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="80" sId="2">
-    <nc r="E13" t="inlineStr">
-      <is>
-        <t>cmd_flow/run_till_map</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="81" sId="2">
-    <nc r="F13" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="82" sId="2">
-    <nc r="G13" t="inlineStr">
-      <is>
-        <t>Command entry test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="83" sId="2">
-    <nc r="H13" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="84" sId="2">
-    <nc r="I13" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="85" sId="2">
-    <nc r="J13" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="86" sId="2" numFmtId="30">
-    <nc r="A14">
-      <v>12</v>
-    </nc>
-  </rcc>
-  <rcc rId="87" sId="2">
-    <nc r="C14" t="inlineStr">
-      <is>
-        <t>cmd_flow/run_till_par</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="88" sId="2">
-    <nc r="D14" t="inlineStr">
-      <is>
-        <t>cmd_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="89" sId="2">
-    <nc r="E14" t="inlineStr">
-      <is>
-        <t>cmd_flow/run_till_par</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="90" sId="2">
-    <nc r="F14" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="91" sId="2">
-    <nc r="G14" t="inlineStr">
-      <is>
-        <t>Command entry test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="92" sId="2">
-    <nc r="H14" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="93" sId="2">
-    <nc r="I14" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="94" sId="2">
-    <nc r="J14" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="95" sId="2" numFmtId="30">
-    <nc r="A15">
-      <v>13</v>
-    </nc>
-  </rcc>
-  <rcc rId="96" sId="2">
-    <nc r="C15" t="inlineStr">
-      <is>
-        <t>general_flow/run_export_bitstream</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="97" sId="2">
-    <nc r="D15" t="inlineStr">
-      <is>
-        <t>general_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="98" sId="2">
-    <nc r="E15" t="inlineStr">
-      <is>
-        <t>general_flow/run_export_bitstream</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="99" sId="2">
-    <nc r="F15" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="100" sId="2">
-    <nc r="G15" t="inlineStr">
-      <is>
-        <t>General flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="101" sId="2">
-    <nc r="H15" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="102" sId="2">
-    <nc r="I15" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="103" sId="2">
-    <nc r="J15" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="104" sId="2">
-    <nc r="M15" t="inlineStr">
-      <is>
-        <t>cmd = --run-export-bitstream</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="105" sId="2" numFmtId="30">
-    <nc r="A16">
-      <v>14</v>
-    </nc>
-  </rcc>
-  <rcc rId="106" sId="2">
-    <nc r="C16" t="inlineStr">
-      <is>
-        <t>general_flow/run_map</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="107" sId="2">
-    <nc r="D16" t="inlineStr">
-      <is>
-        <t>general_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="108" sId="2">
-    <nc r="E16" t="inlineStr">
-      <is>
-        <t>general_flow/run_map</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="109" sId="2">
-    <nc r="F16" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="110" sId="2">
-    <nc r="G16" t="inlineStr">
-      <is>
-        <t>General flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="111" sId="2">
-    <nc r="H16" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="112" sId="2">
-    <nc r="I16" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="113" sId="2">
-    <nc r="J16" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="114" sId="2">
-    <nc r="M16" t="inlineStr">
-      <is>
-        <t>cmd = --run-map</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="115" sId="2" numFmtId="30">
-    <nc r="A17">
-      <v>15</v>
-    </nc>
-  </rcc>
-  <rcc rId="116" sId="2">
-    <nc r="C17" t="inlineStr">
-      <is>
-        <t>general_flow/run_ncl</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="117" sId="2">
-    <nc r="D17" t="inlineStr">
-      <is>
-        <t>general_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="118" sId="2">
-    <nc r="E17" t="inlineStr">
-      <is>
-        <t>general_flow/run_ncl</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="119" sId="2">
-    <nc r="F17" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="120" sId="2">
-    <nc r="G17" t="inlineStr">
-      <is>
-        <t>General flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="121" sId="2">
-    <nc r="H17" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="122" sId="2">
-    <nc r="I17" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="123" sId="2">
-    <nc r="J17" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="124" sId="2">
-    <nc r="M17" t="inlineStr">
-      <is>
-        <t>cmd = --run-par --run-ncl</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="125" sId="2" numFmtId="30">
-    <nc r="A18">
-      <v>16</v>
-    </nc>
-  </rcc>
-  <rcc rId="126" sId="2">
-    <nc r="C18" t="inlineStr">
-      <is>
-        <t>general_flow/run_par</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="127" sId="2">
-    <nc r="D18" t="inlineStr">
-      <is>
-        <t>general_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="128" sId="2">
-    <nc r="E18" t="inlineStr">
-      <is>
-        <t>general_flow/run_par</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="129" sId="2">
-    <nc r="F18" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="130" sId="2">
-    <nc r="G18" t="inlineStr">
-      <is>
-        <t>General flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="131" sId="2">
-    <nc r="H18" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="132" sId="2">
-    <nc r="I18" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="133" sId="2">
-    <nc r="J18" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="134" sId="2" numFmtId="30">
-    <nc r="A19">
-      <v>17</v>
-    </nc>
-  </rcc>
-  <rcc rId="135" sId="2">
-    <nc r="C19" t="inlineStr">
-      <is>
-        <t>general_flow/run_synthesis</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="136" sId="2">
-    <nc r="D19" t="inlineStr">
-      <is>
-        <t>general_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="137" sId="2">
-    <nc r="E19" t="inlineStr">
-      <is>
-        <t>general_flow/run_synthesis</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="138" sId="2">
-    <nc r="F19" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="139" sId="2">
-    <nc r="G19" t="inlineStr">
-      <is>
-        <t>General flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="140" sId="2">
-    <nc r="H19" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="141" sId="2">
-    <nc r="I19" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="142" sId="2">
-    <nc r="J19" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="143" sId="2">
-    <nc r="M19" t="inlineStr">
-      <is>
-        <t>cmd = --synthesis-only</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="144" sId="2" numFmtId="30">
-    <nc r="A20">
-      <v>18</v>
-    </nc>
-  </rcc>
-  <rcc rId="145" sId="2">
-    <nc r="C20" t="inlineStr">
-      <is>
-        <t>general_flow/run_par_multiseed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="146" sId="2">
-    <nc r="D20" t="inlineStr">
-      <is>
-        <t>general_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="147" sId="2">
-    <nc r="E20" t="inlineStr">
-      <is>
-        <t>general_flow/run_par_multiseed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="148" sId="2">
-    <nc r="F20" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="149" sId="2">
-    <nc r="G20" t="inlineStr">
-      <is>
-        <t>General flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="150" sId="2">
-    <nc r="H20" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="151" sId="2">
-    <nc r="I20" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="152" sId="2">
-    <nc r="J20" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="153" sId="2" numFmtId="30">
-    <nc r="A21">
-      <v>19</v>
-    </nc>
-  </rcc>
-  <rcc rId="154" sId="2">
-    <nc r="C21" t="inlineStr">
-      <is>
-        <t>simulation_flow/do_ahdl</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="155" sId="2">
-    <nc r="D21" t="inlineStr">
-      <is>
-        <t>simulation_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="156" sId="2">
-    <nc r="E21" t="inlineStr">
-      <is>
-        <t>simulation_flow/do_ahdl</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="157" sId="2">
-    <nc r="F21" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="158" sId="2">
-    <nc r="G21" t="inlineStr">
-      <is>
-        <t>Different simulation test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="159" sId="2">
-    <nc r="H21" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="160" sId="2">
-    <nc r="I21" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="161" sId="2">
-    <nc r="J21" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="162" sId="2">
-    <nc r="M21" t="inlineStr">
-      <is>
-        <t>cmd = --sim-all</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="163" sId="2">
-    <nc r="O21" t="inlineStr">
-      <is>
-        <t>os_type=windows</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="164" sId="2" numFmtId="30">
-    <nc r="A22">
-      <v>20</v>
-    </nc>
-  </rcc>
-  <rcc rId="165" sId="2">
-    <nc r="C22" t="inlineStr">
-      <is>
-        <t>simulation_flow/do_modelsim</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="166" sId="2">
-    <nc r="D22" t="inlineStr">
-      <is>
-        <t>simulation_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="167" sId="2">
-    <nc r="E22" t="inlineStr">
-      <is>
-        <t>simulation_flow/do_modelsim</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="168" sId="2">
-    <nc r="F22" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="169" sId="2">
-    <nc r="G22" t="inlineStr">
-      <is>
-        <t>Different simulation test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="170" sId="2">
-    <nc r="H22" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="171" sId="2">
-    <nc r="I22" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="172" sId="2">
-    <nc r="J22" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="173" sId="2">
-    <nc r="M22" t="inlineStr">
-      <is>
-        <t>cmd = --sim-all --sim-modelsim</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="174" sId="2">
-    <nc r="N22" t="inlineStr">
-      <is>
-        <t>modelsim=10.1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="175" sId="2" numFmtId="30">
-    <nc r="A23">
-      <v>21</v>
-    </nc>
-  </rcc>
-  <rcc rId="176" sId="2">
-    <nc r="C23" t="inlineStr">
-      <is>
-        <t>simulation_flow/do_modelsim2</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="177" sId="2">
-    <nc r="D23" t="inlineStr">
-      <is>
-        <t>simulation_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="178" sId="2">
-    <nc r="E23" t="inlineStr">
-      <is>
-        <t>simulation_flow/do_modelsim2</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="179" sId="2">
-    <nc r="F23" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="180" sId="2">
-    <nc r="G23" t="inlineStr">
-      <is>
-        <t>Different simulation test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="181" sId="2">
-    <nc r="H23" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="182" sId="2">
-    <nc r="I23" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="183" sId="2">
-    <nc r="J23" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="184" sId="2">
-    <nc r="M23" t="inlineStr">
-      <is>
-        <t>cmd = --sim-all --sim-modelsim</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="185" sId="2">
-    <nc r="N23" t="inlineStr">
-      <is>
-        <t>modelsim=10.1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="186" sId="2" numFmtId="30">
-    <nc r="A24">
-      <v>22</v>
-    </nc>
-  </rcc>
-  <rcc rId="187" sId="2">
-    <nc r="C24" t="inlineStr">
-      <is>
-        <t>simulation_flow/do_questasim</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="188" sId="2">
-    <nc r="D24" t="inlineStr">
-      <is>
-        <t>simulation_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="189" sId="2">
-    <nc r="E24" t="inlineStr">
-      <is>
-        <t>simulation_flow/do_questasim</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="190" sId="2">
-    <nc r="F24" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="191" sId="2">
-    <nc r="G24" t="inlineStr">
-      <is>
-        <t>Different simulation test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="192" sId="2">
-    <nc r="H24" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="193" sId="2">
-    <nc r="I24" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="194" sId="2">
-    <nc r="J24" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="195" sId="2">
-    <nc r="M24" t="inlineStr">
-      <is>
-        <t>cmd = --sim-all --sim-questasim</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="196" sId="2">
-    <nc r="N24" t="inlineStr">
-      <is>
-        <t>questasim=10.2</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="197" sId="2" numFmtId="30">
-    <nc r="A25">
-      <v>23</v>
-    </nc>
-  </rcc>
-  <rcc rId="198" sId="2">
-    <nc r="C25" t="inlineStr">
-      <is>
-        <t>simulation_flow/do_riviera</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="199" sId="2">
-    <nc r="D25" t="inlineStr">
-      <is>
-        <t>simulation_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="200" sId="2">
-    <nc r="E25" t="inlineStr">
-      <is>
-        <t>simulation_flow/do_riviera</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="201" sId="2">
-    <nc r="F25" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="202" sId="2">
-    <nc r="G25" t="inlineStr">
-      <is>
-        <t>Different simulation test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="203" sId="2">
-    <nc r="H25" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="204" sId="2">
-    <nc r="I25" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="205" sId="2">
-    <nc r="J25" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="206" sId="2">
-    <nc r="M25" t="inlineStr">
-      <is>
-        <t>cmd = --sim-all --sim-riviera</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="207" sId="2">
-    <nc r="N25" t="inlineStr">
-      <is>
-        <t>riviera=2015.10</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="208" sId="2" numFmtId="30">
-    <nc r="A26">
-      <v>24</v>
-    </nc>
-  </rcc>
-  <rcc rId="209" sId="2">
-    <nc r="C26" t="inlineStr">
-      <is>
-        <t>simulation_flow/tb_ahdl</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="210" sId="2">
-    <nc r="D26" t="inlineStr">
-      <is>
-        <t>simulation_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="211" sId="2">
-    <nc r="E26" t="inlineStr">
-      <is>
-        <t>simulation_flow/tb_ahdl</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="212" sId="2">
-    <nc r="F26" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="213" sId="2">
-    <nc r="G26" t="inlineStr">
-      <is>
-        <t>Different simulation test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="214" sId="2">
-    <nc r="H26" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="215" sId="2">
-    <nc r="I26" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="216" sId="2">
-    <nc r="J26" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="217" sId="2">
-    <nc r="M26" t="inlineStr">
-      <is>
-        <t>cmd = --sim-all</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="218" sId="2">
-    <nc r="O26" t="inlineStr">
-      <is>
-        <t>os_type=windows</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="219" sId="2" numFmtId="30">
-    <nc r="A27">
-      <v>25</v>
-    </nc>
-  </rcc>
-  <rcc rId="220" sId="2">
-    <nc r="C27" t="inlineStr">
-      <is>
-        <t>simulation_flow/tb_modelsim</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="221" sId="2">
-    <nc r="D27" t="inlineStr">
-      <is>
-        <t>simulation_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="222" sId="2">
-    <nc r="E27" t="inlineStr">
-      <is>
-        <t>simulation_flow/tb_modelsim</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="223" sId="2">
-    <nc r="F27" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="224" sId="2">
-    <nc r="G27" t="inlineStr">
-      <is>
-        <t>Different simulation test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="225" sId="2">
-    <nc r="H27" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="226" sId="2">
-    <nc r="I27" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="227" sId="2">
-    <nc r="J27" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="228" sId="2">
-    <nc r="M27" t="inlineStr">
-      <is>
-        <t>cmd = --sim-all --sim-modelsim</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="229" sId="2">
-    <nc r="N27" t="inlineStr">
-      <is>
-        <t>modelsim=10.1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="230" sId="2" numFmtId="30">
-    <nc r="A28">
-      <v>26</v>
-    </nc>
-  </rcc>
-  <rcc rId="231" sId="2">
-    <nc r="C28" t="inlineStr">
-      <is>
-        <t>simulation_flow/tb_questasim</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="232" sId="2">
-    <nc r="D28" t="inlineStr">
-      <is>
-        <t>simulation_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="233" sId="2">
-    <nc r="E28" t="inlineStr">
-      <is>
-        <t>simulation_flow/tb_questasim</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="234" sId="2">
-    <nc r="F28" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="235" sId="2">
-    <nc r="G28" t="inlineStr">
-      <is>
-        <t>Different simulation test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="236" sId="2">
-    <nc r="H28" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="237" sId="2">
-    <nc r="I28" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="238" sId="2">
-    <nc r="J28" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="239" sId="2">
-    <nc r="M28" t="inlineStr">
-      <is>
-        <t>cmd = --sim-all --sim-questasim</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="240" sId="2">
-    <nc r="N28" t="inlineStr">
-      <is>
-        <t>questasim=10.2</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="241" sId="2" numFmtId="30">
-    <nc r="A29">
-      <v>27</v>
-    </nc>
-  </rcc>
-  <rcc rId="242" sId="2">
-    <nc r="C29" t="inlineStr">
-      <is>
-        <t>simulation_flow/tb_riviera</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="243" sId="2">
-    <nc r="D29" t="inlineStr">
-      <is>
-        <t>simulation_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="244" sId="2">
-    <nc r="E29" t="inlineStr">
-      <is>
-        <t>simulation_flow/tb_riviera</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="245" sId="2">
-    <nc r="F29" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="246" sId="2">
-    <nc r="G29" t="inlineStr">
-      <is>
-        <t>Different simulation test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="247" sId="2">
-    <nc r="H29" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="248" sId="2">
-    <nc r="I29" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="249" sId="2">
-    <nc r="J29" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="250" sId="2">
-    <nc r="M29" t="inlineStr">
-      <is>
-        <t>cmd = --sim-all --sim-riviera</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="251" sId="2">
-    <nc r="N29" t="inlineStr">
-      <is>
-        <t>riviera=2015.10</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="252" sId="2" numFmtId="30">
-    <nc r="A30">
-      <v>28</v>
-    </nc>
-  </rcc>
-  <rcc rId="253" sId="2">
-    <nc r="C30" t="inlineStr">
-      <is>
-        <t>simulation_flow/check_sdf</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="254" sId="2">
-    <nc r="D30" t="inlineStr">
-      <is>
-        <t>simulation_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="255" sId="2">
-    <nc r="E30" t="inlineStr">
-      <is>
-        <t>simulation_flow/check_sdf</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="256" sId="2">
-    <nc r="F30" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="257" sId="2">
-    <nc r="G30" t="inlineStr">
-      <is>
-        <t>Different simulation test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="258" sId="2">
-    <nc r="H30" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="259" sId="2">
-    <nc r="I30" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="260" sId="2">
-    <nc r="J30" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="261" sId="2">
-    <nc r="M30" t="inlineStr">
-      <is>
-        <t>cmd = --sim-all</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="262" sId="2">
-    <nc r="O30" t="inlineStr">
-      <is>
-        <t>os_type=windows</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="263" sId="2" numFmtId="30">
-    <nc r="A31">
-      <v>29</v>
-    </nc>
-  </rcc>
-  <rcc rId="264" sId="2">
-    <nc r="C31" t="inlineStr">
-      <is>
-        <t>simulation_flow/rtl_change</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="265" sId="2">
-    <nc r="D31" t="inlineStr">
-      <is>
-        <t>simulation_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="266" sId="2">
-    <nc r="E31" t="inlineStr">
-      <is>
-        <t>simulation_flow/rtl_change</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="267" sId="2">
-    <nc r="F31" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="268" sId="2">
-    <nc r="G31" t="inlineStr">
-      <is>
-        <t>Different simulation test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="269" sId="2">
-    <nc r="H31" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="270" sId="2">
-    <nc r="I31" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="271" sId="2">
-    <nc r="J31" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="272" sId="2">
-    <nc r="M31" t="inlineStr">
-      <is>
-        <t>cmd = --sim-all --sim-modelsim --run-scuba=vhdl --check-conf=sim</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="273" sId="2">
-    <nc r="N31" t="inlineStr">
-      <is>
-        <t>modelsim=10.1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="274" sId="2" numFmtId="30">
-    <nc r="A32">
-      <v>30</v>
-    </nc>
-  </rcc>
-  <rcc rId="275" sId="2">
-    <nc r="C32" t="inlineStr">
-      <is>
-        <t>simulation_flow/sim_all</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="276" sId="2">
-    <nc r="D32" t="inlineStr">
-      <is>
-        <t>simulation_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="277" sId="2">
-    <nc r="E32" t="inlineStr">
-      <is>
-        <t>simulation_flow/sim_all</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="278" sId="2">
-    <nc r="F32" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="279" sId="2">
-    <nc r="G32" t="inlineStr">
-      <is>
-        <t>Different simulation test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="280" sId="2">
-    <nc r="H32" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="281" sId="2">
-    <nc r="I32" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="282" sId="2">
-    <nc r="J32" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="283" sId="2">
-    <nc r="M32" t="inlineStr">
-      <is>
-        <t>cmd = --sim-all --sim-questasim --check-conf=sim</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="284" sId="2">
-    <nc r="N32" t="inlineStr">
-      <is>
-        <t>questasim=10.2</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="285" sId="2" numFmtId="30">
-    <nc r="A33">
-      <v>31</v>
-    </nc>
-  </rcc>
-  <rcc rId="286" sId="2">
-    <nc r="C33" t="inlineStr">
-      <is>
-        <t>sweeping_flow/01_sweep</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="287" sId="2">
-    <nc r="D33" t="inlineStr">
-      <is>
-        <t>sweeping_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="288" sId="2">
-    <nc r="E33" t="inlineStr">
-      <is>
-        <t>sweeping_flow/01_sweep</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="289" sId="2">
-    <nc r="F33" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="290" sId="2">
-    <nc r="G33" t="inlineStr">
-      <is>
-        <t>Sweeping flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="291" sId="2">
-    <nc r="H33" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="292" sId="2">
-    <nc r="I33" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="293" sId="2">
-    <nc r="J33" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="294" sId="2">
-    <nc r="M33" t="inlineStr">
-      <is>
-        <t>cmd = --fmax-sweep=50 60 10  --strategy=timing</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="295" sId="2" numFmtId="30">
-    <nc r="A34">
-      <v>32</v>
-    </nc>
-  </rcc>
-  <rcc rId="296" sId="2">
-    <nc r="C34" t="inlineStr">
-      <is>
-        <t>sweeping_flow/02_sweep_empty</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="297" sId="2">
-    <nc r="D34" t="inlineStr">
-      <is>
-        <t>sweeping_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="298" sId="2">
-    <nc r="E34" t="inlineStr">
-      <is>
-        <t>sweeping_flow/02_sweep_empty</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="299" sId="2">
-    <nc r="F34" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="300" sId="2">
-    <nc r="G34" t="inlineStr">
-      <is>
-        <t>Sweeping flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="301" sId="2">
-    <nc r="H34" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="302" sId="2">
-    <nc r="I34" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="303" sId="2">
-    <nc r="J34" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="304" sId="2">
-    <nc r="M34" t="inlineStr">
-      <is>
-        <t>cmd = --fmax-sweep=50 60 10 --strategy=timing --empty-lpf</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="305" sId="2" numFmtId="30">
-    <nc r="A35">
-      <v>33</v>
-    </nc>
-  </rcc>
-  <rcc rId="306" sId="2">
-    <nc r="C35" t="inlineStr">
-      <is>
-        <t>sweeping_flow/03_seed_ori</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="307" sId="2">
-    <nc r="D35" t="inlineStr">
-      <is>
-        <t>sweeping_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="308" sId="2">
-    <nc r="E35" t="inlineStr">
-      <is>
-        <t>sweeping_flow/03_seed_ori</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="309" sId="2">
-    <nc r="F35" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="310" sId="2">
-    <nc r="G35" t="inlineStr">
-      <is>
-        <t>Sweeping flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="311" sId="2">
-    <nc r="H35" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="312" sId="2">
-    <nc r="I35" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="313" sId="2">
-    <nc r="J35" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="314" sId="2">
-    <nc r="M35" t="inlineStr">
-      <is>
-        <t>cmd = --seed-sweep=2 4 1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="315" sId="2" numFmtId="30">
-    <nc r="A36">
-      <v>34</v>
-    </nc>
-  </rcc>
-  <rcc rId="316" sId="2">
-    <nc r="C36" t="inlineStr">
-      <is>
-        <t>sweeping_flow/04_seed_empty</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="317" sId="2">
-    <nc r="D36" t="inlineStr">
-      <is>
-        <t>sweeping_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="318" sId="2">
-    <nc r="E36" t="inlineStr">
-      <is>
-        <t>sweeping_flow/04_seed_empty</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="319" sId="2">
-    <nc r="F36" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="320" sId="2">
-    <nc r="G36" t="inlineStr">
-      <is>
-        <t>Sweeping flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="321" sId="2">
-    <nc r="H36" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="322" sId="2">
-    <nc r="I36" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="323" sId="2">
-    <nc r="J36" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="324" sId="2">
-    <nc r="M36" t="inlineStr">
-      <is>
-        <t>cmd = --seed-sweep=2 4 1 --empty-lpf</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="325" sId="2" numFmtId="30">
-    <nc r="A37">
-      <v>35</v>
-    </nc>
-  </rcc>
-  <rcc rId="326" sId="2">
-    <nc r="C37" t="inlineStr">
-      <is>
-        <t>sweeping_flow/05_sweep_seed_empty</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="327" sId="2">
-    <nc r="D37" t="inlineStr">
-      <is>
-        <t>sweeping_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="328" sId="2">
-    <nc r="E37" t="inlineStr">
-      <is>
-        <t>sweeping_flow/05_sweep_seed_empty</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="329" sId="2">
-    <nc r="F37" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="330" sId="2">
-    <nc r="G37" t="inlineStr">
-      <is>
-        <t>Sweeping flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="331" sId="2">
-    <nc r="H37" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="332" sId="2">
-    <nc r="I37" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="333" sId="2">
-    <nc r="J37" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="334" sId="2">
-    <nc r="M37" t="inlineStr">
-      <is>
-        <t>cmd = --fmax-sweep=50 60 10   --seed-sweep=2 4 1  --fmax-seed   --empty-lpf</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="335" sId="2" numFmtId="30">
-    <nc r="A38">
-      <v>36</v>
-    </nc>
-  </rcc>
-  <rcc rId="336" sId="2">
-    <nc r="C38" t="inlineStr">
-      <is>
-        <t>sweeping_flow/06_sweep_seed_mrp</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="337" sId="2">
-    <nc r="D38" t="inlineStr">
-      <is>
-        <t>sweeping_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="338" sId="2">
-    <nc r="E38" t="inlineStr">
-      <is>
-        <t>sweeping_flow/06_sweep_seed_mrp</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="339" sId="2">
-    <nc r="F38" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="340" sId="2">
-    <nc r="G38" t="inlineStr">
-      <is>
-        <t>Sweeping flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="341" sId="2">
-    <nc r="H38" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="342" sId="2">
-    <nc r="I38" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="343" sId="2">
-    <nc r="J38" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="344" sId="2">
-    <nc r="M38" t="inlineStr">
-      <is>
-        <t>cmd = --fmax-sweep=50 60 10   --seed-sweep=2 4 1  --fmax-seed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="345" sId="2" numFmtId="30">
-    <nc r="A39">
-      <v>37</v>
-    </nc>
-  </rcc>
-  <rcc rId="346" sId="2">
-    <nc r="C39" t="inlineStr">
-      <is>
-        <t>sweeping_flow/07_sweep_ori</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="347" sId="2">
-    <nc r="D39" t="inlineStr">
-      <is>
-        <t>sweeping_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="348" sId="2">
-    <nc r="E39" t="inlineStr">
-      <is>
-        <t>sweeping_flow/07_sweep_ori</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="349" sId="2">
-    <nc r="F39" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="350" sId="2">
-    <nc r="G39" t="inlineStr">
-      <is>
-        <t>Sweeping flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="351" sId="2">
-    <nc r="H39" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="352" sId="2">
-    <nc r="I39" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="353" sId="2">
-    <nc r="J39" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="354" sId="2">
-    <nc r="M39" t="inlineStr">
-      <is>
-        <t>cmd = --fmax-sweep=50 60 10   --use-ori-clks</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="355" sId="2" numFmtId="30">
-    <nc r="A40">
-      <v>38</v>
-    </nc>
-  </rcc>
-  <rcc rId="356" sId="2">
-    <nc r="C40" t="inlineStr">
-      <is>
-        <t>sweeping_flow/08_sweep_seed_ori</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="357" sId="2">
-    <nc r="D40" t="inlineStr">
-      <is>
-        <t>sweeping_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="358" sId="2">
-    <nc r="E40" t="inlineStr">
-      <is>
-        <t>sweeping_flow/08_sweep_seed_ori</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="359" sId="2">
-    <nc r="F40" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="360" sId="2">
-    <nc r="G40" t="inlineStr">
-      <is>
-        <t>Sweeping flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="361" sId="2">
-    <nc r="H40" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="362" sId="2">
-    <nc r="I40" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="363" sId="2">
-    <nc r="J40" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="364" sId="2">
-    <nc r="M40" t="inlineStr">
-      <is>
-        <t>cmd = --fmax-sweep=50 60 10  --seed-sweep=2 4 1  --fmax-seed   --use-ori-clks</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="365" sId="2" numFmtId="30">
-    <nc r="A41">
-      <v>39</v>
-    </nc>
-  </rcc>
-  <rcc rId="366" sId="2">
-    <nc r="C41" t="inlineStr">
-      <is>
-        <t>other_flow/pmi</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="367" sId="2">
-    <nc r="D41" t="inlineStr">
-      <is>
-        <t>other_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="368" sId="2">
-    <nc r="E41" t="inlineStr">
-      <is>
-        <t>other_flow/pmi</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="369" sId="2">
-    <nc r="F41" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="370" sId="2">
-    <nc r="G41" t="inlineStr">
-      <is>
-        <t>Misc flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="371" sId="2">
-    <nc r="H41" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="372" sId="2">
-    <nc r="I41" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="373" sId="2">
-    <nc r="J41" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="374" sId="2">
-    <nc r="M41" t="inlineStr">
-      <is>
-        <t>cmd = --sim-all --devkit=LFE3-150EA-6FN1156C</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="375" sId="2" numFmtId="30">
-    <nc r="A42">
-      <v>40</v>
-    </nc>
-  </rcc>
-  <rcc rId="376" sId="2">
-    <nc r="C42" t="inlineStr">
-      <is>
-        <t>other_flow/qas</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="377" sId="2">
-    <nc r="D42" t="inlineStr">
-      <is>
-        <t>other_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="378" sId="2">
-    <nc r="E42" t="inlineStr">
-      <is>
-        <t>other_flow/qas</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="379" sId="2">
-    <nc r="F42" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="380" sId="2">
-    <nc r="G42" t="inlineStr">
-      <is>
-        <t>Misc flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="381" sId="2">
-    <nc r="H42" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="382" sId="2">
-    <nc r="I42" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="383" sId="2">
-    <nc r="J42" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="384" sId="2">
-    <nc r="M42" t="inlineStr">
-      <is>
-        <t>cmd = --qas --run-map-trce --devkit=LFE5UM-85F-6BG756C</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="385" sId="2" numFmtId="30">
-    <nc r="A43">
-      <v>41</v>
-    </nc>
-  </rcc>
-  <rcc rId="386" sId="2">
-    <nc r="C43" t="inlineStr">
-      <is>
-        <t>other_flow/scuba</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="387" sId="2">
-    <nc r="D43" t="inlineStr">
-      <is>
-        <t>other_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="388" sId="2">
-    <nc r="E43" t="inlineStr">
-      <is>
-        <t>other_flow/scuba</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="389" sId="2">
-    <nc r="F43" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="390" sId="2">
-    <nc r="G43" t="inlineStr">
-      <is>
-        <t>Misc flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="391" sId="2">
-    <nc r="H43" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="392" sId="2">
-    <nc r="I43" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="393" sId="2">
-    <nc r="J43" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="394" sId="2">
-    <nc r="M43" t="inlineStr">
-      <is>
-        <t>cmd = --scuba-type=verilog --devkit=LFE3-150EA-6FN1156C --sim-all</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="395" sId="2" numFmtId="30">
-    <nc r="A44">
-      <v>42</v>
-    </nc>
-  </rcc>
-  <rcc rId="396" sId="2">
-    <nc r="C44" t="inlineStr">
-      <is>
-        <t>other_flow/pre_process</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="397" sId="2">
-    <nc r="D44" t="inlineStr">
-      <is>
-        <t>other_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="398" sId="2">
-    <nc r="E44" t="inlineStr">
-      <is>
-        <t>other_flow/pre_process</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="399" sId="2">
-    <nc r="F44" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="400" sId="2">
-    <nc r="G44" t="inlineStr">
-      <is>
-        <t>Misc flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="401" sId="2">
-    <nc r="H44" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="402" sId="2">
-    <nc r="I44" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="403" sId="2">
-    <nc r="J44" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="404" sId="2" numFmtId="30">
-    <nc r="A45">
-      <v>43</v>
-    </nc>
-  </rcc>
-  <rcc rId="405" sId="2">
-    <nc r="C45" t="inlineStr">
-      <is>
-        <t>other_flow/post_process</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="406" sId="2">
-    <nc r="D45" t="inlineStr">
-      <is>
-        <t>other_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="407" sId="2">
-    <nc r="E45" t="inlineStr">
-      <is>
-        <t>other_flow/post_process</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="408" sId="2">
-    <nc r="F45" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="409" sId="2">
-    <nc r="G45" t="inlineStr">
-      <is>
-        <t>Misc flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="410" sId="2">
-    <nc r="H45" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="411" sId="2">
-    <nc r="I45" t="inlineStr">
-      <is>
-        <t>Functionality</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="412" sId="2">
-    <nc r="J45" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="413" sId="2">
-    <nc r="M45" t="inlineStr">
-      <is>
-        <t>cmd = --run-map</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="414" sId="2" numFmtId="30">
-    <nc r="A46">
-      <v>44</v>
-    </nc>
-  </rcc>
-  <rcc rId="415" sId="2">
-    <nc r="B46" t="inlineStr">
-      <is>
-        <t>YES</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="416" sId="2">
-    <nc r="C46" t="inlineStr">
-      <is>
-        <t>other_flow/dsp</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="417" sId="2">
-    <nc r="D46" t="inlineStr">
-      <is>
-        <t>other_flow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="418" sId="2">
-    <nc r="E46" t="inlineStr">
-      <is>
-        <t>other_flow/dsp</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="419" sId="2">
-    <nc r="F46" t="inlineStr">
-      <is>
-        <t>1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="420" sId="2">
-    <nc r="G46" t="inlineStr">
-      <is>
-        <t>Misc flow test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="421" sId="2">
-    <nc r="H46" t="inlineStr">
-      <is>
-        <t>Case demo and script regression case</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="422" sId="2">
-    <nc r="I46" t="inlineStr">
-      <is>
-        <t>Performance</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="423" sId="2">
-    <nc r="J46" t="inlineStr">
-      <is>
-        <t>Critical</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="424" sId="2">
-    <nc r="M46" t="inlineStr">
-      <is>
-        <t>cmd = --run-map --dsp --seed-sweep=1 1 1 --synthesis=synplify --use-sdc</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>case!$A$2:$AB$2</formula>
-    <oldFormula>case!$A$2:$AB$2</oldFormula>
-  </rdn>
-  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>case!$A$2:$AB$2</formula>
-    <oldFormula>case!$A$2:$AB$2</oldFormula>
-  </rdn>
-  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>case!$A$2:$AB$2</formula>
-    <oldFormula>case!$A$2:$AB$2</oldFormula>
-  </rdn>
-  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="428" sId="1">
-    <oc r="B4" t="inlineStr">
-      <is>
-        <t>repository = http://lshlabd0011/platform/trunk/bqs_scripts/regression_suite</t>
-      </is>
-    </oc>
-    <nc r="B4" t="inlineStr">
-      <is>
-        <t>repository = $xlsx_dest</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="429" sId="1">
-    <oc r="B5" t="inlineStr">
-      <is>
-        <t>suite_path = diamond_suite</t>
-      </is>
-    </oc>
-    <nc r="B5" t="inlineStr">
-      <is>
-        <t>suite_path = ./</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="430" sId="1">
-    <oc r="B8" t="inlineStr">
-      <is>
-        <t>diamond=3.9.0.48</t>
-      </is>
-    </oc>
-    <nc r="B8" t="inlineStr">
-      <is>
-        <t>diamond=3.10p_102</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="431" sId="1">
-    <oc r="B9" t="inlineStr">
-      <is>
-        <t>os_type=windows</t>
-      </is>
-    </oc>
-    <nc r="B9"/>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>case!$A$2:$AB$2</formula>
-    <oldFormula>case!$A$2:$AB$2</oldFormula>
-  </rdn>
-  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
-</revisions>
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8225,7 +5004,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8260,7 +5039,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8473,79 +5252,79 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="18" customWidth="1"/>
     <col min="3" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>59</v>
       </c>
@@ -8557,13 +5336,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="B35" sqref="B35"/>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+      <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
-      <selection activeCell="B4" sqref="B4"/>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -8583,37 +5362,37 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="18"/>
-    <col min="3" max="3" width="33.25" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="18" customWidth="1"/>
     <col min="6" max="6" width="12" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="18" customWidth="1"/>
     <col min="8" max="8" width="37" style="18" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" style="18" customWidth="1"/>
-    <col min="12" max="12" width="19.5" style="18" customWidth="1"/>
-    <col min="13" max="13" width="30.375" style="18" customWidth="1"/>
-    <col min="14" max="14" width="17.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5" style="18" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" style="18" customWidth="1"/>
+    <col min="13" max="13" width="30.33203125" style="18" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" style="18" customWidth="1"/>
     <col min="16" max="16" width="13" style="18" customWidth="1"/>
-    <col min="17" max="17" width="9.625" style="18" customWidth="1"/>
-    <col min="18" max="18" width="9.5" style="18" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="18" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" style="18" customWidth="1"/>
     <col min="19" max="19" width="11" style="18" customWidth="1"/>
-    <col min="20" max="20" width="11.75" style="18" customWidth="1"/>
+    <col min="20" max="20" width="11.77734375" style="18" customWidth="1"/>
     <col min="21" max="26" width="9" style="18"/>
-    <col min="27" max="27" width="10.125" style="18" customWidth="1"/>
+    <col min="27" max="27" width="10.109375" style="18" customWidth="1"/>
     <col min="28" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="19" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="19" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>16</v>
       </c>
@@ -8647,7 +5426,7 @@
       <c r="AA1" s="51"/>
       <c r="AB1" s="51"/>
     </row>
-    <row r="2" spans="1:28" s="19" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="19" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -8718,22 +5497,22 @@
         <v>32</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -8756,350 +5535,350 @@
         <v>47</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="Q3" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>3</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>4</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>5</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>6</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>7</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M10" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>9</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>10</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>11</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>12</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -9122,16 +5901,16 @@
         <v>47</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M15" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -9154,27 +5933,27 @@
         <v>47</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M16" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>15</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>45</v>
@@ -9186,16 +5965,16 @@
         <v>47</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -9218,13 +5997,13 @@
         <v>47</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -9247,27 +6026,27 @@
         <v>47</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>18</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>45</v>
@@ -9279,13 +6058,13 @@
         <v>47</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -9302,823 +6081,823 @@
         <v>45</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="O21" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>20</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>21</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>22</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>23</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>24</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="O26" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>25</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>26</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>27</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>28</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="O30" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>29</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>30</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>31</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="H33" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>32</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M34" s="18" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>33</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="H35" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>34</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="H36" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>35</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>36</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="H38" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>37</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>38</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="H40" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>39</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>40</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>41</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="H43" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>42</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <v>43</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M45" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>44</v>
       </c>
@@ -10126,54 +6905,54 @@
         <v>36</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="DD9F" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QWIFiql18jkuskfxiwrHr0t6MeKgu7HKl2DmdYROPnfiYy4oY7O33x8VoAVA/TpKZWCil4Q8miZUTPf/Zst4Hg==" saltValue="9+mrgr/xoY9s4uDZAPFvBg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:AB2"/>
   <customSheetViews>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A2:AB2"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A2:Y2"/>
     </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A2:Y2"/>
@@ -10184,11 +6963,6 @@
     <mergeCell ref="U1:AB1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1 U1:Y1">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <extLst>
@@ -10196,39 +6970,39 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>description!$F$129:$G$129</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
+            <xm:f>#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z2:Z1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
             <xm:f>description!$F$114:$H$114</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
+          <xm:sqref>F2 F2:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>description!$F$117:$K$117</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I1048576</xm:sqref>
+          <xm:sqref>I6 I2:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>description!$F$135:$H$135</xm:f>
+            <xm:f>description!$F$118:$J$118</xm:f>
           </x14:formula1>
-          <xm:sqref>Z1:Z1048576</xm:sqref>
+          <xm:sqref>K7 J1:J1048576 A1:T1 J2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>description!$F$136:$H$136</xm:f>
           </x14:formula1>
-          <xm:sqref>AA1:AA1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>description!$F$118:$J$118</xm:f>
-          </x14:formula1>
-          <xm:sqref>J1:J1048576 A1:T1 J2</xm:sqref>
+          <xm:sqref>AA1:AA1048576 U1:AB1 AA2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10238,92 +7012,94 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N213"/>
+  <dimension ref="A1:N215"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="32" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1" s="73">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3">
-        <v>43069</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>43542</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F109" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="G109" s="69"/>
+      <c r="H109" s="69"/>
+      <c r="I109" s="69"/>
+      <c r="J109" s="69"/>
+      <c r="K109" s="69"/>
+      <c r="L109" s="69"/>
+      <c r="M109" s="69"/>
+      <c r="N109" s="70"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
+      <c r="B110" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C110" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="D110" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F109" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="54"/>
-      <c r="M109" s="54"/>
-      <c r="N109" s="55"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A110" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
@@ -10336,21 +7112,21 @@
       <c r="M110" s="7"/>
       <c r="N110" s="8"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>92</v>
+        <v>324</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
@@ -10362,21 +7138,21 @@
       <c r="M111" s="10"/>
       <c r="N111" s="11"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>94</v>
+        <v>325</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
@@ -10388,15 +7164,15 @@
       <c r="M112" s="10"/>
       <c r="N112" s="11"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>36</v>
@@ -10412,18 +7188,18 @@
       <c r="M113" s="10"/>
       <c r="N113" s="11"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>96</v>
+        <v>326</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>87</v>
+        <v>323</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E114" s="10">
         <v>1</v>
@@ -10444,18 +7220,18 @@
       <c r="M114" s="10"/>
       <c r="N114" s="11"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>97</v>
+        <v>327</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
@@ -10468,18 +7244,18 @@
       <c r="M115" s="10"/>
       <c r="N115" s="11"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>99</v>
+        <v>329</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
@@ -10492,96 +7268,96 @@
       <c r="M116" s="10"/>
       <c r="N116" s="11"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="L117" s="10"/>
       <c r="M117" s="10"/>
       <c r="N117" s="11"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>253</v>
+        <v>86</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="K118" s="10"/>
       <c r="L118" s="10"/>
       <c r="M118" s="10"/>
       <c r="N118" s="11"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
@@ -10592,22 +7368,22 @@
       <c r="M119" s="10"/>
       <c r="N119" s="11"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
@@ -10618,22 +7394,22 @@
       <c r="M120" s="10"/>
       <c r="N120" s="11"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="10" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
@@ -10644,22 +7420,22 @@
       <c r="M121" s="10"/>
       <c r="N121" s="11"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
@@ -10670,22 +7446,22 @@
       <c r="M122" s="10"/>
       <c r="N122" s="11"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
@@ -10696,22 +7472,22 @@
       <c r="M123" s="10"/>
       <c r="N123" s="11"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
@@ -10722,18 +7498,18 @@
       <c r="M124" s="10"/>
       <c r="N124" s="11"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
@@ -10746,18 +7522,18 @@
       <c r="M125" s="10"/>
       <c r="N125" s="11"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
@@ -10770,18 +7546,18 @@
       <c r="M126" s="10"/>
       <c r="N126" s="11"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B127" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>91</v>
-      </c>
       <c r="C127" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
@@ -10794,18 +7570,18 @@
       <c r="M127" s="10"/>
       <c r="N127" s="11"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
@@ -10818,22 +7594,22 @@
       <c r="M128" s="10"/>
       <c r="N128" s="11"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
@@ -10844,18 +7620,18 @@
       <c r="M129" s="10"/>
       <c r="N129" s="11"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C130" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
@@ -10868,18 +7644,18 @@
       <c r="M130" s="10"/>
       <c r="N130" s="11"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
@@ -10892,18 +7668,18 @@
       <c r="M131" s="10"/>
       <c r="N131" s="11"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
@@ -10916,12 +7692,12 @@
       <c r="M132" s="10"/>
       <c r="N132" s="11"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C133" s="10" t="s">
         <v>37</v>
@@ -10940,12 +7716,12 @@
       <c r="M133" s="10"/>
       <c r="N133" s="11"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>37</v>
@@ -10964,30 +7740,30 @@
       <c r="M134" s="10"/>
       <c r="N134" s="11"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="I135" s="10"/>
       <c r="J135" s="10"/>
@@ -10996,50 +7772,50 @@
       <c r="M135" s="10"/>
       <c r="N135" s="11"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A136" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B136" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="C136" s="46" t="s">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B136" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C136" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D136" s="46" t="s">
+      <c r="D136" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E136" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="F136" s="46" t="s">
+      <c r="E136" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F136" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G136" s="46" t="s">
+      <c r="G136" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H136" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="I136" s="46"/>
-      <c r="J136" s="46"/>
-      <c r="K136" s="46"/>
-      <c r="L136" s="46"/>
-      <c r="M136" s="46"/>
-      <c r="N136" s="47"/>
-    </row>
-    <row r="137" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H136" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="I136" s="40"/>
+      <c r="J136" s="40"/>
+      <c r="K136" s="40"/>
+      <c r="L136" s="40"/>
+      <c r="M136" s="40"/>
+      <c r="N136" s="41"/>
+    </row>
+    <row r="137" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
@@ -11052,966 +7828,966 @@
       <c r="M137" s="13"/>
       <c r="N137" s="14"/>
     </row>
-    <row r="140" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B141" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C141" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D141" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E141" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="F141" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="G141" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H141" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="45">
+        <v>1</v>
+      </c>
+      <c r="B142" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C142" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D142" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E142" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F142" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="G142" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="45">
+        <v>2</v>
+      </c>
+      <c r="B143" s="72"/>
+      <c r="C143" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D143" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E143" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F143" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="G143" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="H143" s="11"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="45">
+        <v>3</v>
+      </c>
+      <c r="B144" s="72"/>
+      <c r="C144" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="42"/>
+      <c r="E144" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F144" s="42"/>
+      <c r="G144" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H144" s="11"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="45">
+        <v>4</v>
+      </c>
+      <c r="B145" s="72"/>
+      <c r="C145" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E145" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F145" s="42"/>
+      <c r="G145" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H145" s="11"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="45">
+        <v>5</v>
+      </c>
+      <c r="B146" s="72"/>
+      <c r="C146" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D146" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E146" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F146" s="42"/>
+      <c r="G146" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="H146" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B140" s="2" t="s">
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="45">
+        <v>6</v>
+      </c>
+      <c r="B147" s="72"/>
+      <c r="C147" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D147" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E147" s="42"/>
+      <c r="F147" s="42" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A141" s="15" t="s">
+      <c r="G147" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="B141" s="43" t="s">
+      <c r="H147" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C141" s="43" t="s">
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="45">
+        <v>7</v>
+      </c>
+      <c r="B148" s="72"/>
+      <c r="C148" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D148" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="D141" s="43" t="s">
+      <c r="G148" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="45">
+        <v>8</v>
+      </c>
+      <c r="B149" s="58"/>
+      <c r="C149" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="E141" s="43" t="s">
+      <c r="D149" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E149" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="F141" s="43" t="s">
+      <c r="G149" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="G141" s="43" t="s">
+      <c r="H149" s="11"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="45">
+        <v>9</v>
+      </c>
+      <c r="B150" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C150" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="H141" s="16" t="s">
+      <c r="D150" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E150" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F150" s="42" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A142" s="41">
-        <v>1</v>
-      </c>
-      <c r="B142" s="56" t="s">
+      <c r="G150" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="45">
+        <v>10</v>
+      </c>
+      <c r="B151" s="52"/>
+      <c r="C151" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C142" s="39" t="s">
+      <c r="D151" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E151" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F151" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="G151" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="H151" s="11"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="45">
+        <v>11</v>
+      </c>
+      <c r="B152" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="D142" s="39" t="s">
+      <c r="C152" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="E142" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F142" s="39" t="s">
+      <c r="D152" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E152" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F152" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="G142" s="39" t="s">
+      <c r="G152" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="H152" s="11"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="45">
+        <v>12</v>
+      </c>
+      <c r="B153" s="58"/>
+      <c r="C153" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="H142" s="2" t="s">
+      <c r="D153" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E153" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F153" s="42"/>
+      <c r="G153" s="42" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A143" s="41">
-        <v>2</v>
-      </c>
-      <c r="B143" s="57"/>
-      <c r="C143" s="39" t="s">
+      <c r="H153" s="11"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="45">
+        <v>13</v>
+      </c>
+      <c r="B154" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C154" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="D143" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E143" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F143" s="39" t="s">
+      <c r="D154" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E154" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F154" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="G143" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="H143" s="11"/>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A144" s="41">
-        <v>3</v>
-      </c>
-      <c r="B144" s="57"/>
-      <c r="C144" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39" t="s">
+      <c r="G154" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H154" s="11"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="45">
+        <v>14</v>
+      </c>
+      <c r="B155" s="52"/>
+      <c r="C155" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D155" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E155" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F155" s="42"/>
+      <c r="G155" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H155" s="11"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="45">
+        <v>15</v>
+      </c>
+      <c r="B156" s="52"/>
+      <c r="C156" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D156" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E156" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F156" s="42"/>
+      <c r="G156" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H156" s="11"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="45">
+        <v>16</v>
+      </c>
+      <c r="B157" s="52"/>
+      <c r="C157" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D157" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E157" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F157" s="42"/>
+      <c r="G157" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H157" s="11"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="45">
+        <v>17</v>
+      </c>
+      <c r="B158" s="52"/>
+      <c r="C158" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D158" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E158" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F158" s="42"/>
+      <c r="G158" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H158" s="11"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="45">
+        <v>18</v>
+      </c>
+      <c r="B159" s="52"/>
+      <c r="C159" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="D159" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E159" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F159" s="42"/>
+      <c r="G159" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H159" s="11"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="45">
+        <v>19</v>
+      </c>
+      <c r="B160" s="52"/>
+      <c r="C160" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D160" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E160" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F160" s="42"/>
+      <c r="G160" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H160" s="11"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="45">
+        <v>20</v>
+      </c>
+      <c r="B161" s="52"/>
+      <c r="C161" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D161" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E161" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F161" s="42"/>
+      <c r="G161" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H161" s="11"/>
+    </row>
+    <row r="162" spans="1:8" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A162" s="45">
+        <v>21</v>
+      </c>
+      <c r="B162" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C162" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D162" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E162" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F162" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="G162" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H162" s="11"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="45">
+        <v>22</v>
+      </c>
+      <c r="B163" s="52"/>
+      <c r="C163" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D163" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E163" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F163" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="G163" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="H163" s="11"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="45">
+        <v>23</v>
+      </c>
+      <c r="B164" s="52"/>
+      <c r="C164" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D164" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F144" s="39"/>
-      <c r="G144" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="H144" s="11"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A145" s="41">
-        <v>4</v>
-      </c>
-      <c r="B145" s="57"/>
-      <c r="C145" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D145" s="39" t="s">
+      <c r="E164" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E145" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F145" s="39"/>
-      <c r="G145" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="H145" s="11"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A146" s="41">
-        <v>5</v>
-      </c>
-      <c r="B146" s="57"/>
-      <c r="C146" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="D146" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E146" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F146" s="39"/>
-      <c r="G146" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="H146" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A147" s="41">
-        <v>6</v>
-      </c>
-      <c r="B147" s="57"/>
-      <c r="C147" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D147" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E147" s="39"/>
-      <c r="F147" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="G147" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="H147" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A148" s="41">
-        <v>7</v>
-      </c>
-      <c r="B148" s="57"/>
-      <c r="C148" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D148" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E148" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F148" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="G148" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="H148" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A149" s="41">
-        <v>8</v>
-      </c>
-      <c r="B149" s="58"/>
-      <c r="C149" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="D149" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E149" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F149" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="G149" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H149" s="11"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A150" s="41">
-        <v>9</v>
-      </c>
-      <c r="B150" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="C150" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="D150" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E150" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F150" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="G150" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="H150" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A151" s="41">
-        <v>10</v>
-      </c>
-      <c r="B151" s="52"/>
-      <c r="C151" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D151" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E151" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F151" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="G151" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="H151" s="11"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A152" s="41">
-        <v>11</v>
-      </c>
-      <c r="B152" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="C152" s="39" t="s">
+      <c r="F164" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="D152" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E152" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F152" s="39" t="s">
+      <c r="G164" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="G152" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="H152" s="11"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A153" s="41">
-        <v>12</v>
-      </c>
-      <c r="B153" s="58"/>
-      <c r="C153" s="39" t="s">
+      <c r="H164" s="11"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="45">
+        <v>24</v>
+      </c>
+      <c r="B165" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C165" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="D153" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E153" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F153" s="39"/>
-      <c r="G153" s="39" t="s">
+      <c r="D165" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E165" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F165" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="H153" s="11"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A154" s="41">
-        <v>13</v>
-      </c>
-      <c r="B154" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="C154" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="D154" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E154" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F154" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="G154" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="H154" s="11"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A155" s="41">
-        <v>14</v>
-      </c>
-      <c r="B155" s="52"/>
-      <c r="C155" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="D155" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E155" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F155" s="39"/>
-      <c r="G155" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="H155" s="11"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A156" s="41">
-        <v>15</v>
-      </c>
-      <c r="B156" s="52"/>
-      <c r="C156" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="D156" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E156" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F156" s="39"/>
-      <c r="G156" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="H156" s="11"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A157" s="41">
-        <v>16</v>
-      </c>
-      <c r="B157" s="52"/>
-      <c r="C157" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D157" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E157" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F157" s="39"/>
-      <c r="G157" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="H157" s="11"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A158" s="41">
-        <v>17</v>
-      </c>
-      <c r="B158" s="52"/>
-      <c r="C158" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="D158" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E158" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F158" s="39"/>
-      <c r="G158" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="H158" s="11"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A159" s="41">
-        <v>18</v>
-      </c>
-      <c r="B159" s="52"/>
-      <c r="C159" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="D159" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E159" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F159" s="39"/>
-      <c r="G159" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="H159" s="11"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A160" s="41">
-        <v>19</v>
-      </c>
-      <c r="B160" s="52"/>
-      <c r="C160" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="D160" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E160" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F160" s="39"/>
-      <c r="G160" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="H160" s="11"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A161" s="41">
-        <v>20</v>
-      </c>
-      <c r="B161" s="52"/>
-      <c r="C161" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D161" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E161" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F161" s="39"/>
-      <c r="G161" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="H161" s="11"/>
-    </row>
-    <row r="162" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A162" s="41">
-        <v>21</v>
-      </c>
-      <c r="B162" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="C162" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="D162" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E162" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F162" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="G162" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="H162" s="11"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A163" s="41">
-        <v>22</v>
-      </c>
-      <c r="B163" s="52"/>
-      <c r="C163" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="D163" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E163" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F163" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="G163" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="H163" s="11"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A164" s="41">
-        <v>23</v>
-      </c>
-      <c r="B164" s="52"/>
-      <c r="C164" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="D164" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E164" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F164" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="G164" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="H164" s="11"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A165" s="41">
-        <v>24</v>
-      </c>
-      <c r="B165" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="C165" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="D165" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E165" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F165" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="G165" s="39"/>
+      <c r="G165" s="42"/>
       <c r="H165" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A166" s="41">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="45">
         <v>25</v>
       </c>
       <c r="B166" s="52"/>
-      <c r="C166" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="D166" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E166" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F166" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="G166" s="39"/>
+      <c r="C166" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D166" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E166" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F166" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="G166" s="42"/>
       <c r="H166" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A167" s="41">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="45">
         <v>26</v>
       </c>
       <c r="B167" s="52"/>
-      <c r="C167" s="39"/>
-      <c r="D167" s="39"/>
-      <c r="E167" s="39"/>
-      <c r="F167" s="39"/>
-      <c r="G167" s="39"/>
+      <c r="C167" s="42"/>
+      <c r="D167" s="42"/>
+      <c r="E167" s="42"/>
+      <c r="F167" s="42"/>
+      <c r="G167" s="42"/>
       <c r="H167" s="11"/>
     </row>
-    <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="42">
+    <row r="168" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="46">
         <v>27</v>
       </c>
-      <c r="B168" s="59"/>
-      <c r="C168" s="40"/>
-      <c r="D168" s="40"/>
-      <c r="E168" s="40"/>
-      <c r="F168" s="40"/>
-      <c r="G168" s="40"/>
+      <c r="B168" s="53"/>
+      <c r="C168" s="44"/>
+      <c r="D168" s="44"/>
+      <c r="E168" s="44"/>
+      <c r="F168" s="44"/>
+      <c r="G168" s="44"/>
       <c r="H168" s="14"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="B181" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="C181" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="C181" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D181" s="60"/>
-      <c r="E181" s="60"/>
+      <c r="D181" s="64"/>
+      <c r="E181" s="64"/>
       <c r="F181" s="34" t="s">
         <v>62</v>
       </c>
       <c r="G181" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="52" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="B182" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="C182" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="D182" s="61"/>
-      <c r="E182" s="61"/>
-      <c r="F182" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="G182" s="39" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="C182" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="D182" s="65"/>
+      <c r="E182" s="65"/>
+      <c r="F182" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="G182" s="42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="52"/>
       <c r="B183" s="52"/>
-      <c r="C183" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="D183" s="62"/>
-      <c r="E183" s="62"/>
-      <c r="F183" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="G183" s="39" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C183" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="D183" s="66"/>
+      <c r="E183" s="66"/>
+      <c r="F183" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G183" s="42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="52"/>
       <c r="B184" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="C184" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="D184" s="63"/>
-      <c r="E184" s="63"/>
-      <c r="F184" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="G184" s="39" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+      <c r="C184" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="D184" s="67"/>
+      <c r="E184" s="67"/>
+      <c r="F184" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="G184" s="42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="52"/>
       <c r="B185" s="52"/>
-      <c r="C185" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="D185" s="63"/>
-      <c r="E185" s="63"/>
-      <c r="F185" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="G185" s="39" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A186" s="64" t="s">
-        <v>211</v>
+      <c r="C185" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="D185" s="67"/>
+      <c r="E185" s="67"/>
+      <c r="F185" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G185" s="42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="54" t="s">
+        <v>187</v>
       </c>
       <c r="B186" s="52" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C186" s="52" t="s">
         <v>64</v>
       </c>
       <c r="D186" s="52"/>
       <c r="E186" s="52"/>
-      <c r="F186" s="39" t="s">
-        <v>206</v>
+      <c r="F186" s="42" t="s">
+        <v>182</v>
       </c>
       <c r="G186" s="24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A187" s="64"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="54"/>
       <c r="B187" s="52"/>
       <c r="C187" s="52" t="s">
         <v>65</v>
       </c>
       <c r="D187" s="52"/>
       <c r="E187" s="52"/>
-      <c r="F187" s="39" t="s">
-        <v>208</v>
+      <c r="F187" s="42" t="s">
+        <v>184</v>
       </c>
       <c r="G187" s="24" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A188" s="64"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="54"/>
       <c r="B188" s="52" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C188" s="52" t="s">
         <v>66</v>
       </c>
       <c r="D188" s="52"/>
       <c r="E188" s="52"/>
-      <c r="F188" s="39" t="s">
-        <v>206</v>
+      <c r="F188" s="42" t="s">
+        <v>182</v>
       </c>
       <c r="G188" s="24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A189" s="64"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="54"/>
       <c r="B189" s="52"/>
       <c r="C189" s="52" t="s">
         <v>67</v>
       </c>
       <c r="D189" s="52"/>
       <c r="E189" s="52"/>
-      <c r="F189" s="39" t="s">
-        <v>208</v>
+      <c r="F189" s="42" t="s">
+        <v>184</v>
       </c>
       <c r="G189" s="24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A190" s="64" t="s">
-        <v>214</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="54" t="s">
+        <v>190</v>
       </c>
       <c r="B190" s="52" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C190" s="52" t="s">
         <v>68</v>
       </c>
       <c r="D190" s="52"/>
       <c r="E190" s="52"/>
-      <c r="F190" s="39" t="s">
-        <v>206</v>
+      <c r="F190" s="42" t="s">
+        <v>182</v>
       </c>
       <c r="G190" s="24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A191" s="64"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="54"/>
       <c r="B191" s="52"/>
       <c r="C191" s="52" t="s">
         <v>69</v>
       </c>
       <c r="D191" s="52"/>
       <c r="E191" s="52"/>
-      <c r="F191" s="39" t="s">
-        <v>208</v>
+      <c r="F191" s="42" t="s">
+        <v>184</v>
       </c>
       <c r="G191" s="24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A192" s="64"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="54"/>
       <c r="B192" s="52" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="C192" s="52" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="D192" s="52"/>
       <c r="E192" s="52"/>
-      <c r="F192" s="39" t="s">
-        <v>206</v>
+      <c r="F192" s="42" t="s">
+        <v>182</v>
       </c>
       <c r="G192" s="24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="65"/>
-      <c r="B193" s="59"/>
-      <c r="C193" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="D193" s="59"/>
-      <c r="E193" s="59"/>
-      <c r="F193" s="40" t="s">
-        <v>208</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="55"/>
+      <c r="B193" s="53"/>
+      <c r="C193" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="D193" s="53"/>
+      <c r="E193" s="53"/>
+      <c r="F193" s="44" t="s">
+        <v>184</v>
       </c>
       <c r="G193" s="25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C194" s="20"/>
       <c r="D194" s="20"/>
       <c r="E194" s="20"/>
       <c r="F194" s="20"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C195" s="20"/>
       <c r="D195" s="20"/>
       <c r="E195" s="20"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C196" s="20"/>
       <c r="D196" s="20"/>
       <c r="E196" s="20"/>
     </row>
-    <row r="197" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C197" s="20"/>
       <c r="D197" s="20"/>
       <c r="E197" s="20"/>
     </row>
-    <row r="198" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="B198" s="66" t="s">
-        <v>221</v>
-      </c>
-      <c r="C198" s="66"/>
-      <c r="D198" s="66"/>
-      <c r="E198" s="66"/>
+        <v>196</v>
+      </c>
+      <c r="B198" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C198" s="56"/>
+      <c r="D198" s="56"/>
+      <c r="E198" s="56"/>
       <c r="F198" s="22" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="G198" s="23" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="B199" s="67" t="s">
-        <v>225</v>
+        <v>200</v>
+      </c>
+      <c r="B199" s="57" t="s">
+        <v>201</v>
       </c>
       <c r="C199" s="58"/>
       <c r="D199" s="58"/>
       <c r="E199" s="58"/>
       <c r="F199" s="36" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="G199" s="37" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B200" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="C200" s="69"/>
-      <c r="D200" s="69"/>
-      <c r="E200" s="70"/>
+        <v>203</v>
+      </c>
+      <c r="B200" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="C200" s="60"/>
+      <c r="D200" s="60"/>
+      <c r="E200" s="61"/>
       <c r="F200" s="10" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="G200" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="B201" s="68" t="s">
-        <v>260</v>
-      </c>
-      <c r="C201" s="69"/>
-      <c r="D201" s="69"/>
-      <c r="E201" s="70"/>
-      <c r="F201" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="G201" s="47" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="B201" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C201" s="60"/>
+      <c r="D201" s="60"/>
+      <c r="E201" s="61"/>
+      <c r="F201" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="G201" s="41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B202" s="71" t="s">
-        <v>261</v>
-      </c>
-      <c r="C202" s="59"/>
-      <c r="D202" s="59"/>
-      <c r="E202" s="59"/>
+        <v>232</v>
+      </c>
+      <c r="B202" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="C202" s="53"/>
+      <c r="D202" s="53"/>
+      <c r="E202" s="53"/>
       <c r="F202" s="13" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="G202" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C203" s="38"/>
     </row>
-    <row r="205" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="B206" s="26" t="s">
         <v>35</v>
@@ -12025,34 +8801,34 @@
       <c r="E206" s="29"/>
       <c r="F206" s="30"/>
       <c r="G206" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="31">
         <v>42682</v>
       </c>
-      <c r="B207" s="43">
+      <c r="B207" s="74">
         <v>1.04</v>
       </c>
-      <c r="C207" s="43" t="s">
+      <c r="C207" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D207" s="72" t="s">
+      <c r="D207" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="E207" s="72"/>
-      <c r="F207" s="72"/>
+      <c r="E207" s="63"/>
+      <c r="F207" s="63"/>
       <c r="G207" s="32"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="33">
         <v>42692</v>
       </c>
-      <c r="B208" s="39">
+      <c r="B208" s="75">
         <v>1.05</v>
       </c>
-      <c r="C208" s="39" t="s">
+      <c r="C208" s="42" t="s">
         <v>70</v>
       </c>
       <c r="D208" s="52" t="s">
@@ -12062,98 +8838,147 @@
       <c r="F208" s="52"/>
       <c r="G208" s="24"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="33">
         <v>42955</v>
       </c>
-      <c r="B209" s="39">
+      <c r="B209" s="75">
         <v>1.06</v>
       </c>
-      <c r="C209" s="39" t="s">
+      <c r="C209" s="42" t="s">
         <v>70</v>
       </c>
       <c r="D209" s="52" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="E209" s="52"/>
       <c r="F209" s="52"/>
       <c r="G209" s="24"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="33">
         <v>42991</v>
       </c>
-      <c r="B210" s="39">
+      <c r="B210" s="75">
         <v>1.07</v>
       </c>
-      <c r="C210" s="39" t="s">
-        <v>233</v>
+      <c r="C210" s="42" t="s">
+        <v>209</v>
       </c>
       <c r="D210" s="52" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="E210" s="52"/>
       <c r="F210" s="52"/>
       <c r="G210" s="24"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="33">
         <v>43026</v>
       </c>
-      <c r="B211" s="39">
+      <c r="B211" s="75">
         <v>1.08</v>
       </c>
-      <c r="C211" s="44" t="s">
-        <v>233</v>
+      <c r="C211" s="42" t="s">
+        <v>209</v>
       </c>
       <c r="D211" s="52" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="E211" s="52"/>
       <c r="F211" s="52"/>
       <c r="G211" s="24"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="33">
         <v>43069</v>
       </c>
-      <c r="B212" s="39">
+      <c r="B212" s="75">
         <v>1.0900000000000001</v>
       </c>
-      <c r="C212" s="39" t="s">
-        <v>255</v>
+      <c r="C212" s="42" t="s">
+        <v>209</v>
       </c>
       <c r="D212" s="52" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="E212" s="52"/>
       <c r="F212" s="52"/>
       <c r="G212" s="24"/>
     </row>
-    <row r="213" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="42"/>
-      <c r="B213" s="40"/>
-      <c r="C213" s="40"/>
-      <c r="D213" s="59"/>
-      <c r="E213" s="59"/>
-      <c r="F213" s="59"/>
-      <c r="G213" s="25"/>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="76">
+        <v>43248</v>
+      </c>
+      <c r="B213" s="77">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C213" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D213" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="E213" s="43"/>
+      <c r="F213" s="43"/>
+      <c r="G213" s="78"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="76">
+        <v>43339</v>
+      </c>
+      <c r="B214" s="77">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C214" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D214" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="E214" s="43"/>
+      <c r="F214" s="43"/>
+      <c r="G214" s="78"/>
+    </row>
+    <row r="215" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="79">
+        <v>43177</v>
+      </c>
+      <c r="B215" s="80">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C215" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D215" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="E215" s="53"/>
+      <c r="F215" s="53"/>
+      <c r="G215" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection password="DD9F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/YXf/GKzpOayechm2B+S03BO3u2Uem22BxPcAMvql2tPnKfCTDsTLVEU3KWBbwq2lCB+FweTGV5YescN5A4hRg==" saltValue="sMw5B4rInLBscxci5ZEIeA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
+      <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="41">
+    <mergeCell ref="D208:F208"/>
     <mergeCell ref="D209:F209"/>
     <mergeCell ref="D210:F210"/>
     <mergeCell ref="D211:F211"/>
     <mergeCell ref="D212:F212"/>
-    <mergeCell ref="D213:F213"/>
-    <mergeCell ref="D208:F208"/>
+    <mergeCell ref="D215:F215"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="B199:E199"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="B201:E201"/>
+    <mergeCell ref="B202:E202"/>
+    <mergeCell ref="D207:F207"/>
     <mergeCell ref="A190:A193"/>
     <mergeCell ref="B190:B191"/>
     <mergeCell ref="C190:E190"/>
@@ -12161,12 +8986,6 @@
     <mergeCell ref="B192:B193"/>
     <mergeCell ref="C192:E192"/>
     <mergeCell ref="C193:E193"/>
-    <mergeCell ref="B198:E198"/>
-    <mergeCell ref="B199:E199"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="B202:E202"/>
-    <mergeCell ref="D207:F207"/>
-    <mergeCell ref="B201:E201"/>
     <mergeCell ref="A186:A189"/>
     <mergeCell ref="B186:B187"/>
     <mergeCell ref="C186:E186"/>
@@ -12183,12 +9002,12 @@
     <mergeCell ref="B184:B185"/>
     <mergeCell ref="C184:E184"/>
     <mergeCell ref="C185:E185"/>
-    <mergeCell ref="B162:B164"/>
     <mergeCell ref="F109:N109"/>
     <mergeCell ref="B142:B149"/>
     <mergeCell ref="B150:B151"/>
     <mergeCell ref="B152:B153"/>
     <mergeCell ref="B154:B161"/>
+    <mergeCell ref="B162:B164"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12203,9 +9022,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -12215,11 +9034,11 @@
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>

--- a/tmp_client/doc/TMP_example/diamond_regression.xlsx
+++ b/tmp_client/doc/TMP_example/diamond_regression.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\tmp_client\doc\TMP_example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="0lxzURpaM9+3foqReom8Kb9pmnEjm0Q9Y5LJN8zrba/xG2HtlACKVHvTqAAUiJOrCd/gzChZ9tQjlmDYuy21kg==" workbookSaltValue="1X7MJrsmjAw6MEQEviyBOQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="0sngsN6DrFUqmuDZZhkIhd0EivD5xjZ0nj5fkMPZg+GIws2dGdQ895P+5SBGWtagLIQbEIRaHiBSjM2rhskk/Q==" workbookSaltValue="j22CHco5Hi8vlbKkcb9mlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-12" yWindow="6300" windowWidth="28836" windowHeight="6240"/>
   </bookViews>
@@ -19,22 +19,22 @@
     <sheet name="comments" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AB$2</definedName>
-    <definedName name="Z_16B2C8B3_13FA_43FB_96C1_3763C72619A6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AB$2</definedName>
-    <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AB$2</definedName>
-    <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AB$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AC$2</definedName>
+    <definedName name="Z_16B2C8B3_13FA_43FB_96C1_3763C72619A6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AC$2</definedName>
+    <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AC$2</definedName>
+    <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AC$2</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1050" activeSheetId="3"/>
+    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
     <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1911" yWindow="-9" windowWidth="1938" windowHeight="1098" activeSheetId="3"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="362">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -170,12 +170,6 @@
   </si>
   <si>
     <t>√</t>
-  </si>
-  <si>
-    <t>Depends on user</t>
-  </si>
-  <si>
-    <t>script_address</t>
   </si>
   <si>
     <t>separate by ","</t>
@@ -237,9 +231,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>priority</t>
-  </si>
-  <si>
     <t>For user comments, script will not read.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -293,6 +284,30 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>general info</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Must Field</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default value for upload</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>Available values</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -301,6 +316,10 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>Integer</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>YES</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -313,11 +332,39 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>String</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values in design_name</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>Section</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>Test Cases</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>design_name</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestLevel</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestScenarios</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -444,6 +491,14 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>NO</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>Table 2</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -456,6 +511,10 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>Section</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>Option</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -477,6 +536,10 @@
   </si>
   <si>
     <t>Comment</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseInfo</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -544,6 +607,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>Environment</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>foundry</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -576,6 +643,10 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>Software</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>diamond</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -616,6 +687,10 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>System</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>os</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -652,6 +727,10 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>Machine</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>terminal</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -669,10 +748,6 @@
   </si>
   <si>
     <t>Notes:</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. for option priority, case&gt;suite</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -847,6 +922,10 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>Functionality</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>Usability</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -857,10 +936,6 @@
   <si>
     <t>Performance</t>
     <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manually</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Stability </t>
@@ -891,6 +966,10 @@
   </si>
   <si>
     <t>Major</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -1159,6 +1238,105 @@
     <t>cmd = --run-map --dsp --seed-sweep=1 1 1 --synthesis=synplify --use-sdc</t>
   </si>
   <si>
+    <t>Jason Wang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR column will be upload</t>
+  </si>
+  <si>
+    <t>update timeout data range and update the new definition</t>
+  </si>
+  <si>
+    <t>0, any integer in 30 ~ 2147483638</t>
+  </si>
+  <si>
+    <t>in seconds, 0 means 2147483638 seconds, any wrong format or out of range value will have a default value 3600</t>
+  </si>
+  <si>
+    <t>Automated</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Note.2)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. for option priority, case&gt;suite</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. The following environment variables will be ignored due to Core Script processing method:
+LM_LICENSE_FILE,TW_PAP_VERBOSE,LSC_RECORD_CPUMEM,SEDISABLE,LSC_REPORT_MEMORY,DISABLE_TMCHECK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple case sheet support</t>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>script_address</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>script_version</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depends on user</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>For version control repository only</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automated column added</t>
+  </si>
+  <si>
+    <t>Test case export version support for version controled repository</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>repository = $xlsx_dest</t>
   </si>
   <si>
@@ -1166,74 +1344,6 @@
   </si>
   <si>
     <t>diamond=3.10p_102</t>
-  </si>
-  <si>
-    <t>general info</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Must Field</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upload</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default value for upload</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Values in design_name</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Cases</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestLevel</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestScenarios</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, any integer in 30 ~ 2147483638</t>
-  </si>
-  <si>
-    <t>in seconds, 0 means 2147483638 seconds, any wrong format or out of range value will have a default value 3600</t>
-  </si>
-  <si>
-    <t>CR column will be upload</t>
-  </si>
-  <si>
-    <t>update timeout data range and update the new definition</t>
-  </si>
-  <si>
-    <t>multiple case sheet support</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1608,7 +1718,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -2147,6 +2257,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2282,7 +2423,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2398,6 +2539,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="41" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2407,57 +2566,118 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="41" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="21" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="40" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="16" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="19" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="24" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="22" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="27" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="28" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="29" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="27" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="28" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="29" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2471,56 +2691,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="16" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="19" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="40" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="24" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="21" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="22" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2608,8 +2791,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9524" y="741044"/>
-          <a:ext cx="14401801" cy="18361302"/>
+          <a:off x="9524" y="695324"/>
+          <a:ext cx="15430501" cy="17218302"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3593,7 +3776,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>        1. All sheets with name of 'case_' will be considered as case sheet, the sheet priority will be same as the sheet ordering in Excel Workbook</a:t>
+            <a:t>        1. All sheets with name of 'case_' will be considered as case sheet, the sheet priority will be same as the sheet sequence in Excel Workbook</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3691,7 +3874,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>	NoUse:  if marked as YES, this case will not be upload to TMP</a:t>
+            <a:t>	NoUse:  if marked as YES, this case will not be run by TMP server/client</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3821,6 +4004,37 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>	Priority: test case priority, see table1 for available value. shown on page</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                             Automated:test case automation stauts, see table1 for available value. shown on page</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
@@ -4661,8 +4875,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14373225" y="1847850"/>
-          <a:ext cx="6226302" cy="4291965"/>
+          <a:off x="15401925" y="1733550"/>
+          <a:ext cx="6912101" cy="4029075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4714,8 +4928,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14382750" y="7016115"/>
-          <a:ext cx="9961244" cy="7556635"/>
+          <a:off x="15411450" y="6581775"/>
+          <a:ext cx="11058524" cy="7088005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4728,13 +4942,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4744,8 +4958,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1344930" y="32106870"/>
-          <a:ext cx="6250305" cy="1424940"/>
+          <a:off x="1495425" y="30670500"/>
+          <a:ext cx="6848475" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4821,7 +5035,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>questasim version 10.2 so the following line will be write into Case sheet::Software column (use semicolon when you have multi values):         </a:t>
+            <a:t>questasim version 10.2 so the following lines will be write into Case sheet::Software column (use semicolon when you have multi values):         </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4863,8 +5077,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8896126" y="10525013"/>
-          <a:ext cx="5661212" cy="1474246"/>
+          <a:off x="9888631" y="9873503"/>
+          <a:ext cx="5765987" cy="1382806"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4910,8 +5124,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8539331" y="3437517"/>
-          <a:ext cx="5804199" cy="458992"/>
+          <a:off x="9287996" y="3231777"/>
+          <a:ext cx="6084234" cy="424702"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4941,8 +5155,16 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D058B806-AB91-4380-959B-8603C3287824}">
-  <header guid="{D058B806-AB91-4380-959B-8603C3287824}" dateTime="2019-03-18T12:33:34" maxSheetId="5" userName="Jason Wang" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{82EF3929-AE90-4F08-8108-0D9480DC4406}" diskRevisions="1" revisionId="4" version="2">
+  <header guid="{00B8F476-F32D-48BA-948C-73C267CE3733}" dateTime="2019-06-27T10:31:28" maxSheetId="5" userName="Jason Wang" r:id="rId1">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{82EF3929-AE90-4F08-8108-0D9480DC4406}" dateTime="2019-06-27T10:36:38" maxSheetId="5" userName="Jason Wang" r:id="rId2" minRId="1" maxRId="4">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -4957,8 +5179,59 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <oc r="B4" t="inlineStr">
+      <is>
+        <t>repository = http://lshlabd0011/platform/trunk/bqs_scripts/regression_suite</t>
+      </is>
+    </oc>
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>repository = $xlsx_dest</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2" sId="1">
+    <oc r="B5" t="inlineStr">
+      <is>
+        <t>suite_path = diamond_suite</t>
+      </is>
+    </oc>
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>suite_path = ./</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3" sId="1">
+    <oc r="B8" t="inlineStr">
+      <is>
+        <t>diamond=3.9.0.48</t>
+      </is>
+    </oc>
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>diamond=3.10p_102</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="1">
+    <oc r="B9" t="inlineStr">
+      <is>
+        <t>os_type=windows</t>
+      </is>
+    </oc>
+    <nc r="B9"/>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{00B8F476-F32D-48BA-948C-73C267CE3733}" name="Jason Wang" id="-981746235" dateTime="2019-06-27T10:35:40"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5250,7 +5523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5269,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5277,7 +5552,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5285,12 +5560,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5303,7 +5578,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5311,7 +5586,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5326,13 +5601,14 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="DD9F" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -5341,8 +5617,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="B35" sqref="B35"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <selection activeCell="B12" sqref="B12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -5355,20 +5631,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB46"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="18"/>
+    <col min="1" max="1" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="18" customWidth="1"/>
     <col min="3" max="3" width="33.21875" style="18" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="18" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" style="18" customWidth="1"/>
@@ -5377,56 +5653,58 @@
     <col min="8" max="8" width="37" style="18" customWidth="1"/>
     <col min="9" max="9" width="11.109375" style="18" customWidth="1"/>
     <col min="10" max="10" width="10.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38" style="18" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" style="18" customWidth="1"/>
-    <col min="13" max="13" width="30.33203125" style="18" customWidth="1"/>
-    <col min="14" max="14" width="17.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" style="18" customWidth="1"/>
-    <col min="16" max="16" width="13" style="18" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="18" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" style="18" customWidth="1"/>
-    <col min="19" max="19" width="11" style="18" customWidth="1"/>
-    <col min="20" max="20" width="11.77734375" style="18" customWidth="1"/>
-    <col min="21" max="26" width="9" style="18"/>
-    <col min="27" max="27" width="10.109375" style="18" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="18"/>
+    <col min="11" max="11" width="13.88671875" style="18" customWidth="1"/>
+    <col min="12" max="12" width="38" style="18" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" style="18" customWidth="1"/>
+    <col min="14" max="14" width="30.33203125" style="18" customWidth="1"/>
+    <col min="15" max="15" width="17.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="13" style="18" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="18" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" style="18" customWidth="1"/>
+    <col min="20" max="20" width="11" style="18" customWidth="1"/>
+    <col min="21" max="21" width="11.77734375" style="18" customWidth="1"/>
+    <col min="22" max="27" width="9" style="18"/>
+    <col min="28" max="28" width="10.109375" style="18" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="19" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:29" s="19" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-    </row>
-    <row r="2" spans="1:28" s="19" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+    </row>
+    <row r="2" spans="1:29" s="19" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -5458,1446 +5736,1449 @@
         <v>26</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="N2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="Z2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="AB2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>1</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="I3" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="R3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="J4" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N4" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>3</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="F5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>4</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="F6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>5</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="F7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>6</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="F8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>7</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="F9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="F10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="H10" s="18" t="s">
+      <c r="I10" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="N10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>9</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="F11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>10</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="F12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>11</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="F13" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>12</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="F14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>13</v>
       </c>
       <c r="C15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="H15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="N15" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>14</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="18" t="s">
+      <c r="I16" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="N16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>15</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="F17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>16</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>17</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>18</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="F20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>19</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="O21" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="P21" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>20</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="F22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>21</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="F23" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>22</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="F24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>23</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="F25" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H25" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>24</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H26" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="O26" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="P26" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>25</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="F27" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I27" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="O27" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>26</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="F28" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H28" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I28" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M28" s="18" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="O28" s="18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>27</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="F29" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H29" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I29" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M29" s="18" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="O29" s="18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>28</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="F30" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H30" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I30" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M30" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="O30" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="P30" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>29</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="F31" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H31" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I31" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M31" s="18" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="O31" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>30</v>
       </c>
       <c r="C32" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="F32" s="18" t="s">
+      <c r="H32" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I32" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M32" s="18" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="O32" s="18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>31</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="F33" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="H33" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I33" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M33" s="18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="N33" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>32</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="F34" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="H34" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G34" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I34" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M34" s="18" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="N34" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>33</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F35" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="H35" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I35" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M35" s="18" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="N35" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>34</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="F36" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="H36" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I36" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M36" s="18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="N36" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>35</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="F37" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="H37" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I37" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M37" s="18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>36</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="F38" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="H38" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G38" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I38" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M38" s="18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>37</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="F39" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="H39" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I39" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M39" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="N39" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>38</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="F40" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="H40" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G40" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I40" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M40" s="18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="N40" s="18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>39</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="F41" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="H41" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G41" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I41" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M41" s="18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="N41" s="18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>40</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="F42" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="H42" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G42" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I42" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M42" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="N42" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>41</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="F43" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="H43" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I43" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M43" s="18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="N43" s="18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>42</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="F44" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="H44" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I44" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <v>43</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="F45" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="H45" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="H45" s="18" t="s">
+      <c r="I45" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="N45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I45" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="J45" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M45" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>44</v>
       </c>
@@ -6905,43 +7186,43 @@
         <v>36</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="F46" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="H46" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="I46" s="18" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="M46" s="18" t="s">
-        <v>313</v>
+        <v>241</v>
+      </c>
+      <c r="N46" s="18" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QWIFiql18jkuskfxiwrHr0t6MeKgu7HKl2DmdYROPnfiYy4oY7O33x8VoAVA/TpKZWCil4Q8miZUTPf/Zst4Hg==" saltValue="9+mrgr/xoY9s4uDZAPFvBg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A2:AB2"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AHLVy9+9wD0WM8xBNaFkC6SVMghf9BJzREvWI9cuzygudb9ntsD0AThzEkqL0q+33twmO+3FI3e5tftlkgDnRw==" saltValue="3m6qx8Bdbc6/0okfGORKFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A2:AC2"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:AB2"/>
+      <autoFilter ref="A2:Y2"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -6950,59 +7231,79 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A2:Y2"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:Y2"/>
+      <autoFilter ref="A2:AC2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:AB1"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="V1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1 V1:Z1">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:U1">
+      <formula1>$F$119:$J$119</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B1">
+      <formula1>$F$119:$J$119</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:I1">
+      <formula1>$F$119:$J$119</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>#REF!</xm:f>
+            <xm:f>description!$F$115:$H$115</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>description!$F$118:$K$118</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>description!$F$136:$H$136</xm:f>
+          </x14:formula1>
+          <xm:sqref>AA1:AA1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>description!$F$137:$H$137</xm:f>
+          </x14:formula1>
+          <xm:sqref>AB1:AB1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>description!$F$111:$G$111</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>#REF!</xm:f>
+            <xm:f>description!$F$120:$H$120</xm:f>
           </x14:formula1>
-          <xm:sqref>Z2:Z1048576</xm:sqref>
+          <xm:sqref>K1:K1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>description!$F$114:$H$114</xm:f>
+            <xm:f>description!$E$119:$K$119</xm:f>
           </x14:formula1>
-          <xm:sqref>F2 F2:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>description!$F$117:$K$117</xm:f>
-          </x14:formula1>
-          <xm:sqref>I6 I2:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>description!$F$118:$J$118</xm:f>
-          </x14:formula1>
-          <xm:sqref>K7 J1:J1048576 A1:T1 J2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>description!$F$136:$H$136</xm:f>
-          </x14:formula1>
-          <xm:sqref>AA1:AA1048576 U1:AB1 AA2</xm:sqref>
+          <xm:sqref>J1:J1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7012,11 +7313,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N215"/>
+  <dimension ref="A1:N221"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7037,8 +7336,8 @@
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="73">
-        <v>1.1200000000000001</v>
+      <c r="B1" s="49">
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7046,7 +7345,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3">
-        <v>43542</v>
+        <v>43643</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7054,52 +7353,52 @@
     <row r="107" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>317</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="F109" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="G109" s="69"/>
-      <c r="H109" s="69"/>
-      <c r="I109" s="69"/>
-      <c r="J109" s="69"/>
-      <c r="K109" s="69"/>
-      <c r="L109" s="69"/>
-      <c r="M109" s="69"/>
-      <c r="N109" s="70"/>
+        <v>80</v>
+      </c>
+      <c r="F109" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="G109" s="71"/>
+      <c r="H109" s="71"/>
+      <c r="I109" s="71"/>
+      <c r="J109" s="71"/>
+      <c r="K109" s="71"/>
+      <c r="L109" s="71"/>
+      <c r="M109" s="71"/>
+      <c r="N109" s="72"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
@@ -7114,21 +7413,21 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F111" s="10"/>
+        <v>341</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
@@ -7140,19 +7439,19 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>325</v>
+        <v>88</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
@@ -7166,18 +7465,20 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D113" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E113" s="10"/>
+      <c r="E113" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
@@ -7190,29 +7491,21 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>326</v>
+        <v>91</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>323</v>
+        <v>87</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E114" s="10">
-        <v>1</v>
-      </c>
-      <c r="F114" s="10">
-        <v>1</v>
-      </c>
-      <c r="G114" s="10">
-        <v>2</v>
-      </c>
-      <c r="H114" s="10">
-        <v>3</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
       <c r="K114" s="10"/>
@@ -7222,21 +7515,29 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>327</v>
+        <v>92</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>328</v>
+        <v>83</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="E115" s="10">
+        <v>1</v>
+      </c>
+      <c r="F115" s="10">
+        <v>1</v>
+      </c>
+      <c r="G115" s="10">
+        <v>2</v>
+      </c>
+      <c r="H115" s="10">
+        <v>3</v>
+      </c>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
       <c r="K115" s="10"/>
@@ -7246,16 +7547,16 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>329</v>
+        <v>93</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>328</v>
+        <v>94</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
@@ -7270,72 +7571,58 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="H117" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="I117" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="J117" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="K117" s="10" t="s">
-        <v>219</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
       <c r="L117" s="10"/>
       <c r="M117" s="10"/>
       <c r="N117" s="11"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C118" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B118" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="D118" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>86</v>
+        <v>233</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="K118" s="10"/>
       <c r="L118" s="10"/>
@@ -7344,25 +7631,35 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E119" s="10"/>
+        <v>341</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="F119" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="10"/>
+        <v>244</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="J119" s="10" t="s">
+        <v>243</v>
+      </c>
       <c r="K119" s="10"/>
       <c r="L119" s="10"/>
       <c r="M119" s="10"/>
@@ -7370,22 +7667,26 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>89</v>
+        <v>338</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E120" s="10"/>
+        <v>342</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>342</v>
+      </c>
       <c r="F120" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G120" s="10"/>
+        <v>342</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="H120" s="10"/>
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
@@ -7396,20 +7697,20 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
@@ -7422,20 +7723,20 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>328</v>
+        <v>94</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="10" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
@@ -7448,20 +7749,20 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>328</v>
+        <v>102</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="10" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
@@ -7474,20 +7775,20 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>328</v>
+        <v>94</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
@@ -7500,19 +7801,21 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
+      <c r="F125" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
       <c r="I125" s="10"/>
@@ -7524,19 +7827,21 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B126" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
@@ -7548,16 +7853,16 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
@@ -7572,16 +7877,16 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
@@ -7596,21 +7901,19 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E129" s="10"/>
-      <c r="F129" s="10" t="s">
-        <v>80</v>
-      </c>
+      <c r="F129" s="10"/>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
       <c r="I129" s="10"/>
@@ -7622,16 +7925,16 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
@@ -7646,16 +7949,16 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
@@ -7670,16 +7973,16 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
@@ -7694,16 +7997,16 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C133" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
@@ -7718,10 +8021,10 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>37</v>
@@ -7742,29 +8045,21 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F135" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G135" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H135" s="10" t="s">
-        <v>110</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
       <c r="I135" s="10"/>
       <c r="J135" s="10"/>
       <c r="K135" s="10"/>
@@ -7773,1212 +8068,1338 @@
       <c r="N135" s="11"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B136" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C136" s="40" t="s">
+      <c r="A136" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H136" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
+      <c r="K136" s="10"/>
+      <c r="L136" s="10"/>
+      <c r="M136" s="10"/>
+      <c r="N136" s="11"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B137" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C137" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D136" s="40" t="s">
+      <c r="D137" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E136" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="F136" s="40" t="s">
+      <c r="E137" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F137" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="G136" s="40" t="s">
+      <c r="G137" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H136" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I136" s="40"/>
-      <c r="J136" s="40"/>
-      <c r="K136" s="40"/>
-      <c r="L136" s="40"/>
-      <c r="M136" s="40"/>
-      <c r="N136" s="41"/>
-    </row>
-    <row r="137" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D137" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
-      <c r="J137" s="13"/>
-      <c r="K137" s="13"/>
-      <c r="L137" s="13"/>
-      <c r="M137" s="13"/>
-      <c r="N137" s="14"/>
-    </row>
-    <row r="140" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B141" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C141" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="D141" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="E141" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="F141" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="G141" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H141" s="16" t="s">
+      <c r="H137" s="46" t="s">
         <v>124</v>
       </c>
+      <c r="I137" s="46"/>
+      <c r="J137" s="46"/>
+      <c r="K137" s="46"/>
+      <c r="L137" s="46"/>
+      <c r="M137" s="46"/>
+      <c r="N137" s="47"/>
+    </row>
+    <row r="138" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="13"/>
+      <c r="M138" s="13"/>
+      <c r="N138" s="14"/>
+    </row>
+    <row r="141" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="45">
+      <c r="A142" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B142" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C142" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D142" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E142" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F142" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="G142" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="H142" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="41">
         <v>1</v>
       </c>
-      <c r="B142" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C142" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D142" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E142" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F142" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="G142" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="45">
+      <c r="B143" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="C143" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D143" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E143" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F143" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G143" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="41">
         <v>2</v>
       </c>
-      <c r="B143" s="72"/>
-      <c r="C143" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D143" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E143" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F143" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="G143" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="H143" s="11"/>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="45">
+      <c r="B144" s="74"/>
+      <c r="C144" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D144" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="E144" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F144" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="G144" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H144" s="11"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="59">
         <v>3</v>
       </c>
-      <c r="B144" s="72"/>
-      <c r="C144" s="42" t="s">
+      <c r="B145" s="74"/>
+      <c r="C145" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D144" s="42"/>
-      <c r="E144" s="42" t="s">
+      <c r="D145" s="39"/>
+      <c r="E145" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="F145" s="39"/>
+      <c r="G145" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="H145" s="11"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="59">
+        <v>4</v>
+      </c>
+      <c r="B146" s="74"/>
+      <c r="C146" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="D146" s="60" t="s">
+        <v>355</v>
+      </c>
+      <c r="E146" s="60" t="s">
+        <v>355</v>
+      </c>
+      <c r="F146" s="60"/>
+      <c r="G146" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="59">
+        <v>5</v>
+      </c>
+      <c r="B147" s="74"/>
+      <c r="C147" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="D147" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="F144" s="42"/>
-      <c r="G144" s="42" t="s">
+      <c r="E147" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F147" s="39"/>
+      <c r="G147" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="H147" s="11"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="59">
+        <v>6</v>
+      </c>
+      <c r="B148" s="74"/>
+      <c r="C148" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="D148" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" s="60"/>
+      <c r="G148" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="59">
+        <v>7</v>
+      </c>
+      <c r="B149" s="74"/>
+      <c r="C149" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D149" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E149" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F149" s="39"/>
+      <c r="G149" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="59">
+        <v>8</v>
+      </c>
+      <c r="B150" s="74"/>
+      <c r="C150" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="D150" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E150" s="39"/>
+      <c r="F150" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="G150" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="59">
+        <v>9</v>
+      </c>
+      <c r="B151" s="74"/>
+      <c r="C151" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D151" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E151" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F151" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="G151" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="H151" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="59">
+        <v>10</v>
+      </c>
+      <c r="B152" s="75"/>
+      <c r="C152" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D152" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E152" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F152" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="G152" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H152" s="11"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="59">
+        <v>11</v>
+      </c>
+      <c r="B153" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="C153" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D153" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E153" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F153" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G153" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="59">
+        <v>12</v>
+      </c>
+      <c r="B154" s="69"/>
+      <c r="C154" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="D154" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E154" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F154" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="G154" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="59">
+        <v>13</v>
+      </c>
+      <c r="B155" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C155" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D155" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E155" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F155" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="G155" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H155" s="11"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="59">
+        <v>14</v>
+      </c>
+      <c r="B156" s="75"/>
+      <c r="C156" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D156" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E156" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F156" s="39"/>
+      <c r="G156" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="H156" s="11"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="59">
+        <v>15</v>
+      </c>
+      <c r="B157" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="C157" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D157" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E157" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F157" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G157" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H157" s="11"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="59">
+        <v>16</v>
+      </c>
+      <c r="B158" s="69"/>
+      <c r="C158" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D158" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E158" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F158" s="39"/>
+      <c r="G158" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H158" s="11"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="59">
+        <v>17</v>
+      </c>
+      <c r="B159" s="69"/>
+      <c r="C159" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D159" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E159" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F159" s="39"/>
+      <c r="G159" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H159" s="11"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="59">
+        <v>18</v>
+      </c>
+      <c r="B160" s="69"/>
+      <c r="C160" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D160" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E160" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F160" s="39"/>
+      <c r="G160" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H160" s="11"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="59">
+        <v>19</v>
+      </c>
+      <c r="B161" s="69"/>
+      <c r="C161" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="D161" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E161" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F161" s="39"/>
+      <c r="G161" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H161" s="11"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="59">
+        <v>20</v>
+      </c>
+      <c r="B162" s="69"/>
+      <c r="C162" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="D162" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E162" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F162" s="39"/>
+      <c r="G162" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H162" s="11"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="59">
+        <v>21</v>
+      </c>
+      <c r="B163" s="69"/>
+      <c r="C163" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D163" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E163" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F163" s="39"/>
+      <c r="G163" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H163" s="11"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="59">
+        <v>22</v>
+      </c>
+      <c r="B164" s="69"/>
+      <c r="C164" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D164" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E164" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F164" s="39"/>
+      <c r="G164" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H164" s="11"/>
+    </row>
+    <row r="165" spans="1:8" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A165" s="59">
+        <v>23</v>
+      </c>
+      <c r="B165" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="C165" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D165" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E165" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F165" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="G165" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="H165" s="11"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="59">
+        <v>24</v>
+      </c>
+      <c r="B166" s="69"/>
+      <c r="C166" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D166" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E166" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F166" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="G166" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="H166" s="11"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="59">
+        <v>25</v>
+      </c>
+      <c r="B167" s="69"/>
+      <c r="C167" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D167" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E167" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F167" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="G167" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="H167" s="11"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="59">
+        <v>26</v>
+      </c>
+      <c r="B168" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="C168" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="D168" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E168" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F168" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="G168" s="39"/>
+      <c r="H168" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H144" s="11"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="45">
-        <v>4</v>
-      </c>
-      <c r="B145" s="72"/>
-      <c r="C145" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D145" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E145" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F145" s="42"/>
-      <c r="G145" s="42" t="s">
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="59">
+        <v>27</v>
+      </c>
+      <c r="B169" s="69"/>
+      <c r="C169" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D169" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E169" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F169" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="G169" s="39"/>
+      <c r="H169" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H145" s="11"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="45">
-        <v>5</v>
-      </c>
-      <c r="B146" s="72"/>
-      <c r="C146" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="D146" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E146" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F146" s="42"/>
-      <c r="G146" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="H146" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="45">
-        <v>6</v>
-      </c>
-      <c r="B147" s="72"/>
-      <c r="C147" s="42" t="s">
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="59">
+        <v>28</v>
+      </c>
+      <c r="B170" s="69"/>
+      <c r="C170" s="39"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="39"/>
+      <c r="F170" s="39"/>
+      <c r="G170" s="39"/>
+      <c r="H170" s="11"/>
+    </row>
+    <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="42">
+        <v>29</v>
+      </c>
+      <c r="B171" s="76"/>
+      <c r="C171" s="40"/>
+      <c r="D171" s="40"/>
+      <c r="E171" s="40"/>
+      <c r="F171" s="40"/>
+      <c r="G171" s="40"/>
+      <c r="H171" s="14"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B185" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C185" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D147" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E147" s="42"/>
-      <c r="F147" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="G147" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="H147" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="45">
-        <v>7</v>
-      </c>
-      <c r="B148" s="72"/>
-      <c r="C148" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="D148" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E148" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F148" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="G148" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="H148" s="11" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="45">
-        <v>8</v>
-      </c>
-      <c r="B149" s="58"/>
-      <c r="C149" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D149" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E149" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F149" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="G149" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="H149" s="11"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="45">
-        <v>9</v>
-      </c>
-      <c r="B150" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C150" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="D150" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E150" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F150" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="G150" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="H150" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="45">
-        <v>10</v>
-      </c>
-      <c r="B151" s="52"/>
-      <c r="C151" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="D151" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E151" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F151" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="G151" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="H151" s="11"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="45">
-        <v>11</v>
-      </c>
-      <c r="B152" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="C152" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D152" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E152" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F152" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="G152" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="H152" s="11"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="45">
-        <v>12</v>
-      </c>
-      <c r="B153" s="58"/>
-      <c r="C153" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="D153" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E153" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F153" s="42"/>
-      <c r="G153" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="H153" s="11"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="45">
-        <v>13</v>
-      </c>
-      <c r="B154" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="C154" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="D154" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E154" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F154" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G154" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="H154" s="11"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="45">
-        <v>14</v>
-      </c>
-      <c r="B155" s="52"/>
-      <c r="C155" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="D155" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E155" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F155" s="42"/>
-      <c r="G155" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="H155" s="11"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="45">
-        <v>15</v>
-      </c>
-      <c r="B156" s="52"/>
-      <c r="C156" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="D156" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E156" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F156" s="42"/>
-      <c r="G156" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="H156" s="11"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="45">
-        <v>16</v>
-      </c>
-      <c r="B157" s="52"/>
-      <c r="C157" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="D157" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E157" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F157" s="42"/>
-      <c r="G157" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="H157" s="11"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="45">
-        <v>17</v>
-      </c>
-      <c r="B158" s="52"/>
-      <c r="C158" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="D158" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E158" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F158" s="42"/>
-      <c r="G158" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="H158" s="11"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="45">
-        <v>18</v>
-      </c>
-      <c r="B159" s="52"/>
-      <c r="C159" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="D159" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E159" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F159" s="42"/>
-      <c r="G159" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="H159" s="11"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="45">
-        <v>19</v>
-      </c>
-      <c r="B160" s="52"/>
-      <c r="C160" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="D160" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E160" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F160" s="42"/>
-      <c r="G160" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="H160" s="11"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="45">
-        <v>20</v>
-      </c>
-      <c r="B161" s="52"/>
-      <c r="C161" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="D161" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E161" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F161" s="42"/>
-      <c r="G161" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="H161" s="11"/>
-    </row>
-    <row r="162" spans="1:8" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A162" s="45">
-        <v>21</v>
-      </c>
-      <c r="B162" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C162" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="D162" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E162" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F162" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="G162" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="H162" s="11"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="45">
-        <v>22</v>
-      </c>
-      <c r="B163" s="52"/>
-      <c r="C163" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="D163" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E163" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F163" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="G163" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="H163" s="11"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="45">
-        <v>23</v>
-      </c>
-      <c r="B164" s="52"/>
-      <c r="C164" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="D164" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E164" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F164" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="G164" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="H164" s="11"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="45">
-        <v>24</v>
-      </c>
-      <c r="B165" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="C165" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="D165" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E165" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F165" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="G165" s="42"/>
-      <c r="H165" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="45">
-        <v>25</v>
-      </c>
-      <c r="B166" s="52"/>
-      <c r="C166" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D166" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E166" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F166" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G166" s="42"/>
-      <c r="H166" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="45">
-        <v>26</v>
-      </c>
-      <c r="B167" s="52"/>
-      <c r="C167" s="42"/>
-      <c r="D167" s="42"/>
-      <c r="E167" s="42"/>
-      <c r="F167" s="42"/>
-      <c r="G167" s="42"/>
-      <c r="H167" s="11"/>
-    </row>
-    <row r="168" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="46">
-        <v>27</v>
-      </c>
-      <c r="B168" s="53"/>
-      <c r="C168" s="44"/>
-      <c r="D168" s="44"/>
-      <c r="E168" s="44"/>
-      <c r="F168" s="44"/>
-      <c r="G168" s="44"/>
-      <c r="H168" s="14"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B181" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C181" s="64" t="s">
+      <c r="D185" s="77"/>
+      <c r="E185" s="77"/>
+      <c r="F185" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G185" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="B186" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="C186" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="D186" s="78"/>
+      <c r="E186" s="78"/>
+      <c r="F186" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="G186" s="39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="69"/>
+      <c r="B187" s="69"/>
+      <c r="C187" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D187" s="79"/>
+      <c r="E187" s="79"/>
+      <c r="F187" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="G187" s="39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="69"/>
+      <c r="B188" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="C188" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="D188" s="80"/>
+      <c r="E188" s="80"/>
+      <c r="F188" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="G188" s="39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="69"/>
+      <c r="B189" s="69"/>
+      <c r="C189" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="D189" s="80"/>
+      <c r="E189" s="80"/>
+      <c r="F189" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="G189" s="39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="B190" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="C190" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D190" s="69"/>
+      <c r="E190" s="69"/>
+      <c r="F190" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="G190" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="81"/>
+      <c r="B191" s="69"/>
+      <c r="C191" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="D191" s="69"/>
+      <c r="E191" s="69"/>
+      <c r="F191" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="G191" s="24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="81"/>
+      <c r="B192" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C192" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D181" s="64"/>
-      <c r="E181" s="64"/>
-      <c r="F181" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="G181" s="27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="B182" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="C182" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="D182" s="65"/>
-      <c r="E182" s="65"/>
-      <c r="F182" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="G182" s="42" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="52"/>
-      <c r="B183" s="52"/>
-      <c r="C183" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="D183" s="66"/>
-      <c r="E183" s="66"/>
-      <c r="F183" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G183" s="42" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="52"/>
-      <c r="B184" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="C184" s="67" t="s">
-        <v>186</v>
-      </c>
-      <c r="D184" s="67"/>
-      <c r="E184" s="67"/>
-      <c r="F184" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="G184" s="42" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="52"/>
-      <c r="B185" s="52"/>
-      <c r="C185" s="67" t="s">
-        <v>186</v>
-      </c>
-      <c r="D185" s="67"/>
-      <c r="E185" s="67"/>
-      <c r="F185" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G185" s="42" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="B186" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="C186" s="52" t="s">
+      <c r="D192" s="69"/>
+      <c r="E192" s="69"/>
+      <c r="F192" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="G192" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="81"/>
+      <c r="B193" s="69"/>
+      <c r="C193" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D186" s="52"/>
-      <c r="E186" s="52"/>
-      <c r="F186" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="G186" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="54"/>
-      <c r="B187" s="52"/>
-      <c r="C187" s="52" t="s">
+      <c r="D193" s="69"/>
+      <c r="E193" s="69"/>
+      <c r="F193" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="G193" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B194" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="C194" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="D187" s="52"/>
-      <c r="E187" s="52"/>
-      <c r="F187" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G187" s="24" t="s">
+      <c r="D194" s="69"/>
+      <c r="E194" s="69"/>
+      <c r="F194" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="G194" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="81"/>
+      <c r="B195" s="69"/>
+      <c r="C195" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="D195" s="69"/>
+      <c r="E195" s="69"/>
+      <c r="F195" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="G195" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="81"/>
+      <c r="B196" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="C196" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="D196" s="69"/>
+      <c r="E196" s="69"/>
+      <c r="F196" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="G196" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="83"/>
+      <c r="B197" s="76"/>
+      <c r="C197" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="D197" s="76"/>
+      <c r="E197" s="76"/>
+      <c r="F197" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="G197" s="25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C198" s="20"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="20"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C199" s="20"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="20"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C200" s="20"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="20"/>
+    </row>
+    <row r="201" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C201" s="20"/>
+      <c r="D201" s="20"/>
+      <c r="E201" s="20"/>
+    </row>
+    <row r="202" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B202" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="C202" s="84"/>
+      <c r="D202" s="84"/>
+      <c r="E202" s="84"/>
+      <c r="F202" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G202" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="B203" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="C203" s="75"/>
+      <c r="D203" s="75"/>
+      <c r="E203" s="75"/>
+      <c r="F203" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="G203" s="37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="9" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="54"/>
-      <c r="B188" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="C188" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D188" s="52"/>
-      <c r="E188" s="52"/>
-      <c r="F188" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="G188" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="54"/>
-      <c r="B189" s="52"/>
-      <c r="C189" s="52" t="s">
+      <c r="B204" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="C204" s="87"/>
+      <c r="D204" s="87"/>
+      <c r="E204" s="88"/>
+      <c r="F204" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G204" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="B205" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="C205" s="87"/>
+      <c r="D205" s="87"/>
+      <c r="E205" s="88"/>
+      <c r="F205" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="G205" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B206" s="89" t="s">
+        <v>253</v>
+      </c>
+      <c r="C206" s="76"/>
+      <c r="D206" s="76"/>
+      <c r="E206" s="76"/>
+      <c r="F206" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G206" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C207" s="38"/>
+    </row>
+    <row r="209" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B210" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C210" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D210" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E210" s="29"/>
+      <c r="F210" s="30"/>
+      <c r="G210" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="31">
+        <v>42682</v>
+      </c>
+      <c r="B211" s="54">
+        <v>1.04</v>
+      </c>
+      <c r="C211" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D189" s="52"/>
-      <c r="E189" s="52"/>
-      <c r="F189" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G189" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="B190" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="C190" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D190" s="52"/>
-      <c r="E190" s="52"/>
-      <c r="F190" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="G190" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="54"/>
-      <c r="B191" s="52"/>
-      <c r="C191" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D191" s="52"/>
-      <c r="E191" s="52"/>
-      <c r="F191" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G191" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="54"/>
-      <c r="B192" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="C192" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="D192" s="52"/>
-      <c r="E192" s="52"/>
-      <c r="F192" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="G192" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="55"/>
-      <c r="B193" s="53"/>
-      <c r="C193" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="D193" s="53"/>
-      <c r="E193" s="53"/>
-      <c r="F193" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="G193" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C194" s="20"/>
-      <c r="D194" s="20"/>
-      <c r="E194" s="20"/>
-      <c r="F194" s="20"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C195" s="20"/>
-      <c r="D195" s="20"/>
-      <c r="E195" s="20"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C196" s="20"/>
-      <c r="D196" s="20"/>
-      <c r="E196" s="20"/>
-    </row>
-    <row r="197" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C197" s="20"/>
-      <c r="D197" s="20"/>
-      <c r="E197" s="20"/>
-    </row>
-    <row r="198" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="B198" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="C198" s="56"/>
-      <c r="D198" s="56"/>
-      <c r="E198" s="56"/>
-      <c r="F198" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="G198" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="B199" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="C199" s="58"/>
-      <c r="D199" s="58"/>
-      <c r="E199" s="58"/>
-      <c r="F199" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="G199" s="37" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B200" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="C200" s="60"/>
-      <c r="D200" s="60"/>
-      <c r="E200" s="61"/>
-      <c r="F200" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G200" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="B201" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="C201" s="60"/>
-      <c r="D201" s="60"/>
-      <c r="E201" s="61"/>
-      <c r="F201" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="G201" s="41" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B202" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="C202" s="53"/>
-      <c r="D202" s="53"/>
-      <c r="E202" s="53"/>
-      <c r="F202" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="G202" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C203" s="38"/>
-    </row>
-    <row r="205" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B206" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C206" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D206" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E206" s="29"/>
-      <c r="F206" s="30"/>
-      <c r="G206" s="27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="31">
-        <v>42682</v>
-      </c>
-      <c r="B207" s="74">
-        <v>1.04</v>
-      </c>
-      <c r="C207" s="47" t="s">
+      <c r="D211" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="D207" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="E207" s="63"/>
-      <c r="F207" s="63"/>
-      <c r="G207" s="32"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="33">
-        <v>42692</v>
-      </c>
-      <c r="B208" s="75">
-        <v>1.05</v>
-      </c>
-      <c r="C208" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D208" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="E208" s="52"/>
-      <c r="F208" s="52"/>
-      <c r="G208" s="24"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="33">
-        <v>42955</v>
-      </c>
-      <c r="B209" s="75">
-        <v>1.06</v>
-      </c>
-      <c r="C209" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D209" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="E209" s="52"/>
-      <c r="F209" s="52"/>
-      <c r="G209" s="24"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="33">
-        <v>42991</v>
-      </c>
-      <c r="B210" s="75">
-        <v>1.07</v>
-      </c>
-      <c r="C210" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="D210" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="E210" s="52"/>
-      <c r="F210" s="52"/>
-      <c r="G210" s="24"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="33">
-        <v>43026</v>
-      </c>
-      <c r="B211" s="75">
-        <v>1.08</v>
-      </c>
-      <c r="C211" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="D211" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="E211" s="52"/>
-      <c r="F211" s="52"/>
-      <c r="G211" s="24"/>
+      <c r="E211" s="90"/>
+      <c r="F211" s="90"/>
+      <c r="G211" s="32"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="33">
+        <v>42692</v>
+      </c>
+      <c r="B212" s="55">
+        <v>1.05</v>
+      </c>
+      <c r="C212" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D212" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="E212" s="82"/>
+      <c r="F212" s="82"/>
+      <c r="G212" s="24"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="33">
+        <v>42955</v>
+      </c>
+      <c r="B213" s="55">
+        <v>1.06</v>
+      </c>
+      <c r="C213" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D213" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="E213" s="82"/>
+      <c r="F213" s="82"/>
+      <c r="G213" s="24"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="33">
+        <v>42991</v>
+      </c>
+      <c r="B214" s="55">
+        <v>1.07</v>
+      </c>
+      <c r="C214" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D214" s="82" t="s">
+        <v>228</v>
+      </c>
+      <c r="E214" s="82"/>
+      <c r="F214" s="82"/>
+      <c r="G214" s="24"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="33">
+        <v>43026</v>
+      </c>
+      <c r="B215" s="55">
+        <v>1.08</v>
+      </c>
+      <c r="C215" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D215" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="E215" s="82"/>
+      <c r="F215" s="82"/>
+      <c r="G215" s="24"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="33">
         <v>43069</v>
       </c>
-      <c r="B212" s="75">
+      <c r="B216" s="55">
         <v>1.0900000000000001</v>
       </c>
-      <c r="C212" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="D212" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="E212" s="52"/>
-      <c r="F212" s="52"/>
-      <c r="G212" s="24"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="76">
+      <c r="C216" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="D216" s="82" t="s">
+        <v>254</v>
+      </c>
+      <c r="E216" s="82"/>
+      <c r="F216" s="82"/>
+      <c r="G216" s="24"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="52">
         <v>43248</v>
       </c>
-      <c r="B213" s="77">
+      <c r="B217" s="56">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C213" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D213" s="43" t="s">
-        <v>332</v>
-      </c>
-      <c r="E213" s="43"/>
-      <c r="F213" s="43"/>
-      <c r="G213" s="78"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="76">
+      <c r="C217" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D217" s="92" t="s">
+        <v>334</v>
+      </c>
+      <c r="E217" s="93"/>
+      <c r="F217" s="94"/>
+      <c r="G217" s="53"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="52">
         <v>43339</v>
       </c>
-      <c r="B214" s="77">
+      <c r="B218" s="56">
         <v>1.1100000000000001</v>
       </c>
-      <c r="C214" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D214" s="43" t="s">
-        <v>333</v>
-      </c>
-      <c r="E214" s="43"/>
-      <c r="F214" s="43"/>
-      <c r="G214" s="78"/>
-    </row>
-    <row r="215" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="79">
-        <v>43177</v>
-      </c>
-      <c r="B215" s="80">
+      <c r="C218" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D218" s="92" t="s">
+        <v>335</v>
+      </c>
+      <c r="E218" s="93"/>
+      <c r="F218" s="94"/>
+      <c r="G218" s="53"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="52">
+        <v>43542</v>
+      </c>
+      <c r="B219" s="56">
         <v>1.1200000000000001</v>
       </c>
-      <c r="C215" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D215" s="53" t="s">
-        <v>334</v>
-      </c>
-      <c r="E215" s="53"/>
-      <c r="F215" s="53"/>
-      <c r="G215" s="25"/>
+      <c r="C219" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D219" s="92" t="s">
+        <v>348</v>
+      </c>
+      <c r="E219" s="93"/>
+      <c r="F219" s="94"/>
+      <c r="G219" s="53"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="52">
+        <v>43599</v>
+      </c>
+      <c r="B220" s="56">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C220" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D220" s="62" t="s">
+        <v>357</v>
+      </c>
+      <c r="E220" s="63"/>
+      <c r="F220" s="64"/>
+      <c r="G220" s="53"/>
+    </row>
+    <row r="221" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="50">
+        <v>43643</v>
+      </c>
+      <c r="B221" s="57">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C221" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D221" s="91" t="s">
+        <v>358</v>
+      </c>
+      <c r="E221" s="91"/>
+      <c r="F221" s="91"/>
+      <c r="G221" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/YXf/GKzpOayechm2B+S03BO3u2Uem22BxPcAMvql2tPnKfCTDsTLVEU3KWBbwq2lCB+FweTGV5YescN5A4hRg==" saltValue="sMw5B4rInLBscxci5ZEIeA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NktA522ID+TDL1nmddUlQK58X8z5VvVOBtH5qriEtXnV4ND8Po7bA/qxn3S/Kxfre1ZGv51tiBtgmDohH3X+yQ==" saltValue="q+fbD7N+Gds9G9ZsKr9UMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
-      <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="41">
-    <mergeCell ref="D208:F208"/>
-    <mergeCell ref="D209:F209"/>
-    <mergeCell ref="D210:F210"/>
+  <mergeCells count="44">
+    <mergeCell ref="D213:F213"/>
+    <mergeCell ref="D214:F214"/>
+    <mergeCell ref="D215:F215"/>
+    <mergeCell ref="D216:F216"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="D217:F217"/>
+    <mergeCell ref="D218:F218"/>
+    <mergeCell ref="D219:F219"/>
+    <mergeCell ref="D212:F212"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C194:E194"/>
+    <mergeCell ref="C195:E195"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:E196"/>
+    <mergeCell ref="C197:E197"/>
+    <mergeCell ref="B202:E202"/>
+    <mergeCell ref="B203:E203"/>
+    <mergeCell ref="B204:E204"/>
+    <mergeCell ref="B206:E206"/>
     <mergeCell ref="D211:F211"/>
-    <mergeCell ref="D212:F212"/>
-    <mergeCell ref="D215:F215"/>
-    <mergeCell ref="B198:E198"/>
-    <mergeCell ref="B199:E199"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="B201:E201"/>
-    <mergeCell ref="B202:E202"/>
-    <mergeCell ref="D207:F207"/>
+    <mergeCell ref="B205:E205"/>
     <mergeCell ref="A190:A193"/>
     <mergeCell ref="B190:B191"/>
     <mergeCell ref="C190:E190"/>
@@ -8986,6 +9407,8 @@
     <mergeCell ref="B192:B193"/>
     <mergeCell ref="C192:E192"/>
     <mergeCell ref="C193:E193"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="C185:E185"/>
     <mergeCell ref="A186:A189"/>
     <mergeCell ref="B186:B187"/>
     <mergeCell ref="C186:E186"/>
@@ -8993,21 +9416,12 @@
     <mergeCell ref="B188:B189"/>
     <mergeCell ref="C188:E188"/>
     <mergeCell ref="C189:E189"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="C181:E181"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="C182:E182"/>
-    <mergeCell ref="C183:E183"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C184:E184"/>
-    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="B165:B167"/>
     <mergeCell ref="F109:N109"/>
-    <mergeCell ref="B142:B149"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B154:B161"/>
-    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="B143:B152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B157:B164"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9026,20 +9440,20 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="E26" sqref="E26"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/tmp_client/doc/TMP_example/diamond_regression.xlsx
+++ b/tmp_client/doc/TMP_example/diamond_regression.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="0sngsN6DrFUqmuDZZhkIhd0EivD5xjZ0nj5fkMPZg+GIws2dGdQ895P+5SBGWtagLIQbEIRaHiBSjM2rhskk/Q==" workbookSaltValue="j22CHco5Hi8vlbKkcb9mlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="6300" windowWidth="28836" windowHeight="6240"/>
+    <workbookView xWindow="-15" yWindow="6300" windowWidth="28830" windowHeight="6240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,22 @@
     <sheet name="comments" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AC$2</definedName>
-    <definedName name="Z_16B2C8B3_13FA_43FB_96C1_3763C72619A6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AC$2</definedName>
-    <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AC$2</definedName>
-    <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AC$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
+    <definedName name="Z_16B2C8B3_13FA_43FB_96C1_3763C72619A6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
+    <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
+    <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
     <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1911" yWindow="-9" windowWidth="1938" windowHeight="1098" activeSheetId="3"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="365">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -1004,9 +1004,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>misc_diamond_regression</t>
   </si>
   <si>
@@ -1333,17 +1330,28 @@
     <t>Automated column added</t>
   </si>
   <si>
+    <t>repository = $xlsx_dest</t>
+  </si>
+  <si>
+    <t>suite_path = ./</t>
+  </si>
+  <si>
+    <t>diamond=3.10p_102</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
     <t>Test case export version support for version controled repository</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>repository = $xlsx_dest</t>
-  </si>
-  <si>
-    <t>suite_path = ./</t>
-  </si>
-  <si>
-    <t>diamond=3.10p_102</t>
+  </si>
+  <si>
+    <t>Smoke column added</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -1351,14 +1359,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1366,7 +1374,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -1375,7 +1383,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1384,7 +1392,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1393,7 +1401,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1401,7 +1409,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1409,7 +1417,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1417,7 +1425,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1425,7 +1433,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1434,7 +1442,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1443,7 +1451,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1451,7 +1459,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1460,7 +1468,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1468,7 +1476,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1477,7 +1485,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1486,7 +1494,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1494,7 +1502,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1502,21 +1510,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1525,14 +1533,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2423,7 +2431,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2569,7 +2577,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="21" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2584,16 +2592,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="16" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="16" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="19" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="19" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="24" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="24" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="22" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="22" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
@@ -2617,6 +2625,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="27" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2630,8 +2647,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2646,64 +2721,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -4035,6 +4052,37 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>                             Automated:test case automation stauts, see table1 for available value. shown on page</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	Smoke: test case need to be smoke or not in final cycle, see table1 for available value. shown on page</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
@@ -5155,8 +5203,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{82EF3929-AE90-4F08-8108-0D9480DC4406}" diskRevisions="1" revisionId="4" version="2">
-  <header guid="{00B8F476-F32D-48BA-948C-73C267CE3733}" dateTime="2019-06-27T10:31:28" maxSheetId="5" userName="Jason Wang" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F15B5E0D-FD40-4DE7-B6B6-36FA43C3DBDC}" diskRevisions="1" revisionId="2" version="3">
+  <header guid="{DB40D02A-1C38-451A-8E02-505A412F9BEE}" dateTime="2020-03-04T15:04:22" maxSheetId="5" userName="Jason Wang" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -5164,7 +5212,15 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{82EF3929-AE90-4F08-8108-0D9480DC4406}" dateTime="2019-06-27T10:36:38" maxSheetId="5" userName="Jason Wang" r:id="rId2" minRId="1" maxRId="4">
+  <header guid="{E7A5CB99-A837-4E99-A7F5-589FD01D439C}" dateTime="2020-03-04T15:05:27" maxSheetId="5" userName="Jason Wang" r:id="rId2" minRId="1">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F15B5E0D-FD40-4DE7-B6B6-36FA43C3DBDC}" dateTime="2020-03-04T15:09:21" maxSheetId="5" userName="Jason Wang" r:id="rId3">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -5182,56 +5238,33 @@
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="1" sId="1">
-    <oc r="B4" t="inlineStr">
+    <oc r="B2" t="inlineStr">
       <is>
-        <t>repository = http://lshlabd0011/platform/trunk/bqs_scripts/regression_suite</t>
+        <t>3</t>
       </is>
     </oc>
-    <nc r="B4" t="inlineStr">
+    <nc r="B2" t="inlineStr">
       <is>
-        <t>repository = $xlsx_dest</t>
+        <t>8</t>
       </is>
     </nc>
-  </rcc>
-  <rcc rId="2" sId="1">
-    <oc r="B5" t="inlineStr">
-      <is>
-        <t>suite_path = diamond_suite</t>
-      </is>
-    </oc>
-    <nc r="B5" t="inlineStr">
-      <is>
-        <t>suite_path = ./</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="3" sId="1">
-    <oc r="B8" t="inlineStr">
-      <is>
-        <t>diamond=3.9.0.48</t>
-      </is>
-    </oc>
-    <nc r="B8" t="inlineStr">
-      <is>
-        <t>diamond=3.10p_102</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4" sId="1">
-    <oc r="B9" t="inlineStr">
-      <is>
-        <t>os_type=windows</t>
-      </is>
-    </oc>
-    <nc r="B9"/>
   </rcc>
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{00B8F476-F32D-48BA-948C-73C267CE3733}" name="Jason Wang" id="-981746235" dateTime="2019-06-27T10:35:40"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5523,83 +5556,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="18" customWidth="1"/>
     <col min="3" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" s="18" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="18" t="s">
         <v>57</v>
       </c>
@@ -5607,8 +5640,8 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="B35" sqref="B35"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -5617,8 +5650,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="B12" sqref="B12"/>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -5631,80 +5664,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="18" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="12" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="18" customWidth="1"/>
     <col min="8" max="8" width="37" style="18" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="18" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" style="18" customWidth="1"/>
-    <col min="12" max="12" width="38" style="18" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="18" customWidth="1"/>
-    <col min="14" max="14" width="30.33203125" style="18" customWidth="1"/>
-    <col min="15" max="15" width="17.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" style="18" customWidth="1"/>
-    <col min="17" max="17" width="13" style="18" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" style="18" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" style="18" customWidth="1"/>
-    <col min="20" max="20" width="11" style="18" customWidth="1"/>
-    <col min="21" max="21" width="11.77734375" style="18" customWidth="1"/>
-    <col min="22" max="27" width="9" style="18"/>
-    <col min="28" max="28" width="10.109375" style="18" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="18"/>
+    <col min="9" max="9" width="11.140625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="18" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38" style="18" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="18" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" style="18" customWidth="1"/>
+    <col min="18" max="18" width="13" style="18" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="18" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="18" customWidth="1"/>
+    <col min="21" max="21" width="11" style="18" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="18" customWidth="1"/>
+    <col min="23" max="28" width="9" style="18"/>
+    <col min="29" max="29" width="10.140625" style="18" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="19" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:30" s="19" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="68" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-    </row>
-    <row r="2" spans="1:29" s="19" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+    </row>
+    <row r="2" spans="1:30" s="19" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -5736,64 +5771,67 @@
         <v>26</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="L2" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="L2" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15.75" thickTop="1">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -5821,34 +5859,34 @@
       <c r="J3" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="O3" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="P3" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="O3" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="R3" s="18" t="s">
+      <c r="S3" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="18">
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>261</v>
-      </c>
       <c r="E4" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>45</v>
@@ -5859,28 +5897,28 @@
       <c r="J4" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N4" s="18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O4" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="18">
         <v>3</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>45</v>
@@ -5891,28 +5929,28 @@
       <c r="J5" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N5" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O5" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="18">
         <v>4</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>45</v>
@@ -5924,24 +5962,24 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7" s="18">
         <v>5</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>268</v>
-      </c>
       <c r="E7" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>45</v>
@@ -5953,24 +5991,24 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="A8" s="18">
         <v>6</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>45</v>
@@ -5982,24 +6020,24 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9" s="18">
         <v>7</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>45</v>
@@ -6011,24 +6049,24 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="A10" s="18">
         <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>45</v>
@@ -6039,28 +6077,28 @@
       <c r="J10" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="O10" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" s="18">
         <v>9</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>45</v>
@@ -6072,24 +6110,24 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="A12" s="18">
         <v>10</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>45</v>
@@ -6101,24 +6139,24 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30">
       <c r="A13" s="18">
         <v>11</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>45</v>
@@ -6130,24 +6168,24 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30">
       <c r="A14" s="18">
         <v>12</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>45</v>
@@ -6159,7 +6197,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -6187,11 +6225,11 @@
       <c r="J15" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="O15" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -6219,22 +6257,22 @@
       <c r="J16" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="O16" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="18">
         <v>15</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>43</v>
@@ -6251,11 +6289,11 @@
       <c r="J17" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N17" s="18" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O17" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -6284,7 +6322,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -6312,22 +6350,22 @@
       <c r="J19" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N19" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O19" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="18">
         <v>18</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>43</v>
@@ -6345,7 +6383,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -6362,7 +6400,7 @@
         <v>43</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>45</v>
@@ -6373,31 +6411,31 @@
       <c r="J21" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N21" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="P21" s="18" t="s">
+      <c r="O21" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q21" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="18">
         <v>20</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>45</v>
@@ -6408,31 +6446,31 @@
       <c r="J22" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="O22" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="P22" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="O22" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="18">
         <v>21</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>45</v>
@@ -6443,31 +6481,31 @@
       <c r="J23" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="O23" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="P23" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="O23" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="18">
         <v>22</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>45</v>
@@ -6478,31 +6516,31 @@
       <c r="J24" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="O24" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="P24" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="O24" s="18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="18">
         <v>23</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>45</v>
@@ -6513,31 +6551,31 @@
       <c r="J25" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N25" s="18" t="s">
+      <c r="O25" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="P25" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="O25" s="18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="18">
         <v>24</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>45</v>
@@ -6548,31 +6586,31 @@
       <c r="J26" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N26" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="P26" s="18" t="s">
+      <c r="O26" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q26" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="18">
         <v>25</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>45</v>
@@ -6583,31 +6621,31 @@
       <c r="J27" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N27" s="18" t="s">
+      <c r="O27" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="P27" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="O27" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="18">
         <v>26</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>45</v>
@@ -6618,31 +6656,31 @@
       <c r="J28" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N28" s="18" t="s">
+      <c r="O28" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="P28" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="O28" s="18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="18">
         <v>27</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>45</v>
@@ -6653,31 +6691,31 @@
       <c r="J29" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N29" s="18" t="s">
+      <c r="O29" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="P29" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="O29" s="18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="18">
         <v>28</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>45</v>
@@ -6688,31 +6726,31 @@
       <c r="J30" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N30" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="P30" s="18" t="s">
+      <c r="O30" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q30" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="18">
         <v>29</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>45</v>
@@ -6723,31 +6761,31 @@
       <c r="J31" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N31" s="18" t="s">
-        <v>299</v>
-      </c>
       <c r="O31" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="P31" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="18">
         <v>30</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>45</v>
@@ -6758,31 +6796,31 @@
       <c r="J32" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N32" s="18" t="s">
-        <v>301</v>
-      </c>
       <c r="O32" s="18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="P32" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="18">
         <v>31</v>
       </c>
       <c r="C33" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>303</v>
-      </c>
       <c r="E33" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H33" s="18" t="s">
         <v>45</v>
@@ -6793,28 +6831,28 @@
       <c r="J33" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N33" s="18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="18">
         <v>32</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>45</v>
@@ -6825,28 +6863,28 @@
       <c r="J34" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N34" s="18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="18">
         <v>33</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H35" s="18" t="s">
         <v>45</v>
@@ -6857,28 +6895,28 @@
       <c r="J35" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N35" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="18">
         <v>34</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H36" s="18" t="s">
         <v>45</v>
@@ -6889,28 +6927,28 @@
       <c r="J36" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N36" s="18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="18">
         <v>35</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>45</v>
@@ -6921,28 +6959,28 @@
       <c r="J37" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N37" s="18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="18">
         <v>36</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H38" s="18" t="s">
         <v>45</v>
@@ -6953,28 +6991,28 @@
       <c r="J38" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N38" s="18" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="18">
         <v>37</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>45</v>
@@ -6985,28 +7023,28 @@
       <c r="J39" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N39" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="18">
         <v>38</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H40" s="18" t="s">
         <v>45</v>
@@ -7017,28 +7055,28 @@
       <c r="J40" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N40" s="18" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="18">
         <v>39</v>
       </c>
       <c r="C41" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>321</v>
-      </c>
       <c r="E41" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>45</v>
@@ -7049,28 +7087,28 @@
       <c r="J41" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N41" s="18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="18">
         <v>40</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>45</v>
@@ -7081,28 +7119,28 @@
       <c r="J42" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N42" s="18" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="18">
         <v>41</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H43" s="18" t="s">
         <v>45</v>
@@ -7113,28 +7151,28 @@
       <c r="J43" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N43" s="18" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="18">
         <v>42</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>45</v>
@@ -7146,24 +7184,24 @@
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="18">
         <v>43</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>45</v>
@@ -7174,11 +7212,11 @@
       <c r="J45" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N45" s="18" t="s">
+      <c r="O45" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="18">
         <v>44</v>
       </c>
@@ -7186,43 +7224,43 @@
         <v>36</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>45</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J46" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N46" s="18" t="s">
-        <v>332</v>
+      <c r="O46" s="18" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AHLVy9+9wD0WM8xBNaFkC6SVMghf9BJzREvWI9cuzygudb9ntsD0AThzEkqL0q+33twmO+3FI3e5tftlkgDnRw==" saltValue="3m6qx8Bdbc6/0okfGORKFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A2:AC2"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4C55417S7/WEfM6p9p+2qxLa3pFuuwTQvkVS+xLflxPJ6JUMhmXb8UBi2EhWPKsWHpV7wPPZoM4Ci73L5pzjfA==" saltValue="OVPlytvnGy6tQU/SUgOtyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A2:AD2"/>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:Y2"/>
+      <autoFilter ref="A2:AD2"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -7231,30 +7269,24 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A2:Y2"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:AC2"/>
+      <autoFilter ref="A2:Y2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="W1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1 V1:Z1">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1 W1:AA1">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:U1">
-      <formula1>$F$119:$J$119</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B1">
-      <formula1>$F$119:$J$119</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:I1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:V1 A1:I1">
       <formula1>$F$119:$J$119</formula1>
     </dataValidation>
   </dataValidations>
@@ -7262,7 +7294,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>description!$F$115:$H$115</xm:f>
@@ -7277,15 +7309,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>description!$F$136:$H$136</xm:f>
+            <xm:f>description!$F$137:$H$137</xm:f>
           </x14:formula1>
-          <xm:sqref>AA1:AA1048576</xm:sqref>
+          <xm:sqref>AB1:AB1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>description!$F$137:$H$137</xm:f>
+            <xm:f>description!$F$138:$H$138</xm:f>
           </x14:formula1>
-          <xm:sqref>AB1:AB1048576</xm:sqref>
+          <xm:sqref>AC1:AC1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -7305,6 +7337,12 @@
           </x14:formula1>
           <xm:sqref>J1:J1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>description!$F$121:$H$121</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1:L1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -7313,45 +7351,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N221"/>
+  <dimension ref="A1:N222"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D224" sqref="D224"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="32" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="49">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3">
-        <v>43643</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="12.75" customHeight="1"/>
+    <row r="106" spans="1:14" ht="12.75" customHeight="1"/>
+    <row r="107" spans="1:14" ht="12.75" customHeight="1"/>
+    <row r="108" spans="1:14" ht="15.75" thickBot="1">
       <c r="A108" s="2" t="s">
         <v>74</v>
       </c>
@@ -7359,7 +7399,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" ht="15.75" thickBot="1">
       <c r="A109" s="4" t="s">
         <v>76</v>
       </c>
@@ -7375,19 +7415,19 @@
       <c r="E109" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F109" s="70" t="s">
+      <c r="F109" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="G109" s="71"/>
-      <c r="H109" s="71"/>
-      <c r="I109" s="71"/>
-      <c r="J109" s="71"/>
-      <c r="K109" s="71"/>
-      <c r="L109" s="71"/>
-      <c r="M109" s="71"/>
-      <c r="N109" s="72"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G109" s="94"/>
+      <c r="H109" s="94"/>
+      <c r="I109" s="94"/>
+      <c r="J109" s="94"/>
+      <c r="K109" s="94"/>
+      <c r="L109" s="94"/>
+      <c r="M109" s="94"/>
+      <c r="N109" s="95"/>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="6" t="s">
         <v>82</v>
       </c>
@@ -7411,7 +7451,7 @@
       <c r="M110" s="7"/>
       <c r="N110" s="8"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14">
       <c r="A111" s="9" t="s">
         <v>113</v>
       </c>
@@ -7422,7 +7462,7 @@
         <v>85</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10" t="s">
@@ -7437,7 +7477,7 @@
       <c r="M111" s="10"/>
       <c r="N111" s="11"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14">
       <c r="A112" s="9" t="s">
         <v>86</v>
       </c>
@@ -7448,7 +7488,7 @@
         <v>85</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>88</v>
@@ -7463,7 +7503,7 @@
       <c r="M112" s="10"/>
       <c r="N112" s="11"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14">
       <c r="A113" s="9" t="s">
         <v>89</v>
       </c>
@@ -7489,7 +7529,7 @@
       <c r="M113" s="10"/>
       <c r="N113" s="11"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14">
       <c r="A114" s="9" t="s">
         <v>91</v>
       </c>
@@ -7497,7 +7537,7 @@
         <v>87</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>36</v>
@@ -7513,7 +7553,7 @@
       <c r="M114" s="10"/>
       <c r="N114" s="11"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14">
       <c r="A115" s="9" t="s">
         <v>92</v>
       </c>
@@ -7545,7 +7585,7 @@
       <c r="M115" s="10"/>
       <c r="N115" s="11"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14">
       <c r="A116" s="9" t="s">
         <v>93</v>
       </c>
@@ -7569,7 +7609,7 @@
       <c r="M116" s="10"/>
       <c r="N116" s="11"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14">
       <c r="A117" s="9" t="s">
         <v>95</v>
       </c>
@@ -7593,7 +7633,7 @@
       <c r="M117" s="10"/>
       <c r="N117" s="11"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14">
       <c r="A118" s="9" t="s">
         <v>11</v>
       </c>
@@ -7629,18 +7669,18 @@
       <c r="M118" s="10"/>
       <c r="N118" s="11"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14">
       <c r="A119" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C119" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>97</v>
@@ -7665,27 +7705,27 @@
       <c r="M119" s="10"/>
       <c r="N119" s="11"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14">
       <c r="A120" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H120" s="10"/>
       <c r="I120" s="10"/>
@@ -7695,24 +7735,28 @@
       <c r="M120" s="10"/>
       <c r="N120" s="11"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14">
       <c r="A121" s="9" t="s">
-        <v>98</v>
+        <v>360</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>94</v>
+        <v>361</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E121" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="F121" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G121" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="H121" s="10"/>
       <c r="I121" s="10"/>
       <c r="J121" s="10"/>
@@ -7721,9 +7765,9 @@
       <c r="M121" s="10"/>
       <c r="N121" s="11"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14">
       <c r="A122" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>94</v>
@@ -7747,22 +7791,22 @@
       <c r="M122" s="10"/>
       <c r="N122" s="11"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14">
       <c r="A123" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
@@ -7773,22 +7817,22 @@
       <c r="M123" s="10"/>
       <c r="N123" s="11"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14">
       <c r="A124" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
@@ -7799,9 +7843,9 @@
       <c r="M124" s="10"/>
       <c r="N124" s="11"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14">
       <c r="A125" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>94</v>
@@ -7825,9 +7869,9 @@
       <c r="M125" s="10"/>
       <c r="N125" s="11"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14">
       <c r="A126" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>94</v>
@@ -7851,21 +7895,23 @@
       <c r="M126" s="10"/>
       <c r="N126" s="11"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14">
       <c r="A127" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C127" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
+      <c r="F127" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
       <c r="I127" s="10"/>
@@ -7875,9 +7921,9 @@
       <c r="M127" s="10"/>
       <c r="N127" s="11"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14">
       <c r="A128" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>87</v>
@@ -7886,7 +7932,7 @@
         <v>85</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
@@ -7899,9 +7945,9 @@
       <c r="M128" s="10"/>
       <c r="N128" s="11"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14">
       <c r="A129" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>87</v>
@@ -7910,7 +7956,7 @@
         <v>85</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
@@ -7923,9 +7969,9 @@
       <c r="M129" s="10"/>
       <c r="N129" s="11"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14">
       <c r="A130" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>87</v>
@@ -7947,18 +7993,18 @@
       <c r="M130" s="10"/>
       <c r="N130" s="11"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14">
       <c r="A131" s="9" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
@@ -7971,12 +8017,12 @@
       <c r="M131" s="10"/>
       <c r="N131" s="11"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14">
       <c r="A132" s="9" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>37</v>
@@ -7995,9 +8041,9 @@
       <c r="M132" s="10"/>
       <c r="N132" s="11"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14">
       <c r="A133" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>115</v>
@@ -8019,18 +8065,18 @@
       <c r="M133" s="10"/>
       <c r="N133" s="11"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14">
       <c r="A134" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
@@ -8043,9 +8089,9 @@
       <c r="M134" s="10"/>
       <c r="N134" s="11"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14">
       <c r="A135" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>118</v>
@@ -8067,31 +8113,23 @@
       <c r="M135" s="10"/>
       <c r="N135" s="11"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14">
       <c r="A136" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F136" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G136" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H136" s="10" t="s">
-        <v>121</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
       <c r="I136" s="10"/>
       <c r="J136" s="10"/>
       <c r="K136" s="10"/>
@@ -8099,301 +8137,309 @@
       <c r="M136" s="10"/>
       <c r="N136" s="11"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="45" t="s">
+    <row r="137" spans="1:14">
+      <c r="A137" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H137" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+      <c r="K137" s="10"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="11"/>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="B137" s="46" t="s">
+      <c r="B138" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C137" s="46" t="s">
+      <c r="C138" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D137" s="46" t="s">
+      <c r="D138" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E137" s="46" t="s">
+      <c r="E138" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="F137" s="46" t="s">
+      <c r="F138" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="G137" s="46" t="s">
+      <c r="G138" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H137" s="46" t="s">
+      <c r="H138" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="I137" s="46"/>
-      <c r="J137" s="46"/>
-      <c r="K137" s="46"/>
-      <c r="L137" s="46"/>
-      <c r="M137" s="46"/>
-      <c r="N137" s="47"/>
-    </row>
-    <row r="138" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="12" t="s">
+      <c r="I138" s="46"/>
+      <c r="J138" s="46"/>
+      <c r="K138" s="46"/>
+      <c r="L138" s="46"/>
+      <c r="M138" s="46"/>
+      <c r="N138" s="47"/>
+    </row>
+    <row r="139" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A139" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B139" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="C139" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D138" s="13" t="s">
+      <c r="D139" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
-      <c r="J138" s="13"/>
-      <c r="K138" s="13"/>
-      <c r="L138" s="13"/>
-      <c r="M138" s="13"/>
-      <c r="N138" s="14"/>
-    </row>
-    <row r="141" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="13"/>
+      <c r="K139" s="13"/>
+      <c r="L139" s="13"/>
+      <c r="M139" s="13"/>
+      <c r="N139" s="14"/>
+    </row>
+    <row r="142" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A142" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="15" t="s">
+    <row r="143" spans="1:14">
+      <c r="A143" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B142" s="43" t="s">
+      <c r="B143" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="C142" s="43" t="s">
+      <c r="C143" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="D142" s="43" t="s">
+      <c r="D143" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="E142" s="43" t="s">
+      <c r="E143" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="F142" s="43" t="s">
+      <c r="F143" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="G142" s="43" t="s">
+      <c r="G143" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="H142" s="16" t="s">
+      <c r="H143" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="41">
+    <row r="144" spans="1:14">
+      <c r="A144" s="41">
         <v>1</v>
       </c>
-      <c r="B143" s="73" t="s">
+      <c r="B144" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="C143" s="39" t="s">
+      <c r="C144" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="D143" s="39" t="s">
+      <c r="D144" s="39" t="s">
         <v>141</v>
-      </c>
-      <c r="E143" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="F143" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="G143" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="41">
-        <v>2</v>
-      </c>
-      <c r="B144" s="74"/>
-      <c r="C144" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D144" s="39" t="s">
-        <v>354</v>
       </c>
       <c r="E144" s="39" t="s">
         <v>141</v>
       </c>
       <c r="F144" s="39" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G144" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="H144" s="11"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="59">
+      <c r="H144" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="41">
+        <v>2</v>
+      </c>
+      <c r="B145" s="97"/>
+      <c r="C145" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D145" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="E145" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F145" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="G145" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H145" s="11"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="59">
         <v>3</v>
       </c>
-      <c r="B145" s="74"/>
-      <c r="C145" s="39" t="s">
+      <c r="B146" s="97"/>
+      <c r="C146" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D145" s="39"/>
-      <c r="E145" s="39" t="s">
+      <c r="D146" s="39"/>
+      <c r="E146" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="F146" s="39"/>
+      <c r="G146" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="H146" s="11"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="59">
+        <v>4</v>
+      </c>
+      <c r="B147" s="97"/>
+      <c r="C147" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="D147" s="60" t="s">
+        <v>354</v>
+      </c>
+      <c r="E147" s="60" t="s">
+        <v>354</v>
+      </c>
+      <c r="F147" s="60"/>
+      <c r="G147" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="H147" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="F145" s="39"/>
-      <c r="G145" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="H145" s="11"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="59">
-        <v>4</v>
-      </c>
-      <c r="B146" s="74"/>
-      <c r="C146" s="60" t="s">
-        <v>353</v>
-      </c>
-      <c r="D146" s="60" t="s">
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="59">
+        <v>5</v>
+      </c>
+      <c r="B148" s="97"/>
+      <c r="C148" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="D148" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" s="39"/>
+      <c r="G148" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="H148" s="11"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="59">
+        <v>6</v>
+      </c>
+      <c r="B149" s="97"/>
+      <c r="C149" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="D149" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E149" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" s="60"/>
+      <c r="G149" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="H149" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="E146" s="60" t="s">
-        <v>355</v>
-      </c>
-      <c r="F146" s="60"/>
-      <c r="G146" s="60" t="s">
-        <v>352</v>
-      </c>
-      <c r="H146" s="11" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="59">
-        <v>5</v>
-      </c>
-      <c r="B147" s="74"/>
-      <c r="C147" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="D147" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E147" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F147" s="39"/>
-      <c r="G147" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="H147" s="11"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="59">
-        <v>6</v>
-      </c>
-      <c r="B148" s="74"/>
-      <c r="C148" s="60" t="s">
-        <v>351</v>
-      </c>
-      <c r="D148" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E148" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="F148" s="60"/>
-      <c r="G148" s="60" t="s">
-        <v>352</v>
-      </c>
-      <c r="H148" s="11" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="59">
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="59">
         <v>7</v>
       </c>
-      <c r="B149" s="74"/>
-      <c r="C149" s="39" t="s">
+      <c r="B150" s="97"/>
+      <c r="C150" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="D149" s="39" t="s">
+      <c r="D150" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="E149" s="39" t="s">
+      <c r="E150" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="F149" s="39"/>
-      <c r="G149" s="39" t="s">
+      <c r="F150" s="39"/>
+      <c r="G150" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="H149" s="11" t="s">
+      <c r="H150" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="59">
+    <row r="151" spans="1:8">
+      <c r="A151" s="59">
         <v>8</v>
       </c>
-      <c r="B150" s="74"/>
-      <c r="C150" s="39" t="s">
-        <v>343</v>
-      </c>
-      <c r="D150" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E150" s="39"/>
-      <c r="F150" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="G150" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="H150" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="59">
-        <v>9</v>
-      </c>
-      <c r="B151" s="74"/>
+      <c r="B151" s="97"/>
       <c r="C151" s="39" t="s">
-        <v>72</v>
+        <v>342</v>
       </c>
       <c r="D151" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E151" s="39" t="s">
-        <v>38</v>
-      </c>
+      <c r="E151" s="39"/>
       <c r="F151" s="39" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G151" s="39" t="s">
-        <v>336</v>
+        <v>150</v>
       </c>
       <c r="H151" s="11" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="59">
-        <v>10</v>
-      </c>
-      <c r="B152" s="75"/>
+        <v>9</v>
+      </c>
+      <c r="B152" s="97"/>
       <c r="C152" s="39" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="D152" s="39" t="s">
         <v>38</v>
@@ -8402,46 +8448,46 @@
         <v>38</v>
       </c>
       <c r="F152" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="G152" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="59">
+        <v>10</v>
+      </c>
+      <c r="B153" s="83"/>
+      <c r="C153" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D153" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E153" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F153" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="G152" s="39" t="s">
+      <c r="G153" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="H152" s="11"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="59">
+      <c r="H153" s="11"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="59">
         <v>11</v>
       </c>
-      <c r="B153" s="69" t="s">
+      <c r="B154" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="C153" s="39" t="s">
+      <c r="C154" s="39" t="s">
         <v>157</v>
-      </c>
-      <c r="D153" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E153" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="F153" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="G153" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="H153" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="59">
-        <v>12</v>
-      </c>
-      <c r="B154" s="69"/>
-      <c r="C154" s="39" t="s">
-        <v>344</v>
       </c>
       <c r="D154" s="39" t="s">
         <v>141</v>
@@ -8450,24 +8496,22 @@
         <v>141</v>
       </c>
       <c r="F154" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G154" s="39" t="s">
         <v>143</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="59">
-        <v>13</v>
-      </c>
-      <c r="B155" s="73" t="s">
-        <v>160</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B155" s="79"/>
       <c r="C155" s="39" t="s">
-        <v>161</v>
+        <v>343</v>
       </c>
       <c r="D155" s="39" t="s">
         <v>141</v>
@@ -8476,64 +8520,68 @@
         <v>141</v>
       </c>
       <c r="F155" s="39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G155" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="H155" s="11"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H155" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="59">
+        <v>13</v>
+      </c>
+      <c r="B156" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D156" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E156" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F156" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="G156" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H156" s="11"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="59">
         <v>14</v>
       </c>
-      <c r="B156" s="75"/>
-      <c r="C156" s="39" t="s">
+      <c r="B157" s="83"/>
+      <c r="C157" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D156" s="39" t="s">
+      <c r="D157" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E156" s="39" t="s">
+      <c r="E157" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="F156" s="39"/>
-      <c r="G156" s="39" t="s">
+      <c r="F157" s="39"/>
+      <c r="G157" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="H156" s="11"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="59">
+      <c r="H157" s="11"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="59">
         <v>15</v>
       </c>
-      <c r="B157" s="69" t="s">
+      <c r="B158" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="C157" s="39" t="s">
+      <c r="C158" s="39" t="s">
         <v>166</v>
-      </c>
-      <c r="D157" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E157" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="F157" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="G157" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="H157" s="11"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="59">
-        <v>16</v>
-      </c>
-      <c r="B158" s="69"/>
-      <c r="C158" s="39" t="s">
-        <v>169</v>
       </c>
       <c r="D158" s="39" t="s">
         <v>141</v>
@@ -8541,19 +8589,21 @@
       <c r="E158" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="F158" s="39"/>
+      <c r="F158" s="39" t="s">
+        <v>167</v>
+      </c>
       <c r="G158" s="39" t="s">
         <v>168</v>
       </c>
       <c r="H158" s="11"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="59">
-        <v>17</v>
-      </c>
-      <c r="B159" s="69"/>
+        <v>16</v>
+      </c>
+      <c r="B159" s="79"/>
       <c r="C159" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D159" s="39" t="s">
         <v>141</v>
@@ -8567,13 +8617,13 @@
       </c>
       <c r="H159" s="11"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="59">
-        <v>18</v>
-      </c>
-      <c r="B160" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="B160" s="79"/>
       <c r="C160" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D160" s="39" t="s">
         <v>141</v>
@@ -8587,13 +8637,13 @@
       </c>
       <c r="H160" s="11"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="59">
-        <v>19</v>
-      </c>
-      <c r="B161" s="69"/>
+        <v>18</v>
+      </c>
+      <c r="B161" s="79"/>
       <c r="C161" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D161" s="39" t="s">
         <v>141</v>
@@ -8607,13 +8657,13 @@
       </c>
       <c r="H161" s="11"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="59">
-        <v>20</v>
-      </c>
-      <c r="B162" s="69"/>
+        <v>19</v>
+      </c>
+      <c r="B162" s="79"/>
       <c r="C162" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D162" s="39" t="s">
         <v>141</v>
@@ -8627,13 +8677,13 @@
       </c>
       <c r="H162" s="11"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="59">
-        <v>21</v>
-      </c>
-      <c r="B163" s="69"/>
+        <v>20</v>
+      </c>
+      <c r="B163" s="79"/>
       <c r="C163" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D163" s="39" t="s">
         <v>141</v>
@@ -8647,13 +8697,13 @@
       </c>
       <c r="H163" s="11"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="59">
-        <v>22</v>
-      </c>
-      <c r="B164" s="69"/>
+        <v>21</v>
+      </c>
+      <c r="B164" s="79"/>
       <c r="C164" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D164" s="39" t="s">
         <v>141</v>
@@ -8667,15 +8717,13 @@
       </c>
       <c r="H164" s="11"/>
     </row>
-    <row r="165" spans="1:8" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="59">
-        <v>23</v>
-      </c>
-      <c r="B165" s="69" t="s">
-        <v>176</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B165" s="79"/>
       <c r="C165" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D165" s="39" t="s">
         <v>141</v>
@@ -8683,21 +8731,21 @@
       <c r="E165" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="F165" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="G165" s="17" t="s">
-        <v>179</v>
+      <c r="F165" s="39"/>
+      <c r="G165" s="39" t="s">
+        <v>168</v>
       </c>
       <c r="H165" s="11"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="105">
       <c r="A166" s="59">
-        <v>24</v>
-      </c>
-      <c r="B166" s="69"/>
+        <v>23</v>
+      </c>
+      <c r="B166" s="79" t="s">
+        <v>176</v>
+      </c>
       <c r="C166" s="39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D166" s="39" t="s">
         <v>141</v>
@@ -8706,66 +8754,66 @@
         <v>141</v>
       </c>
       <c r="F166" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="G166" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="H166" s="11"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="59">
+        <v>24</v>
+      </c>
+      <c r="B167" s="79"/>
+      <c r="C167" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D167" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E167" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F167" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="G166" s="39" t="s">
+      <c r="G167" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="H166" s="11"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="59">
+      <c r="H167" s="11"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="59">
         <v>25</v>
       </c>
-      <c r="B167" s="69"/>
-      <c r="C167" s="39" t="s">
+      <c r="B168" s="79"/>
+      <c r="C168" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="D167" s="39" t="s">
+      <c r="D168" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E167" s="39" t="s">
+      <c r="E168" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="F167" s="39" t="s">
+      <c r="F168" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="G167" s="39" t="s">
+      <c r="G168" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="H167" s="11"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="59">
+      <c r="H168" s="11"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="59">
         <v>26</v>
       </c>
-      <c r="B168" s="69" t="s">
+      <c r="B169" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="C168" s="39" t="s">
+      <c r="C169" s="39" t="s">
         <v>187</v>
-      </c>
-      <c r="D168" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E168" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="F168" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="G168" s="39"/>
-      <c r="H168" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="59">
-        <v>27</v>
-      </c>
-      <c r="B169" s="69"/>
-      <c r="C169" s="39" t="s">
-        <v>189</v>
       </c>
       <c r="D169" s="39" t="s">
         <v>141</v>
@@ -8774,30 +8822,40 @@
         <v>141</v>
       </c>
       <c r="F169" s="39" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G169" s="39"/>
       <c r="H169" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="59">
+        <v>27</v>
+      </c>
+      <c r="B170" s="79"/>
+      <c r="C170" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D170" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E170" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F170" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="G170" s="39"/>
+      <c r="H170" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A171" s="42">
         <v>28</v>
       </c>
-      <c r="B170" s="69"/>
-      <c r="C170" s="39"/>
-      <c r="D170" s="39"/>
-      <c r="E170" s="39"/>
-      <c r="F170" s="39"/>
-      <c r="G170" s="39"/>
-      <c r="H170" s="11"/>
-    </row>
-    <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="42">
-        <v>29</v>
-      </c>
-      <c r="B171" s="76"/>
+      <c r="B171" s="80"/>
       <c r="C171" s="40"/>
       <c r="D171" s="40"/>
       <c r="E171" s="40"/>
@@ -8805,20 +8863,20 @@
       <c r="G171" s="40"/>
       <c r="H171" s="14"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="B173" s="20" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B173" s="20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="15.75" thickBot="1">
       <c r="A184" s="2" t="s">
         <v>192</v>
       </c>
@@ -8826,18 +8884,18 @@
         <v>193</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B185" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="C185" s="77" t="s">
+      <c r="C185" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="D185" s="77"/>
-      <c r="E185" s="77"/>
+      <c r="D185" s="89"/>
+      <c r="E185" s="89"/>
       <c r="F185" s="34" t="s">
         <v>59</v>
       </c>
@@ -8845,18 +8903,18 @@
         <v>196</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="69" t="s">
+    <row r="186" spans="1:7">
+      <c r="A186" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="B186" s="69" t="s">
+      <c r="B186" s="79" t="s">
         <v>198</v>
       </c>
-      <c r="C186" s="78" t="s">
+      <c r="C186" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="D186" s="78"/>
-      <c r="E186" s="78"/>
+      <c r="D186" s="90"/>
+      <c r="E186" s="90"/>
       <c r="F186" s="39" t="s">
         <v>200</v>
       </c>
@@ -8864,14 +8922,14 @@
         <v>201</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="69"/>
-      <c r="B187" s="69"/>
-      <c r="C187" s="79" t="s">
+    <row r="187" spans="1:7">
+      <c r="A187" s="79"/>
+      <c r="B187" s="79"/>
+      <c r="C187" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="D187" s="79"/>
-      <c r="E187" s="79"/>
+      <c r="D187" s="91"/>
+      <c r="E187" s="91"/>
       <c r="F187" s="39" t="s">
         <v>202</v>
       </c>
@@ -8879,16 +8937,16 @@
         <v>201</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="69"/>
-      <c r="B188" s="69" t="s">
+    <row r="188" spans="1:7">
+      <c r="A188" s="79"/>
+      <c r="B188" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="C188" s="80" t="s">
+      <c r="C188" s="92" t="s">
         <v>204</v>
       </c>
-      <c r="D188" s="80"/>
-      <c r="E188" s="80"/>
+      <c r="D188" s="92"/>
+      <c r="E188" s="92"/>
       <c r="F188" s="39" t="s">
         <v>200</v>
       </c>
@@ -8896,14 +8954,14 @@
         <v>201</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="69"/>
-      <c r="B189" s="69"/>
-      <c r="C189" s="80" t="s">
+    <row r="189" spans="1:7">
+      <c r="A189" s="79"/>
+      <c r="B189" s="79"/>
+      <c r="C189" s="92" t="s">
         <v>204</v>
       </c>
-      <c r="D189" s="80"/>
-      <c r="E189" s="80"/>
+      <c r="D189" s="92"/>
+      <c r="E189" s="92"/>
       <c r="F189" s="39" t="s">
         <v>202</v>
       </c>
@@ -8911,18 +8969,18 @@
         <v>201</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="81" t="s">
+    <row r="190" spans="1:7">
+      <c r="A190" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="B190" s="69" t="s">
+      <c r="B190" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="C190" s="69" t="s">
+      <c r="C190" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="D190" s="69"/>
-      <c r="E190" s="69"/>
+      <c r="D190" s="79"/>
+      <c r="E190" s="79"/>
       <c r="F190" s="39" t="s">
         <v>200</v>
       </c>
@@ -8930,14 +8988,14 @@
         <v>201</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="81"/>
-      <c r="B191" s="69"/>
-      <c r="C191" s="69" t="s">
+    <row r="191" spans="1:7">
+      <c r="A191" s="77"/>
+      <c r="B191" s="79"/>
+      <c r="C191" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="D191" s="69"/>
-      <c r="E191" s="69"/>
+      <c r="D191" s="79"/>
+      <c r="E191" s="79"/>
       <c r="F191" s="39" t="s">
         <v>202</v>
       </c>
@@ -8945,16 +9003,16 @@
         <v>239</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="81"/>
-      <c r="B192" s="69" t="s">
+    <row r="192" spans="1:7">
+      <c r="A192" s="77"/>
+      <c r="B192" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="C192" s="69" t="s">
+      <c r="C192" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="D192" s="69"/>
-      <c r="E192" s="69"/>
+      <c r="D192" s="79"/>
+      <c r="E192" s="79"/>
       <c r="F192" s="39" t="s">
         <v>200</v>
       </c>
@@ -8962,14 +9020,14 @@
         <v>201</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="81"/>
-      <c r="B193" s="69"/>
-      <c r="C193" s="69" t="s">
+    <row r="193" spans="1:7">
+      <c r="A193" s="77"/>
+      <c r="B193" s="79"/>
+      <c r="C193" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="D193" s="69"/>
-      <c r="E193" s="69"/>
+      <c r="D193" s="79"/>
+      <c r="E193" s="79"/>
       <c r="F193" s="39" t="s">
         <v>202</v>
       </c>
@@ -8977,18 +9035,18 @@
         <v>201</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="81" t="s">
+    <row r="194" spans="1:7">
+      <c r="A194" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="B194" s="69" t="s">
+      <c r="B194" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="C194" s="69" t="s">
+      <c r="C194" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="D194" s="69"/>
-      <c r="E194" s="69"/>
+      <c r="D194" s="79"/>
+      <c r="E194" s="79"/>
       <c r="F194" s="39" t="s">
         <v>200</v>
       </c>
@@ -8996,14 +9054,14 @@
         <v>201</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="81"/>
-      <c r="B195" s="69"/>
-      <c r="C195" s="69" t="s">
+    <row r="195" spans="1:7">
+      <c r="A195" s="77"/>
+      <c r="B195" s="79"/>
+      <c r="C195" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="D195" s="69"/>
-      <c r="E195" s="69"/>
+      <c r="D195" s="79"/>
+      <c r="E195" s="79"/>
       <c r="F195" s="39" t="s">
         <v>202</v>
       </c>
@@ -9011,16 +9069,16 @@
         <v>201</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="81"/>
-      <c r="B196" s="69" t="s">
+    <row r="196" spans="1:7">
+      <c r="A196" s="77"/>
+      <c r="B196" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="C196" s="69" t="s">
+      <c r="C196" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="D196" s="69"/>
-      <c r="E196" s="69"/>
+      <c r="D196" s="79"/>
+      <c r="E196" s="79"/>
       <c r="F196" s="39" t="s">
         <v>200</v>
       </c>
@@ -9028,14 +9086,14 @@
         <v>201</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="83"/>
-      <c r="B197" s="76"/>
-      <c r="C197" s="76" t="s">
+    <row r="197" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A197" s="78"/>
+      <c r="B197" s="80"/>
+      <c r="C197" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="D197" s="76"/>
-      <c r="E197" s="76"/>
+      <c r="D197" s="80"/>
+      <c r="E197" s="80"/>
       <c r="F197" s="40" t="s">
         <v>202</v>
       </c>
@@ -9043,7 +9101,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="2" t="s">
         <v>213</v>
       </c>
@@ -9052,17 +9110,17 @@
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="C199" s="20"/>
       <c r="D199" s="20"/>
       <c r="E199" s="20"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="C200" s="20"/>
       <c r="D200" s="20"/>
       <c r="E200" s="20"/>
     </row>
-    <row r="201" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="15.75" thickBot="1">
       <c r="A201" s="2" t="s">
         <v>248</v>
       </c>
@@ -9070,16 +9128,16 @@
       <c r="D201" s="20"/>
       <c r="E201" s="20"/>
     </row>
-    <row r="202" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" ht="15.75" thickBot="1">
       <c r="A202" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B202" s="84" t="s">
+      <c r="B202" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="C202" s="84"/>
-      <c r="D202" s="84"/>
-      <c r="E202" s="84"/>
+      <c r="C202" s="81"/>
+      <c r="D202" s="81"/>
+      <c r="E202" s="81"/>
       <c r="F202" s="22" t="s">
         <v>216</v>
       </c>
@@ -9087,16 +9145,16 @@
         <v>217</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="93" customHeight="1">
       <c r="A203" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="B203" s="85" t="s">
+      <c r="B203" s="82" t="s">
         <v>219</v>
       </c>
-      <c r="C203" s="75"/>
-      <c r="D203" s="75"/>
-      <c r="E203" s="75"/>
+      <c r="C203" s="83"/>
+      <c r="D203" s="83"/>
+      <c r="E203" s="83"/>
       <c r="F203" s="36" t="s">
         <v>220</v>
       </c>
@@ -9104,16 +9162,16 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="57" customHeight="1">
       <c r="A204" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B204" s="86" t="s">
+      <c r="B204" s="84" t="s">
         <v>222</v>
       </c>
-      <c r="C204" s="87"/>
-      <c r="D204" s="87"/>
-      <c r="E204" s="88"/>
+      <c r="C204" s="85"/>
+      <c r="D204" s="85"/>
+      <c r="E204" s="86"/>
       <c r="F204" s="10" t="s">
         <v>201</v>
       </c>
@@ -9121,16 +9179,16 @@
         <v>201</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="57" customHeight="1">
       <c r="A205" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="B205" s="86" t="s">
+      <c r="B205" s="84" t="s">
         <v>252</v>
       </c>
-      <c r="C205" s="87"/>
-      <c r="D205" s="87"/>
-      <c r="E205" s="88"/>
+      <c r="C205" s="85"/>
+      <c r="D205" s="85"/>
+      <c r="E205" s="86"/>
       <c r="F205" s="46" t="s">
         <v>250</v>
       </c>
@@ -9138,16 +9196,16 @@
         <v>250</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="69" customHeight="1" thickBot="1">
       <c r="A206" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B206" s="89" t="s">
+      <c r="B206" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="C206" s="76"/>
-      <c r="D206" s="76"/>
-      <c r="E206" s="76"/>
+      <c r="C206" s="80"/>
+      <c r="D206" s="80"/>
+      <c r="E206" s="80"/>
       <c r="F206" s="13" t="s">
         <v>201</v>
       </c>
@@ -9155,15 +9213,15 @@
         <v>201</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="C207" s="38"/>
     </row>
-    <row r="209" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" ht="15.75" thickBot="1">
       <c r="A209" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="15.75" thickBot="1">
       <c r="A210" s="4" t="s">
         <v>224</v>
       </c>
@@ -9182,7 +9240,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" s="31">
         <v>42682</v>
       </c>
@@ -9192,14 +9250,14 @@
       <c r="C211" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D211" s="90" t="s">
+      <c r="D211" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="E211" s="90"/>
-      <c r="F211" s="90"/>
+      <c r="E211" s="88"/>
+      <c r="F211" s="88"/>
       <c r="G211" s="32"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="33">
         <v>42692</v>
       </c>
@@ -9209,14 +9267,14 @@
       <c r="C212" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D212" s="82" t="s">
+      <c r="D212" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="E212" s="82"/>
-      <c r="F212" s="82"/>
+      <c r="E212" s="72"/>
+      <c r="F212" s="72"/>
       <c r="G212" s="24"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="33">
         <v>42955</v>
       </c>
@@ -9226,14 +9284,14 @@
       <c r="C213" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D213" s="82" t="s">
+      <c r="D213" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="E213" s="82"/>
-      <c r="F213" s="82"/>
+      <c r="E213" s="72"/>
+      <c r="F213" s="72"/>
       <c r="G213" s="24"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="33">
         <v>42991</v>
       </c>
@@ -9243,14 +9301,14 @@
       <c r="C214" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="D214" s="82" t="s">
+      <c r="D214" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="E214" s="82"/>
-      <c r="F214" s="82"/>
+      <c r="E214" s="72"/>
+      <c r="F214" s="72"/>
       <c r="G214" s="24"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="33">
         <v>43026</v>
       </c>
@@ -9260,14 +9318,14 @@
       <c r="C215" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="D215" s="82" t="s">
+      <c r="D215" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="E215" s="82"/>
-      <c r="F215" s="82"/>
+      <c r="E215" s="72"/>
+      <c r="F215" s="72"/>
       <c r="G215" s="24"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="33">
         <v>43069</v>
       </c>
@@ -9275,16 +9333,16 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="C216" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="D216" s="82" t="s">
+        <v>332</v>
+      </c>
+      <c r="D216" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="E216" s="82"/>
-      <c r="F216" s="82"/>
+      <c r="E216" s="72"/>
+      <c r="F216" s="72"/>
       <c r="G216" s="24"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="52">
         <v>43248</v>
       </c>
@@ -9294,14 +9352,14 @@
       <c r="C217" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="D217" s="92" t="s">
-        <v>334</v>
-      </c>
-      <c r="E217" s="93"/>
-      <c r="F217" s="94"/>
+      <c r="D217" s="74" t="s">
+        <v>333</v>
+      </c>
+      <c r="E217" s="75"/>
+      <c r="F217" s="76"/>
       <c r="G217" s="53"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" s="52">
         <v>43339</v>
       </c>
@@ -9311,14 +9369,14 @@
       <c r="C218" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="D218" s="92" t="s">
-        <v>335</v>
-      </c>
-      <c r="E218" s="93"/>
-      <c r="F218" s="94"/>
+      <c r="D218" s="74" t="s">
+        <v>334</v>
+      </c>
+      <c r="E218" s="75"/>
+      <c r="F218" s="76"/>
       <c r="G218" s="53"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" s="52">
         <v>43542</v>
       </c>
@@ -9328,14 +9386,14 @@
       <c r="C219" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="D219" s="92" t="s">
-        <v>348</v>
-      </c>
-      <c r="E219" s="93"/>
-      <c r="F219" s="94"/>
+      <c r="D219" s="74" t="s">
+        <v>347</v>
+      </c>
+      <c r="E219" s="75"/>
+      <c r="F219" s="76"/>
       <c r="G219" s="53"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" s="52">
         <v>43599</v>
       </c>
@@ -9346,46 +9404,78 @@
         <v>67</v>
       </c>
       <c r="D220" s="62" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E220" s="63"/>
       <c r="F220" s="64"/>
       <c r="G220" s="53"/>
     </row>
-    <row r="221" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="50">
+    <row r="221" spans="1:7">
+      <c r="A221" s="52">
         <v>43643</v>
       </c>
-      <c r="B221" s="57">
+      <c r="B221" s="56">
         <v>1.1399999999999999</v>
       </c>
-      <c r="C221" s="40" t="s">
+      <c r="C221" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D221" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="E221" s="91"/>
-      <c r="F221" s="91"/>
-      <c r="G221" s="25"/>
+      <c r="D221" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="E221" s="63"/>
+      <c r="F221" s="64"/>
+      <c r="G221" s="53"/>
+    </row>
+    <row r="222" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A222" s="50">
+        <v>43894</v>
+      </c>
+      <c r="B222" s="57">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C222" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D222" s="73" t="s">
+        <v>363</v>
+      </c>
+      <c r="E222" s="73"/>
+      <c r="F222" s="73"/>
+      <c r="G222" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NktA522ID+TDL1nmddUlQK58X8z5VvVOBtH5qriEtXnV4ND8Po7bA/qxn3S/Kxfre1ZGv51tiBtgmDohH3X+yQ==" saltValue="q+fbD7N+Gds9G9ZsKr9UMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZC0B/yWBsnsNoiYGsylBtDFjHlFkDcsc5FbUMdgfxj9Hei+XekJLxNRsfmgfru30ZY2RAy7fdFIuraUAtim1lw==" saltValue="HBb3PLugL4bod/dSynZVew==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
+      <selection activeCell="D224" sqref="D224"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="44">
-    <mergeCell ref="D213:F213"/>
-    <mergeCell ref="D214:F214"/>
-    <mergeCell ref="D215:F215"/>
-    <mergeCell ref="D216:F216"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="D217:F217"/>
-    <mergeCell ref="D218:F218"/>
-    <mergeCell ref="D219:F219"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="F109:N109"/>
+    <mergeCell ref="B144:B153"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B158:B165"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:E186"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:E188"/>
+    <mergeCell ref="C189:E189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="C192:E192"/>
+    <mergeCell ref="C193:E193"/>
     <mergeCell ref="D212:F212"/>
     <mergeCell ref="A194:A197"/>
     <mergeCell ref="B194:B195"/>
@@ -9400,28 +9490,14 @@
     <mergeCell ref="B206:E206"/>
     <mergeCell ref="D211:F211"/>
     <mergeCell ref="B205:E205"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="C192:E192"/>
-    <mergeCell ref="C193:E193"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="C185:E185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:E186"/>
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:E188"/>
-    <mergeCell ref="C189:E189"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="F109:N109"/>
-    <mergeCell ref="B143:B152"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B157:B164"/>
+    <mergeCell ref="D213:F213"/>
+    <mergeCell ref="D214:F214"/>
+    <mergeCell ref="D215:F215"/>
+    <mergeCell ref="D216:F216"/>
+    <mergeCell ref="D222:F222"/>
+    <mergeCell ref="D217:F217"/>
+    <mergeCell ref="D218:F218"/>
+    <mergeCell ref="D219:F219"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9436,24 +9512,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="E26" sqref="E26"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/tmp_client/doc/TMP_example/diamond_regression.xlsx
+++ b/tmp_client/doc/TMP_example/diamond_regression.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="0sngsN6DrFUqmuDZZhkIhd0EivD5xjZ0nj5fkMPZg+GIws2dGdQ895P+5SBGWtagLIQbEIRaHiBSjM2rhskk/Q==" workbookSaltValue="j22CHco5Hi8vlbKkcb9mlg==" workbookSpinCount="100000" lockStructure="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repository\tmp_client\doc\TMP_example\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="40MRd5r6vR/eXVUGbL7aEMM1NO6mwC4SojgFQmqHtZOqnQZBLsdr03u6GYWM/ftoMUNBO+KP7cdpMmOVZ0x4WQ==" workbookSaltValue="I+dbibQaVxj+tsXuP7uNKg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -17,19 +22,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AD$46</definedName>
     <definedName name="Z_16B2C8B3_13FA_43FB_96C1_3763C72619A6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
     <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
-    <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
+    <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$46</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <customWorkbookViews>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{e811cf45-d5b3-4449-84ae-1514f9e9258f}" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16b2c8b3-13fa-43fb-96c1-3763c72619a6}" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Cherry Xu - Personal View" guid="{179f0e1f-f6f7-410e-b883-54b8a90ba550}" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
+    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="318">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -984,24 +989,26 @@
   <si>
     <t>For user comments, script will not read.</t>
   </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>user prefer launch path setting</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1009,7 +1016,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1017,133 +1024,19 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1158,186 +1051,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="45">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1830,588 +1549,382 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="114">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="97">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="4" applyNumberFormat="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="4" applyNumberFormat="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="33" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="34" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="4" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="44" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="19" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="44" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="44" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="44" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="44" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="44" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="44" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="44" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="44" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="44" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="33" xfId="28" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="34" xfId="28" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="28" applyNumberFormat="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="28" applyNumberFormat="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="28" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="28" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="55">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="Note 2" xfId="9"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="Normal 6" xfId="19"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="24" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25" builtinId="44"/>
-    <cellStyle name="输出" xfId="26" builtinId="21"/>
-    <cellStyle name="计算" xfId="27" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="28" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="29" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="30" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="31" builtinId="24"/>
-    <cellStyle name="汇总" xfId="32" builtinId="25"/>
-    <cellStyle name="好" xfId="33" builtinId="26"/>
-    <cellStyle name="适中" xfId="34" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="36" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="37" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="39" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="40" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="41" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
-    <cellStyle name="Normal 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="Normal 3" xfId="47"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="48" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="49" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="50" builtinId="49"/>
-    <cellStyle name="Normal 4" xfId="51"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="52" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="53" builtinId="52"/>
-    <cellStyle name="Normal 5" xfId="54"/>
+  <cellStyles count="9">
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="6"/>
+    <cellStyle name="Normal 4" xfId="7"/>
+    <cellStyle name="Normal 5" xfId="8"/>
+    <cellStyle name="Normal 6" xfId="3"/>
+    <cellStyle name="Note 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2425,7 +1938,7 @@
       <xdr:row>106</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2471,35 +1984,30 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>Overall:</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>    This file try to standard the interface between user and command entry(component of TMP),  user need to follwoing the rules list below before uploading  test suite into TestRail database.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>    suite sheet used to summary the test suite common info.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>    case sheet used to list the test case one by one .</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>    description sheet will work as a simple handbook to indicate you how to fill this table.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
@@ -2509,98 +2017,84 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
             <a:t>suite sheet:</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>    Test suite info will construct by [suite_info] and [macro], [suite_info] is must while [macro] is optional.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>    [suite_info]</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>         -- suite demo</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>	[suite_info] </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>	project_id 		|6 </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>	suite_name 		|misc_cr_regression </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>	CaseInfo 		|repository = http://linux12v/diamond;suite_path = customer_cr </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>	Environment 		|aa=bb;cc=dd; </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>	LaunchCommand 	|cmd = python DEV/bin/run_diamond.py  --scan-rpt </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>	Software 		|diamond=3.8.0.115 </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>	System 		|</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>	Machine 		|group=rna_regression_group </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>                             Preference(optional)                    | lazy_copy=yes</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
@@ -2610,28 +2104,24 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>        1. basic rules:   column A option name, column B option value. if you have multi values for same option name, please use semicolon(;) to separate them in the same cell or put it in the next line without option name:</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>	example1:	column A	| column B	|column C</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>		name1	| value1;value2|</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>	</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2675,35 +2165,30 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>		name1	|value1	|</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>			|value2	|</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>		name2	|...	|</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>    2. details rules: project_id, suite_name, CaseInfo, Environment, LaunchCommand, System, Machine</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>         These information required by automation regression platform(TMP) to indicate where is case , extra requirements for test case run and how to launch it in test suite level. All there information will be up to TMP website.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
@@ -2722,15 +2207,6 @@
             </a:rPr>
             <a:t>project_id, suite_name, CaseInfo, Environment, LaunchCommand, System, Machine" since there are linked with internal database.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2745,15 +2221,6 @@
             </a:rPr>
             <a:t>        2.2  project_id:  please go to TestRail project level to see which project would you like to insert this suite and the project id. Typically the project id will like "P&lt;digital&gt;" on the website, just put the digital number here.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2768,15 +2235,6 @@
             </a:rPr>
             <a:t>        2.3 suite_name: please  type your suite name</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2791,15 +2249,6 @@
             </a:rPr>
             <a:t>        2.4 values for CaseInfo, Environment, LaunchCommand, System, Machine:  please locate  table2 below.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
@@ -2825,15 +2274,6 @@
             </a:rPr>
             <a:t>      [macro]  --optional</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2860,15 +2300,6 @@
             </a:rPr>
             <a:t>macro demo</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2891,7 +2322,6 @@
             <a:rPr lang="en-US" altLang="zh-CN"/>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
         </a:p>
         <a:p>
           <a:r>
@@ -2950,7 +2380,6 @@
             <a:rPr lang="en-US" altLang="zh-CN"/>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
         </a:p>
         <a:p>
           <a:r>
@@ -3013,7 +2442,6 @@
             <a:rPr lang="en-US" altLang="zh-CN"/>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
         </a:p>
         <a:p>
           <a:r>
@@ -3064,7 +2492,6 @@
             <a:rPr lang="en-US" altLang="zh-CN"/>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
         </a:p>
         <a:p>
           <a:r>
@@ -3102,15 +2529,6 @@
             </a:rPr>
             <a:t>        macro section intend to offer a convenience way to build sections globlly.  every test suite may have zero or several macro setting. </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3125,15 +2543,6 @@
             </a:rPr>
             <a:t>        </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3148,15 +2557,6 @@
             </a:rPr>
             <a:t>        the following lines always start with: condition or action</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3187,15 +2587,6 @@
             </a:rPr>
             <a:t>	condition | Column | Expression      </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3226,15 +2617,6 @@
             </a:rPr>
             <a:t>		Column:the value in Column must be found in Case sheet</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3265,15 +2647,6 @@
             </a:rPr>
             <a:t>		Expression:current we only support these key word  "="  all these key words should be surround by " "(blank space) for a well capability.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3304,15 +2677,6 @@
             </a:rPr>
             <a:t>	action       | Column | Setting</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3343,15 +2707,6 @@
             </a:rPr>
             <a:t>                                                           Any basic case in "case" sheet  satisfy with the requirement of  this macro will be duplicate  and run actions in this macro.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3382,15 +2737,6 @@
             </a:rPr>
             <a:t>		Column:the value in Column must be found in Case sheet</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3421,15 +2767,6 @@
             </a:rPr>
             <a:t>		Setting: the globe value setting: for columns "CaseInfo", "Environment","LaunchCommand", "Software", "System","Machine": if columns already have a same value, the value in "case"  sheet have a higher priority</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3460,15 +2797,6 @@
             </a:rPr>
             <a:t>				for other columns: global setting will over write the values in "case" sheet.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3499,15 +2827,6 @@
             </a:rPr>
             <a:t>	There maybe more than one condition or action and the final behavior will be :   any case satisfy all conditions will do the actions.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
@@ -3533,15 +2852,6 @@
             </a:rPr>
             <a:t>         tips: different macros will duplicate different  case sections.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3556,15 +2866,6 @@
             </a:rPr>
             <a:t>                   Please make sure the "END" followed the last macro otherwise script will skip it.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
@@ -3613,15 +2914,6 @@
             </a:rPr>
             <a:t>case sheet(s):</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3636,15 +2928,6 @@
             </a:rPr>
             <a:t>        1. All sheets with name of 'case_' will be considered as case sheet, the sheet priority will be same as the sheet sequence in Excel Workbook</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3659,15 +2942,6 @@
             </a:rPr>
             <a:t>        2. basic rules: Do not modify raw 1 and 2. if  you want to upload  some more info which didn't listed in title please contact your TMP admin</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3682,15 +2956,6 @@
             </a:rPr>
             <a:t>        3. detail rules:</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
@@ -3716,15 +2981,6 @@
             </a:rPr>
             <a:t>	--Public case info</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3739,15 +2995,6 @@
             </a:rPr>
             <a:t>	Order: just local number record will not be upload</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3778,15 +3025,6 @@
             </a:rPr>
             <a:t>	NoUse:  if marked as YES, this case will not be run by TMP server/client</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3801,15 +3039,6 @@
             </a:rPr>
             <a:t>	Title:  descript  your case in summary.  shown on page</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3824,15 +3053,6 @@
             </a:rPr>
             <a:t>	Section: which test section will  this case belong in. blank will make the case go to "Test Cases".</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3847,15 +3067,6 @@
             </a:rPr>
             <a:t>	design_name: design name, we accept a path segment(i.e.  topdir/design_name ) but do use "/" instade of "\" for all platform. This column will be override by"CaseInfo"  design_name value.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3870,15 +3081,6 @@
             </a:rPr>
             <a:t>	Test Level: case level: 1 for every detail feature, 2 for feature combination, 3 for feature and tool combination. shown on page</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3893,15 +3095,6 @@
             </a:rPr>
             <a:t>	Test Scenarios: test scenarios for this case. shown on page</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3916,15 +3109,6 @@
             </a:rPr>
             <a:t>	Description: detail description for thie case. shown on page</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3939,15 +3123,6 @@
             </a:rPr>
             <a:t>	Type: case type in FURPS, see table1 for available value. shown on page</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3978,15 +3153,6 @@
             </a:rPr>
             <a:t>	Priority: test case priority, see table1 for available value. shown on page</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4017,15 +3183,6 @@
             </a:rPr>
             <a:t>                             Automated:test case automation stauts, see table1 for available value. shown on page</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4073,15 +3230,6 @@
             </a:rPr>
             <a:t>	CaseInfo: see table2 for available value. shown on page, Configuration section.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4112,15 +3260,6 @@
             </a:rPr>
             <a:t>	Environment: see table2 for available value. shown on page, Configuration section.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4250,15 +3389,6 @@
             </a:rPr>
             <a:t>	Machine: see table2 for available value. shown on page, Configuration section.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4335,15 +3465,6 @@
             </a:rPr>
             <a:t>	Sorting: local record for suite sorting and macro action aplication. only one sorting key allowed for one cell</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4374,15 +3495,6 @@
             </a:rPr>
             <a:t>	CRs: just local record will not be upload</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
@@ -4431,15 +3543,6 @@
             </a:rPr>
             <a:t>	Update:just local record will not be upload</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4497,15 +3600,6 @@
             </a:rPr>
             <a:t>	 --FPGA extra info   (used to sorting later)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4536,15 +3630,6 @@
             </a:rPr>
             <a:t>	Family:  project device family, (string in database) shown on page </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4575,15 +3660,6 @@
             </a:rPr>
             <a:t>	Slice: slices used, (integer in database) shown on page</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4614,15 +3690,6 @@
             </a:rPr>
             <a:t>	PIO: pio used, (integer in database) shown on page</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4686,15 +3753,6 @@
             </a:rPr>
             <a:t>	EBR: EBR total munber, (integer in database) shown on page</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4725,15 +3783,6 @@
             </a:rPr>
             <a:t>	RTL: is this case rtl code, YES for rtl, NO for non-rtl code, blank for unknown.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4764,15 +3813,6 @@
             </a:rPr>
             <a:t>	TestBench: is this case have test bench(can run simulation or not)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4803,15 +3843,6 @@
             </a:rPr>
             <a:t>	Flow: which test flow will this case support,  the definition depends on yourself we will use your keyword to duplicate this test case with different flow key words.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4842,15 +3873,6 @@
             </a:rPr>
             <a:t>	           multi-flow need to be separate by semicolon, i.e.    impl; sim</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4908,15 +3930,6 @@
             </a:rPr>
             <a:t>	--User extra info (just for record)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -5023,15 +4036,6 @@
             </a:rPr>
             <a:t>	</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5058,7 +4062,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5113,7 +4117,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5141,16 +4145,16 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="TextBox 4"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -5211,7 +4215,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>  let's take Software as an example:</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
@@ -5237,15 +4240,6 @@
             </a:rPr>
             <a:t>questasim version 10.2 so the following lines will be write into Case sheet::Software column (use semicolon when you have multi values):         </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -5279,7 +4273,7 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
         <xdr:cNvCxnSpPr/>
@@ -5326,7 +4320,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
         <xdr:cNvCxnSpPr/>
@@ -5361,6 +4355,46 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C3911F6D-7671-4AF3-8B15-3A104438C863}" diskRevisions="1" revisionId="1" version="2">
+  <header guid="{D6C683F4-DECC-4CC2-9E87-3C85EDCCE6F3}" dateTime="2020-07-10T18:35:27" maxSheetId="5" userName="Jason Wang" r:id="rId1">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C3911F6D-7671-4AF3-8B15-3A104438C863}" dateTime="2020-07-10T18:35:37" maxSheetId="5" userName="Jason Wang" r:id="rId2">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$46</formula>
+    <oldFormula>case!$A$2:$AD$46</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5406,7 +4440,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5441,7 +4475,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5644,1741 +4678,1729 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" style="89" customWidth="1"/>
-    <col min="2" max="2" width="28" style="89" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="89"/>
+    <col min="1" max="1" width="15" style="61" customWidth="1"/>
+    <col min="2" max="2" width="28" style="61" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="61" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="61" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="61" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="89" t="s">
+    <row r="5" spans="1:2">
+      <c r="B5" s="61" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="89" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="61" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="89" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="61" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="89" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="61" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="89" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="61" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{e811cf45-d5b3-4449-84ae-1514f9e9258f}">
-      <selection activeCell="B7" sqref="B7"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <headerFooter/>
     </customSheetView>
-    <customSheetView guid="{16b2c8b3-13fa-43fb-96c1-3763c72619a6}">
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <headerFooter/>
     </customSheetView>
-    <customSheetView guid="{179f0e1f-f6f7-410e-b883-54b8a90ba550}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <headerFooter/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.287037037037" style="89" customWidth="1"/>
-    <col min="2" max="2" width="9" style="89" customWidth="1"/>
-    <col min="3" max="3" width="33.287037037037" style="89" customWidth="1"/>
-    <col min="4" max="4" width="16.1388888888889" style="89" customWidth="1"/>
-    <col min="5" max="5" width="30.287037037037" style="89" customWidth="1"/>
-    <col min="6" max="6" width="11.712962962963" style="89" customWidth="1"/>
-    <col min="7" max="7" width="24" style="89" customWidth="1"/>
-    <col min="8" max="8" width="37" style="89" customWidth="1"/>
-    <col min="9" max="9" width="11.1388888888889" style="89" customWidth="1"/>
-    <col min="10" max="10" width="9.85185185185185" style="89" customWidth="1"/>
-    <col min="11" max="11" width="12" style="89" customWidth="1"/>
-    <col min="12" max="12" width="9.57407407407407" style="90" customWidth="1"/>
-    <col min="13" max="13" width="38" style="89" customWidth="1"/>
-    <col min="14" max="14" width="19.4259259259259" style="89" customWidth="1"/>
-    <col min="15" max="15" width="30.287037037037" style="89" customWidth="1"/>
-    <col min="16" max="16" width="17.287037037037" style="89" customWidth="1"/>
-    <col min="17" max="17" width="15.4259259259259" style="89" customWidth="1"/>
-    <col min="18" max="18" width="13" style="89" customWidth="1"/>
-    <col min="19" max="19" width="9.71296296296296" style="89" customWidth="1"/>
-    <col min="20" max="20" width="9.42592592592593" style="89" customWidth="1"/>
-    <col min="21" max="21" width="11" style="89" customWidth="1"/>
-    <col min="22" max="22" width="11.712962962963" style="89" customWidth="1"/>
-    <col min="23" max="28" width="9" style="89"/>
-    <col min="29" max="29" width="10.1388888888889" style="89" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="89"/>
+    <col min="1" max="1" width="10.28515625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="9" style="61" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="61" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="61" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="61" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="61" customWidth="1"/>
+    <col min="7" max="7" width="24" style="61" customWidth="1"/>
+    <col min="8" max="8" width="37" style="61" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="61" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="61" customWidth="1"/>
+    <col min="11" max="11" width="12" style="61" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="62" customWidth="1"/>
+    <col min="13" max="13" width="38" style="61" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="61" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" style="61" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" style="61" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" style="61" customWidth="1"/>
+    <col min="18" max="18" width="13" style="61" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="61" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="61" customWidth="1"/>
+    <col min="21" max="21" width="11" style="61" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="61" customWidth="1"/>
+    <col min="23" max="28" width="9" style="61"/>
+    <col min="29" max="29" width="10.140625" style="61" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" s="88" customFormat="1" ht="15.9" spans="1:30">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:30" s="60" customFormat="1">
+      <c r="A1" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="96" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-    </row>
-    <row r="2" s="88" customFormat="1" ht="15.9" spans="1:30">
-      <c r="A2" s="93" t="s">
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+    </row>
+    <row r="2" spans="1:30" s="60" customFormat="1">
+      <c r="A2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="93" t="s">
+      <c r="I2" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="93" t="s">
+      <c r="K2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="94" t="s">
+      <c r="L2" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="93" t="s">
+      <c r="M2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="93" t="s">
+      <c r="N2" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="93" t="s">
+      <c r="O2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="93" t="s">
+      <c r="P2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="93" t="s">
+      <c r="Q2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="93" t="s">
+      <c r="R2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="93" t="s">
+      <c r="S2" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="93" t="s">
+      <c r="T2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="93" t="s">
+      <c r="U2" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="93" t="s">
+      <c r="V2" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="93" t="s">
+      <c r="W2" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="93" t="s">
+      <c r="X2" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="93" t="s">
+      <c r="Y2" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="93" t="s">
+      <c r="Z2" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="93" t="s">
+      <c r="AA2" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="93" t="s">
+      <c r="AB2" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="93" t="s">
+      <c r="AC2" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="AD2" s="93" t="s">
+      <c r="AD2" s="63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="1:19">
-      <c r="A3" s="89">
+    <row r="3" spans="1:30">
+      <c r="A3" s="61">
         <v>1</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="89" t="s">
+      <c r="I3" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="89" t="s">
+      <c r="J3" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="89" t="s">
+      <c r="O3" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="89" t="s">
+      <c r="S3" s="61" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="89">
+    <row r="4" spans="1:30">
+      <c r="A4" s="61">
         <v>2</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="89" t="s">
+      <c r="J4" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="89">
+    <row r="5" spans="1:30">
+      <c r="A5" s="61">
         <v>3</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="89" t="s">
+      <c r="G5" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="89" t="s">
+      <c r="I5" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="89" t="s">
+      <c r="O5" s="61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="89">
+    <row r="6" spans="1:30">
+      <c r="A6" s="61">
         <v>4</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="89" t="s">
+      <c r="F6" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="89" t="s">
+      <c r="J6" s="61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="89">
+    <row r="7" spans="1:30">
+      <c r="A7" s="61">
         <v>5</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="89">
+    <row r="8" spans="1:30">
+      <c r="A8" s="61">
         <v>6</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="89" t="s">
+      <c r="F8" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="89" t="s">
+      <c r="G8" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="89" t="s">
+      <c r="H8" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="89" t="s">
+      <c r="I8" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="89" t="s">
+      <c r="J8" s="61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="89">
+    <row r="9" spans="1:30">
+      <c r="A9" s="61">
         <v>7</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="89" t="s">
+      <c r="F9" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="89" t="s">
+      <c r="G9" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="89" t="s">
+      <c r="H9" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="89" t="s">
+      <c r="I9" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="89" t="s">
+      <c r="J9" s="61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="89">
+    <row r="10" spans="1:30">
+      <c r="A10" s="61">
         <v>8</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="89" t="s">
+      <c r="F10" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="89" t="s">
+      <c r="G10" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="89" t="s">
+      <c r="H10" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="89" t="s">
+      <c r="I10" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="89" t="s">
+      <c r="J10" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="89" t="s">
+      <c r="O10" s="61" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="89">
+    <row r="11" spans="1:30">
+      <c r="A11" s="61">
         <v>9</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="89" t="s">
+      <c r="F11" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="89" t="s">
+      <c r="G11" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="89" t="s">
+      <c r="H11" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="89" t="s">
+      <c r="I11" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="89" t="s">
+      <c r="J11" s="61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="89">
+    <row r="12" spans="1:30">
+      <c r="A12" s="61">
         <v>10</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="89" t="s">
+      <c r="D12" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="89" t="s">
+      <c r="E12" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="89" t="s">
+      <c r="F12" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="89" t="s">
+      <c r="G12" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="89" t="s">
+      <c r="H12" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="89" t="s">
+      <c r="I12" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="89" t="s">
+      <c r="J12" s="61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="89">
+    <row r="13" spans="1:30">
+      <c r="A13" s="61">
         <v>11</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="89" t="s">
+      <c r="E13" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="89" t="s">
+      <c r="G13" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="89" t="s">
+      <c r="H13" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="89" t="s">
+      <c r="I13" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="89" t="s">
+      <c r="J13" s="61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="89">
+    <row r="14" spans="1:30">
+      <c r="A14" s="61">
         <v>12</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="89" t="s">
+      <c r="E14" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="89" t="s">
+      <c r="F14" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="89" t="s">
+      <c r="G14" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="89" t="s">
+      <c r="H14" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="89" t="s">
+      <c r="I14" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="89" t="s">
+      <c r="J14" s="61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="89">
+    <row r="15" spans="1:30">
+      <c r="A15" s="61">
         <v>13</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="89" t="s">
+      <c r="E15" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="89" t="s">
+      <c r="F15" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="89" t="s">
+      <c r="G15" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="89" t="s">
+      <c r="H15" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="89" t="s">
+      <c r="I15" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="89" t="s">
+      <c r="J15" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="89" t="s">
+      <c r="O15" s="61" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="89">
+    <row r="16" spans="1:30">
+      <c r="A16" s="61">
         <v>14</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="89" t="s">
+      <c r="E16" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="89" t="s">
+      <c r="F16" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="89" t="s">
+      <c r="G16" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="89" t="s">
+      <c r="H16" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="89" t="s">
+      <c r="I16" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="89" t="s">
+      <c r="J16" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="89" t="s">
+      <c r="O16" s="61" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="89">
+    <row r="17" spans="1:17">
+      <c r="A17" s="61">
         <v>15</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="89" t="s">
+      <c r="D17" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="89" t="s">
+      <c r="E17" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="89" t="s">
+      <c r="F17" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="89" t="s">
+      <c r="G17" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="89" t="s">
+      <c r="H17" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="89" t="s">
+      <c r="I17" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="89" t="s">
+      <c r="J17" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O17" s="89" t="s">
+      <c r="O17" s="61" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="89">
+    <row r="18" spans="1:17">
+      <c r="A18" s="61">
         <v>16</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="89" t="s">
+      <c r="D18" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="89" t="s">
+      <c r="E18" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="89" t="s">
+      <c r="F18" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="89" t="s">
+      <c r="G18" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="89" t="s">
+      <c r="H18" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="89" t="s">
+      <c r="I18" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="89" t="s">
+      <c r="J18" s="61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="89">
+    <row r="19" spans="1:17">
+      <c r="A19" s="61">
         <v>17</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="89" t="s">
+      <c r="F19" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="89" t="s">
+      <c r="G19" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="89" t="s">
+      <c r="H19" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="89" t="s">
+      <c r="I19" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="89" t="s">
+      <c r="J19" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O19" s="89" t="s">
+      <c r="O19" s="61" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="89">
+    <row r="20" spans="1:17">
+      <c r="A20" s="61">
         <v>18</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="89" t="s">
+      <c r="D20" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="89" t="s">
+      <c r="E20" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="89" t="s">
+      <c r="F20" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="89" t="s">
+      <c r="G20" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="89" t="s">
+      <c r="H20" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="89" t="s">
+      <c r="I20" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="89" t="s">
+      <c r="J20" s="61" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="89">
+      <c r="A21" s="61">
         <v>19</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="89" t="s">
+      <c r="D21" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="89" t="s">
+      <c r="E21" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="89" t="s">
+      <c r="F21" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="89" t="s">
+      <c r="G21" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="89" t="s">
+      <c r="H21" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="89" t="s">
+      <c r="I21" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="89" t="s">
+      <c r="J21" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O21" s="89" t="s">
+      <c r="O21" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="Q21" s="89" t="s">
+      <c r="Q21" s="61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="89">
+    <row r="22" spans="1:17">
+      <c r="A22" s="61">
         <v>20</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="89" t="s">
+      <c r="E22" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="89" t="s">
+      <c r="F22" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="89" t="s">
+      <c r="G22" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="89" t="s">
+      <c r="H22" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="89" t="s">
+      <c r="I22" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="89" t="s">
+      <c r="J22" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="89" t="s">
+      <c r="O22" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="P22" s="89" t="s">
+      <c r="P22" s="61" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="89">
+    <row r="23" spans="1:17">
+      <c r="A23" s="61">
         <v>21</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="89" t="s">
+      <c r="E23" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="89" t="s">
+      <c r="F23" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="89" t="s">
+      <c r="G23" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="89" t="s">
+      <c r="H23" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="89" t="s">
+      <c r="I23" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="89" t="s">
+      <c r="J23" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O23" s="89" t="s">
+      <c r="O23" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="P23" s="89" t="s">
+      <c r="P23" s="61" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="89">
+    <row r="24" spans="1:17">
+      <c r="A24" s="61">
         <v>22</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="89" t="s">
+      <c r="E24" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="89" t="s">
+      <c r="F24" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="89" t="s">
+      <c r="G24" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="89" t="s">
+      <c r="H24" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="89" t="s">
+      <c r="I24" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J24" s="89" t="s">
+      <c r="J24" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O24" s="89" t="s">
+      <c r="O24" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="P24" s="89" t="s">
+      <c r="P24" s="61" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="89">
+    <row r="25" spans="1:17">
+      <c r="A25" s="61">
         <v>23</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="89" t="s">
+      <c r="E25" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="89" t="s">
+      <c r="F25" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="89" t="s">
+      <c r="G25" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="89" t="s">
+      <c r="H25" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="89" t="s">
+      <c r="I25" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="89" t="s">
+      <c r="J25" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O25" s="89" t="s">
+      <c r="O25" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="P25" s="89" t="s">
+      <c r="P25" s="61" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="89">
+      <c r="A26" s="61">
         <v>24</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="89" t="s">
+      <c r="D26" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="89" t="s">
+      <c r="F26" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="89" t="s">
+      <c r="G26" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="89" t="s">
+      <c r="H26" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="89" t="s">
+      <c r="I26" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="89" t="s">
+      <c r="J26" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O26" s="89" t="s">
+      <c r="O26" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="Q26" s="89" t="s">
+      <c r="Q26" s="61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="89">
+    <row r="27" spans="1:17">
+      <c r="A27" s="61">
         <v>25</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="89" t="s">
+      <c r="D27" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="89" t="s">
+      <c r="E27" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="89" t="s">
+      <c r="F27" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="89" t="s">
+      <c r="G27" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="89" t="s">
+      <c r="H27" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I27" s="89" t="s">
+      <c r="I27" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="89" t="s">
+      <c r="J27" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="89" t="s">
+      <c r="O27" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="P27" s="89" t="s">
+      <c r="P27" s="61" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="89">
+    <row r="28" spans="1:17">
+      <c r="A28" s="61">
         <v>26</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="89" t="s">
+      <c r="D28" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="89" t="s">
+      <c r="E28" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="89" t="s">
+      <c r="F28" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="89" t="s">
+      <c r="G28" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="89" t="s">
+      <c r="H28" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="89" t="s">
+      <c r="I28" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J28" s="89" t="s">
+      <c r="J28" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O28" s="89" t="s">
+      <c r="O28" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="P28" s="89" t="s">
+      <c r="P28" s="61" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="89">
+    <row r="29" spans="1:17">
+      <c r="A29" s="61">
         <v>27</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="89" t="s">
+      <c r="D29" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="89" t="s">
+      <c r="E29" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="89" t="s">
+      <c r="F29" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="89" t="s">
+      <c r="G29" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="89" t="s">
+      <c r="H29" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="89" t="s">
+      <c r="I29" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="89" t="s">
+      <c r="J29" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="89" t="s">
+      <c r="O29" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="P29" s="89" t="s">
+      <c r="P29" s="61" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="89">
+      <c r="A30" s="61">
         <v>28</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="89" t="s">
+      <c r="D30" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="89" t="s">
+      <c r="E30" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="89" t="s">
+      <c r="F30" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="89" t="s">
+      <c r="G30" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H30" s="89" t="s">
+      <c r="H30" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="89" t="s">
+      <c r="I30" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="89" t="s">
+      <c r="J30" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O30" s="89" t="s">
+      <c r="O30" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="Q30" s="89" t="s">
+      <c r="Q30" s="61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="89">
+    <row r="31" spans="1:17">
+      <c r="A31" s="61">
         <v>29</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="89" t="s">
+      <c r="D31" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="89" t="s">
+      <c r="E31" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="89" t="s">
+      <c r="F31" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="89" t="s">
+      <c r="G31" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="89" t="s">
+      <c r="H31" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="89" t="s">
+      <c r="I31" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="89" t="s">
+      <c r="J31" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O31" s="89" t="s">
+      <c r="O31" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="P31" s="89" t="s">
+      <c r="P31" s="61" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="89">
+    <row r="32" spans="1:17">
+      <c r="A32" s="61">
         <v>30</v>
       </c>
-      <c r="C32" s="89" t="s">
+      <c r="C32" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="89" t="s">
+      <c r="D32" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="89" t="s">
+      <c r="E32" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="89" t="s">
+      <c r="F32" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="89" t="s">
+      <c r="G32" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H32" s="89" t="s">
+      <c r="H32" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="89" t="s">
+      <c r="I32" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="89" t="s">
+      <c r="J32" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="89" t="s">
+      <c r="O32" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="89" t="s">
+      <c r="P32" s="61" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="89">
+      <c r="A33" s="61">
         <v>31</v>
       </c>
-      <c r="C33" s="89" t="s">
+      <c r="C33" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="89" t="s">
+      <c r="D33" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="89" t="s">
+      <c r="E33" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="89" t="s">
+      <c r="F33" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="89" t="s">
+      <c r="G33" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="H33" s="89" t="s">
+      <c r="H33" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I33" s="89" t="s">
+      <c r="I33" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J33" s="89" t="s">
+      <c r="J33" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O33" s="89" t="s">
+      <c r="O33" s="61" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="89">
+      <c r="A34" s="61">
         <v>32</v>
       </c>
-      <c r="C34" s="89" t="s">
+      <c r="C34" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="89" t="s">
+      <c r="D34" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="89" t="s">
+      <c r="E34" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F34" s="89" t="s">
+      <c r="F34" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="89" t="s">
+      <c r="G34" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="H34" s="89" t="s">
+      <c r="H34" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="89" t="s">
+      <c r="I34" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J34" s="89" t="s">
+      <c r="J34" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O34" s="89" t="s">
+      <c r="O34" s="61" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="89">
+      <c r="A35" s="61">
         <v>33</v>
       </c>
-      <c r="C35" s="89" t="s">
+      <c r="C35" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="89" t="s">
+      <c r="D35" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="89" t="s">
+      <c r="E35" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="89" t="s">
+      <c r="F35" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G35" s="89" t="s">
+      <c r="G35" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="H35" s="89" t="s">
+      <c r="H35" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I35" s="89" t="s">
+      <c r="I35" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J35" s="89" t="s">
+      <c r="J35" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="89" t="s">
+      <c r="O35" s="61" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="89">
+      <c r="A36" s="61">
         <v>34</v>
       </c>
-      <c r="C36" s="89" t="s">
+      <c r="C36" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="89" t="s">
+      <c r="D36" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="89" t="s">
+      <c r="E36" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="89" t="s">
+      <c r="F36" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="89" t="s">
+      <c r="G36" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="89" t="s">
+      <c r="H36" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I36" s="89" t="s">
+      <c r="I36" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J36" s="89" t="s">
+      <c r="J36" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O36" s="89" t="s">
+      <c r="O36" s="61" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="89">
+      <c r="A37" s="61">
         <v>35</v>
       </c>
-      <c r="C37" s="89" t="s">
+      <c r="C37" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="89" t="s">
+      <c r="D37" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="89" t="s">
+      <c r="E37" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="89" t="s">
+      <c r="F37" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="89" t="s">
+      <c r="G37" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="H37" s="89" t="s">
+      <c r="H37" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="89" t="s">
+      <c r="I37" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J37" s="89" t="s">
+      <c r="J37" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O37" s="89" t="s">
+      <c r="O37" s="61" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="89">
+      <c r="A38" s="61">
         <v>36</v>
       </c>
-      <c r="C38" s="89" t="s">
+      <c r="C38" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="89" t="s">
+      <c r="D38" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="89" t="s">
+      <c r="E38" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="89" t="s">
+      <c r="F38" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="89" t="s">
+      <c r="G38" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="H38" s="89" t="s">
+      <c r="H38" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="89" t="s">
+      <c r="I38" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J38" s="89" t="s">
+      <c r="J38" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O38" s="89" t="s">
+      <c r="O38" s="61" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="89">
+      <c r="A39" s="61">
         <v>37</v>
       </c>
-      <c r="C39" s="89" t="s">
+      <c r="C39" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="89" t="s">
+      <c r="D39" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="89" t="s">
+      <c r="E39" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="89" t="s">
+      <c r="F39" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="89" t="s">
+      <c r="G39" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="H39" s="89" t="s">
+      <c r="H39" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I39" s="89" t="s">
+      <c r="I39" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J39" s="89" t="s">
+      <c r="J39" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O39" s="89" t="s">
+      <c r="O39" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="89">
+      <c r="A40" s="61">
         <v>38</v>
       </c>
-      <c r="C40" s="89" t="s">
+      <c r="C40" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="89" t="s">
+      <c r="D40" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="89" t="s">
+      <c r="E40" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="89" t="s">
+      <c r="F40" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="89" t="s">
+      <c r="G40" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="H40" s="89" t="s">
+      <c r="H40" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="89" t="s">
+      <c r="I40" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J40" s="89" t="s">
+      <c r="J40" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O40" s="89" t="s">
+      <c r="O40" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="89">
+      <c r="A41" s="61">
         <v>39</v>
       </c>
-      <c r="C41" s="89" t="s">
+      <c r="C41" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="89" t="s">
+      <c r="D41" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="89" t="s">
+      <c r="E41" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="F41" s="89" t="s">
+      <c r="F41" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G41" s="89" t="s">
+      <c r="G41" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="89" t="s">
+      <c r="H41" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="89" t="s">
+      <c r="I41" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J41" s="89" t="s">
+      <c r="J41" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O41" s="89" t="s">
+      <c r="O41" s="61" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="89">
+      <c r="A42" s="61">
         <v>40</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="89" t="s">
+      <c r="D42" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="89" t="s">
+      <c r="E42" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="89" t="s">
+      <c r="F42" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G42" s="89" t="s">
+      <c r="G42" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="H42" s="89" t="s">
+      <c r="H42" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I42" s="89" t="s">
+      <c r="I42" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J42" s="89" t="s">
+      <c r="J42" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O42" s="89" t="s">
+      <c r="O42" s="61" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="89">
+      <c r="A43" s="61">
         <v>41</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C43" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="D43" s="89" t="s">
+      <c r="D43" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="E43" s="89" t="s">
+      <c r="E43" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="F43" s="89" t="s">
+      <c r="F43" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="89" t="s">
+      <c r="G43" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="H43" s="89" t="s">
+      <c r="H43" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I43" s="89" t="s">
+      <c r="I43" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J43" s="89" t="s">
+      <c r="J43" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O43" s="89" t="s">
+      <c r="O43" s="61" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="89">
+    <row r="44" spans="1:15">
+      <c r="A44" s="61">
         <v>42</v>
       </c>
-      <c r="C44" s="89" t="s">
+      <c r="C44" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="89" t="s">
+      <c r="D44" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="89" t="s">
+      <c r="E44" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="F44" s="89" t="s">
+      <c r="F44" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="89" t="s">
+      <c r="G44" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="H44" s="89" t="s">
+      <c r="H44" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I44" s="89" t="s">
+      <c r="I44" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J44" s="89" t="s">
+      <c r="J44" s="61" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="89">
+      <c r="A45" s="61">
         <v>43</v>
       </c>
-      <c r="C45" s="89" t="s">
+      <c r="C45" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="D45" s="89" t="s">
+      <c r="D45" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="89" t="s">
+      <c r="E45" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="F45" s="89" t="s">
+      <c r="F45" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G45" s="89" t="s">
+      <c r="G45" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="H45" s="89" t="s">
+      <c r="H45" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I45" s="89" t="s">
+      <c r="I45" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J45" s="89" t="s">
+      <c r="J45" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O45" s="89" t="s">
+      <c r="O45" s="61" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="89">
+      <c r="A46" s="61">
         <v>44</v>
       </c>
-      <c r="B46" s="89" t="s">
+      <c r="B46" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="89" t="s">
+      <c r="C46" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="D46" s="89" t="s">
+      <c r="D46" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="89" t="s">
+      <c r="E46" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="F46" s="89" t="s">
+      <c r="F46" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G46" s="89" t="s">
+      <c r="G46" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="H46" s="89" t="s">
+      <c r="H46" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I46" s="89" t="s">
+      <c r="I46" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="J46" s="89" t="s">
+      <c r="J46" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O46" s="89" t="s">
+      <c r="O46" s="61" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4C55417S7/WEfM6p9p+2qxLa3pFuuwTQvkVS+xLflxPJ6JUMhmXb8UBi2EhWPKsWHpV7wPPZoM4Ci73L5pzjfA==" saltValue="OVPlytvnGy6tQU/SUgOtyg==" spinCount="100000" sheet="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1" scenarios="1"/>
-  <autoFilter ref="A2:AD46">
-    <extLst/>
-  </autoFilter>
+  <sheetProtection algorithmName="SHA-512" hashValue="4C55417S7/WEfM6p9p+2qxLa3pFuuwTQvkVS+xLflxPJ6JUMhmXb8UBi2EhWPKsWHpV7wPPZoM4Ci73L5pzjfA==" saltValue="OVPlytvnGy6tQU/SUgOtyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A2:AD46"/>
   <customSheetViews>
-    <customSheetView guid="{e811cf45-d5b3-4449-84ae-1514f9e9258f}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <headerFooter/>
-      <autoFilter ref="A2:AD2"/>
+      <autoFilter ref="A2:AD46"/>
     </customSheetView>
-    <customSheetView guid="{16b2c8b3-13fa-43fb-96c1-3763c72619a6}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
       <selection activeCell="H23" sqref="H23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <headerFooter/>
       <autoFilter ref="A2:Y2"/>
     </customSheetView>
-    <customSheetView guid="{179f0e1f-f6f7-410e-b883-54b8a90ba550}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
       <selection activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <headerFooter/>
       <autoFilter ref="A2:Y2"/>
     </customSheetView>
   </customSheetViews>
@@ -7386,65 +6408,93 @@
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="W1:AD1"/>
   </mergeCells>
-  <dataValidations count="10">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:I1 M1:V1">
       <formula1>$F$119:$J$119</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
-      <formula1>description!$F$122:$H$122</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
-      <formula1>description!$F$113:$G$113</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:AA1 AD1">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
-      <formula1>description!$F$123:$H$123</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>description!$F$117:$H$117</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB$1:AB$1048576">
-      <formula1>description!$F$140:$H$140</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
-      <formula1>description!$F$120:$K$120</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
-      <formula1>description!$E$121:$K$121</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC$1:AC$1048576">
-      <formula1>description!$F$141:$H$141</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>description!$F$122:$H$122</xm:f>
+          </x14:formula1>
+          <xm:sqref>K1:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>description!$F$113:$G$113</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>description!$F$123:$H$123</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>description!$F$117:$H$117</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>description!$F$140:$H$140</xm:f>
+          </x14:formula1>
+          <xm:sqref>AB1:AB1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>description!$F$120:$K$120</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>description!$E$121:$K$121</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>description!$F$141:$H$141</xm:f>
+          </x14:formula1>
+          <xm:sqref>AC1:AC1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N237"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="H159" sqref="H159"/>
+    <sheetView topLeftCell="A157" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F172" sqref="F172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.287037037037" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.287037037037" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.8518518518519" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="32" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.712962962963" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.212962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1388888888889" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.712962962963" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7453,7 +6503,7 @@
         <v>137</v>
       </c>
       <c r="B1" s="2">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7461,13 +6511,13 @@
         <v>33</v>
       </c>
       <c r="B2" s="3">
-        <v>44016</v>
-      </c>
-    </row>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="15.15" spans="1:2">
+        <v>44017</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="12.75" customHeight="1"/>
+    <row r="108" spans="1:14" ht="12.75" customHeight="1"/>
+    <row r="109" spans="1:14" ht="12.75" customHeight="1"/>
+    <row r="110" spans="1:14">
       <c r="A110" s="1" t="s">
         <v>138</v>
       </c>
@@ -7475,7 +6525,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" ht="15.15" spans="1:14">
+    <row r="111" spans="1:14">
       <c r="A111" s="4" t="s">
         <v>140</v>
       </c>
@@ -7491,843 +6541,843 @@
       <c r="E111" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="F111" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="7"/>
-      <c r="M111" s="7"/>
-      <c r="N111" s="12"/>
+      <c r="G111" s="107"/>
+      <c r="H111" s="107"/>
+      <c r="I111" s="107"/>
+      <c r="J111" s="107"/>
+      <c r="K111" s="107"/>
+      <c r="L111" s="107"/>
+      <c r="M111" s="107"/>
+      <c r="N111" s="108"/>
     </row>
     <row r="112" spans="1:14">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
-      <c r="K112" s="9"/>
-      <c r="L112" s="9"/>
-      <c r="M112" s="9"/>
-      <c r="N112" s="13"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="10"/>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D113" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11" t="s">
+      <c r="E113" s="9"/>
+      <c r="F113" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="11"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="11"/>
-      <c r="L113" s="11"/>
-      <c r="M113" s="11"/>
-      <c r="N113" s="14"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="11"/>
     </row>
     <row r="114" spans="1:14">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D114" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E114" s="11" t="s">
+      <c r="E114" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="11"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="11"/>
-      <c r="L114" s="11"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="14"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="11"/>
     </row>
     <row r="115" spans="1:14">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E115" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="14"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="11"/>
     </row>
     <row r="116" spans="1:14">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="11"/>
-      <c r="L116" s="11"/>
-      <c r="M116" s="11"/>
-      <c r="N116" s="14"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="11"/>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E117" s="11">
+      <c r="E117" s="9">
         <v>1</v>
       </c>
-      <c r="F117" s="11">
+      <c r="F117" s="9">
         <v>1</v>
       </c>
-      <c r="G117" s="11">
+      <c r="G117" s="9">
         <v>2</v>
       </c>
-      <c r="H117" s="11">
+      <c r="H117" s="9">
         <v>3</v>
       </c>
-      <c r="I117" s="11"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="11"/>
-      <c r="L117" s="11"/>
-      <c r="M117" s="11"/>
-      <c r="N117" s="14"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="11"/>
     </row>
     <row r="118" spans="1:14">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="11"/>
-      <c r="L118" s="11"/>
-      <c r="M118" s="11"/>
-      <c r="N118" s="14"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="11"/>
     </row>
     <row r="119" spans="1:14">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D119" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="11"/>
-      <c r="J119" s="11"/>
-      <c r="K119" s="11"/>
-      <c r="L119" s="11"/>
-      <c r="M119" s="11"/>
-      <c r="N119" s="14"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="11"/>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E120" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F120" s="11" t="s">
+      <c r="F120" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G120" s="11" t="s">
+      <c r="G120" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H120" s="11" t="s">
+      <c r="H120" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="I120" s="11" t="s">
+      <c r="I120" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="J120" s="11" t="s">
+      <c r="J120" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="K120" s="11"/>
-      <c r="L120" s="11"/>
-      <c r="M120" s="11"/>
-      <c r="N120" s="14"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="11"/>
     </row>
     <row r="121" spans="1:14">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D121" s="11" t="s">
+      <c r="D121" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E121" s="11" t="s">
+      <c r="E121" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F121" s="11" t="s">
+      <c r="F121" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G121" s="11" t="s">
+      <c r="G121" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H121" s="11" t="s">
+      <c r="H121" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="I121" s="11" t="s">
+      <c r="I121" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="J121" s="11" t="s">
+      <c r="J121" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="K121" s="11"/>
-      <c r="L121" s="11"/>
-      <c r="M121" s="11"/>
-      <c r="N121" s="14"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="11"/>
     </row>
     <row r="122" spans="1:14">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E122" s="11" t="s">
+      <c r="E122" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F122" s="11" t="s">
+      <c r="F122" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G122" s="11" t="s">
+      <c r="G122" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H122" s="11"/>
-      <c r="I122" s="11"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11"/>
-      <c r="L122" s="11"/>
-      <c r="M122" s="11"/>
-      <c r="N122" s="14"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="11"/>
     </row>
     <row r="123" spans="1:14">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E123" s="11" t="s">
+      <c r="E123" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F123" s="11" t="s">
+      <c r="F123" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G123" s="11" t="s">
+      <c r="G123" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H123" s="11"/>
-      <c r="I123" s="11"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="11"/>
-      <c r="L123" s="11"/>
-      <c r="M123" s="11"/>
-      <c r="N123" s="14"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="11"/>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11" t="s">
+      <c r="E124" s="9"/>
+      <c r="F124" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="11"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="11"/>
-      <c r="L124" s="11"/>
-      <c r="M124" s="11"/>
-      <c r="N124" s="14"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="11"/>
     </row>
     <row r="125" spans="1:14">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D125" s="11" t="s">
+      <c r="D125" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11" t="s">
+      <c r="E125" s="9"/>
+      <c r="F125" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="11"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="11"/>
-      <c r="L125" s="11"/>
-      <c r="M125" s="11"/>
-      <c r="N125" s="14"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="11"/>
     </row>
     <row r="126" spans="1:14">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C126" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D126" s="11" t="s">
+      <c r="D126" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11" t="s">
+      <c r="E126" s="9"/>
+      <c r="F126" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G126" s="11"/>
-      <c r="H126" s="11"/>
-      <c r="I126" s="11"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="11"/>
-      <c r="L126" s="11"/>
-      <c r="M126" s="11"/>
-      <c r="N126" s="14"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="11"/>
     </row>
     <row r="127" spans="1:14">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C127" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11" t="s">
+      <c r="E127" s="9"/>
+      <c r="F127" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="11"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="11"/>
-      <c r="L127" s="11"/>
-      <c r="M127" s="11"/>
-      <c r="N127" s="14"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="11"/>
     </row>
     <row r="128" spans="1:14">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C128" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D128" s="11" t="s">
+      <c r="D128" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11" t="s">
+      <c r="E128" s="9"/>
+      <c r="F128" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
-      <c r="I128" s="11"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="11"/>
-      <c r="L128" s="11"/>
-      <c r="M128" s="11"/>
-      <c r="N128" s="14"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="11"/>
     </row>
     <row r="129" spans="1:14">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C129" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D129" s="11" t="s">
+      <c r="D129" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11" t="s">
+      <c r="E129" s="9"/>
+      <c r="F129" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="11"/>
-      <c r="L129" s="11"/>
-      <c r="M129" s="11"/>
-      <c r="N129" s="14"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="11"/>
     </row>
     <row r="130" spans="1:14">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C130" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D130" s="11" t="s">
+      <c r="D130" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11" t="s">
+      <c r="E130" s="9"/>
+      <c r="F130" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="11"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="11"/>
-      <c r="L130" s="11"/>
-      <c r="M130" s="11"/>
-      <c r="N130" s="14"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="11"/>
     </row>
     <row r="131" spans="1:14">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C131" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D131" s="11" t="s">
+      <c r="D131" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="11"/>
-      <c r="L131" s="11"/>
-      <c r="M131" s="11"/>
-      <c r="N131" s="14"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="11"/>
     </row>
     <row r="132" spans="1:14">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C132" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="D132" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="11"/>
-      <c r="J132" s="11"/>
-      <c r="K132" s="11"/>
-      <c r="L132" s="11"/>
-      <c r="M132" s="11"/>
-      <c r="N132" s="14"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="11"/>
     </row>
     <row r="133" spans="1:14">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D133" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="11"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="11"/>
-      <c r="L133" s="11"/>
-      <c r="M133" s="11"/>
-      <c r="N133" s="14"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="11"/>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C134" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D134" s="11" t="s">
+      <c r="D134" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="11"/>
-      <c r="J134" s="11"/>
-      <c r="K134" s="11"/>
-      <c r="L134" s="11"/>
-      <c r="M134" s="11"/>
-      <c r="N134" s="14"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="11"/>
     </row>
     <row r="135" spans="1:14">
-      <c r="A135" s="10" t="s">
+      <c r="A135" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C135" s="11" t="s">
+      <c r="C135" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="D135" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="11"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="11"/>
-      <c r="L135" s="11"/>
-      <c r="M135" s="11"/>
-      <c r="N135" s="14"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="11"/>
     </row>
     <row r="136" spans="1:14">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C136" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D136" s="11" t="s">
+      <c r="D136" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="11"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="11"/>
-      <c r="L136" s="11"/>
-      <c r="M136" s="11"/>
-      <c r="N136" s="14"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="11"/>
     </row>
     <row r="137" spans="1:14">
-      <c r="A137" s="10" t="s">
+      <c r="A137" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="C137" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D137" s="11" t="s">
+      <c r="D137" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E137" s="11"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
-      <c r="I137" s="11"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="11"/>
-      <c r="L137" s="11"/>
-      <c r="M137" s="11"/>
-      <c r="N137" s="14"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="11"/>
     </row>
     <row r="138" spans="1:14">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="C138" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="11"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="11"/>
-      <c r="L138" s="11"/>
-      <c r="M138" s="11"/>
-      <c r="N138" s="14"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="11"/>
     </row>
     <row r="139" spans="1:14">
-      <c r="A139" s="10" t="s">
+      <c r="A139" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E139" s="11"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="11"/>
-      <c r="J139" s="11"/>
-      <c r="K139" s="11"/>
-      <c r="L139" s="11"/>
-      <c r="M139" s="11"/>
-      <c r="N139" s="14"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="11"/>
     </row>
     <row r="140" spans="1:14">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D140" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E140" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F140" s="11" t="s">
+      <c r="F140" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G140" s="11" t="s">
+      <c r="G140" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H140" s="11" t="s">
+      <c r="H140" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="I140" s="11"/>
-      <c r="J140" s="11"/>
-      <c r="K140" s="11"/>
-      <c r="L140" s="11"/>
-      <c r="M140" s="11"/>
-      <c r="N140" s="14"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="11"/>
     </row>
     <row r="141" spans="1:14">
-      <c r="A141" s="15" t="s">
+      <c r="A141" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B141" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C141" s="16" t="s">
+      <c r="C141" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D141" s="16" t="s">
+      <c r="D141" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="F141" s="16" t="s">
+      <c r="F141" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G141" s="16" t="s">
+      <c r="G141" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="H141" s="16" t="s">
+      <c r="H141" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I141" s="16"/>
-      <c r="J141" s="16"/>
-      <c r="K141" s="16"/>
-      <c r="L141" s="16"/>
-      <c r="M141" s="16"/>
-      <c r="N141" s="29"/>
-    </row>
-    <row r="142" ht="15.15" spans="1:14">
-      <c r="A142" s="17" t="s">
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="13"/>
+      <c r="L141" s="13"/>
+      <c r="M141" s="13"/>
+      <c r="N141" s="24"/>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B142" s="18" t="s">
+      <c r="B142" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C142" s="18" t="s">
+      <c r="C142" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D142" s="18" t="s">
+      <c r="D142" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E142" s="18"/>
-      <c r="F142" s="18"/>
-      <c r="G142" s="18"/>
-      <c r="H142" s="18"/>
-      <c r="I142" s="18"/>
-      <c r="J142" s="18"/>
-      <c r="K142" s="18"/>
-      <c r="L142" s="18"/>
-      <c r="M142" s="18"/>
-      <c r="N142" s="39"/>
-    </row>
-    <row r="145" ht="15.15" spans="1:2">
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="15"/>
+      <c r="N142" s="30"/>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
         <v>163</v>
       </c>
@@ -8336,51 +7386,51 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="19" t="s">
+      <c r="A146" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B146" s="20" t="s">
+      <c r="B146" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D146" s="20" t="s">
+      <c r="D146" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="E146" s="20" t="s">
+      <c r="E146" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="F146" s="20" t="s">
+      <c r="F146" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G146" s="20" t="s">
+      <c r="G146" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="H146" s="21" t="s">
+      <c r="H146" s="18" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="22">
+      <c r="A147" s="19">
         <v>1</v>
       </c>
-      <c r="B147" s="23" t="s">
+      <c r="B147" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C147" s="24" t="s">
+      <c r="C147" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="D147" s="24" t="s">
+      <c r="D147" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E147" s="24" t="s">
+      <c r="E147" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F147" s="24" t="s">
+      <c r="F147" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="G147" s="24" t="s">
+      <c r="G147" s="21" t="s">
         <v>175</v>
       </c>
       <c r="H147" s="1" t="s">
@@ -8388,658 +7438,654 @@
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="22">
+      <c r="A148" s="19">
         <v>2</v>
       </c>
-      <c r="B148" s="25"/>
-      <c r="C148" s="24" t="s">
+      <c r="B148" s="78"/>
+      <c r="C148" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D148" s="24" t="s">
+      <c r="D148" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E148" s="24" t="s">
+      <c r="E148" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F148" s="24" t="s">
+      <c r="F148" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="G148" s="24" t="s">
+      <c r="G148" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="H148" s="14"/>
+      <c r="H148" s="11"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="22">
+      <c r="A149" s="19">
         <v>3</v>
       </c>
-      <c r="B149" s="25"/>
-      <c r="C149" s="24" t="s">
+      <c r="B149" s="78"/>
+      <c r="C149" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D149" s="24"/>
-      <c r="E149" s="24" t="s">
+      <c r="D149" s="21"/>
+      <c r="E149" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F149" s="24"/>
-      <c r="G149" s="24" t="s">
+      <c r="F149" s="21"/>
+      <c r="G149" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="H149" s="14"/>
+      <c r="H149" s="11"/>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="22">
+      <c r="A150" s="19">
         <v>4</v>
       </c>
-      <c r="B150" s="25"/>
-      <c r="C150" s="24" t="s">
+      <c r="B150" s="78"/>
+      <c r="C150" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D150" s="24" t="s">
+      <c r="D150" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E150" s="24" t="s">
+      <c r="E150" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F150" s="24"/>
-      <c r="G150" s="24" t="s">
+      <c r="F150" s="21"/>
+      <c r="G150" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="H150" s="14" t="s">
+      <c r="H150" s="11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="22">
+      <c r="A151" s="19">
         <v>5</v>
       </c>
-      <c r="B151" s="25"/>
-      <c r="C151" s="24" t="s">
+      <c r="B151" s="78"/>
+      <c r="C151" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="D151" s="24" t="s">
+      <c r="D151" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E151" s="24" t="s">
+      <c r="E151" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F151" s="24" t="s">
+      <c r="F151" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="G151" s="24" t="s">
+      <c r="G151" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="H151" s="14" t="s">
+      <c r="H151" s="11" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="22">
+      <c r="A152" s="19">
         <v>6</v>
       </c>
-      <c r="B152" s="25"/>
-      <c r="C152" s="24" t="s">
+      <c r="B152" s="78"/>
+      <c r="C152" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="D152" s="24" t="s">
+      <c r="D152" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E152" s="24" t="s">
+      <c r="E152" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F152" s="24" t="s">
+      <c r="F152" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="G152" s="24" t="s">
+      <c r="G152" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="H152" s="14" t="s">
+      <c r="H152" s="11" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="22">
+      <c r="A153" s="19">
         <v>7</v>
       </c>
-      <c r="B153" s="25"/>
-      <c r="C153" s="24" t="s">
+      <c r="B153" s="78"/>
+      <c r="C153" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="D153" s="24" t="s">
+      <c r="D153" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E153" s="24" t="s">
+      <c r="E153" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F153" s="24"/>
-      <c r="G153" s="24" t="s">
+      <c r="F153" s="21"/>
+      <c r="G153" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="H153" s="14"/>
+      <c r="H153" s="11"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="22">
+      <c r="A154" s="19">
         <v>8</v>
       </c>
-      <c r="B154" s="25"/>
-      <c r="C154" s="24" t="s">
+      <c r="B154" s="78"/>
+      <c r="C154" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="D154" s="24" t="s">
+      <c r="D154" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E154" s="24" t="s">
+      <c r="E154" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F154" s="24"/>
-      <c r="G154" s="24" t="s">
+      <c r="F154" s="21"/>
+      <c r="G154" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="H154" s="14" t="s">
+      <c r="H154" s="11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="22">
+      <c r="A155" s="19">
         <v>9</v>
       </c>
-      <c r="B155" s="25"/>
-      <c r="C155" s="24" t="s">
+      <c r="B155" s="78"/>
+      <c r="C155" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="D155" s="24" t="s">
+      <c r="D155" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E155" s="24" t="s">
+      <c r="E155" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F155" s="24" t="s">
+      <c r="F155" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="G155" s="24" t="s">
+      <c r="G155" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="H155" s="14" t="s">
+      <c r="H155" s="11" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="22">
+      <c r="A156" s="19">
         <v>10</v>
       </c>
-      <c r="B156" s="25"/>
-      <c r="C156" s="24" t="s">
+      <c r="B156" s="78"/>
+      <c r="C156" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D156" s="24" t="s">
+      <c r="D156" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E156" s="24" t="s">
+      <c r="E156" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F156" s="24" t="s">
+      <c r="F156" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="G156" s="24" t="s">
+      <c r="G156" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="H156" s="14" t="s">
+      <c r="H156" s="11" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="22">
+      <c r="A157" s="19">
         <v>11</v>
       </c>
-      <c r="B157" s="25"/>
-      <c r="C157" s="24" t="s">
+      <c r="B157" s="78"/>
+      <c r="C157" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D157" s="24" t="s">
+      <c r="D157" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E157" s="24" t="s">
+      <c r="E157" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F157" s="24"/>
-      <c r="G157" s="24" t="s">
+      <c r="F157" s="21"/>
+      <c r="G157" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="H157" s="14" t="s">
+      <c r="H157" s="11" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="22">
+      <c r="A158" s="19">
         <v>12</v>
       </c>
-      <c r="B158" s="25"/>
-      <c r="C158" s="24" t="s">
+      <c r="B158" s="78"/>
+      <c r="C158" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D158" s="24" t="s">
+      <c r="D158" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E158" s="24"/>
-      <c r="F158" s="24" t="s">
+      <c r="E158" s="21"/>
+      <c r="F158" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="G158" s="24" t="s">
+      <c r="G158" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="H158" s="14" t="s">
+      <c r="H158" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="22">
+      <c r="A159" s="19">
         <v>13</v>
       </c>
-      <c r="B159" s="26"/>
-      <c r="C159" s="24" t="s">
+      <c r="B159" s="85"/>
+      <c r="C159" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D159" s="24" t="s">
+      <c r="D159" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E159" s="24" t="s">
+      <c r="E159" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F159" s="24" t="s">
+      <c r="F159" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="G159" s="24" t="s">
+      <c r="G159" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="H159" s="14" t="s">
+      <c r="H159" s="11" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="22">
+      <c r="A160" s="19">
         <v>14</v>
       </c>
-      <c r="B160" s="24" t="s">
+      <c r="B160" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C160" s="24" t="s">
+      <c r="C160" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="D160" s="24" t="s">
+      <c r="D160" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E160" s="24" t="s">
+      <c r="E160" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F160" s="24" t="s">
+      <c r="F160" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="G160" s="24" t="s">
+      <c r="G160" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="H160" s="14" t="s">
+      <c r="H160" s="11" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="22">
+      <c r="A161" s="19">
         <v>15</v>
       </c>
-      <c r="B161" s="24"/>
-      <c r="C161" s="24" t="s">
+      <c r="B161" s="83"/>
+      <c r="C161" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D161" s="24" t="s">
+      <c r="D161" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E161" s="24" t="s">
+      <c r="E161" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F161" s="24" t="s">
+      <c r="F161" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="G161" s="24" t="s">
+      <c r="G161" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="H161" s="14" t="s">
+      <c r="H161" s="11" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="22">
+      <c r="A162" s="70">
         <v>16</v>
       </c>
-      <c r="B162" s="23" t="s">
+      <c r="B162" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C162" s="24" t="s">
+      <c r="C162" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="D162" s="24" t="s">
+      <c r="D162" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E162" s="24" t="s">
+      <c r="E162" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F162" s="24" t="s">
+      <c r="F162" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="G162" s="24" t="s">
+      <c r="G162" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="H162" s="14"/>
+      <c r="H162" s="11"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="22">
+      <c r="A163" s="70">
         <v>17</v>
       </c>
-      <c r="B163" s="26"/>
-      <c r="C163" s="24" t="s">
+      <c r="B163" s="87"/>
+      <c r="C163" s="69" t="s">
+        <v>316</v>
+      </c>
+      <c r="D163" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="E163" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="F163" s="68"/>
+      <c r="G163" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="H163" s="72" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="70">
+        <v>18</v>
+      </c>
+      <c r="B164" s="85"/>
+      <c r="C164" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="D163" s="24" t="s">
+      <c r="D164" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E163" s="24" t="s">
+      <c r="E164" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F163" s="24"/>
-      <c r="G163" s="24" t="s">
+      <c r="F164" s="21"/>
+      <c r="G164" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="H163" s="14"/>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="22">
-        <v>18</v>
-      </c>
-      <c r="B164" s="24" t="s">
+      <c r="H164" s="11"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="70">
+        <v>19</v>
+      </c>
+      <c r="B165" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="24" t="s">
+      <c r="C165" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="D164" s="24" t="s">
+      <c r="D165" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E164" s="24" t="s">
+      <c r="E165" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F164" s="24" t="s">
+      <c r="F165" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="G164" s="24" t="s">
+      <c r="G165" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="H164" s="14"/>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" s="22">
-        <v>19</v>
-      </c>
-      <c r="B165" s="24"/>
-      <c r="C165" s="24" t="s">
+      <c r="H165" s="11"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="70">
+        <v>20</v>
+      </c>
+      <c r="B166" s="83"/>
+      <c r="C166" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="D165" s="24" t="s">
+      <c r="D166" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E165" s="24" t="s">
+      <c r="E166" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F165" s="24"/>
-      <c r="G165" s="24" t="s">
+      <c r="F166" s="21"/>
+      <c r="G166" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="H165" s="14"/>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="22">
-        <v>20</v>
-      </c>
-      <c r="B166" s="24"/>
-      <c r="C166" s="24" t="s">
+      <c r="H166" s="11"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="70">
+        <v>21</v>
+      </c>
+      <c r="B167" s="83"/>
+      <c r="C167" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="D166" s="24" t="s">
+      <c r="D167" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E166" s="24" t="s">
+      <c r="E167" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F166" s="24"/>
-      <c r="G166" s="24" t="s">
+      <c r="F167" s="21"/>
+      <c r="G167" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="H166" s="14"/>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" s="22">
-        <v>21</v>
-      </c>
-      <c r="B167" s="24"/>
-      <c r="C167" s="24" t="s">
+      <c r="H167" s="11"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="70">
+        <v>22</v>
+      </c>
+      <c r="B168" s="83"/>
+      <c r="C168" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D167" s="24" t="s">
+      <c r="D168" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E167" s="24" t="s">
+      <c r="E168" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F167" s="24"/>
-      <c r="G167" s="24" t="s">
+      <c r="F168" s="21"/>
+      <c r="G168" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="H167" s="14"/>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" s="22">
-        <v>22</v>
-      </c>
-      <c r="B168" s="24"/>
-      <c r="C168" s="24" t="s">
+      <c r="H168" s="11"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="70">
+        <v>23</v>
+      </c>
+      <c r="B169" s="83"/>
+      <c r="C169" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="D168" s="24" t="s">
+      <c r="D169" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E168" s="24" t="s">
+      <c r="E169" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F168" s="24"/>
-      <c r="G168" s="24" t="s">
+      <c r="F169" s="21"/>
+      <c r="G169" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="H168" s="14"/>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" s="22">
-        <v>23</v>
-      </c>
-      <c r="B169" s="24"/>
-      <c r="C169" s="24" t="s">
+      <c r="H169" s="11"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="70">
+        <v>24</v>
+      </c>
+      <c r="B170" s="83"/>
+      <c r="C170" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="D169" s="24" t="s">
+      <c r="D170" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E169" s="24" t="s">
+      <c r="E170" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F169" s="24"/>
-      <c r="G169" s="24" t="s">
+      <c r="F170" s="21"/>
+      <c r="G170" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="H169" s="14"/>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" s="22">
-        <v>24</v>
-      </c>
-      <c r="B170" s="24"/>
-      <c r="C170" s="24" t="s">
+      <c r="H170" s="11"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="70">
+        <v>25</v>
+      </c>
+      <c r="B171" s="83"/>
+      <c r="C171" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="D170" s="24" t="s">
+      <c r="D171" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E170" s="24" t="s">
+      <c r="E171" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F170" s="24"/>
-      <c r="G170" s="24" t="s">
+      <c r="F171" s="21"/>
+      <c r="G171" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="H170" s="14"/>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" s="22">
-        <v>25</v>
-      </c>
-      <c r="B171" s="24"/>
-      <c r="C171" s="24" t="s">
+      <c r="H171" s="11"/>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="70">
+        <v>26</v>
+      </c>
+      <c r="B172" s="83"/>
+      <c r="C172" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D171" s="24" t="s">
+      <c r="D172" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E171" s="24" t="s">
+      <c r="E172" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F171" s="24"/>
-      <c r="G171" s="24" t="s">
+      <c r="F172" s="21"/>
+      <c r="G172" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="H171" s="14"/>
-    </row>
-    <row r="172" ht="86.4" spans="1:8">
-      <c r="A172" s="22">
-        <v>26</v>
-      </c>
-      <c r="B172" s="24" t="s">
+      <c r="H172" s="11"/>
+    </row>
+    <row r="173" spans="1:8" ht="90">
+      <c r="A173" s="19">
+        <v>27</v>
+      </c>
+      <c r="B173" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C172" s="24" t="s">
+      <c r="C173" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D172" s="24" t="s">
+      <c r="D173" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E172" s="24" t="s">
+      <c r="E173" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F172" s="24" t="s">
+      <c r="F173" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="G172" s="27" t="s">
+      <c r="G173" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H172" s="14"/>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" s="22">
-        <v>27</v>
-      </c>
-      <c r="B173" s="24"/>
-      <c r="C173" s="24" t="s">
+      <c r="H173" s="11"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="19">
+        <v>28</v>
+      </c>
+      <c r="B174" s="83"/>
+      <c r="C174" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="D173" s="24" t="s">
+      <c r="D174" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E173" s="24" t="s">
+      <c r="E174" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F173" s="24" t="s">
+      <c r="F174" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="G173" s="24" t="s">
+      <c r="G174" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="H173" s="14"/>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" s="22">
-        <v>28</v>
-      </c>
-      <c r="B174" s="24"/>
-      <c r="C174" s="24" t="s">
+      <c r="H174" s="11"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="19">
+        <v>29</v>
+      </c>
+      <c r="B175" s="83"/>
+      <c r="C175" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="D174" s="24" t="s">
+      <c r="D175" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E174" s="24" t="s">
+      <c r="E175" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F174" s="24" t="s">
+      <c r="F175" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="G174" s="24" t="s">
+      <c r="G175" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="H174" s="14"/>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" s="22">
-        <v>29</v>
-      </c>
-      <c r="B175" s="23" t="s">
+      <c r="H175" s="11"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="19">
+        <v>30</v>
+      </c>
+      <c r="B176" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C175" s="24" t="s">
+      <c r="C176" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="D175" s="24" t="s">
+      <c r="D176" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E175" s="24" t="s">
+      <c r="E176" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F175" s="24" t="s">
+      <c r="F176" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="G175" s="24" t="s">
+      <c r="G176" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="H175" s="14" t="s">
+      <c r="H176" s="11" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="176" ht="15.15" spans="1:8">
-      <c r="A176" s="28">
-        <v>30</v>
-      </c>
-      <c r="B176" s="25"/>
-      <c r="C176" s="23" t="s">
+    <row r="177" spans="1:8">
+      <c r="A177" s="23">
+        <v>31</v>
+      </c>
+      <c r="B177" s="78"/>
+      <c r="C177" s="20" t="s">
         <v>232</v>
-      </c>
-      <c r="D176" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="E176" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F176" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="G176" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="H176" s="29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" s="19">
-        <v>31</v>
-      </c>
-      <c r="B177" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="C177" s="20" t="s">
-        <v>235</v>
       </c>
       <c r="D177" s="20" t="s">
         <v>173</v>
@@ -9048,776 +8094,801 @@
         <v>173</v>
       </c>
       <c r="F177" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="G177" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H177" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="16">
+        <v>32</v>
+      </c>
+      <c r="B178" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="C178" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E178" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F178" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="G177" s="20" t="s">
+      <c r="G178" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="H177" s="13"/>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="22">
-        <v>32</v>
-      </c>
-      <c r="B178" s="27"/>
-      <c r="C178" s="24" t="s">
+      <c r="H178" s="10"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="19">
+        <v>33</v>
+      </c>
+      <c r="B179" s="80"/>
+      <c r="C179" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="D178" s="24" t="s">
+      <c r="D179" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E178" s="24" t="s">
+      <c r="E179" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F178" s="24" t="s">
+      <c r="F179" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="G178" s="23" t="s">
+      <c r="G179" s="67" t="s">
         <v>240</v>
       </c>
-      <c r="H178" s="14"/>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" s="22">
-        <v>33</v>
-      </c>
-      <c r="B179" s="31"/>
-      <c r="C179" s="23" t="s">
+      <c r="H179" s="11"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="19">
+        <v>34</v>
+      </c>
+      <c r="B180" s="81"/>
+      <c r="C180" s="67" t="s">
         <v>241</v>
       </c>
-      <c r="D179" s="24" t="s">
+      <c r="D180" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E179" s="24" t="s">
+      <c r="E180" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F179" s="24" t="s">
+      <c r="F180" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="G179" s="23" t="s">
+      <c r="G180" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="H179" s="29"/>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" s="32">
-        <v>34</v>
-      </c>
-      <c r="B180" s="33"/>
-      <c r="C180" s="34" t="s">
+      <c r="H180" s="24"/>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="25">
+        <v>35</v>
+      </c>
+      <c r="B181" s="81"/>
+      <c r="C181" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="D180" s="34" t="s">
+      <c r="D181" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="E180" s="34" t="s">
+      <c r="E181" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="F180" s="34" t="s">
+      <c r="F181" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="G180" s="34" t="s">
+      <c r="G181" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="H180" s="35"/>
-    </row>
-    <row r="181" ht="15.15" spans="1:8">
-      <c r="A181" s="36">
-        <v>35</v>
-      </c>
-      <c r="B181" s="37"/>
-      <c r="C181" s="38" t="s">
+      <c r="H181" s="27"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="28">
+        <v>36</v>
+      </c>
+      <c r="B182" s="82"/>
+      <c r="C182" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="D181" s="38" t="s">
+      <c r="D182" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="E181" s="38" t="s">
+      <c r="E182" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="F181" s="38"/>
-      <c r="G181" s="38"/>
-      <c r="H181" s="39"/>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="1" t="s">
+      <c r="F182" s="29"/>
+      <c r="G182" s="29"/>
+      <c r="H182" s="30"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="183" spans="2:2">
-      <c r="B183" s="40" t="s">
+    <row r="184" spans="1:8">
+      <c r="B184" s="31" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="184" spans="2:2">
-      <c r="B184" s="1" t="s">
+    <row r="185" spans="1:8">
+      <c r="B185" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="194" ht="15.15" spans="1:2">
-      <c r="A194" s="1" t="s">
+    <row r="195" spans="1:7">
+      <c r="A195" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="4" t="s">
+    <row r="196" spans="1:7">
+      <c r="A196" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B195" s="41" t="s">
+      <c r="B196" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="C195" s="42" t="s">
+      <c r="C196" s="109" t="s">
         <v>254</v>
       </c>
-      <c r="D195" s="42"/>
-      <c r="E195" s="42"/>
-      <c r="F195" s="43" t="s">
+      <c r="D196" s="109"/>
+      <c r="E196" s="109"/>
+      <c r="F196" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="G195" s="44" t="s">
+      <c r="G196" s="34" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="22" t="s">
+    <row r="197" spans="1:7">
+      <c r="A197" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="B196" s="24" t="s">
+      <c r="B197" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="C196" s="45" t="s">
+      <c r="C197" s="110" t="s">
         <v>259</v>
       </c>
-      <c r="D196" s="45"/>
-      <c r="E196" s="45"/>
-      <c r="F196" s="24" t="s">
+      <c r="D197" s="111"/>
+      <c r="E197" s="111"/>
+      <c r="F197" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="G196" s="46" t="s">
+      <c r="G197" s="35" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="22"/>
-      <c r="B197" s="23"/>
-      <c r="C197" t="s">
+    <row r="198" spans="1:7">
+      <c r="A198" s="92"/>
+      <c r="B198" s="84"/>
+      <c r="C198" s="102" t="s">
         <v>259</v>
       </c>
-      <c r="D197" s="47"/>
-      <c r="E197" s="47"/>
-      <c r="F197" s="23" t="s">
+      <c r="D198" s="112"/>
+      <c r="E198" s="112"/>
+      <c r="F198" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="G197" s="48" t="s">
+      <c r="G198" s="36" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="22"/>
-      <c r="B198" s="24" t="s">
+    <row r="199" spans="1:7">
+      <c r="A199" s="92"/>
+      <c r="B199" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="C198" s="49" t="s">
+      <c r="C199" s="113" t="s">
         <v>264</v>
       </c>
-      <c r="D198" s="49"/>
-      <c r="E198" s="49"/>
-      <c r="F198" s="24" t="s">
+      <c r="D199" s="113"/>
+      <c r="E199" s="113"/>
+      <c r="F199" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="G198" s="46" t="s">
+      <c r="G199" s="35" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="22"/>
-      <c r="B199" s="24"/>
-      <c r="C199" s="49" t="s">
+    <row r="200" spans="1:7">
+      <c r="A200" s="92"/>
+      <c r="B200" s="83"/>
+      <c r="C200" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="D199" s="49"/>
-      <c r="E199" s="49"/>
-      <c r="F199" s="24" t="s">
+      <c r="D200" s="102"/>
+      <c r="E200" s="102"/>
+      <c r="F200" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="G199" s="46" t="s">
+      <c r="G200" s="35" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="22"/>
-      <c r="B200" s="23" t="s">
+    <row r="201" spans="1:7">
+      <c r="A201" s="92"/>
+      <c r="B201" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="C200" s="50" t="s">
+      <c r="C201" s="103" t="s">
         <v>259</v>
       </c>
-      <c r="D200" s="51"/>
-      <c r="E200" s="52"/>
-      <c r="F200" s="24" t="s">
+      <c r="D201" s="104"/>
+      <c r="E201" s="105"/>
+      <c r="F201" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="G200" s="46" t="s">
+      <c r="G201" s="35" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="22"/>
-      <c r="B201" s="26"/>
-      <c r="C201" s="50" t="s">
+    <row r="202" spans="1:7">
+      <c r="A202" s="92"/>
+      <c r="B202" s="85"/>
+      <c r="C202" s="103" t="s">
         <v>259</v>
       </c>
-      <c r="D201" s="51"/>
-      <c r="E201" s="52"/>
-      <c r="F201" s="24" t="s">
+      <c r="D202" s="104"/>
+      <c r="E202" s="105"/>
+      <c r="F202" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="G201" s="46" t="s">
+      <c r="G202" s="35" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="22"/>
-      <c r="B202" s="24" t="s">
+    <row r="203" spans="1:7">
+      <c r="A203" s="92"/>
+      <c r="B203" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="C202" s="53" t="s">
+      <c r="C203" s="102" t="s">
         <v>267</v>
       </c>
-      <c r="D202" s="53"/>
-      <c r="E202" s="53"/>
-      <c r="F202" s="24" t="s">
+      <c r="D203" s="102"/>
+      <c r="E203" s="102"/>
+      <c r="F203" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="G202" s="46" t="s">
+      <c r="G203" s="35" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="22"/>
-      <c r="B203" s="24"/>
-      <c r="C203" s="53" t="s">
+    <row r="204" spans="1:7">
+      <c r="A204" s="92"/>
+      <c r="B204" s="83"/>
+      <c r="C204" s="102" t="s">
         <v>267</v>
       </c>
-      <c r="D203" s="53"/>
-      <c r="E203" s="53"/>
-      <c r="F203" s="24" t="s">
+      <c r="D204" s="102"/>
+      <c r="E204" s="102"/>
+      <c r="F204" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="G203" s="46" t="s">
+      <c r="G204" s="35" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="22" t="s">
+    <row r="205" spans="1:7">
+      <c r="A205" s="92" t="s">
         <v>268</v>
       </c>
-      <c r="B204" s="24" t="s">
+      <c r="B205" s="83" t="s">
         <v>269</v>
       </c>
-      <c r="C204" s="24" t="s">
+      <c r="C205" s="86" t="s">
         <v>270</v>
       </c>
-      <c r="D204" s="24"/>
-      <c r="E204" s="24"/>
-      <c r="F204" s="24" t="s">
+      <c r="D205" s="83"/>
+      <c r="E205" s="83"/>
+      <c r="F205" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="G204" s="46" t="s">
+      <c r="G205" s="35" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="22"/>
-      <c r="B205" s="24"/>
-      <c r="C205" s="24" t="s">
+    <row r="206" spans="1:7">
+      <c r="A206" s="92"/>
+      <c r="B206" s="83"/>
+      <c r="C206" s="83" t="s">
         <v>271</v>
       </c>
-      <c r="D205" s="24"/>
-      <c r="E205" s="24"/>
-      <c r="F205" s="24" t="s">
+      <c r="D206" s="83"/>
+      <c r="E206" s="83"/>
+      <c r="F206" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="G205" s="46" t="s">
+      <c r="G206" s="35" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="22"/>
-      <c r="B206" s="24" t="s">
+    <row r="207" spans="1:7">
+      <c r="A207" s="92"/>
+      <c r="B207" s="83" t="s">
         <v>273</v>
       </c>
-      <c r="C206" s="24" t="s">
+      <c r="C207" s="83" t="s">
         <v>274</v>
       </c>
-      <c r="D206" s="24"/>
-      <c r="E206" s="24"/>
-      <c r="F206" s="24" t="s">
+      <c r="D207" s="83"/>
+      <c r="E207" s="83"/>
+      <c r="F207" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="G206" s="46" t="s">
+      <c r="G207" s="35" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="22"/>
-      <c r="B207" s="24"/>
-      <c r="C207" s="24" t="s">
+    <row r="208" spans="1:7">
+      <c r="A208" s="92"/>
+      <c r="B208" s="83"/>
+      <c r="C208" s="83" t="s">
         <v>275</v>
       </c>
-      <c r="D207" s="24"/>
-      <c r="E207" s="24"/>
-      <c r="F207" s="24" t="s">
+      <c r="D208" s="83"/>
+      <c r="E208" s="83"/>
+      <c r="F208" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="G207" s="46" t="s">
+      <c r="G208" s="35" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="22" t="s">
+    <row r="209" spans="1:7">
+      <c r="A209" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="B208" s="24" t="s">
+      <c r="B209" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="C208" s="24" t="s">
+      <c r="C209" s="86" t="s">
         <v>278</v>
       </c>
-      <c r="D208" s="24"/>
-      <c r="E208" s="24"/>
-      <c r="F208" s="24" t="s">
+      <c r="D209" s="83"/>
+      <c r="E209" s="83"/>
+      <c r="F209" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="G208" s="46" t="s">
+      <c r="G209" s="35" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="22"/>
-      <c r="B209" s="24"/>
-      <c r="C209" s="24" t="s">
+    <row r="210" spans="1:7">
+      <c r="A210" s="92"/>
+      <c r="B210" s="83"/>
+      <c r="C210" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="D209" s="24"/>
-      <c r="E209" s="24"/>
-      <c r="F209" s="24" t="s">
+      <c r="D210" s="83"/>
+      <c r="E210" s="83"/>
+      <c r="F210" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="G209" s="46" t="s">
+      <c r="G210" s="35" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="22"/>
-      <c r="B210" s="24" t="s">
+    <row r="211" spans="1:7">
+      <c r="A211" s="92"/>
+      <c r="B211" s="83" t="s">
         <v>280</v>
       </c>
-      <c r="C210" s="24" t="s">
+      <c r="C211" s="86" t="s">
         <v>281</v>
       </c>
-      <c r="D210" s="24"/>
-      <c r="E210" s="24"/>
-      <c r="F210" s="24" t="s">
+      <c r="D211" s="83"/>
+      <c r="E211" s="83"/>
+      <c r="F211" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="G210" s="46" t="s">
+      <c r="G211" s="35" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="211" ht="15.15" spans="1:7">
-      <c r="A211" s="36"/>
-      <c r="B211" s="38"/>
-      <c r="C211" s="38" t="s">
+    <row r="212" spans="1:7">
+      <c r="A212" s="93"/>
+      <c r="B212" s="94"/>
+      <c r="C212" s="94" t="s">
         <v>282</v>
       </c>
-      <c r="D211" s="38"/>
-      <c r="E211" s="38"/>
-      <c r="F211" s="38" t="s">
+      <c r="D212" s="94"/>
+      <c r="E212" s="94"/>
+      <c r="F212" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="G211" s="54" t="s">
+      <c r="G212" s="37" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1" t="s">
+    <row r="213" spans="1:7">
+      <c r="A213" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C212" s="40"/>
-      <c r="D212" s="40"/>
-      <c r="E212" s="40"/>
-      <c r="F212" s="40"/>
-    </row>
-    <row r="213" spans="3:5">
-      <c r="C213" s="40"/>
-      <c r="D213" s="40"/>
-      <c r="E213" s="40"/>
-    </row>
-    <row r="214" spans="3:5">
-      <c r="C214" s="40"/>
-      <c r="D214" s="40"/>
-      <c r="E214" s="40"/>
-    </row>
-    <row r="215" ht="15.15" spans="1:5">
-      <c r="A215" s="1" t="s">
+      <c r="C213" s="31"/>
+      <c r="D213" s="31"/>
+      <c r="E213" s="31"/>
+      <c r="F213" s="31"/>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="C214" s="31"/>
+      <c r="D214" s="31"/>
+      <c r="E214" s="31"/>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="C215" s="31"/>
+      <c r="D215" s="31"/>
+      <c r="E215" s="31"/>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C215" s="40"/>
-      <c r="D215" s="40"/>
-      <c r="E215" s="40"/>
-    </row>
-    <row r="216" ht="15.15" spans="1:7">
-      <c r="A216" s="55" t="s">
+      <c r="C216" s="31"/>
+      <c r="D216" s="31"/>
+      <c r="E216" s="31"/>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="B216" s="56" t="s">
+      <c r="B217" s="100" t="s">
         <v>286</v>
       </c>
-      <c r="C216" s="56"/>
-      <c r="D216" s="56"/>
-      <c r="E216" s="56"/>
-      <c r="F216" s="57" t="s">
+      <c r="C217" s="100"/>
+      <c r="D217" s="100"/>
+      <c r="E217" s="100"/>
+      <c r="F217" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="G216" s="58" t="s">
+      <c r="G217" s="40" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="217" ht="93" customHeight="1" spans="1:7">
-      <c r="A217" s="59" t="s">
+    <row r="218" spans="1:7" ht="93" customHeight="1">
+      <c r="A218" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="B217" s="60" t="s">
+      <c r="B218" s="101" t="s">
         <v>290</v>
       </c>
-      <c r="C217" s="26"/>
-      <c r="D217" s="26"/>
-      <c r="E217" s="26"/>
-      <c r="F217" s="61" t="s">
+      <c r="C218" s="85"/>
+      <c r="D218" s="85"/>
+      <c r="E218" s="85"/>
+      <c r="F218" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="G217" s="62" t="s">
+      <c r="G218" s="43" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="218" ht="57" customHeight="1" spans="1:7">
-      <c r="A218" s="10" t="s">
+    <row r="219" spans="1:7" ht="57" customHeight="1">
+      <c r="A219" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B218" s="63" t="s">
+      <c r="B219" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="C218" s="64"/>
-      <c r="D218" s="64"/>
-      <c r="E218" s="65"/>
-      <c r="F218" s="11" t="s">
+      <c r="C219" s="97"/>
+      <c r="D219" s="97"/>
+      <c r="E219" s="98"/>
+      <c r="F219" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="G218" s="14" t="s">
+      <c r="G219" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="219" ht="57" customHeight="1" spans="1:7">
-      <c r="A219" s="15" t="s">
+    <row r="220" spans="1:7" ht="57" customHeight="1">
+      <c r="A220" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="B219" s="63" t="s">
+      <c r="B220" s="96" t="s">
         <v>294</v>
       </c>
-      <c r="C219" s="64"/>
-      <c r="D219" s="64"/>
-      <c r="E219" s="65"/>
-      <c r="F219" s="16" t="s">
+      <c r="C220" s="97"/>
+      <c r="D220" s="97"/>
+      <c r="E220" s="98"/>
+      <c r="F220" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="G219" s="29" t="s">
+      <c r="G220" s="24" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="220" ht="69" customHeight="1" spans="1:7">
-      <c r="A220" s="17" t="s">
+    <row r="221" spans="1:7" ht="69" customHeight="1">
+      <c r="A221" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="B220" s="37" t="s">
+      <c r="B221" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="C220" s="38"/>
-      <c r="D220" s="38"/>
-      <c r="E220" s="38"/>
-      <c r="F220" s="18" t="s">
+      <c r="C221" s="94"/>
+      <c r="D221" s="94"/>
+      <c r="E221" s="94"/>
+      <c r="F221" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="G220" s="39" t="s">
+      <c r="G221" s="30" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="221" spans="3:3">
-      <c r="C221" s="66"/>
-    </row>
-    <row r="223" ht="15.15" spans="1:1">
-      <c r="A223" s="1" t="s">
+    <row r="222" spans="1:7">
+      <c r="C222" s="44"/>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="224" ht="15.15" spans="1:7">
-      <c r="A224" s="4" t="s">
+    <row r="225" spans="1:7">
+      <c r="A225" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B224" s="41" t="s">
+      <c r="B225" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C224" s="67" t="s">
+      <c r="C225" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="D224" s="68" t="s">
+      <c r="D225" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="E224" s="68"/>
-      <c r="F224" s="69"/>
-      <c r="G224" s="44" t="s">
+      <c r="E225" s="46"/>
+      <c r="F225" s="47"/>
+      <c r="G225" s="34" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
-      <c r="A225" s="70">
+    <row r="226" spans="1:7">
+      <c r="A226" s="48">
         <v>42682</v>
       </c>
-      <c r="B225" s="71">
+      <c r="B226" s="49">
         <v>1.04</v>
       </c>
-      <c r="C225" s="20" t="s">
+      <c r="C226" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D225" s="72" t="s">
+      <c r="D226" s="99" t="s">
         <v>302</v>
       </c>
-      <c r="E225" s="72"/>
-      <c r="F225" s="72"/>
-      <c r="G225" s="73"/>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="74">
+      <c r="E226" s="99"/>
+      <c r="F226" s="99"/>
+      <c r="G226" s="50"/>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="51">
         <v>42692</v>
       </c>
-      <c r="B226" s="75">
+      <c r="B227" s="52">
         <v>1.05</v>
       </c>
-      <c r="C226" s="24" t="s">
+      <c r="C227" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D226" s="76" t="s">
+      <c r="D227" s="95" t="s">
         <v>303</v>
       </c>
-      <c r="E226" s="76"/>
-      <c r="F226" s="76"/>
-      <c r="G226" s="46"/>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="74">
+      <c r="E227" s="95"/>
+      <c r="F227" s="95"/>
+      <c r="G227" s="35"/>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="51">
         <v>42955</v>
       </c>
-      <c r="B227" s="75">
+      <c r="B228" s="52">
         <v>1.06</v>
       </c>
-      <c r="C227" s="24" t="s">
+      <c r="C228" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D227" s="76" t="s">
+      <c r="D228" s="95" t="s">
         <v>304</v>
       </c>
-      <c r="E227" s="76"/>
-      <c r="F227" s="76"/>
-      <c r="G227" s="46"/>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="74">
+      <c r="E228" s="95"/>
+      <c r="F228" s="95"/>
+      <c r="G228" s="35"/>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="51">
         <v>42991</v>
       </c>
-      <c r="B228" s="75">
+      <c r="B229" s="52">
         <v>1.07</v>
       </c>
-      <c r="C228" s="24" t="s">
+      <c r="C229" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D228" s="76" t="s">
+      <c r="D229" s="95" t="s">
         <v>305</v>
       </c>
-      <c r="E228" s="76"/>
-      <c r="F228" s="76"/>
-      <c r="G228" s="46"/>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="74">
+      <c r="E229" s="95"/>
+      <c r="F229" s="95"/>
+      <c r="G229" s="35"/>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="51">
         <v>43026</v>
       </c>
-      <c r="B229" s="75">
+      <c r="B230" s="52">
         <v>1.08</v>
       </c>
-      <c r="C229" s="24" t="s">
+      <c r="C230" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D229" s="76" t="s">
+      <c r="D230" s="95" t="s">
         <v>306</v>
       </c>
-      <c r="E229" s="76"/>
-      <c r="F229" s="76"/>
-      <c r="G229" s="46"/>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="74">
+      <c r="E230" s="95"/>
+      <c r="F230" s="95"/>
+      <c r="G230" s="35"/>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="51">
         <v>43069</v>
       </c>
-      <c r="B230" s="75">
-        <v>1.09</v>
-      </c>
-      <c r="C230" s="24" t="s">
+      <c r="B231" s="52">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C231" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D230" s="76" t="s">
+      <c r="D231" s="95" t="s">
         <v>307</v>
       </c>
-      <c r="E230" s="76"/>
-      <c r="F230" s="76"/>
-      <c r="G230" s="46"/>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231" s="77">
+      <c r="E231" s="95"/>
+      <c r="F231" s="95"/>
+      <c r="G231" s="35"/>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="53">
         <v>43248</v>
       </c>
-      <c r="B231" s="78">
-        <v>1.1</v>
-      </c>
-      <c r="C231" s="23" t="s">
+      <c r="B232" s="54">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C232" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="D231" s="79" t="s">
+      <c r="D232" s="88" t="s">
         <v>308</v>
       </c>
-      <c r="E231" s="80"/>
-      <c r="F231" s="81"/>
-      <c r="G231" s="48"/>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="77">
+      <c r="E232" s="89"/>
+      <c r="F232" s="90"/>
+      <c r="G232" s="36"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="53">
         <v>43339</v>
       </c>
-      <c r="B232" s="78">
-        <v>1.11</v>
-      </c>
-      <c r="C232" s="23" t="s">
+      <c r="B233" s="54">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C233" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="D232" s="79" t="s">
+      <c r="D233" s="88" t="s">
         <v>309</v>
       </c>
-      <c r="E232" s="80"/>
-      <c r="F232" s="81"/>
-      <c r="G232" s="48"/>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" s="77">
+      <c r="E233" s="89"/>
+      <c r="F233" s="90"/>
+      <c r="G233" s="36"/>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="53">
         <v>43542</v>
       </c>
-      <c r="B233" s="78">
-        <v>1.12</v>
-      </c>
-      <c r="C233" s="23" t="s">
+      <c r="B234" s="54">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C234" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="D233" s="79" t="s">
+      <c r="D234" s="88" t="s">
         <v>310</v>
       </c>
-      <c r="E233" s="80"/>
-      <c r="F233" s="81"/>
-      <c r="G233" s="48"/>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234" s="77">
+      <c r="E234" s="89"/>
+      <c r="F234" s="90"/>
+      <c r="G234" s="36"/>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="53">
         <v>43599</v>
       </c>
-      <c r="B234" s="78">
-        <v>1.13</v>
-      </c>
-      <c r="C234" s="23" t="s">
+      <c r="B235" s="54">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C235" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="D234" s="82" t="s">
+      <c r="D235" s="55" t="s">
         <v>311</v>
       </c>
-      <c r="E234" s="83"/>
-      <c r="F234" s="84"/>
-      <c r="G234" s="48"/>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="A235" s="77">
+      <c r="E235" s="56"/>
+      <c r="F235" s="57"/>
+      <c r="G235" s="36"/>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="53">
         <v>43643</v>
       </c>
-      <c r="B235" s="78">
-        <v>1.14</v>
-      </c>
-      <c r="C235" s="23" t="s">
+      <c r="B236" s="54">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C236" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="D235" s="82" t="s">
+      <c r="D236" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="E235" s="83"/>
-      <c r="F235" s="84"/>
-      <c r="G235" s="48"/>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="A236" s="77">
+      <c r="E236" s="56"/>
+      <c r="F236" s="57"/>
+      <c r="G236" s="36"/>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="53">
         <v>43894</v>
       </c>
-      <c r="B236" s="78">
-        <v>1.15</v>
-      </c>
-      <c r="C236" s="23" t="s">
+      <c r="B237" s="54">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C237" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="D236" s="82" t="s">
+      <c r="D237" s="55" t="s">
         <v>313</v>
       </c>
-      <c r="E236" s="83"/>
-      <c r="F236" s="84"/>
-      <c r="G236" s="48"/>
-    </row>
-    <row r="237" ht="15.15" spans="1:7">
-      <c r="A237" s="85">
+      <c r="E237" s="56"/>
+      <c r="F237" s="57"/>
+      <c r="G237" s="36"/>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="58">
         <v>44017</v>
       </c>
-      <c r="B237" s="86">
-        <v>1.16</v>
-      </c>
-      <c r="C237" s="38" t="s">
+      <c r="B238" s="59">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C238" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D237" s="87" t="s">
+      <c r="D238" s="91" t="s">
         <v>314</v>
       </c>
-      <c r="E237" s="87"/>
-      <c r="F237" s="87"/>
-      <c r="G237" s="54"/>
+      <c r="E238" s="91"/>
+      <c r="F238" s="91"/>
+      <c r="G238" s="37"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="gtdd3/U9jncnsyB36nF4pUNeFQ9YgVOqxdH24Q2fl98kFdxWe2F6JcdX958pldXuL/TiX03wmHo1bSzDZyBHGQ==" saltValue="A3+sq91Jqztcpa19NEUyIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
-    <customSheetView guid="{e811cf45-d5b3-4449-84ae-1514f9e9258f}" scale="115">
-      <selection activeCell="D224" sqref="D224"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115" topLeftCell="A157">
+      <selection activeCell="F172" sqref="F172"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <headerFooter/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="51">
     <mergeCell ref="F111:N111"/>
-    <mergeCell ref="C195:E195"/>
     <mergeCell ref="C196:E196"/>
     <mergeCell ref="C197:E197"/>
     <mergeCell ref="C198:E198"/>
@@ -9834,57 +8905,54 @@
     <mergeCell ref="C209:E209"/>
     <mergeCell ref="C210:E210"/>
     <mergeCell ref="C211:E211"/>
-    <mergeCell ref="B216:E216"/>
+    <mergeCell ref="C212:E212"/>
     <mergeCell ref="B217:E217"/>
     <mergeCell ref="B218:E218"/>
     <mergeCell ref="B219:E219"/>
     <mergeCell ref="B220:E220"/>
-    <mergeCell ref="D225:F225"/>
+    <mergeCell ref="B221:E221"/>
     <mergeCell ref="D226:F226"/>
     <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="D238:F238"/>
+    <mergeCell ref="A197:A204"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="A209:A212"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="B211:B212"/>
     <mergeCell ref="D228:F228"/>
     <mergeCell ref="D229:F229"/>
     <mergeCell ref="D230:F230"/>
     <mergeCell ref="D231:F231"/>
     <mergeCell ref="D232:F232"/>
-    <mergeCell ref="D233:F233"/>
-    <mergeCell ref="D237:F237"/>
-    <mergeCell ref="A196:A203"/>
-    <mergeCell ref="A204:A207"/>
-    <mergeCell ref="A208:A211"/>
     <mergeCell ref="B147:B159"/>
     <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B164:B171"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="B177:B181"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="B165:B172"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="B178:B182"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="B201:B202"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -9893,22 +8961,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{e811cf45-d5b3-4449-84ae-1514f9e9258f}">
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <headerFooter/>
     </customSheetView>
-    <customSheetView guid="{16b2c8b3-13fa-43fb-96c1-3763c72619a6}">
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <headerFooter/>
     </customSheetView>
-    <customSheetView guid="{179f0e1f-f6f7-410e-b883-54b8a90ba550}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <headerFooter/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/tmp_client/doc/TMP_example/diamond_regression.xlsx
+++ b/tmp_client/doc/TMP_example/diamond_regression.xlsx
@@ -26,9 +26,9 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <customWorkbookViews>
+    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
     <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -597,9 +597,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>no,7z,zip,gzip,bzip2,tar</t>
-  </si>
-  <si>
     <t>script_url</t>
   </si>
   <si>
@@ -994,6 +991,9 @@
   </si>
   <si>
     <t>user prefer launch path setting</t>
+  </si>
+  <si>
+    <t>no,sevenz,bz2,bzip2,tbz2,tbz,gz,gzip,tgz,tar,zip,targz,tarbz,tarbz2</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1567,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
@@ -1785,6 +1785,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="33" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1797,107 +1800,107 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="4" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
@@ -4355,46 +4358,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C3911F6D-7671-4AF3-8B15-3A104438C863}" diskRevisions="1" revisionId="1" version="2">
-  <header guid="{D6C683F4-DECC-4CC2-9E87-3C85EDCCE6F3}" dateTime="2020-07-10T18:35:27" maxSheetId="5" userName="Jason Wang" r:id="rId1">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C3911F6D-7671-4AF3-8B15-3A104438C863}" dateTime="2020-07-10T18:35:37" maxSheetId="5" userName="Jason Wang" r:id="rId2">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>case!$A$2:$AD$46</formula>
-    <oldFormula>case!$A$2:$AD$46</oldFormula>
-  </rdn>
-  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4687,7 +4650,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4770,7 +4733,8 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -4779,8 +4743,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="B35" sqref="B35"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -4831,40 +4794,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="60" customFormat="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="76" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
     </row>
     <row r="2" spans="1:30" s="60" customFormat="1">
       <c r="A2" s="63" t="s">
@@ -6382,12 +6345,12 @@
   <sheetProtection algorithmName="SHA-512" hashValue="4C55417S7/WEfM6p9p+2qxLa3pFuuwTQvkVS+xLflxPJ6JUMhmXb8UBi2EhWPKsWHpV7wPPZoM4Ci73L5pzjfA==" saltValue="OVPlytvnGy6tQU/SUgOtyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:AD46"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
+      <selection activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A2:AD46"/>
+      <autoFilter ref="A2:Y2"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
@@ -6396,12 +6359,12 @@
       <pageSetup paperSize="9" orientation="portrait"/>
       <autoFilter ref="A2:Y2"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
-      <selection activeCell="C23" sqref="C23"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A2:Y2"/>
+      <autoFilter ref="A2:AD46"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -6479,8 +6442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N238"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F172" sqref="F172"/>
+    <sheetView topLeftCell="A193" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209:E209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6541,17 +6504,17 @@
       <c r="E111" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F111" s="106" t="s">
+      <c r="F111" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="G111" s="107"/>
-      <c r="H111" s="107"/>
-      <c r="I111" s="107"/>
-      <c r="J111" s="107"/>
-      <c r="K111" s="107"/>
-      <c r="L111" s="107"/>
-      <c r="M111" s="107"/>
-      <c r="N111" s="108"/>
+      <c r="G111" s="79"/>
+      <c r="H111" s="79"/>
+      <c r="I111" s="79"/>
+      <c r="J111" s="79"/>
+      <c r="K111" s="79"/>
+      <c r="L111" s="79"/>
+      <c r="M111" s="79"/>
+      <c r="N111" s="80"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="6" t="s">
@@ -7415,7 +7378,7 @@
       <c r="A147" s="19">
         <v>1</v>
       </c>
-      <c r="B147" s="77" t="s">
+      <c r="B147" s="108" t="s">
         <v>5</v>
       </c>
       <c r="C147" s="65" t="s">
@@ -7441,7 +7404,7 @@
       <c r="A148" s="19">
         <v>2</v>
       </c>
-      <c r="B148" s="78"/>
+      <c r="B148" s="109"/>
       <c r="C148" s="21" t="s">
         <v>177</v>
       </c>
@@ -7463,7 +7426,7 @@
       <c r="A149" s="19">
         <v>3</v>
       </c>
-      <c r="B149" s="78"/>
+      <c r="B149" s="109"/>
       <c r="C149" s="21" t="s">
         <v>22</v>
       </c>
@@ -7481,7 +7444,7 @@
       <c r="A150" s="19">
         <v>4</v>
       </c>
-      <c r="B150" s="78"/>
+      <c r="B150" s="109"/>
       <c r="C150" s="21" t="s">
         <v>179</v>
       </c>
@@ -7503,7 +7466,7 @@
       <c r="A151" s="19">
         <v>5</v>
       </c>
-      <c r="B151" s="78"/>
+      <c r="B151" s="109"/>
       <c r="C151" s="65" t="s">
         <v>181</v>
       </c>
@@ -7527,7 +7490,7 @@
       <c r="A152" s="19">
         <v>6</v>
       </c>
-      <c r="B152" s="78"/>
+      <c r="B152" s="109"/>
       <c r="C152" s="65" t="s">
         <v>185</v>
       </c>
@@ -7540,8 +7503,8 @@
       <c r="F152" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="G152" s="21" t="s">
-        <v>187</v>
+      <c r="G152" s="73" t="s">
+        <v>317</v>
       </c>
       <c r="H152" s="11" t="s">
         <v>184</v>
@@ -7551,9 +7514,9 @@
       <c r="A153" s="19">
         <v>7</v>
       </c>
-      <c r="B153" s="78"/>
+      <c r="B153" s="109"/>
       <c r="C153" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D153" s="21" t="s">
         <v>173</v>
@@ -7571,9 +7534,9 @@
       <c r="A154" s="19">
         <v>8</v>
       </c>
-      <c r="B154" s="78"/>
+      <c r="B154" s="109"/>
       <c r="C154" s="65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D154" s="21" t="s">
         <v>173</v>
@@ -7593,9 +7556,9 @@
       <c r="A155" s="19">
         <v>9</v>
       </c>
-      <c r="B155" s="78"/>
+      <c r="B155" s="109"/>
       <c r="C155" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D155" s="21" t="s">
         <v>173</v>
@@ -7617,9 +7580,9 @@
       <c r="A156" s="19">
         <v>10</v>
       </c>
-      <c r="B156" s="78"/>
+      <c r="B156" s="109"/>
       <c r="C156" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D156" s="21" t="s">
         <v>173</v>
@@ -7630,8 +7593,8 @@
       <c r="F156" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="G156" s="21" t="s">
-        <v>187</v>
+      <c r="G156" s="73" t="s">
+        <v>317</v>
       </c>
       <c r="H156" s="11" t="s">
         <v>184</v>
@@ -7641,9 +7604,9 @@
       <c r="A157" s="19">
         <v>11</v>
       </c>
-      <c r="B157" s="78"/>
+      <c r="B157" s="109"/>
       <c r="C157" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D157" s="21" t="s">
         <v>173</v>
@@ -7656,38 +7619,38 @@
         <v>175</v>
       </c>
       <c r="H157" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="19">
         <v>12</v>
       </c>
-      <c r="B158" s="78"/>
+      <c r="B158" s="109"/>
       <c r="C158" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D158" s="21" t="s">
         <v>173</v>
       </c>
       <c r="E158" s="21"/>
       <c r="F158" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G158" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="G158" s="21" t="s">
+      <c r="H158" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="H158" s="11" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="19">
         <v>13</v>
       </c>
-      <c r="B159" s="85"/>
+      <c r="B159" s="95"/>
       <c r="C159" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D159" s="21" t="s">
         <v>173</v>
@@ -7696,24 +7659,24 @@
         <v>173</v>
       </c>
       <c r="F159" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G159" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="G159" s="21" t="s">
+      <c r="H159" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="H159" s="11" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="19">
         <v>14</v>
       </c>
-      <c r="B160" s="86" t="s">
+      <c r="B160" s="90" t="s">
         <v>8</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D160" s="21" t="s">
         <v>173</v>
@@ -7722,22 +7685,22 @@
         <v>173</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G160" s="21" t="s">
         <v>175</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="19">
         <v>15</v>
       </c>
-      <c r="B161" s="83"/>
+      <c r="B161" s="91"/>
       <c r="C161" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D161" s="21" t="s">
         <v>173</v>
@@ -7746,24 +7709,24 @@
         <v>173</v>
       </c>
       <c r="F161" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G161" s="21" t="s">
         <v>175</v>
       </c>
       <c r="H161" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="70">
         <v>16</v>
       </c>
-      <c r="B162" s="77" t="s">
+      <c r="B162" s="108" t="s">
         <v>9</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D162" s="21" t="s">
         <v>173</v>
@@ -7772,7 +7735,7 @@
         <v>173</v>
       </c>
       <c r="F162" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G162" s="69" t="s">
         <v>175</v>
@@ -7783,9 +7746,9 @@
       <c r="A163" s="70">
         <v>17</v>
       </c>
-      <c r="B163" s="87"/>
+      <c r="B163" s="110"/>
       <c r="C163" s="69" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D163" s="68" t="s">
         <v>173</v>
@@ -7798,16 +7761,16 @@
         <v>175</v>
       </c>
       <c r="H163" s="72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="70">
         <v>18</v>
       </c>
-      <c r="B164" s="85"/>
+      <c r="B164" s="95"/>
       <c r="C164" s="65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D164" s="21" t="s">
         <v>173</v>
@@ -7817,7 +7780,7 @@
       </c>
       <c r="F164" s="21"/>
       <c r="G164" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H164" s="11"/>
     </row>
@@ -7825,11 +7788,11 @@
       <c r="A165" s="70">
         <v>19</v>
       </c>
-      <c r="B165" s="86" t="s">
+      <c r="B165" s="90" t="s">
         <v>11</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D165" s="21" t="s">
         <v>173</v>
@@ -7838,10 +7801,10 @@
         <v>173</v>
       </c>
       <c r="F165" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G165" s="21" t="s">
         <v>212</v>
-      </c>
-      <c r="G165" s="21" t="s">
-        <v>213</v>
       </c>
       <c r="H165" s="11"/>
     </row>
@@ -7849,9 +7812,9 @@
       <c r="A166" s="70">
         <v>20</v>
       </c>
-      <c r="B166" s="83"/>
+      <c r="B166" s="91"/>
       <c r="C166" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D166" s="21" t="s">
         <v>173</v>
@@ -7861,7 +7824,7 @@
       </c>
       <c r="F166" s="21"/>
       <c r="G166" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H166" s="11"/>
     </row>
@@ -7869,9 +7832,9 @@
       <c r="A167" s="70">
         <v>21</v>
       </c>
-      <c r="B167" s="83"/>
+      <c r="B167" s="91"/>
       <c r="C167" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D167" s="21" t="s">
         <v>173</v>
@@ -7881,7 +7844,7 @@
       </c>
       <c r="F167" s="21"/>
       <c r="G167" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H167" s="11"/>
     </row>
@@ -7889,9 +7852,9 @@
       <c r="A168" s="70">
         <v>22</v>
       </c>
-      <c r="B168" s="83"/>
+      <c r="B168" s="91"/>
       <c r="C168" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D168" s="21" t="s">
         <v>173</v>
@@ -7901,7 +7864,7 @@
       </c>
       <c r="F168" s="21"/>
       <c r="G168" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H168" s="11"/>
     </row>
@@ -7909,9 +7872,9 @@
       <c r="A169" s="70">
         <v>23</v>
       </c>
-      <c r="B169" s="83"/>
+      <c r="B169" s="91"/>
       <c r="C169" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D169" s="21" t="s">
         <v>173</v>
@@ -7921,7 +7884,7 @@
       </c>
       <c r="F169" s="21"/>
       <c r="G169" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H169" s="11"/>
     </row>
@@ -7929,9 +7892,9 @@
       <c r="A170" s="70">
         <v>24</v>
       </c>
-      <c r="B170" s="83"/>
+      <c r="B170" s="91"/>
       <c r="C170" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D170" s="21" t="s">
         <v>173</v>
@@ -7941,7 +7904,7 @@
       </c>
       <c r="F170" s="21"/>
       <c r="G170" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H170" s="11"/>
     </row>
@@ -7949,9 +7912,9 @@
       <c r="A171" s="70">
         <v>25</v>
       </c>
-      <c r="B171" s="83"/>
+      <c r="B171" s="91"/>
       <c r="C171" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D171" s="21" t="s">
         <v>173</v>
@@ -7961,7 +7924,7 @@
       </c>
       <c r="F171" s="21"/>
       <c r="G171" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H171" s="11"/>
     </row>
@@ -7969,7 +7932,7 @@
       <c r="A172" s="70">
         <v>26</v>
       </c>
-      <c r="B172" s="83"/>
+      <c r="B172" s="91"/>
       <c r="C172" s="21" t="s">
         <v>51</v>
       </c>
@@ -7981,7 +7944,7 @@
       </c>
       <c r="F172" s="21"/>
       <c r="G172" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H172" s="11"/>
     </row>
@@ -7989,11 +7952,11 @@
       <c r="A173" s="19">
         <v>27</v>
       </c>
-      <c r="B173" s="86" t="s">
+      <c r="B173" s="90" t="s">
         <v>13</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D173" s="21" t="s">
         <v>173</v>
@@ -8002,10 +7965,10 @@
         <v>173</v>
       </c>
       <c r="F173" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="G173" s="22" t="s">
         <v>221</v>
-      </c>
-      <c r="G173" s="22" t="s">
-        <v>222</v>
       </c>
       <c r="H173" s="11"/>
     </row>
@@ -8013,9 +7976,9 @@
       <c r="A174" s="19">
         <v>28</v>
       </c>
-      <c r="B174" s="83"/>
+      <c r="B174" s="91"/>
       <c r="C174" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D174" s="21" t="s">
         <v>173</v>
@@ -8024,10 +7987,10 @@
         <v>173</v>
       </c>
       <c r="F174" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="G174" s="65" t="s">
         <v>224</v>
-      </c>
-      <c r="G174" s="65" t="s">
-        <v>225</v>
       </c>
       <c r="H174" s="11"/>
     </row>
@@ -8035,9 +7998,9 @@
       <c r="A175" s="19">
         <v>29</v>
       </c>
-      <c r="B175" s="83"/>
+      <c r="B175" s="91"/>
       <c r="C175" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D175" s="21" t="s">
         <v>173</v>
@@ -8046,10 +8009,10 @@
         <v>173</v>
       </c>
       <c r="F175" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="G175" s="21" t="s">
         <v>227</v>
-      </c>
-      <c r="G175" s="21" t="s">
-        <v>228</v>
       </c>
       <c r="H175" s="11"/>
     </row>
@@ -8057,11 +8020,11 @@
       <c r="A176" s="19">
         <v>30</v>
       </c>
-      <c r="B176" s="77" t="s">
+      <c r="B176" s="108" t="s">
         <v>14</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D176" s="21" t="s">
         <v>173</v>
@@ -8070,22 +8033,22 @@
         <v>173</v>
       </c>
       <c r="F176" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G176" s="21" t="s">
         <v>175</v>
       </c>
       <c r="H176" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="23">
         <v>31</v>
       </c>
-      <c r="B177" s="78"/>
+      <c r="B177" s="109"/>
       <c r="C177" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D177" s="20" t="s">
         <v>173</v>
@@ -8094,24 +8057,24 @@
         <v>173</v>
       </c>
       <c r="F177" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G177" s="20" t="s">
         <v>175</v>
       </c>
       <c r="H177" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="16">
         <v>32</v>
       </c>
-      <c r="B178" s="79" t="s">
+      <c r="B178" s="111" t="s">
+        <v>233</v>
+      </c>
+      <c r="C178" s="66" t="s">
         <v>234</v>
-      </c>
-      <c r="C178" s="66" t="s">
-        <v>235</v>
       </c>
       <c r="D178" s="17" t="s">
         <v>173</v>
@@ -8120,10 +8083,10 @@
         <v>173</v>
       </c>
       <c r="F178" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="G178" s="66" t="s">
         <v>236</v>
-      </c>
-      <c r="G178" s="66" t="s">
-        <v>237</v>
       </c>
       <c r="H178" s="10"/>
     </row>
@@ -8131,9 +8094,9 @@
       <c r="A179" s="19">
         <v>33</v>
       </c>
-      <c r="B179" s="80"/>
+      <c r="B179" s="112"/>
       <c r="C179" s="65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D179" s="21" t="s">
         <v>173</v>
@@ -8142,10 +8105,10 @@
         <v>173</v>
       </c>
       <c r="F179" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="G179" s="67" t="s">
         <v>239</v>
-      </c>
-      <c r="G179" s="67" t="s">
-        <v>240</v>
       </c>
       <c r="H179" s="11"/>
     </row>
@@ -8153,9 +8116,9 @@
       <c r="A180" s="19">
         <v>34</v>
       </c>
-      <c r="B180" s="81"/>
+      <c r="B180" s="113"/>
       <c r="C180" s="67" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D180" s="21" t="s">
         <v>173</v>
@@ -8164,10 +8127,10 @@
         <v>173</v>
       </c>
       <c r="F180" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="G180" s="20" t="s">
         <v>239</v>
-      </c>
-      <c r="G180" s="20" t="s">
-        <v>240</v>
       </c>
       <c r="H180" s="24"/>
     </row>
@@ -8175,9 +8138,9 @@
       <c r="A181" s="25">
         <v>35</v>
       </c>
-      <c r="B181" s="81"/>
+      <c r="B181" s="113"/>
       <c r="C181" s="67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D181" s="26" t="s">
         <v>173</v>
@@ -8186,10 +8149,10 @@
         <v>173</v>
       </c>
       <c r="F181" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="G181" s="67" t="s">
         <v>243</v>
-      </c>
-      <c r="G181" s="67" t="s">
-        <v>244</v>
       </c>
       <c r="H181" s="27"/>
     </row>
@@ -8197,9 +8160,9 @@
       <c r="A182" s="28">
         <v>36</v>
       </c>
-      <c r="B182" s="82"/>
+      <c r="B182" s="99"/>
       <c r="C182" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D182" s="29" t="s">
         <v>173</v>
@@ -8213,314 +8176,314 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="B184" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="B185" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B196" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="B196" s="32" t="s">
+      <c r="C196" s="81" t="s">
         <v>253</v>
       </c>
-      <c r="C196" s="109" t="s">
+      <c r="D196" s="81"/>
+      <c r="E196" s="81"/>
+      <c r="F196" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="D196" s="109"/>
-      <c r="E196" s="109"/>
-      <c r="F196" s="33" t="s">
+      <c r="G196" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="G196" s="34" t="s">
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="106" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="92" t="s">
+      <c r="B197" s="91" t="s">
         <v>257</v>
       </c>
-      <c r="B197" s="83" t="s">
+      <c r="C197" s="82" t="s">
         <v>258</v>
       </c>
-      <c r="C197" s="110" t="s">
+      <c r="D197" s="83"/>
+      <c r="E197" s="83"/>
+      <c r="F197" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D197" s="111"/>
-      <c r="E197" s="111"/>
-      <c r="F197" s="21" t="s">
+      <c r="G197" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="G197" s="35" t="s">
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="106"/>
+      <c r="B198" s="114"/>
+      <c r="C198" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="D198" s="85"/>
+      <c r="E198" s="85"/>
+      <c r="F198" s="20" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="92"/>
-      <c r="B198" s="84"/>
-      <c r="C198" s="102" t="s">
+      <c r="G198" s="36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="106"/>
+      <c r="B199" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="C199" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="D199" s="86"/>
+      <c r="E199" s="86"/>
+      <c r="F199" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D198" s="112"/>
-      <c r="E198" s="112"/>
-      <c r="F198" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="G198" s="36" t="s">
+      <c r="G199" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="106"/>
+      <c r="B200" s="91"/>
+      <c r="C200" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="D200" s="84"/>
+      <c r="E200" s="84"/>
+      <c r="F200" s="21" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="92"/>
-      <c r="B199" s="83" t="s">
-        <v>263</v>
-      </c>
-      <c r="C199" s="113" t="s">
+      <c r="G200" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="106"/>
+      <c r="B201" s="114" t="s">
         <v>264</v>
       </c>
-      <c r="D199" s="113"/>
-      <c r="E199" s="113"/>
-      <c r="F199" s="21" t="s">
+      <c r="C201" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="D201" s="88"/>
+      <c r="E201" s="89"/>
+      <c r="F201" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="G201" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="G199" s="35" t="s">
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="106"/>
+      <c r="B202" s="95"/>
+      <c r="C202" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="D202" s="88"/>
+      <c r="E202" s="89"/>
+      <c r="F202" s="21" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="92"/>
-      <c r="B200" s="83"/>
-      <c r="C200" s="102" t="s">
-        <v>264</v>
-      </c>
-      <c r="D200" s="102"/>
-      <c r="E200" s="102"/>
-      <c r="F200" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="G200" s="35" t="s">
+      <c r="G202" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="106"/>
+      <c r="B203" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="C203" s="86" t="s">
+        <v>266</v>
+      </c>
+      <c r="D203" s="86"/>
+      <c r="E203" s="86"/>
+      <c r="F203" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="G203" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="106"/>
+      <c r="B204" s="91"/>
+      <c r="C204" s="86" t="s">
+        <v>266</v>
+      </c>
+      <c r="D204" s="86"/>
+      <c r="E204" s="86"/>
+      <c r="F204" s="21" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="92"/>
-      <c r="B201" s="84" t="s">
-        <v>265</v>
-      </c>
-      <c r="C201" s="103" t="s">
+      <c r="G204" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="106" t="s">
+        <v>267</v>
+      </c>
+      <c r="B205" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="C205" s="90" t="s">
+        <v>269</v>
+      </c>
+      <c r="D205" s="91"/>
+      <c r="E205" s="91"/>
+      <c r="F205" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D201" s="104"/>
-      <c r="E201" s="105"/>
-      <c r="F201" s="21" t="s">
+      <c r="G205" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="G201" s="35" t="s">
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="106"/>
+      <c r="B206" s="91"/>
+      <c r="C206" s="91" t="s">
+        <v>270</v>
+      </c>
+      <c r="D206" s="91"/>
+      <c r="E206" s="91"/>
+      <c r="F206" s="21" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="92"/>
-      <c r="B202" s="85"/>
-      <c r="C202" s="103" t="s">
+      <c r="G206" s="35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="106"/>
+      <c r="B207" s="91" t="s">
+        <v>272</v>
+      </c>
+      <c r="C207" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="D207" s="91"/>
+      <c r="E207" s="91"/>
+      <c r="F207" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D202" s="104"/>
-      <c r="E202" s="105"/>
-      <c r="F202" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="G202" s="35" t="s">
+      <c r="G207" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="106"/>
+      <c r="B208" s="91"/>
+      <c r="C208" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="D208" s="91"/>
+      <c r="E208" s="91"/>
+      <c r="F208" s="21" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="92"/>
-      <c r="B203" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="C203" s="102" t="s">
-        <v>267</v>
-      </c>
-      <c r="D203" s="102"/>
-      <c r="E203" s="102"/>
-      <c r="F203" s="21" t="s">
+      <c r="G208" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="G203" s="35" t="s">
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="106" t="s">
+        <v>275</v>
+      </c>
+      <c r="B209" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="C209" s="90" t="s">
+        <v>277</v>
+      </c>
+      <c r="D209" s="91"/>
+      <c r="E209" s="91"/>
+      <c r="F209" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="G209" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="106"/>
+      <c r="B210" s="91"/>
+      <c r="C210" s="91" t="s">
+        <v>278</v>
+      </c>
+      <c r="D210" s="91"/>
+      <c r="E210" s="91"/>
+      <c r="F210" s="21" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="92"/>
-      <c r="B204" s="83"/>
-      <c r="C204" s="102" t="s">
-        <v>267</v>
-      </c>
-      <c r="D204" s="102"/>
-      <c r="E204" s="102"/>
-      <c r="F204" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="G204" s="35" t="s">
+      <c r="G210" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="106"/>
+      <c r="B211" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="C211" s="90" t="s">
+        <v>280</v>
+      </c>
+      <c r="D211" s="91"/>
+      <c r="E211" s="91"/>
+      <c r="F211" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="G211" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="107"/>
+      <c r="B212" s="92"/>
+      <c r="C212" s="92" t="s">
+        <v>281</v>
+      </c>
+      <c r="D212" s="92"/>
+      <c r="E212" s="92"/>
+      <c r="F212" s="29" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="92" t="s">
-        <v>268</v>
-      </c>
-      <c r="B205" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="C205" s="86" t="s">
-        <v>270</v>
-      </c>
-      <c r="D205" s="83"/>
-      <c r="E205" s="83"/>
-      <c r="F205" s="21" t="s">
+      <c r="G212" s="37" t="s">
         <v>260</v>
-      </c>
-      <c r="G205" s="35" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="92"/>
-      <c r="B206" s="83"/>
-      <c r="C206" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="D206" s="83"/>
-      <c r="E206" s="83"/>
-      <c r="F206" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="G206" s="35" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="92"/>
-      <c r="B207" s="83" t="s">
-        <v>273</v>
-      </c>
-      <c r="C207" s="83" t="s">
-        <v>274</v>
-      </c>
-      <c r="D207" s="83"/>
-      <c r="E207" s="83"/>
-      <c r="F207" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="G207" s="35" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="92"/>
-      <c r="B208" s="83"/>
-      <c r="C208" s="83" t="s">
-        <v>275</v>
-      </c>
-      <c r="D208" s="83"/>
-      <c r="E208" s="83"/>
-      <c r="F208" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="G208" s="35" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="92" t="s">
-        <v>276</v>
-      </c>
-      <c r="B209" s="83" t="s">
-        <v>277</v>
-      </c>
-      <c r="C209" s="86" t="s">
-        <v>278</v>
-      </c>
-      <c r="D209" s="83"/>
-      <c r="E209" s="83"/>
-      <c r="F209" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="G209" s="35" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="92"/>
-      <c r="B210" s="83"/>
-      <c r="C210" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="D210" s="83"/>
-      <c r="E210" s="83"/>
-      <c r="F210" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="G210" s="35" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="92"/>
-      <c r="B211" s="83" t="s">
-        <v>280</v>
-      </c>
-      <c r="C211" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="D211" s="83"/>
-      <c r="E211" s="83"/>
-      <c r="F211" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="G211" s="35" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="93"/>
-      <c r="B212" s="94"/>
-      <c r="C212" s="94" t="s">
-        <v>282</v>
-      </c>
-      <c r="D212" s="94"/>
-      <c r="E212" s="94"/>
-      <c r="F212" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="G212" s="37" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C213" s="31"/>
       <c r="D213" s="31"/>
@@ -8539,7 +8502,7 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C216" s="31"/>
       <c r="D216" s="31"/>
@@ -8547,87 +8510,87 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="B217" s="93" t="s">
         <v>285</v>
       </c>
-      <c r="B217" s="100" t="s">
+      <c r="C217" s="93"/>
+      <c r="D217" s="93"/>
+      <c r="E217" s="93"/>
+      <c r="F217" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="C217" s="100"/>
-      <c r="D217" s="100"/>
-      <c r="E217" s="100"/>
-      <c r="F217" s="39" t="s">
+      <c r="G217" s="40" t="s">
         <v>287</v>
-      </c>
-      <c r="G217" s="40" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="93" customHeight="1">
       <c r="A218" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="B218" s="94" t="s">
         <v>289</v>
       </c>
-      <c r="B218" s="101" t="s">
-        <v>290</v>
-      </c>
-      <c r="C218" s="85"/>
-      <c r="D218" s="85"/>
-      <c r="E218" s="85"/>
+      <c r="C218" s="95"/>
+      <c r="D218" s="95"/>
+      <c r="E218" s="95"/>
       <c r="F218" s="42" t="s">
         <v>158</v>
       </c>
       <c r="G218" s="43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="57" customHeight="1">
       <c r="A219" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B219" s="96" t="s">
         <v>291</v>
-      </c>
-      <c r="B219" s="96" t="s">
-        <v>292</v>
       </c>
       <c r="C219" s="97"/>
       <c r="D219" s="97"/>
       <c r="E219" s="98"/>
       <c r="F219" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G219" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="57" customHeight="1">
       <c r="A220" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B220" s="96" t="s">
         <v>293</v>
-      </c>
-      <c r="B220" s="96" t="s">
-        <v>294</v>
       </c>
       <c r="C220" s="97"/>
       <c r="D220" s="97"/>
       <c r="E220" s="98"/>
       <c r="F220" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G220" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="69" customHeight="1">
       <c r="A221" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B221" s="99" t="s">
         <v>295</v>
       </c>
-      <c r="B221" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="C221" s="94"/>
-      <c r="D221" s="94"/>
-      <c r="E221" s="94"/>
+      <c r="C221" s="92"/>
+      <c r="D221" s="92"/>
+      <c r="E221" s="92"/>
       <c r="F221" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G221" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -8635,26 +8598,26 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B225" s="32" t="s">
         <v>137</v>
       </c>
       <c r="C225" s="45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D225" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E225" s="46"/>
       <c r="F225" s="47"/>
       <c r="G225" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -8665,13 +8628,13 @@
         <v>1.04</v>
       </c>
       <c r="C226" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D226" s="100" t="s">
         <v>301</v>
       </c>
-      <c r="D226" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="E226" s="99"/>
-      <c r="F226" s="99"/>
+      <c r="E226" s="100"/>
+      <c r="F226" s="100"/>
       <c r="G226" s="50"/>
     </row>
     <row r="227" spans="1:7">
@@ -8682,13 +8645,13 @@
         <v>1.05</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="D227" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="E227" s="95"/>
-      <c r="F227" s="95"/>
+        <v>300</v>
+      </c>
+      <c r="D227" s="101" t="s">
+        <v>302</v>
+      </c>
+      <c r="E227" s="101"/>
+      <c r="F227" s="101"/>
       <c r="G227" s="35"/>
     </row>
     <row r="228" spans="1:7">
@@ -8699,13 +8662,13 @@
         <v>1.06</v>
       </c>
       <c r="C228" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="D228" s="95" t="s">
-        <v>304</v>
-      </c>
-      <c r="E228" s="95"/>
-      <c r="F228" s="95"/>
+        <v>300</v>
+      </c>
+      <c r="D228" s="101" t="s">
+        <v>303</v>
+      </c>
+      <c r="E228" s="101"/>
+      <c r="F228" s="101"/>
       <c r="G228" s="35"/>
     </row>
     <row r="229" spans="1:7">
@@ -8716,13 +8679,13 @@
         <v>1.07</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="D229" s="95" t="s">
-        <v>305</v>
-      </c>
-      <c r="E229" s="95"/>
-      <c r="F229" s="95"/>
+        <v>300</v>
+      </c>
+      <c r="D229" s="101" t="s">
+        <v>304</v>
+      </c>
+      <c r="E229" s="101"/>
+      <c r="F229" s="101"/>
       <c r="G229" s="35"/>
     </row>
     <row r="230" spans="1:7">
@@ -8733,13 +8696,13 @@
         <v>1.08</v>
       </c>
       <c r="C230" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="D230" s="95" t="s">
-        <v>306</v>
-      </c>
-      <c r="E230" s="95"/>
-      <c r="F230" s="95"/>
+        <v>300</v>
+      </c>
+      <c r="D230" s="101" t="s">
+        <v>305</v>
+      </c>
+      <c r="E230" s="101"/>
+      <c r="F230" s="101"/>
       <c r="G230" s="35"/>
     </row>
     <row r="231" spans="1:7">
@@ -8750,13 +8713,13 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="C231" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="D231" s="95" t="s">
-        <v>307</v>
-      </c>
-      <c r="E231" s="95"/>
-      <c r="F231" s="95"/>
+        <v>300</v>
+      </c>
+      <c r="D231" s="101" t="s">
+        <v>306</v>
+      </c>
+      <c r="E231" s="101"/>
+      <c r="F231" s="101"/>
       <c r="G231" s="35"/>
     </row>
     <row r="232" spans="1:7">
@@ -8767,13 +8730,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D232" s="88" t="s">
-        <v>308</v>
-      </c>
-      <c r="E232" s="89"/>
-      <c r="F232" s="90"/>
+        <v>300</v>
+      </c>
+      <c r="D232" s="102" t="s">
+        <v>307</v>
+      </c>
+      <c r="E232" s="103"/>
+      <c r="F232" s="104"/>
       <c r="G232" s="36"/>
     </row>
     <row r="233" spans="1:7">
@@ -8784,13 +8747,13 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D233" s="88" t="s">
-        <v>309</v>
-      </c>
-      <c r="E233" s="89"/>
-      <c r="F233" s="90"/>
+        <v>300</v>
+      </c>
+      <c r="D233" s="102" t="s">
+        <v>308</v>
+      </c>
+      <c r="E233" s="103"/>
+      <c r="F233" s="104"/>
       <c r="G233" s="36"/>
     </row>
     <row r="234" spans="1:7">
@@ -8801,13 +8764,13 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D234" s="88" t="s">
-        <v>310</v>
-      </c>
-      <c r="E234" s="89"/>
-      <c r="F234" s="90"/>
+        <v>300</v>
+      </c>
+      <c r="D234" s="102" t="s">
+        <v>309</v>
+      </c>
+      <c r="E234" s="103"/>
+      <c r="F234" s="104"/>
       <c r="G234" s="36"/>
     </row>
     <row r="235" spans="1:7">
@@ -8818,10 +8781,10 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D235" s="55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E235" s="56"/>
       <c r="F235" s="57"/>
@@ -8835,10 +8798,10 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D236" s="55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E236" s="56"/>
       <c r="F236" s="57"/>
@@ -8852,10 +8815,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D237" s="55" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E237" s="56"/>
       <c r="F237" s="57"/>
@@ -8869,17 +8832,17 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="C238" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="D238" s="91" t="s">
-        <v>314</v>
-      </c>
-      <c r="E238" s="91"/>
-      <c r="F238" s="91"/>
+        <v>300</v>
+      </c>
+      <c r="D238" s="105" t="s">
+        <v>313</v>
+      </c>
+      <c r="E238" s="105"/>
+      <c r="F238" s="105"/>
       <c r="G238" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gtdd3/U9jncnsyB36nF4pUNeFQ9YgVOqxdH24Q2fl98kFdxWe2F6JcdX958pldXuL/TiX03wmHo1bSzDZyBHGQ==" saltValue="A3+sq91Jqztcpa19NEUyIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0UT41XaxqgQhfsgssrlya0NBWnXPg0uj6FDdbXVfzp9AG3o5yGtUIGPEnJmecspgIgyYg7bYBIYw+0kw8uPBjA==" saltValue="4z6ntY5HlVVddlUdMd47dg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115" topLeftCell="A157">
       <selection activeCell="F172" sqref="F172"/>
@@ -8888,31 +8851,16 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="51">
-    <mergeCell ref="F111:N111"/>
-    <mergeCell ref="C196:E196"/>
-    <mergeCell ref="C197:E197"/>
-    <mergeCell ref="C198:E198"/>
-    <mergeCell ref="C199:E199"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="C202:E202"/>
-    <mergeCell ref="C203:E203"/>
-    <mergeCell ref="C204:E204"/>
-    <mergeCell ref="C205:E205"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="C207:E207"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="C209:E209"/>
-    <mergeCell ref="C210:E210"/>
-    <mergeCell ref="C211:E211"/>
-    <mergeCell ref="C212:E212"/>
-    <mergeCell ref="B217:E217"/>
-    <mergeCell ref="B218:E218"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="D226:F226"/>
-    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="B178:B182"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B147:B159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="B165:B172"/>
+    <mergeCell ref="B173:B175"/>
     <mergeCell ref="D233:F233"/>
     <mergeCell ref="D234:F234"/>
     <mergeCell ref="D238:F238"/>
@@ -8929,16 +8877,31 @@
     <mergeCell ref="D230:F230"/>
     <mergeCell ref="D231:F231"/>
     <mergeCell ref="D232:F232"/>
-    <mergeCell ref="B147:B159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="B165:B172"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="B178:B182"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="D226:F226"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="C210:E210"/>
+    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="B217:E217"/>
+    <mergeCell ref="B218:E218"/>
+    <mergeCell ref="C205:E205"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C207:E207"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C209:E209"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="C203:E203"/>
+    <mergeCell ref="C204:E204"/>
+    <mergeCell ref="F111:N111"/>
+    <mergeCell ref="C196:E196"/>
+    <mergeCell ref="C197:E197"/>
+    <mergeCell ref="C198:E198"/>
+    <mergeCell ref="C199:E199"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8956,20 +8919,20 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="E26" sqref="E26"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/tmp_client/doc/TMP_example/diamond_regression.xlsx
+++ b/tmp_client/doc/TMP_example/diamond_regression.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repository\tmp_client\doc\TMP_example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="40MRd5r6vR/eXVUGbL7aEMM1NO6mwC4SojgFQmqHtZOqnQZBLsdr03u6GYWM/ftoMUNBO+KP7cdpMmOVZ0x4WQ==" workbookSaltValue="I+dbibQaVxj+tsXuP7uNKg==" workbookSpinCount="100000" lockStructure="1"/>
@@ -26,15 +26,15 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
     <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="330">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -670,9 +670,6 @@
   </si>
   <si>
     <t>3.6.0.80</t>
-  </si>
-  <si>
-    <t>Check TMP machine</t>
   </si>
   <si>
     <t>icecube</t>
@@ -994,6 +991,45 @@
   </si>
   <si>
     <t>no,sevenz,bz2,bzip2,tbz2,tbz,gz,gzip,tgz,tar,zip,targz,tarbz,tarbz2</t>
+  </si>
+  <si>
+    <t>max_threads</t>
+  </si>
+  <si>
+    <t>host_restart</t>
+  </si>
+  <si>
+    <t>any String</t>
+  </si>
+  <si>
+    <t>28080(SVN)</t>
+  </si>
+  <si>
+    <t>http://lsh-tmp/platform/trunk/tmp_scripts</t>
+  </si>
+  <si>
+    <t>PjjD2J1CCLKLyYaFY9z+b50AGVKc7MBh(swqalab/lattice)</t>
+  </si>
+  <si>
+    <t>Check TMP machine Page</t>
+  </si>
+  <si>
+    <t>//lsh-smb02/sw/qa/qadata</t>
+  </si>
+  <si>
+    <t>0,1,2,3 … 9</t>
+  </si>
+  <si>
+    <t>0: means no thread requirements, it will make client reset current thread, it will affact the run priority</t>
+  </si>
+  <si>
+    <t>0(Default, no requirements)</t>
+  </si>
+  <si>
+    <t>Only affect windows machine, client will restart host based on task time and system run time</t>
+  </si>
+  <si>
+    <t>Preference max_threads and host_restart support</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1603,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
@@ -1641,152 +1677,163 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="4" applyNumberFormat="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="4" applyNumberFormat="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="4" applyNumberFormat="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="4" applyNumberFormat="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="33" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1896,10 +1943,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4148,13 +4195,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4358,6 +4405,27 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AAE9B381-E018-4501-B980-B3F96372B158}">
+  <header guid="{AAE9B381-E018-4501-B980-B3F96372B158}" dateTime="2020-10-14T11:19:53" maxSheetId="5" userName="Jason Wang" r:id="rId1">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4650,89 +4718,94 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" style="61" customWidth="1"/>
-    <col min="2" max="2" width="28" style="61" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="61"/>
+    <col min="1" max="1" width="15" style="57" customWidth="1"/>
+    <col min="2" max="2" width="28" style="57" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="57" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="57" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="57" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="57" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="57" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="57" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="57" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <selection activeCell="A19" sqref="A19"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4740,10 +4813,6 @@
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="B4" sqref="B4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -4766,1578 +4835,1578 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="9" style="61" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="61" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="61" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="61" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="61" customWidth="1"/>
-    <col min="7" max="7" width="24" style="61" customWidth="1"/>
-    <col min="8" max="8" width="37" style="61" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="61" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="61" customWidth="1"/>
-    <col min="11" max="11" width="12" style="61" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="62" customWidth="1"/>
-    <col min="13" max="13" width="38" style="61" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" style="61" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" style="61" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="61" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="61" customWidth="1"/>
-    <col min="18" max="18" width="13" style="61" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="61" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" style="61" customWidth="1"/>
-    <col min="21" max="21" width="11" style="61" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="61" customWidth="1"/>
-    <col min="23" max="28" width="9" style="61"/>
-    <col min="29" max="29" width="10.140625" style="61" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="61"/>
+    <col min="1" max="1" width="10.28515625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="9" style="57" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="57" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="57" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="57" customWidth="1"/>
+    <col min="7" max="7" width="24" style="57" customWidth="1"/>
+    <col min="8" max="8" width="37" style="57" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="57" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="57" customWidth="1"/>
+    <col min="11" max="11" width="12" style="57" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="58" customWidth="1"/>
+    <col min="13" max="13" width="38" style="57" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="57" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" style="57" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" style="57" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" style="57" customWidth="1"/>
+    <col min="18" max="18" width="13" style="57" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="57" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="57" customWidth="1"/>
+    <col min="21" max="21" width="11" style="57" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="57" customWidth="1"/>
+    <col min="23" max="28" width="9" style="57"/>
+    <col min="29" max="29" width="10.140625" style="57" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="60" customFormat="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:30" s="56" customFormat="1">
+      <c r="A1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="77" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-    </row>
-    <row r="2" spans="1:30" s="60" customFormat="1">
-      <c r="A2" s="63" t="s">
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+    </row>
+    <row r="2" spans="1:30" s="56" customFormat="1">
+      <c r="A2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="64" t="s">
+      <c r="L2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="63" t="s">
+      <c r="Q2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="63" t="s">
+      <c r="S2" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="63" t="s">
+      <c r="T2" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="63" t="s">
+      <c r="U2" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="63" t="s">
+      <c r="V2" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="63" t="s">
+      <c r="W2" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="63" t="s">
+      <c r="X2" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="63" t="s">
+      <c r="Y2" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="63" t="s">
+      <c r="Z2" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="63" t="s">
+      <c r="AA2" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="63" t="s">
+      <c r="AB2" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="63" t="s">
+      <c r="AC2" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AD2" s="63" t="s">
+      <c r="AD2" s="59" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="61">
+      <c r="A3" s="57">
         <v>1</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="61" t="s">
+      <c r="O3" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="61" t="s">
+      <c r="P3" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="61" t="s">
+      <c r="S3" s="57" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="61">
+      <c r="A4" s="57">
         <v>2</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="57" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="61">
+      <c r="A5" s="57">
         <v>3</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="61" t="s">
+      <c r="O5" s="57" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="61">
+      <c r="A6" s="57">
         <v>4</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="57" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="61">
+      <c r="A7" s="57">
         <v>5</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="61" t="s">
+      <c r="J7" s="57" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="61">
+      <c r="A8" s="57">
         <v>6</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="61" t="s">
+      <c r="H8" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="61" t="s">
+      <c r="I8" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="57" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="61">
+      <c r="A9" s="57">
         <v>7</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="57" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="61">
+      <c r="A10" s="57">
         <v>8</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="61" t="s">
+      <c r="H10" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="61" t="s">
+      <c r="J10" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="61" t="s">
+      <c r="O10" s="57" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="61">
+      <c r="A11" s="57">
         <v>9</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I11" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="57" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="61">
+      <c r="A12" s="57">
         <v>10</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="J12" s="57" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="61">
+      <c r="A13" s="57">
         <v>11</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="61" t="s">
+      <c r="J13" s="57" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="61">
+      <c r="A14" s="57">
         <v>12</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="61" t="s">
+      <c r="H14" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="61" t="s">
+      <c r="I14" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="57" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="61">
+      <c r="A15" s="57">
         <v>13</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="61" t="s">
+      <c r="H15" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="61" t="s">
+      <c r="I15" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="J15" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="61" t="s">
+      <c r="O15" s="57" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="61">
+      <c r="A16" s="57">
         <v>14</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="61" t="s">
+      <c r="J16" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="61" t="s">
+      <c r="O16" s="57" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="61">
+      <c r="A17" s="57">
         <v>15</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="61" t="s">
+      <c r="H17" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="61" t="s">
+      <c r="I17" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="61" t="s">
+      <c r="J17" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O17" s="61" t="s">
+      <c r="O17" s="57" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="61">
+      <c r="A18" s="57">
         <v>16</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="61" t="s">
+      <c r="G18" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="61" t="s">
+      <c r="H18" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="61" t="s">
+      <c r="I18" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="57" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="61">
+      <c r="A19" s="57">
         <v>17</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="61" t="s">
+      <c r="I19" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="61" t="s">
+      <c r="J19" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O19" s="61" t="s">
+      <c r="O19" s="57" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="61">
+      <c r="A20" s="57">
         <v>18</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="61" t="s">
+      <c r="I20" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="61" t="s">
+      <c r="J20" s="57" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="61">
+      <c r="A21" s="57">
         <v>19</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="61" t="s">
+      <c r="G21" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="61" t="s">
+      <c r="H21" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="61" t="s">
+      <c r="I21" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="61" t="s">
+      <c r="J21" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O21" s="61" t="s">
+      <c r="O21" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="Q21" s="61" t="s">
+      <c r="Q21" s="57" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="61">
+      <c r="A22" s="57">
         <v>20</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="61" t="s">
+      <c r="H22" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="61" t="s">
+      <c r="I22" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="61" t="s">
+      <c r="J22" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="61" t="s">
+      <c r="O22" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="P22" s="61" t="s">
+      <c r="P22" s="57" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="61">
+      <c r="A23" s="57">
         <v>21</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="61" t="s">
+      <c r="G23" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="61" t="s">
+      <c r="I23" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="61" t="s">
+      <c r="J23" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O23" s="61" t="s">
+      <c r="O23" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="P23" s="61" t="s">
+      <c r="P23" s="57" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="61">
+      <c r="A24" s="57">
         <v>22</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="61" t="s">
+      <c r="F24" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="61" t="s">
+      <c r="G24" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="61" t="s">
+      <c r="I24" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J24" s="61" t="s">
+      <c r="J24" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O24" s="61" t="s">
+      <c r="O24" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="P24" s="61" t="s">
+      <c r="P24" s="57" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="61">
+      <c r="A25" s="57">
         <v>23</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="61" t="s">
+      <c r="F25" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="61" t="s">
+      <c r="I25" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="61" t="s">
+      <c r="J25" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O25" s="61" t="s">
+      <c r="O25" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="P25" s="61" t="s">
+      <c r="P25" s="57" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="61">
+      <c r="A26" s="57">
         <v>24</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="61" t="s">
+      <c r="F26" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="61" t="s">
+      <c r="H26" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="61" t="s">
+      <c r="I26" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="61" t="s">
+      <c r="J26" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O26" s="61" t="s">
+      <c r="O26" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="Q26" s="61" t="s">
+      <c r="Q26" s="57" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="61">
+      <c r="A27" s="57">
         <v>25</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="61" t="s">
+      <c r="H27" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I27" s="61" t="s">
+      <c r="I27" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="61" t="s">
+      <c r="J27" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="61" t="s">
+      <c r="O27" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="P27" s="61" t="s">
+      <c r="P27" s="57" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="61">
+      <c r="A28" s="57">
         <v>26</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="61" t="s">
+      <c r="F28" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="61" t="s">
+      <c r="I28" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J28" s="61" t="s">
+      <c r="J28" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O28" s="61" t="s">
+      <c r="O28" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="P28" s="61" t="s">
+      <c r="P28" s="57" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="61">
+      <c r="A29" s="57">
         <v>27</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="61" t="s">
+      <c r="G29" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="61" t="s">
+      <c r="H29" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="61" t="s">
+      <c r="I29" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="61" t="s">
+      <c r="J29" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="61" t="s">
+      <c r="O29" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="P29" s="61" t="s">
+      <c r="P29" s="57" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="61">
+      <c r="A30" s="57">
         <v>28</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="61" t="s">
+      <c r="F30" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H30" s="61" t="s">
+      <c r="H30" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="61" t="s">
+      <c r="I30" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="61" t="s">
+      <c r="J30" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O30" s="61" t="s">
+      <c r="O30" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="Q30" s="61" t="s">
+      <c r="Q30" s="57" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="61">
+      <c r="A31" s="57">
         <v>29</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="61" t="s">
+      <c r="G31" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="61" t="s">
+      <c r="H31" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="61" t="s">
+      <c r="I31" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="61" t="s">
+      <c r="J31" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O31" s="61" t="s">
+      <c r="O31" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="P31" s="61" t="s">
+      <c r="P31" s="57" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="61">
+      <c r="A32" s="57">
         <v>30</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="61" t="s">
+      <c r="F32" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="61" t="s">
+      <c r="G32" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H32" s="61" t="s">
+      <c r="H32" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="61" t="s">
+      <c r="I32" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="61" t="s">
+      <c r="J32" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="61" t="s">
+      <c r="O32" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="61" t="s">
+      <c r="P32" s="57" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="61">
+      <c r="A33" s="57">
         <v>31</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="61" t="s">
+      <c r="F33" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="61" t="s">
+      <c r="G33" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="H33" s="61" t="s">
+      <c r="H33" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I33" s="61" t="s">
+      <c r="I33" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J33" s="61" t="s">
+      <c r="J33" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O33" s="61" t="s">
+      <c r="O33" s="57" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="61">
+      <c r="A34" s="57">
         <v>32</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="F34" s="61" t="s">
+      <c r="F34" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="61" t="s">
+      <c r="G34" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="H34" s="61" t="s">
+      <c r="H34" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="61" t="s">
+      <c r="I34" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J34" s="61" t="s">
+      <c r="J34" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O34" s="61" t="s">
+      <c r="O34" s="57" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="61">
+      <c r="A35" s="57">
         <v>33</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="61" t="s">
+      <c r="F35" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G35" s="61" t="s">
+      <c r="G35" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="H35" s="61" t="s">
+      <c r="H35" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I35" s="61" t="s">
+      <c r="I35" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J35" s="61" t="s">
+      <c r="J35" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="61" t="s">
+      <c r="O35" s="57" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="61">
+      <c r="A36" s="57">
         <v>34</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="61" t="s">
+      <c r="D36" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="61" t="s">
+      <c r="F36" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="61" t="s">
+      <c r="G36" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="61" t="s">
+      <c r="H36" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I36" s="61" t="s">
+      <c r="I36" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J36" s="61" t="s">
+      <c r="J36" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O36" s="61" t="s">
+      <c r="O36" s="57" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="61">
+      <c r="A37" s="57">
         <v>35</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="D37" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="61" t="s">
+      <c r="F37" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="61" t="s">
+      <c r="G37" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="H37" s="61" t="s">
+      <c r="H37" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="61" t="s">
+      <c r="I37" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J37" s="61" t="s">
+      <c r="J37" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O37" s="61" t="s">
+      <c r="O37" s="57" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="61">
+      <c r="A38" s="57">
         <v>36</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="D38" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="E38" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="61" t="s">
+      <c r="F38" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="61" t="s">
+      <c r="G38" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="H38" s="61" t="s">
+      <c r="H38" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="61" t="s">
+      <c r="I38" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J38" s="61" t="s">
+      <c r="J38" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O38" s="61" t="s">
+      <c r="O38" s="57" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="61">
+      <c r="A39" s="57">
         <v>37</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="61" t="s">
+      <c r="E39" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="61" t="s">
+      <c r="F39" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="61" t="s">
+      <c r="G39" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="H39" s="61" t="s">
+      <c r="H39" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I39" s="61" t="s">
+      <c r="I39" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J39" s="61" t="s">
+      <c r="J39" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O39" s="61" t="s">
+      <c r="O39" s="57" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="61">
+      <c r="A40" s="57">
         <v>38</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="D40" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="61" t="s">
+      <c r="E40" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="61" t="s">
+      <c r="F40" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="61" t="s">
+      <c r="G40" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="H40" s="61" t="s">
+      <c r="H40" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="61" t="s">
+      <c r="I40" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J40" s="61" t="s">
+      <c r="J40" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O40" s="61" t="s">
+      <c r="O40" s="57" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="61">
+      <c r="A41" s="57">
         <v>39</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="61" t="s">
+      <c r="D41" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="61" t="s">
+      <c r="E41" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="F41" s="61" t="s">
+      <c r="F41" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G41" s="61" t="s">
+      <c r="G41" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="61" t="s">
+      <c r="H41" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="61" t="s">
+      <c r="I41" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J41" s="61" t="s">
+      <c r="J41" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O41" s="61" t="s">
+      <c r="O41" s="57" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="61">
+      <c r="A42" s="57">
         <v>40</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="61" t="s">
+      <c r="D42" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="61" t="s">
+      <c r="E42" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="61" t="s">
+      <c r="F42" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G42" s="61" t="s">
+      <c r="G42" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="H42" s="61" t="s">
+      <c r="H42" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I42" s="61" t="s">
+      <c r="I42" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J42" s="61" t="s">
+      <c r="J42" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O42" s="61" t="s">
+      <c r="O42" s="57" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="61">
+      <c r="A43" s="57">
         <v>41</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="D43" s="61" t="s">
+      <c r="D43" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="E43" s="61" t="s">
+      <c r="E43" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="F43" s="61" t="s">
+      <c r="F43" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="61" t="s">
+      <c r="G43" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="H43" s="61" t="s">
+      <c r="H43" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I43" s="61" t="s">
+      <c r="I43" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J43" s="61" t="s">
+      <c r="J43" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O43" s="61" t="s">
+      <c r="O43" s="57" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="61">
+      <c r="A44" s="57">
         <v>42</v>
       </c>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="61" t="s">
+      <c r="D44" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="61" t="s">
+      <c r="E44" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="F44" s="61" t="s">
+      <c r="F44" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="61" t="s">
+      <c r="G44" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="H44" s="61" t="s">
+      <c r="H44" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I44" s="61" t="s">
+      <c r="I44" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J44" s="61" t="s">
+      <c r="J44" s="57" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="61">
+      <c r="A45" s="57">
         <v>43</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="D45" s="61" t="s">
+      <c r="D45" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="61" t="s">
+      <c r="E45" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="F45" s="61" t="s">
+      <c r="F45" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G45" s="61" t="s">
+      <c r="G45" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="H45" s="61" t="s">
+      <c r="H45" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I45" s="61" t="s">
+      <c r="I45" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J45" s="61" t="s">
+      <c r="J45" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O45" s="61" t="s">
+      <c r="O45" s="57" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="61">
+      <c r="A46" s="57">
         <v>44</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="D46" s="61" t="s">
+      <c r="D46" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="61" t="s">
+      <c r="E46" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="F46" s="61" t="s">
+      <c r="F46" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G46" s="61" t="s">
+      <c r="G46" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="H46" s="61" t="s">
+      <c r="H46" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I46" s="61" t="s">
+      <c r="I46" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="J46" s="61" t="s">
+      <c r="J46" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="O46" s="61" t="s">
+      <c r="O46" s="57" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6345,6 +6414,13 @@
   <sheetProtection algorithmName="SHA-512" hashValue="4C55417S7/WEfM6p9p+2qxLa3pFuuwTQvkVS+xLflxPJ6JUMhmXb8UBi2EhWPKsWHpV7wPPZoM4Ci73L5pzjfA==" saltValue="OVPlytvnGy6tQU/SUgOtyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:AD46"/>
   <customSheetViews>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+      <autoFilter ref="A2:AD46"/>
+    </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
       <selection activeCell="C23" sqref="C23"/>
@@ -6358,13 +6434,6 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
       <autoFilter ref="A2:Y2"/>
-    </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A2:AD46"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -6440,10 +6509,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N238"/>
+  <dimension ref="A1:N241"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209:E209"/>
+    <sheetView topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6466,7 +6535,7 @@
         <v>137</v>
       </c>
       <c r="B1" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6474,7 +6543,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3">
-        <v>44017</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="12.75" customHeight="1"/>
@@ -6504,17 +6573,17 @@
       <c r="E111" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F111" s="78" t="s">
+      <c r="F111" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="G111" s="79"/>
-      <c r="H111" s="79"/>
-      <c r="I111" s="79"/>
-      <c r="J111" s="79"/>
-      <c r="K111" s="79"/>
-      <c r="L111" s="79"/>
-      <c r="M111" s="79"/>
-      <c r="N111" s="80"/>
+      <c r="G111" s="84"/>
+      <c r="H111" s="84"/>
+      <c r="I111" s="84"/>
+      <c r="J111" s="84"/>
+      <c r="K111" s="84"/>
+      <c r="L111" s="84"/>
+      <c r="M111" s="84"/>
+      <c r="N111" s="85"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="6" t="s">
@@ -7338,7 +7407,7 @@
       <c r="K142" s="15"/>
       <c r="L142" s="15"/>
       <c r="M142" s="15"/>
-      <c r="N142" s="30"/>
+      <c r="N142" s="26"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
@@ -7378,10 +7447,10 @@
       <c r="A147" s="19">
         <v>1</v>
       </c>
-      <c r="B147" s="108" t="s">
+      <c r="B147" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C147" s="65" t="s">
+      <c r="C147" s="61" t="s">
         <v>172</v>
       </c>
       <c r="D147" s="21" t="s">
@@ -7404,7 +7473,7 @@
       <c r="A148" s="19">
         <v>2</v>
       </c>
-      <c r="B148" s="109"/>
+      <c r="B148" s="114"/>
       <c r="C148" s="21" t="s">
         <v>177</v>
       </c>
@@ -7426,7 +7495,7 @@
       <c r="A149" s="19">
         <v>3</v>
       </c>
-      <c r="B149" s="109"/>
+      <c r="B149" s="114"/>
       <c r="C149" s="21" t="s">
         <v>22</v>
       </c>
@@ -7434,7 +7503,9 @@
       <c r="E149" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F149" s="21"/>
+      <c r="F149" s="71" t="s">
+        <v>319</v>
+      </c>
       <c r="G149" s="21" t="s">
         <v>175</v>
       </c>
@@ -7444,7 +7515,7 @@
       <c r="A150" s="19">
         <v>4</v>
       </c>
-      <c r="B150" s="109"/>
+      <c r="B150" s="114"/>
       <c r="C150" s="21" t="s">
         <v>179</v>
       </c>
@@ -7454,7 +7525,9 @@
       <c r="E150" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F150" s="21"/>
+      <c r="F150" s="71" t="s">
+        <v>320</v>
+      </c>
       <c r="G150" s="21" t="s">
         <v>175</v>
       </c>
@@ -7466,8 +7539,8 @@
       <c r="A151" s="19">
         <v>5</v>
       </c>
-      <c r="B151" s="109"/>
-      <c r="C151" s="65" t="s">
+      <c r="B151" s="114"/>
+      <c r="C151" s="61" t="s">
         <v>181</v>
       </c>
       <c r="D151" s="21" t="s">
@@ -7490,8 +7563,8 @@
       <c r="A152" s="19">
         <v>6</v>
       </c>
-      <c r="B152" s="109"/>
-      <c r="C152" s="65" t="s">
+      <c r="B152" s="114"/>
+      <c r="C152" s="61" t="s">
         <v>185</v>
       </c>
       <c r="D152" s="21" t="s">
@@ -7503,8 +7576,8 @@
       <c r="F152" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="G152" s="73" t="s">
-        <v>317</v>
+      <c r="G152" s="68" t="s">
+        <v>316</v>
       </c>
       <c r="H152" s="11" t="s">
         <v>184</v>
@@ -7514,7 +7587,7 @@
       <c r="A153" s="19">
         <v>7</v>
       </c>
-      <c r="B153" s="109"/>
+      <c r="B153" s="114"/>
       <c r="C153" s="21" t="s">
         <v>187</v>
       </c>
@@ -7524,7 +7597,9 @@
       <c r="E153" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F153" s="21"/>
+      <c r="F153" s="69" t="s">
+        <v>321</v>
+      </c>
       <c r="G153" s="21" t="s">
         <v>175</v>
       </c>
@@ -7534,8 +7609,8 @@
       <c r="A154" s="19">
         <v>8</v>
       </c>
-      <c r="B154" s="109"/>
-      <c r="C154" s="65" t="s">
+      <c r="B154" s="114"/>
+      <c r="C154" s="61" t="s">
         <v>188</v>
       </c>
       <c r="D154" s="21" t="s">
@@ -7544,7 +7619,9 @@
       <c r="E154" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F154" s="21"/>
+      <c r="F154" s="21">
+        <v>3071</v>
+      </c>
       <c r="G154" s="21" t="s">
         <v>175</v>
       </c>
@@ -7556,8 +7633,8 @@
       <c r="A155" s="19">
         <v>9</v>
       </c>
-      <c r="B155" s="109"/>
-      <c r="C155" s="65" t="s">
+      <c r="B155" s="114"/>
+      <c r="C155" s="61" t="s">
         <v>189</v>
       </c>
       <c r="D155" s="21" t="s">
@@ -7580,7 +7657,7 @@
       <c r="A156" s="19">
         <v>10</v>
       </c>
-      <c r="B156" s="109"/>
+      <c r="B156" s="114"/>
       <c r="C156" s="21" t="s">
         <v>190</v>
       </c>
@@ -7593,8 +7670,8 @@
       <c r="F156" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="G156" s="73" t="s">
-        <v>317</v>
+      <c r="G156" s="68" t="s">
+        <v>316</v>
       </c>
       <c r="H156" s="11" t="s">
         <v>184</v>
@@ -7604,7 +7681,7 @@
       <c r="A157" s="19">
         <v>11</v>
       </c>
-      <c r="B157" s="109"/>
+      <c r="B157" s="114"/>
       <c r="C157" s="21" t="s">
         <v>191</v>
       </c>
@@ -7614,7 +7691,9 @@
       <c r="E157" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F157" s="21"/>
+      <c r="F157" s="71" t="s">
+        <v>322</v>
+      </c>
       <c r="G157" s="21" t="s">
         <v>175</v>
       </c>
@@ -7626,7 +7705,7 @@
       <c r="A158" s="19">
         <v>12</v>
       </c>
-      <c r="B158" s="109"/>
+      <c r="B158" s="114"/>
       <c r="C158" s="21" t="s">
         <v>193</v>
       </c>
@@ -7648,7 +7727,7 @@
       <c r="A159" s="19">
         <v>13</v>
       </c>
-      <c r="B159" s="95"/>
+      <c r="B159" s="100"/>
       <c r="C159" s="21" t="s">
         <v>197</v>
       </c>
@@ -7661,7 +7740,7 @@
       <c r="F159" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="G159" s="21" t="s">
+      <c r="G159" s="71" t="s">
         <v>199</v>
       </c>
       <c r="H159" s="11" t="s">
@@ -7672,7 +7751,7 @@
       <c r="A160" s="19">
         <v>14</v>
       </c>
-      <c r="B160" s="90" t="s">
+      <c r="B160" s="95" t="s">
         <v>8</v>
       </c>
       <c r="C160" s="21" t="s">
@@ -7698,7 +7777,7 @@
       <c r="A161" s="19">
         <v>15</v>
       </c>
-      <c r="B161" s="91"/>
+      <c r="B161" s="96"/>
       <c r="C161" s="21" t="s">
         <v>204</v>
       </c>
@@ -7719,10 +7798,10 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="70">
+      <c r="A162" s="65">
         <v>16</v>
       </c>
-      <c r="B162" s="108" t="s">
+      <c r="B162" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C162" s="21" t="s">
@@ -7737,39 +7816,39 @@
       <c r="F162" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="G162" s="69" t="s">
+      <c r="G162" s="64" t="s">
         <v>175</v>
       </c>
       <c r="H162" s="11"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="70">
+      <c r="A163" s="65">
         <v>17</v>
       </c>
-      <c r="B163" s="110"/>
-      <c r="C163" s="69" t="s">
+      <c r="B163" s="115"/>
+      <c r="C163" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="D163" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="E163" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="F163" s="63"/>
+      <c r="G163" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="H163" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="D163" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="E163" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="F163" s="68"/>
-      <c r="G163" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="H163" s="72" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="70">
+      <c r="A164" s="65">
         <v>18</v>
       </c>
-      <c r="B164" s="95"/>
-      <c r="C164" s="65" t="s">
+      <c r="B164" s="100"/>
+      <c r="C164" s="61" t="s">
         <v>208</v>
       </c>
       <c r="D164" s="21" t="s">
@@ -7785,10 +7864,10 @@
       <c r="H164" s="11"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="70">
+      <c r="A165" s="65">
         <v>19</v>
       </c>
-      <c r="B165" s="90" t="s">
+      <c r="B165" s="95" t="s">
         <v>11</v>
       </c>
       <c r="C165" s="21" t="s">
@@ -7803,18 +7882,18 @@
       <c r="F165" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="G165" s="21" t="s">
+      <c r="G165" s="71" t="s">
+        <v>323</v>
+      </c>
+      <c r="H165" s="11"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="65">
+        <v>20</v>
+      </c>
+      <c r="B166" s="96"/>
+      <c r="C166" s="21" t="s">
         <v>212</v>
-      </c>
-      <c r="H165" s="11"/>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="70">
-        <v>20</v>
-      </c>
-      <c r="B166" s="91"/>
-      <c r="C166" s="21" t="s">
-        <v>213</v>
       </c>
       <c r="D166" s="21" t="s">
         <v>173</v>
@@ -7823,18 +7902,18 @@
         <v>173</v>
       </c>
       <c r="F166" s="21"/>
-      <c r="G166" s="21" t="s">
-        <v>212</v>
+      <c r="G166" s="71" t="s">
+        <v>323</v>
       </c>
       <c r="H166" s="11"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="70">
+      <c r="A167" s="65">
         <v>21</v>
       </c>
-      <c r="B167" s="91"/>
+      <c r="B167" s="96"/>
       <c r="C167" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D167" s="21" t="s">
         <v>173</v>
@@ -7843,18 +7922,18 @@
         <v>173</v>
       </c>
       <c r="F167" s="21"/>
-      <c r="G167" s="21" t="s">
-        <v>212</v>
+      <c r="G167" s="71" t="s">
+        <v>323</v>
       </c>
       <c r="H167" s="11"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="70">
+      <c r="A168" s="65">
         <v>22</v>
       </c>
-      <c r="B168" s="91"/>
+      <c r="B168" s="96"/>
       <c r="C168" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D168" s="21" t="s">
         <v>173</v>
@@ -7863,18 +7942,18 @@
         <v>173</v>
       </c>
       <c r="F168" s="21"/>
-      <c r="G168" s="21" t="s">
-        <v>212</v>
+      <c r="G168" s="71" t="s">
+        <v>323</v>
       </c>
       <c r="H168" s="11"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="70">
+      <c r="A169" s="65">
         <v>23</v>
       </c>
-      <c r="B169" s="91"/>
+      <c r="B169" s="96"/>
       <c r="C169" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D169" s="21" t="s">
         <v>173</v>
@@ -7883,18 +7962,18 @@
         <v>173</v>
       </c>
       <c r="F169" s="21"/>
-      <c r="G169" s="21" t="s">
-        <v>212</v>
+      <c r="G169" s="71" t="s">
+        <v>323</v>
       </c>
       <c r="H169" s="11"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="70">
+      <c r="A170" s="65">
         <v>24</v>
       </c>
-      <c r="B170" s="91"/>
+      <c r="B170" s="96"/>
       <c r="C170" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D170" s="21" t="s">
         <v>173</v>
@@ -7903,18 +7982,18 @@
         <v>173</v>
       </c>
       <c r="F170" s="21"/>
-      <c r="G170" s="21" t="s">
-        <v>212</v>
+      <c r="G170" s="71" t="s">
+        <v>323</v>
       </c>
       <c r="H170" s="11"/>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="70">
+      <c r="A171" s="65">
         <v>25</v>
       </c>
-      <c r="B171" s="91"/>
+      <c r="B171" s="96"/>
       <c r="C171" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D171" s="21" t="s">
         <v>173</v>
@@ -7923,16 +8002,16 @@
         <v>173</v>
       </c>
       <c r="F171" s="21"/>
-      <c r="G171" s="21" t="s">
-        <v>212</v>
+      <c r="G171" s="71" t="s">
+        <v>323</v>
       </c>
       <c r="H171" s="11"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="70">
+      <c r="A172" s="65">
         <v>26</v>
       </c>
-      <c r="B172" s="91"/>
+      <c r="B172" s="96"/>
       <c r="C172" s="21" t="s">
         <v>51</v>
       </c>
@@ -7943,8 +8022,8 @@
         <v>173</v>
       </c>
       <c r="F172" s="21"/>
-      <c r="G172" s="21" t="s">
-        <v>212</v>
+      <c r="G172" s="71" t="s">
+        <v>323</v>
       </c>
       <c r="H172" s="11"/>
     </row>
@@ -7952,11 +8031,11 @@
       <c r="A173" s="19">
         <v>27</v>
       </c>
-      <c r="B173" s="90" t="s">
+      <c r="B173" s="95" t="s">
         <v>13</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D173" s="21" t="s">
         <v>173</v>
@@ -7964,11 +8043,11 @@
       <c r="E173" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F173" s="71" t="s">
+      <c r="F173" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="G173" s="22" t="s">
         <v>220</v>
-      </c>
-      <c r="G173" s="22" t="s">
-        <v>221</v>
       </c>
       <c r="H173" s="11"/>
     </row>
@@ -7976,9 +8055,9 @@
       <c r="A174" s="19">
         <v>28</v>
       </c>
-      <c r="B174" s="91"/>
-      <c r="C174" s="65" t="s">
-        <v>222</v>
+      <c r="B174" s="96"/>
+      <c r="C174" s="61" t="s">
+        <v>221</v>
       </c>
       <c r="D174" s="21" t="s">
         <v>173</v>
@@ -7986,11 +8065,11 @@
       <c r="E174" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F174" s="65" t="s">
+      <c r="F174" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="G174" s="61" t="s">
         <v>223</v>
-      </c>
-      <c r="G174" s="65" t="s">
-        <v>224</v>
       </c>
       <c r="H174" s="11"/>
     </row>
@@ -7998,9 +8077,9 @@
       <c r="A175" s="19">
         <v>29</v>
       </c>
-      <c r="B175" s="91"/>
+      <c r="B175" s="96"/>
       <c r="C175" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D175" s="21" t="s">
         <v>173</v>
@@ -8009,10 +8088,10 @@
         <v>173</v>
       </c>
       <c r="F175" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="G175" s="21" t="s">
         <v>226</v>
-      </c>
-      <c r="G175" s="21" t="s">
-        <v>227</v>
       </c>
       <c r="H175" s="11"/>
     </row>
@@ -8020,11 +8099,11 @@
       <c r="A176" s="19">
         <v>30</v>
       </c>
-      <c r="B176" s="108" t="s">
+      <c r="B176" s="113" t="s">
         <v>14</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D176" s="21" t="s">
         <v>173</v>
@@ -8033,22 +8112,22 @@
         <v>173</v>
       </c>
       <c r="F176" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G176" s="21" t="s">
         <v>175</v>
       </c>
       <c r="H176" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="15.75" thickBot="1">
       <c r="A177" s="23">
         <v>31</v>
       </c>
-      <c r="B177" s="109"/>
+      <c r="B177" s="114"/>
       <c r="C177" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D177" s="20" t="s">
         <v>173</v>
@@ -8057,24 +8136,24 @@
         <v>173</v>
       </c>
       <c r="F177" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G177" s="20" t="s">
         <v>175</v>
       </c>
       <c r="H177" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="16">
         <v>32</v>
       </c>
-      <c r="B178" s="111" t="s">
+      <c r="B178" s="116" t="s">
+        <v>232</v>
+      </c>
+      <c r="C178" s="62" t="s">
         <v>233</v>
-      </c>
-      <c r="C178" s="66" t="s">
-        <v>234</v>
       </c>
       <c r="D178" s="17" t="s">
         <v>173</v>
@@ -8083,825 +8162,888 @@
         <v>173</v>
       </c>
       <c r="F178" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G178" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="G178" s="66" t="s">
+      <c r="H178" s="10"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="74">
+        <v>33</v>
+      </c>
+      <c r="B179" s="117"/>
+      <c r="C179" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="H178" s="10"/>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" s="19">
-        <v>33</v>
-      </c>
-      <c r="B179" s="112"/>
-      <c r="C179" s="65" t="s">
+      <c r="D179" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="E179" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="F179" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="D179" s="21" t="s">
+      <c r="G179" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="H179" s="11"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="74">
+        <v>34</v>
+      </c>
+      <c r="B180" s="117"/>
+      <c r="C180" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="D180" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="E179" s="21" t="s">
+      <c r="E180" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="F179" s="21" t="s">
+      <c r="F180" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="G180" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="G179" s="67" t="s">
-        <v>239</v>
-      </c>
-      <c r="H179" s="11"/>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" s="19">
-        <v>34</v>
-      </c>
-      <c r="B180" s="113"/>
-      <c r="C180" s="67" t="s">
+      <c r="H180" s="11"/>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="74">
+        <v>35</v>
+      </c>
+      <c r="B181" s="117"/>
+      <c r="C181" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="D180" s="21" t="s">
+      <c r="D181" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="E180" s="21" t="s">
+      <c r="E181" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="F180" s="21" t="s">
+      <c r="F181" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="G181" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="H181" s="11"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="74">
+        <v>36</v>
+      </c>
+      <c r="B182" s="117"/>
+      <c r="C182" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="D182" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="E182" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="F182" s="72"/>
+      <c r="G182" s="70" t="s">
+        <v>324</v>
+      </c>
+      <c r="H182" s="11"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="74">
+        <v>37</v>
+      </c>
+      <c r="B183" s="117"/>
+      <c r="C183" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="D183" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="E183" s="72"/>
+      <c r="F183" s="71" t="s">
+        <v>327</v>
+      </c>
+      <c r="G183" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="H183" s="67" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A184" s="75">
+        <v>38</v>
+      </c>
+      <c r="B184" s="104"/>
+      <c r="C184" s="77" t="s">
+        <v>318</v>
+      </c>
+      <c r="D184" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="E184" s="73"/>
+      <c r="F184" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="G184" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="G180" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="H180" s="24"/>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" s="25">
-        <v>35</v>
-      </c>
-      <c r="B181" s="113"/>
-      <c r="C181" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="D181" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="E181" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="F181" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="G181" s="67" t="s">
-        <v>243</v>
-      </c>
-      <c r="H181" s="27"/>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" s="28">
-        <v>36</v>
-      </c>
-      <c r="B182" s="99"/>
-      <c r="C182" s="29" t="s">
+      <c r="H184" s="78" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D182" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="E182" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="F182" s="29"/>
-      <c r="G182" s="29"/>
-      <c r="H182" s="30"/>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B183" s="1" t="s">
+    </row>
+    <row r="186" spans="1:8">
+      <c r="B186" s="27" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
-      <c r="B184" s="31" t="s">
+    <row r="187" spans="1:8">
+      <c r="B187" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
-      <c r="B185" s="1" t="s">
+    <row r="197" spans="1:7">
+      <c r="A197" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B195" s="1" t="s">
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="4" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="4" t="s">
+      <c r="B198" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="B196" s="32" t="s">
+      <c r="C198" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="C196" s="81" t="s">
+      <c r="D198" s="86"/>
+      <c r="E198" s="86"/>
+      <c r="F198" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="D196" s="81"/>
-      <c r="E196" s="81"/>
-      <c r="F196" s="33" t="s">
+      <c r="G198" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="G196" s="34" t="s">
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="111" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="106" t="s">
+      <c r="B199" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="B197" s="91" t="s">
+      <c r="C199" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="C197" s="82" t="s">
+      <c r="D199" s="88"/>
+      <c r="E199" s="88"/>
+      <c r="F199" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="D197" s="83"/>
-      <c r="E197" s="83"/>
-      <c r="F197" s="21" t="s">
+      <c r="G199" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G197" s="35" t="s">
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="111"/>
+      <c r="B200" s="118"/>
+      <c r="C200" s="89" t="s">
+        <v>257</v>
+      </c>
+      <c r="D200" s="90"/>
+      <c r="E200" s="90"/>
+      <c r="F200" s="20" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="106"/>
-      <c r="B198" s="114"/>
-      <c r="C198" s="84" t="s">
+      <c r="G200" s="32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="111"/>
+      <c r="B201" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C201" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D201" s="91"/>
+      <c r="E201" s="91"/>
+      <c r="F201" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="D198" s="85"/>
-      <c r="E198" s="85"/>
-      <c r="F198" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="G198" s="36" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="106"/>
-      <c r="B199" s="91" t="s">
+      <c r="G201" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="111"/>
+      <c r="B202" s="96"/>
+      <c r="C202" s="89" t="s">
         <v>262</v>
       </c>
-      <c r="C199" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="D199" s="86"/>
-      <c r="E199" s="86"/>
-      <c r="F199" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="G199" s="35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="106"/>
-      <c r="B200" s="91"/>
-      <c r="C200" s="84" t="s">
-        <v>263</v>
-      </c>
-      <c r="D200" s="84"/>
-      <c r="E200" s="84"/>
-      <c r="F200" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="G200" s="35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="106"/>
-      <c r="B201" s="114" t="s">
-        <v>264</v>
-      </c>
-      <c r="C201" s="87" t="s">
-        <v>258</v>
-      </c>
-      <c r="D201" s="88"/>
-      <c r="E201" s="89"/>
-      <c r="F201" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="G201" s="35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="106"/>
-      <c r="B202" s="95"/>
-      <c r="C202" s="87" t="s">
-        <v>258</v>
-      </c>
-      <c r="D202" s="88"/>
+      <c r="D202" s="89"/>
       <c r="E202" s="89"/>
       <c r="F202" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="G202" s="35" t="s">
         <v>260</v>
       </c>
+      <c r="G202" s="31" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="106"/>
-      <c r="B203" s="91" t="s">
+      <c r="A203" s="111"/>
+      <c r="B203" s="118" t="s">
+        <v>263</v>
+      </c>
+      <c r="C203" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="D203" s="93"/>
+      <c r="E203" s="94"/>
+      <c r="F203" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="G203" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="111"/>
+      <c r="B204" s="100"/>
+      <c r="C204" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="D204" s="93"/>
+      <c r="E204" s="94"/>
+      <c r="F204" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="G204" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="111"/>
+      <c r="B205" s="96" t="s">
+        <v>264</v>
+      </c>
+      <c r="C205" s="91" t="s">
         <v>265</v>
-      </c>
-      <c r="C203" s="86" t="s">
-        <v>266</v>
-      </c>
-      <c r="D203" s="86"/>
-      <c r="E203" s="86"/>
-      <c r="F203" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="G203" s="35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="106"/>
-      <c r="B204" s="91"/>
-      <c r="C204" s="86" t="s">
-        <v>266</v>
-      </c>
-      <c r="D204" s="86"/>
-      <c r="E204" s="86"/>
-      <c r="F204" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="G204" s="35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="106" t="s">
-        <v>267</v>
-      </c>
-      <c r="B205" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="C205" s="90" t="s">
-        <v>269</v>
       </c>
       <c r="D205" s="91"/>
       <c r="E205" s="91"/>
       <c r="F205" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="G205" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G205" s="35" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="106"/>
-      <c r="B206" s="91"/>
+      <c r="A206" s="111"/>
+      <c r="B206" s="96"/>
       <c r="C206" s="91" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D206" s="91"/>
       <c r="E206" s="91"/>
       <c r="F206" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="G206" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G206" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="111" t="s">
+        <v>266</v>
+      </c>
+      <c r="B207" s="96" t="s">
+        <v>267</v>
+      </c>
+      <c r="C207" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="D207" s="96"/>
+      <c r="E207" s="96"/>
+      <c r="F207" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="G207" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="111"/>
+      <c r="B208" s="96"/>
+      <c r="C208" s="96" t="s">
+        <v>269</v>
+      </c>
+      <c r="D208" s="96"/>
+      <c r="E208" s="96"/>
+      <c r="F208" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="G208" s="31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="111"/>
+      <c r="B209" s="96" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="106"/>
-      <c r="B207" s="91" t="s">
+      <c r="C209" s="96" t="s">
         <v>272</v>
       </c>
-      <c r="C207" s="91" t="s">
+      <c r="D209" s="96"/>
+      <c r="E209" s="96"/>
+      <c r="F209" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="G209" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="111"/>
+      <c r="B210" s="96"/>
+      <c r="C210" s="96" t="s">
         <v>273</v>
       </c>
-      <c r="D207" s="91"/>
-      <c r="E207" s="91"/>
-      <c r="F207" s="21" t="s">
+      <c r="D210" s="96"/>
+      <c r="E210" s="96"/>
+      <c r="F210" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="G210" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G207" s="35" t="s">
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="111" t="s">
+        <v>274</v>
+      </c>
+      <c r="B211" s="96" t="s">
+        <v>275</v>
+      </c>
+      <c r="C211" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="D211" s="96"/>
+      <c r="E211" s="96"/>
+      <c r="F211" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="G211" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="111"/>
+      <c r="B212" s="96"/>
+      <c r="C212" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="D212" s="96"/>
+      <c r="E212" s="96"/>
+      <c r="F212" s="21" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="106"/>
-      <c r="B208" s="91"/>
-      <c r="C208" s="91" t="s">
-        <v>274</v>
-      </c>
-      <c r="D208" s="91"/>
-      <c r="E208" s="91"/>
-      <c r="F208" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="G208" s="35" t="s">
+      <c r="G212" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="111"/>
+      <c r="B213" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="C213" s="95" t="s">
+        <v>279</v>
+      </c>
+      <c r="D213" s="96"/>
+      <c r="E213" s="96"/>
+      <c r="F213" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="G213" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="112"/>
+      <c r="B214" s="97"/>
+      <c r="C214" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="D214" s="97"/>
+      <c r="E214" s="97"/>
+      <c r="F214" s="25" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="106" t="s">
-        <v>275</v>
-      </c>
-      <c r="B209" s="91" t="s">
-        <v>276</v>
-      </c>
-      <c r="C209" s="90" t="s">
-        <v>277</v>
-      </c>
-      <c r="D209" s="91"/>
-      <c r="E209" s="91"/>
-      <c r="F209" s="21" t="s">
+      <c r="G214" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="G209" s="35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="106"/>
-      <c r="B210" s="91"/>
-      <c r="C210" s="91" t="s">
-        <v>278</v>
-      </c>
-      <c r="D210" s="91"/>
-      <c r="E210" s="91"/>
-      <c r="F210" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="G210" s="35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="106"/>
-      <c r="B211" s="91" t="s">
-        <v>279</v>
-      </c>
-      <c r="C211" s="90" t="s">
-        <v>280</v>
-      </c>
-      <c r="D211" s="91"/>
-      <c r="E211" s="91"/>
-      <c r="F211" s="21" t="s">
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C215" s="27"/>
+      <c r="D215" s="27"/>
+      <c r="E215" s="27"/>
+      <c r="F215" s="27"/>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="C216" s="27"/>
+      <c r="D216" s="27"/>
+      <c r="E216" s="27"/>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="C217" s="27"/>
+      <c r="D217" s="27"/>
+      <c r="E217" s="27"/>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C218" s="27"/>
+      <c r="D218" s="27"/>
+      <c r="E218" s="27"/>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="B219" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="C219" s="98"/>
+      <c r="D219" s="98"/>
+      <c r="E219" s="98"/>
+      <c r="F219" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="G219" s="36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="93" customHeight="1">
+      <c r="A220" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="B220" s="99" t="s">
+        <v>288</v>
+      </c>
+      <c r="C220" s="100"/>
+      <c r="D220" s="100"/>
+      <c r="E220" s="100"/>
+      <c r="F220" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="G220" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="G211" s="35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="107"/>
-      <c r="B212" s="92"/>
-      <c r="C212" s="92" t="s">
-        <v>281</v>
-      </c>
-      <c r="D212" s="92"/>
-      <c r="E212" s="92"/>
-      <c r="F212" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="G212" s="37" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C213" s="31"/>
-      <c r="D213" s="31"/>
-      <c r="E213" s="31"/>
-      <c r="F213" s="31"/>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="C214" s="31"/>
-      <c r="D214" s="31"/>
-      <c r="E214" s="31"/>
-    </row>
-    <row r="215" spans="1:7">
-      <c r="C215" s="31"/>
-      <c r="D215" s="31"/>
-      <c r="E215" s="31"/>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="A216" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C216" s="31"/>
-      <c r="D216" s="31"/>
-      <c r="E216" s="31"/>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="A217" s="38" t="s">
+    </row>
+    <row r="221" spans="1:7" ht="57" customHeight="1">
+      <c r="A221" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B221" s="101" t="s">
+        <v>290</v>
+      </c>
+      <c r="C221" s="102"/>
+      <c r="D221" s="102"/>
+      <c r="E221" s="103"/>
+      <c r="F221" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G221" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="57" customHeight="1">
+      <c r="A222" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B222" s="101" t="s">
+        <v>292</v>
+      </c>
+      <c r="C222" s="102"/>
+      <c r="D222" s="102"/>
+      <c r="E222" s="103"/>
+      <c r="F222" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="G222" s="24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="69" customHeight="1">
+      <c r="A223" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B223" s="104" t="s">
+        <v>294</v>
+      </c>
+      <c r="C223" s="97"/>
+      <c r="D223" s="97"/>
+      <c r="E223" s="97"/>
+      <c r="F223" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="G223" s="26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="C224" s="40"/>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B227" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C227" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="D227" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="B217" s="93" t="s">
-        <v>285</v>
-      </c>
-      <c r="C217" s="93"/>
-      <c r="D217" s="93"/>
-      <c r="E217" s="93"/>
-      <c r="F217" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="G217" s="40" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="93" customHeight="1">
-      <c r="A218" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="B218" s="94" t="s">
-        <v>289</v>
-      </c>
-      <c r="C218" s="95"/>
-      <c r="D218" s="95"/>
-      <c r="E218" s="95"/>
-      <c r="F218" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="G218" s="43" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="57" customHeight="1">
-      <c r="A219" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B219" s="96" t="s">
-        <v>291</v>
-      </c>
-      <c r="C219" s="97"/>
-      <c r="D219" s="97"/>
-      <c r="E219" s="98"/>
-      <c r="F219" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="G219" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="57" customHeight="1">
-      <c r="A220" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="B220" s="96" t="s">
-        <v>293</v>
-      </c>
-      <c r="C220" s="97"/>
-      <c r="D220" s="97"/>
-      <c r="E220" s="98"/>
-      <c r="F220" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="G220" s="24" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="69" customHeight="1">
-      <c r="A221" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B221" s="99" t="s">
-        <v>295</v>
-      </c>
-      <c r="C221" s="92"/>
-      <c r="D221" s="92"/>
-      <c r="E221" s="92"/>
-      <c r="F221" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="G221" s="30" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
-      <c r="C222" s="44"/>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="A225" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B225" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C225" s="45" t="s">
+      <c r="E227" s="42"/>
+      <c r="F227" s="43"/>
+      <c r="G227" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="D225" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="E225" s="46"/>
-      <c r="F225" s="47"/>
-      <c r="G225" s="34" t="s">
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="44">
+        <v>42682</v>
+      </c>
+      <c r="B228" s="45">
+        <v>1.04</v>
+      </c>
+      <c r="C228" s="17" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="48">
-        <v>42682</v>
-      </c>
-      <c r="B226" s="49">
-        <v>1.04</v>
-      </c>
-      <c r="C226" s="17" t="s">
+      <c r="D228" s="105" t="s">
         <v>300</v>
       </c>
-      <c r="D226" s="100" t="s">
+      <c r="E228" s="105"/>
+      <c r="F228" s="105"/>
+      <c r="G228" s="46"/>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="47">
+        <v>42692</v>
+      </c>
+      <c r="B229" s="48">
+        <v>1.05</v>
+      </c>
+      <c r="C229" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D229" s="106" t="s">
         <v>301</v>
       </c>
-      <c r="E226" s="100"/>
-      <c r="F226" s="100"/>
-      <c r="G226" s="50"/>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="51">
-        <v>42692</v>
-      </c>
-      <c r="B227" s="52">
-        <v>1.05</v>
-      </c>
-      <c r="C227" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="D227" s="101" t="s">
+      <c r="E229" s="106"/>
+      <c r="F229" s="106"/>
+      <c r="G229" s="31"/>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="47">
+        <v>42955</v>
+      </c>
+      <c r="B230" s="48">
+        <v>1.06</v>
+      </c>
+      <c r="C230" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D230" s="106" t="s">
         <v>302</v>
       </c>
-      <c r="E227" s="101"/>
-      <c r="F227" s="101"/>
-      <c r="G227" s="35"/>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="51">
-        <v>42955</v>
-      </c>
-      <c r="B228" s="52">
-        <v>1.06</v>
-      </c>
-      <c r="C228" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="D228" s="101" t="s">
+      <c r="E230" s="106"/>
+      <c r="F230" s="106"/>
+      <c r="G230" s="31"/>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="47">
+        <v>42991</v>
+      </c>
+      <c r="B231" s="48">
+        <v>1.07</v>
+      </c>
+      <c r="C231" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D231" s="106" t="s">
         <v>303</v>
       </c>
-      <c r="E228" s="101"/>
-      <c r="F228" s="101"/>
-      <c r="G228" s="35"/>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="51">
-        <v>42991</v>
-      </c>
-      <c r="B229" s="52">
-        <v>1.07</v>
-      </c>
-      <c r="C229" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="D229" s="101" t="s">
+      <c r="E231" s="106"/>
+      <c r="F231" s="106"/>
+      <c r="G231" s="31"/>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="47">
+        <v>43026</v>
+      </c>
+      <c r="B232" s="48">
+        <v>1.08</v>
+      </c>
+      <c r="C232" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D232" s="106" t="s">
         <v>304</v>
       </c>
-      <c r="E229" s="101"/>
-      <c r="F229" s="101"/>
-      <c r="G229" s="35"/>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="51">
-        <v>43026</v>
-      </c>
-      <c r="B230" s="52">
-        <v>1.08</v>
-      </c>
-      <c r="C230" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="D230" s="101" t="s">
+      <c r="E232" s="106"/>
+      <c r="F232" s="106"/>
+      <c r="G232" s="31"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="47">
+        <v>43069</v>
+      </c>
+      <c r="B233" s="48">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C233" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D233" s="106" t="s">
         <v>305</v>
       </c>
-      <c r="E230" s="101"/>
-      <c r="F230" s="101"/>
-      <c r="G230" s="35"/>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231" s="51">
-        <v>43069</v>
-      </c>
-      <c r="B231" s="52">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="C231" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="D231" s="101" t="s">
+      <c r="E233" s="106"/>
+      <c r="F233" s="106"/>
+      <c r="G233" s="31"/>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="49">
+        <v>43248</v>
+      </c>
+      <c r="B234" s="50">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C234" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D234" s="107" t="s">
         <v>306</v>
       </c>
-      <c r="E231" s="101"/>
-      <c r="F231" s="101"/>
-      <c r="G231" s="35"/>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="53">
-        <v>43248</v>
-      </c>
-      <c r="B232" s="54">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C232" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="D232" s="102" t="s">
+      <c r="E234" s="108"/>
+      <c r="F234" s="109"/>
+      <c r="G234" s="32"/>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="49">
+        <v>43339</v>
+      </c>
+      <c r="B235" s="50">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C235" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D235" s="107" t="s">
         <v>307</v>
       </c>
-      <c r="E232" s="103"/>
-      <c r="F232" s="104"/>
-      <c r="G232" s="36"/>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" s="53">
-        <v>43339</v>
-      </c>
-      <c r="B233" s="54">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="C233" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="D233" s="102" t="s">
+      <c r="E235" s="108"/>
+      <c r="F235" s="109"/>
+      <c r="G235" s="32"/>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="49">
+        <v>43542</v>
+      </c>
+      <c r="B236" s="50">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C236" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D236" s="107" t="s">
         <v>308</v>
       </c>
-      <c r="E233" s="103"/>
-      <c r="F233" s="104"/>
-      <c r="G233" s="36"/>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234" s="53">
-        <v>43542</v>
-      </c>
-      <c r="B234" s="54">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="C234" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="D234" s="102" t="s">
+      <c r="E236" s="108"/>
+      <c r="F236" s="109"/>
+      <c r="G236" s="32"/>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="49">
+        <v>43599</v>
+      </c>
+      <c r="B237" s="50">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C237" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D237" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="E234" s="103"/>
-      <c r="F234" s="104"/>
-      <c r="G234" s="36"/>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="A235" s="53">
-        <v>43599</v>
-      </c>
-      <c r="B235" s="54">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="C235" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="D235" s="55" t="s">
+      <c r="E237" s="52"/>
+      <c r="F237" s="53"/>
+      <c r="G237" s="32"/>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="49">
+        <v>43643</v>
+      </c>
+      <c r="B238" s="50">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C238" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D238" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="E235" s="56"/>
-      <c r="F235" s="57"/>
-      <c r="G235" s="36"/>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="A236" s="53">
-        <v>43643</v>
-      </c>
-      <c r="B236" s="54">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="C236" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="D236" s="55" t="s">
+      <c r="E238" s="52"/>
+      <c r="F238" s="53"/>
+      <c r="G238" s="32"/>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="49">
+        <v>43894</v>
+      </c>
+      <c r="B239" s="50">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C239" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D239" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="E236" s="56"/>
-      <c r="F236" s="57"/>
-      <c r="G236" s="36"/>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="A237" s="53">
-        <v>43894</v>
-      </c>
-      <c r="B237" s="54">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C237" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="D237" s="55" t="s">
+      <c r="E239" s="52"/>
+      <c r="F239" s="53"/>
+      <c r="G239" s="32"/>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="49">
+        <v>44017</v>
+      </c>
+      <c r="B240" s="50">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C240" s="76" t="s">
+        <v>299</v>
+      </c>
+      <c r="D240" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="E237" s="56"/>
-      <c r="F237" s="57"/>
-      <c r="G237" s="36"/>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238" s="58">
-        <v>44017</v>
-      </c>
-      <c r="B238" s="59">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="C238" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="D238" s="105" t="s">
-        <v>313</v>
-      </c>
-      <c r="E238" s="105"/>
-      <c r="F238" s="105"/>
-      <c r="G238" s="37"/>
+      <c r="E240" s="52"/>
+      <c r="F240" s="53"/>
+      <c r="G240" s="32"/>
+    </row>
+    <row r="241" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A241" s="54">
+        <v>44118</v>
+      </c>
+      <c r="B241" s="55">
+        <v>1.17</v>
+      </c>
+      <c r="C241" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D241" s="119" t="s">
+        <v>329</v>
+      </c>
+      <c r="E241" s="110"/>
+      <c r="F241" s="110"/>
+      <c r="G241" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0UT41XaxqgQhfsgssrlya0NBWnXPg0uj6FDdbXVfzp9AG3o5yGtUIGPEnJmecspgIgyYg7bYBIYw+0kw8uPBjA==" saltValue="4z6ntY5HlVVddlUdMd47dg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9rtn2+/klJ7te2sw6YarB3n+Rer+kjfHRNyzxXHSytYUsqtZvHb83cwCqvz+2wUYGhOV+YveCb2abw4ogq94qg==" saltValue="FP2k1w0hoNpjMWAegEqNrA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115" topLeftCell="A157">
-      <selection activeCell="F172" sqref="F172"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115" topLeftCell="A82">
+      <selection activeCell="F130" sqref="F130"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="51">
     <mergeCell ref="B176:B177"/>
-    <mergeCell ref="B178:B182"/>
-    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B178:B184"/>
     <mergeCell ref="B199:B200"/>
     <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B203:B204"/>
     <mergeCell ref="B147:B159"/>
     <mergeCell ref="B160:B161"/>
     <mergeCell ref="B162:B164"/>
     <mergeCell ref="B165:B172"/>
     <mergeCell ref="B173:B175"/>
-    <mergeCell ref="D233:F233"/>
-    <mergeCell ref="D234:F234"/>
-    <mergeCell ref="D238:F238"/>
-    <mergeCell ref="A197:A204"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="A209:A212"/>
-    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="D235:F235"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="D241:F241"/>
+    <mergeCell ref="A199:A206"/>
+    <mergeCell ref="A207:A210"/>
+    <mergeCell ref="A211:A214"/>
     <mergeCell ref="B205:B206"/>
     <mergeCell ref="B207:B208"/>
     <mergeCell ref="B209:B210"/>
     <mergeCell ref="B211:B212"/>
-    <mergeCell ref="D228:F228"/>
-    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="B213:B214"/>
     <mergeCell ref="D230:F230"/>
     <mergeCell ref="D231:F231"/>
     <mergeCell ref="D232:F232"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B223:E223"/>
+    <mergeCell ref="D228:F228"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="C213:E213"/>
+    <mergeCell ref="C214:E214"/>
     <mergeCell ref="B219:E219"/>
     <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="D226:F226"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="C210:E210"/>
-    <mergeCell ref="C211:E211"/>
-    <mergeCell ref="C212:E212"/>
-    <mergeCell ref="B217:E217"/>
-    <mergeCell ref="B218:E218"/>
-    <mergeCell ref="C205:E205"/>
-    <mergeCell ref="C206:E206"/>
     <mergeCell ref="C207:E207"/>
     <mergeCell ref="C208:E208"/>
     <mergeCell ref="C209:E209"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="C210:E210"/>
+    <mergeCell ref="C211:E211"/>
     <mergeCell ref="C202:E202"/>
     <mergeCell ref="C203:E203"/>
     <mergeCell ref="C204:E204"/>
+    <mergeCell ref="C205:E205"/>
+    <mergeCell ref="C206:E206"/>
     <mergeCell ref="F111:N111"/>
-    <mergeCell ref="C196:E196"/>
-    <mergeCell ref="C197:E197"/>
     <mergeCell ref="C198:E198"/>
     <mergeCell ref="C199:E199"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="C201:E201"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8913,17 +9055,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <selection activeCell="E35" sqref="E35"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8932,9 +9080,6 @@
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
